--- a/mini project_v7_results.xlsx
+++ b/mini project_v7_results.xlsx
@@ -990,7 +990,7 @@
         <v>0.3675524681148234</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1837762340574117</v>
+        <v>0.5513287021722351</v>
       </c>
       <c r="AU2" t="n">
         <v>3.675524681148234</v>
@@ -999,7 +999,7 @@
         <v>9.188811702870584</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.675534200316682</v>
+        <v>1.837767100158341</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>33.77</v>
       </c>
       <c r="BB2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.675534200316682</v>
+        <v>1.837767100158341</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0.8371884511203472</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4185942255601736</v>
+        <v>1.255782676680521</v>
       </c>
       <c r="AU3" t="n">
         <v>2.70060790683983</v>
@@ -1213,7 +1213,7 @@
         <v>6.751519767099574</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.700503687108331</v>
+        <v>1.350251843554165</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>18.23</v>
       </c>
       <c r="BB3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.700503687108331</v>
+        <v>1.350251843554165</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>1.109915817154176</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5549579085770879</v>
+        <v>1.664873725731264</v>
       </c>
       <c r="AU4" t="n">
         <v>2.134453494527261</v>
@@ -1427,7 +1427,7 @@
         <v>5.336133736318152</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.134470422363497</v>
+        <v>1.067235211181749</v>
       </c>
       <c r="AX4" t="n">
         <v>0</v>
@@ -1442,13 +1442,13 @@
         <v>11.39</v>
       </c>
       <c r="BB4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.134470422363497</v>
+        <v>1.067235211181749</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>1.546767623943963</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7733838119719815</v>
+        <v>2.320151435915944</v>
       </c>
       <c r="AU5" t="n">
         <v>1.227593352336479</v>
@@ -1641,7 +1641,7 @@
         <v>3.068983380841197</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.227644878565044</v>
+        <v>0.6138224392825218</v>
       </c>
       <c r="AX5" t="n">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>3.77</v>
       </c>
       <c r="BB5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.227644878565044</v>
+        <v>0.6138224392825218</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0.9861638497665327</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4930819248832664</v>
+        <v>1.479245774649799</v>
       </c>
       <c r="AU6" t="n">
         <v>1.80947495370006</v>
@@ -1865,7 +1865,7 @@
         <v>3.392765538187613</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9046545795257694</v>
+        <v>0.4523272897628847</v>
       </c>
       <c r="AX6" t="n">
         <v>1.130921846062537</v>
@@ -1874,19 +1874,19 @@
         <v>0.62</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="BA6" t="n">
         <v>6.14</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9046545795257694</v>
+        <v>0.4523272897628847</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0.7069812317276543</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.3534906158638271</v>
+        <v>1.060471847591481</v>
       </c>
       <c r="AU7" t="n">
         <v>2.079356563904866</v>
@@ -2095,7 +2095,7 @@
         <v>3.465594273174776</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.6929864135580457</v>
+        <v>0.3464932067790228</v>
       </c>
       <c r="AX7" t="n">
         <v>1.732797136587388</v>
@@ -2104,19 +2104,19 @@
         <v>0.83</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
         <v>7.21</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.6929864135580457</v>
+        <v>0.3464932067790228</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0.546190433195894</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.273095216597947</v>
+        <v>0.819285649793841</v>
       </c>
       <c r="AU8" t="n">
         <v>2.229348706922016</v>
@@ -2325,7 +2325,7 @@
         <v>3.48335735456565</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.5574080468650301</v>
+        <v>0.278704023432515</v>
       </c>
       <c r="AX8" t="n">
         <v>2.09001441273939</v>
@@ -2334,19 +2334,19 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="BA8" t="n">
         <v>7.77</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.5574080468650301</v>
+        <v>0.278704023432515</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>1.136762600711633</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5683813003558167</v>
+        <v>1.70514390106745</v>
       </c>
       <c r="AU9" t="n">
         <v>2.514961505999189</v>
@@ -2555,7 +2555,7 @@
         <v>3.772442258998784</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.005877343365839</v>
+        <v>0.5029386716829194</v>
       </c>
       <c r="AX9" t="n">
         <v>0.2514961505999189</v>
@@ -2564,19 +2564,19 @@
         <v>0.1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BA9" t="n">
         <v>9.49</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.005877343365839</v>
+        <v>0.5029386716829194</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0.8870547213280285</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4435273606640143</v>
+        <v>1.330582081992043</v>
       </c>
       <c r="AU10" t="n">
         <v>3.316092416179546</v>
@@ -2785,7 +2785,7 @@
         <v>4.145115520224432</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.8290699186447246</v>
+        <v>0.4145349593223623</v>
       </c>
       <c r="AX10" t="n">
         <v>0.4145115520224432</v>
@@ -2794,19 +2794,19 @@
         <v>0.12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BA10" t="n">
         <v>13.75</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.8290699186447246</v>
+        <v>0.4145349593223623</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0.7213991501497778</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.3606995750748889</v>
+        <v>1.082098725224667</v>
       </c>
       <c r="AU11" t="n">
         <v>3.85213138429493</v>
@@ -3015,7 +3015,7 @@
         <v>4.377422027607875</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.7003934958970455</v>
+        <v>0.3501967479485227</v>
       </c>
       <c r="AX11" t="n">
         <v>0.5252906433129451</v>
@@ -3024,19 +3024,19 @@
         <v>0.14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="BA11" t="n">
         <v>16.86</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.7003934958970455</v>
+        <v>0.3501967479485227</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0.8001640724777741</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.4000820362388871</v>
+        <v>1.200246108716661</v>
       </c>
       <c r="AU12" t="n">
         <v>1.7479312262864</v>
@@ -3245,7 +3245,7 @@
         <v>2.719004129778844</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.16521340512146</v>
+        <v>0.58260670256073</v>
       </c>
       <c r="AX12" t="n">
         <v>1.553716645587911</v>
@@ -3254,19 +3254,19 @@
         <v>0.89</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.33</v>
+        <v>2.67</v>
       </c>
       <c r="BA12" t="n">
         <v>4.75</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.16521340512146</v>
+        <v>0.58260670256073</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0.5108006883176588</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.2554003441588294</v>
+        <v>0.7662010324764882</v>
       </c>
       <c r="AU13" t="n">
         <v>1.922368181840651</v>
@@ -3475,7 +3475,7 @@
         <v>2.471616233795123</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.098415217119127</v>
+        <v>0.5492076085595634</v>
       </c>
       <c r="AX13" t="n">
         <v>2.196992207817887</v>
@@ -3484,19 +3484,19 @@
         <v>1.14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
         <v>4.75</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.098415217119127</v>
+        <v>0.5492076085595634</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0.3666532648576754</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1833266324288377</v>
+        <v>0.5499798972865131</v>
       </c>
       <c r="AU14" t="n">
         <v>2.001842538016044</v>
@@ -3705,7 +3705,7 @@
         <v>2.317922938755419</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.053725845595213</v>
+        <v>0.5268629227976065</v>
       </c>
       <c r="AX14" t="n">
         <v>2.528643205915002</v>
@@ -3714,19 +3714,19 @@
         <v>1.26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="BA14" t="n">
         <v>4.64</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.053725845595213</v>
+        <v>0.5268629227976065</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0.2922267679719462</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1461133839859731</v>
+        <v>0.4383401519579194</v>
       </c>
       <c r="AU15" t="n">
         <v>4.383401519579193</v>
@@ -3925,7 +3925,7 @@
         <v>10.22793687901812</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.922224453541483</v>
+        <v>1.461112226770742</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>44.83</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.922224453541483</v>
+        <v>1.461112226770742</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0.7038783698176956</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.3519391849088478</v>
+        <v>1.055817554726543</v>
       </c>
       <c r="AU16" t="n">
         <v>3.405863079763043</v>
@@ -4139,7 +4139,7 @@
         <v>7.947013852780433</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.270582010012971</v>
+        <v>1.135291005006485</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -4154,13 +4154,13 @@
         <v>27.07</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="BC16" t="n">
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.270582010012971</v>
+        <v>1.135291005006485</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0.9654050802585801</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.48270254012929</v>
+        <v>1.44810762038787</v>
       </c>
       <c r="AU17" t="n">
         <v>2.78482234689975</v>
@@ -4353,7 +4353,7 @@
         <v>6.49791880943275</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.856582005827205</v>
+        <v>0.9282910029136023</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -4368,13 +4368,13 @@
         <v>18.1</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.856582005827205</v>
+        <v>0.9282910029136023</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>1.294888926563779</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6474444632818893</v>
+        <v>1.942333389845668</v>
       </c>
       <c r="AU18" t="n">
         <v>2.002405556541926</v>
@@ -4567,7 +4567,7 @@
         <v>4.67227963193116</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.334970126673189</v>
+        <v>0.6674850633365947</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -4582,13 +4582,13 @@
         <v>9.359999999999999</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="BC18" t="n">
         <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.334970126673189</v>
+        <v>0.6674850633365947</v>
       </c>
       <c r="BE18" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0.7569611310163854</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.3784805655081927</v>
+        <v>1.135441696524578</v>
       </c>
       <c r="AU19" t="n">
         <v>2.426157471206364</v>
@@ -4791,7 +4791,7 @@
         <v>4.609699195292091</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.9704564206197719</v>
+        <v>0.4852282103098859</v>
       </c>
       <c r="AX19" t="n">
         <v>1.213078735603182</v>
@@ -4800,19 +4800,19 @@
         <v>0.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="BA19" t="n">
         <v>11.18</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BC19" t="n">
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.9704564206197719</v>
+        <v>0.4852282103098859</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>0.5245618815451845</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.2622809407725922</v>
+        <v>0.7868428223177767</v>
       </c>
       <c r="AU20" t="n">
         <v>2.549953590844647</v>
@@ -5021,7 +5021,7 @@
         <v>4.371349012876538</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.7284939576420008</v>
+        <v>0.3642469788210004</v>
       </c>
       <c r="AX20" t="n">
         <v>1.821395422031891</v>
@@ -5030,19 +5030,19 @@
         <v>0.71</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>11.15</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="BC20" t="n">
         <v>0</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.7284939576420008</v>
+        <v>0.3642469788210004</v>
       </c>
       <c r="BE20" t="n">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0.3849042871339328</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.1924521435669664</v>
+        <v>0.5773564307008991</v>
       </c>
       <c r="AU21" t="n">
         <v>2.624347412276814</v>
@@ -5251,7 +5251,7 @@
         <v>4.228115275334867</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.5832029982695428</v>
+        <v>0.2916014991347714</v>
       </c>
       <c r="AX21" t="n">
         <v>2.186956176897345</v>
@@ -5260,19 +5260,19 @@
         <v>0.83</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="BA21" t="n">
         <v>11.1</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="BC21" t="n">
         <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.5832029982695428</v>
+        <v>0.2916014991347714</v>
       </c>
       <c r="BE21" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0.8528478384795967</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4264239192397983</v>
+        <v>1.279271757719395</v>
       </c>
       <c r="AU22" t="n">
         <v>3.366504625577355</v>
@@ -5481,7 +5481,7 @@
         <v>5.33029899049748</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.122130714288956</v>
+        <v>0.5610653571444781</v>
       </c>
       <c r="AX22" t="n">
         <v>0.2805420521314463</v>
@@ -5490,19 +5490,19 @@
         <v>0.08</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BA22" t="n">
         <v>17.94</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC22" t="n">
         <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.122130714288956</v>
+        <v>0.5610653571444781</v>
       </c>
       <c r="BE22" t="n">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0.6470898034824216</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.3235449017412108</v>
+        <v>0.9706347052236324</v>
       </c>
       <c r="AU23" t="n">
         <v>4.044311271765135</v>
@@ -5711,7 +5711,7 @@
         <v>5.39241502902018</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.8987129415945774</v>
+        <v>0.4493564707972887</v>
       </c>
       <c r="AX23" t="n">
         <v>0.449367919085015</v>
@@ -5720,19 +5720,19 @@
         <v>0.11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BA23" t="n">
         <v>21.81</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="BC23" t="n">
         <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.8987129415945774</v>
+        <v>0.4493564707972887</v>
       </c>
       <c r="BE23" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>0.5039340703807861</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.251967035190393</v>
+        <v>0.7559011055711791</v>
       </c>
       <c r="AU24" t="n">
         <v>4.512842421320473</v>
@@ -5941,7 +5941,7 @@
         <v>5.453017925762238</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.7521322130822606</v>
+        <v>0.3760661065411303</v>
       </c>
       <c r="AX24" t="n">
         <v>0.5641053026650591</v>
@@ -5950,19 +5950,19 @@
         <v>0.12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="BA24" t="n">
         <v>24.61</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.7521322130822606</v>
+        <v>0.3760661065411303</v>
       </c>
       <c r="BE24" t="n">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0.6456899795292363</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3228449897646182</v>
+        <v>0.9685349692938545</v>
       </c>
       <c r="AU25" t="n">
         <v>2.192157337907901</v>
@@ -6171,7 +6171,7 @@
         <v>3.587166552940201</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.195715677833974</v>
+        <v>0.597857838916987</v>
       </c>
       <c r="AX25" t="n">
         <v>1.594296245751201</v>
@@ -6180,19 +6180,19 @@
         <v>0.73</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.33</v>
+        <v>2.67</v>
       </c>
       <c r="BA25" t="n">
         <v>7.86</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="BC25" t="n">
         <v>0</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.195715677833974</v>
+        <v>0.597857838916987</v>
       </c>
       <c r="BE25" t="n">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0.3309280092241829</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.1654640046120914</v>
+        <v>0.4963920138362743</v>
       </c>
       <c r="AU26" t="n">
         <v>2.322301819117073</v>
@@ -6401,7 +6401,7 @@
         <v>3.193165001285975</v>
       </c>
       <c r="AW26" t="n">
-        <v>1.161115667677622</v>
+        <v>0.5805578338388111</v>
       </c>
       <c r="AX26" t="n">
         <v>2.322301819117073</v>
@@ -6410,19 +6410,19 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
         <v>7.42</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC26" t="n">
         <v>0</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.161115667677622</v>
+        <v>0.5805578338388111</v>
       </c>
       <c r="BE26" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0.2163147211438369</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.1081573605719185</v>
+        <v>0.3244720817157554</v>
       </c>
       <c r="AU27" t="n">
         <v>2.31765772654111</v>
@@ -6631,7 +6631,7 @@
         <v>2.869480994765184</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.103608399390762</v>
+        <v>0.5518041996953812</v>
       </c>
       <c r="AX27" t="n">
         <v>2.648751687475555</v>
@@ -6640,19 +6640,19 @@
         <v>1.14</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="BA27" t="n">
         <v>6.65</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.103608399390762</v>
+        <v>0.5518041996953812</v>
       </c>
       <c r="BE27" t="n">
         <v>0</v>
@@ -6842,7 +6842,7 @@
         <v>0.3675186975137361</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.183759348756868</v>
+        <v>0.5512780462706041</v>
       </c>
       <c r="AU28" t="n">
         <v>4.593983718921701</v>
@@ -6851,7 +6851,7 @@
         <v>9.187967437843401</v>
       </c>
       <c r="AW28" t="n">
-        <v>2.296975903102221</v>
+        <v>1.148487951551111</v>
       </c>
       <c r="AX28" t="n">
         <v>0</v>
@@ -6866,13 +6866,13 @@
         <v>42.21</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC28" t="n">
         <v>0</v>
       </c>
       <c r="BD28" t="n">
-        <v>2.296975903102221</v>
+        <v>1.148487951551111</v>
       </c>
       <c r="BE28" t="n">
         <v>1</v>
@@ -7056,7 +7056,7 @@
         <v>0.8204903797502975</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.4102451898751487</v>
+        <v>1.230735569625446</v>
       </c>
       <c r="AU29" t="n">
         <v>3.418709915626239</v>
@@ -7065,7 +7065,7 @@
         <v>6.837419831252479</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.709415080149209</v>
+        <v>0.8547075400746047</v>
       </c>
       <c r="AX29" t="n">
         <v>0</v>
@@ -7080,13 +7080,13 @@
         <v>23.38</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC29" t="n">
         <v>0</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.709415080149209</v>
+        <v>0.8547075400746047</v>
       </c>
       <c r="BE29" t="n">
         <v>1</v>
@@ -7270,7 +7270,7 @@
         <v>1.102100172841564</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5510500864207819</v>
+        <v>1.653150259262346</v>
       </c>
       <c r="AU30" t="n">
         <v>2.688049202052595</v>
@@ -7279,7 +7279,7 @@
         <v>5.376098404105189</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.343958378400645</v>
+        <v>0.6719791892003223</v>
       </c>
       <c r="AX30" t="n">
         <v>0</v>
@@ -7294,13 +7294,13 @@
         <v>14.45</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC30" t="n">
         <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.343958378400645</v>
+        <v>0.6719791892003223</v>
       </c>
       <c r="BE30" t="n">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>1.497030888737338</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.7485154443686689</v>
+        <v>2.245546333106007</v>
       </c>
       <c r="AU31" t="n">
         <v>1.663367654152597</v>
@@ -7493,7 +7493,7 @@
         <v>3.326735308305195</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.8316302193186886</v>
+        <v>0.4158151096593443</v>
       </c>
       <c r="AX31" t="n">
         <v>0</v>
@@ -7508,13 +7508,13 @@
         <v>5.53</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC31" t="n">
         <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>0.8316302193186886</v>
+        <v>0.4158151096593443</v>
       </c>
       <c r="BE31" t="n">
         <v>1</v>
@@ -7708,7 +7708,7 @@
         <v>0.768208282216444</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.384104141108222</v>
+        <v>1.152312423324666</v>
       </c>
       <c r="AU32" t="n">
         <v>2.327903885504376</v>
@@ -7717,7 +7717,7 @@
         <v>3.782843813944611</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.581956586597844</v>
+        <v>0.290978293298922</v>
       </c>
       <c r="AX32" t="n">
         <v>1.454939928440235</v>
@@ -7726,19 +7726,19 @@
         <v>0.62</v>
       </c>
       <c r="AZ32" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="BA32" t="n">
         <v>8.81</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="BC32" t="n">
         <v>0</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.581956586597844</v>
+        <v>0.290978293298922</v>
       </c>
       <c r="BE32" t="n">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>0.5307573907966668</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.2653786953983334</v>
+        <v>0.7961360861950002</v>
       </c>
       <c r="AU33" t="n">
         <v>2.449649495984616</v>
@@ -7947,7 +7947,7 @@
         <v>3.674474243976924</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.4082870197428654</v>
+        <v>0.2041435098714327</v>
       </c>
       <c r="AX33" t="n">
         <v>2.04137457998718</v>
@@ -7956,19 +7956,19 @@
         <v>0.83</v>
       </c>
       <c r="AZ33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA33" t="n">
         <v>9</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="BC33" t="n">
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.4082870197428654</v>
+        <v>0.2041435098714327</v>
       </c>
       <c r="BE33" t="n">
         <v>1</v>
@@ -8168,7 +8168,7 @@
         <v>0.4024681358430576</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.2012340679215288</v>
+        <v>0.6037022037645864</v>
       </c>
       <c r="AU34" t="n">
         <v>2.51542584901911</v>
@@ -8177,7 +8177,7 @@
         <v>3.61592465796497</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.3144869437008296</v>
+        <v>0.1572434718504148</v>
       </c>
       <c r="AX34" t="n">
         <v>2.358211733455415</v>
@@ -8186,19 +8186,19 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AZ34" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="BA34" t="n">
         <v>9.1</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="BC34" t="n">
         <v>0</v>
       </c>
       <c r="BD34" t="n">
-        <v>0.3144869437008296</v>
+        <v>0.1572434718504148</v>
       </c>
       <c r="BE34" t="n">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>0.9434250581668054</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.4717125290834027</v>
+        <v>1.415137587250208</v>
       </c>
       <c r="AU35" t="n">
         <v>3.321919218897202</v>
@@ -8407,7 +8407,7 @@
         <v>4.318494984566363</v>
       </c>
       <c r="AW35" t="n">
-        <v>0.6643510254068621</v>
+        <v>0.332175512703431</v>
       </c>
       <c r="AX35" t="n">
         <v>0.3321919218897202</v>
@@ -8416,19 +8416,19 @@
         <v>0.1</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BA35" t="n">
         <v>14.35</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BC35" t="n">
         <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.6643510254068621</v>
+        <v>0.332175512703431</v>
       </c>
       <c r="BE35" t="n">
         <v>1</v>
@@ -8628,7 +8628,7 @@
         <v>0.7083944745230987</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.3541972372615493</v>
+        <v>1.062591711784648</v>
       </c>
       <c r="AU36" t="n">
         <v>4.047968425846278</v>
@@ -8637,7 +8637,7 @@
         <v>4.553964479077063</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.5059659618200967</v>
+        <v>0.2529829809100483</v>
       </c>
       <c r="AX36" t="n">
         <v>0.5059960532307848</v>
@@ -8646,19 +8646,19 @@
         <v>0.12</v>
       </c>
       <c r="AZ36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA36" t="n">
         <v>18.43</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="BC36" t="n">
         <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>0.5059659618200967</v>
+        <v>0.2529829809100483</v>
       </c>
       <c r="BE36" t="n">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         <v>0.5638530942051428</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.2819265471025714</v>
+        <v>0.8457796413077143</v>
       </c>
       <c r="AU37" t="n">
         <v>4.494481185693168</v>
@@ -8867,7 +8867,7 @@
         <v>4.698775785042857</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.4085828496548043</v>
+        <v>0.2042914248274021</v>
       </c>
       <c r="AX37" t="n">
         <v>0.6128837980490683</v>
@@ -8876,19 +8876,19 @@
         <v>0.14</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="BA37" t="n">
         <v>21.12</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="BC37" t="n">
         <v>0</v>
       </c>
       <c r="BD37" t="n">
-        <v>0.4085828496548043</v>
+        <v>0.2042914248274021</v>
       </c>
       <c r="BE37" t="n">
         <v>1</v>
@@ -9088,7 +9088,7 @@
         <v>0.617314550758689</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.3086572753793445</v>
+        <v>0.9259718261380335</v>
       </c>
       <c r="AU38" t="n">
         <v>2.104481423040985</v>
@@ -9097,7 +9097,7 @@
         <v>2.805975230721314</v>
       </c>
       <c r="AW38" t="n">
-        <v>0.9353312157765978</v>
+        <v>0.4676656078882989</v>
       </c>
       <c r="AX38" t="n">
         <v>1.870650153814209</v>
@@ -9106,19 +9106,19 @@
         <v>0.89</v>
       </c>
       <c r="AZ38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA38" t="n">
         <v>5.91</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="BC38" t="n">
         <v>0</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.9353312157765978</v>
+        <v>0.4676656078882989</v>
       </c>
       <c r="BE38" t="n">
         <v>1</v>
@@ -9318,7 +9318,7 @@
         <v>0.4001571526272136</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.2000785763136068</v>
+        <v>0.6002357289408203</v>
       </c>
       <c r="AU39" t="n">
         <v>2.122045506356436</v>
@@ -9327,7 +9327,7 @@
         <v>2.425194864407355</v>
       </c>
       <c r="AW39" t="n">
-        <v>0.9094793418258118</v>
+        <v>0.4547396709129059</v>
       </c>
       <c r="AX39" t="n">
         <v>2.425194864407355</v>
@@ -9336,19 +9336,19 @@
         <v>1.14</v>
       </c>
       <c r="AZ39" t="n">
-        <v>2.67</v>
+        <v>5.33</v>
       </c>
       <c r="BA39" t="n">
         <v>5.15</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="BC39" t="n">
         <v>0</v>
       </c>
       <c r="BD39" t="n">
-        <v>0.9094793418258118</v>
+        <v>0.4547396709129059</v>
       </c>
       <c r="BE39" t="n">
         <v>1</v>
@@ -9548,7 +9548,7 @@
         <v>0.296022931909792</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.148011465954896</v>
+        <v>0.444034397864688</v>
       </c>
       <c r="AU40" t="n">
         <v>2.130468070562897</v>
@@ -9557,7 +9557,7 @@
         <v>2.242597969013576</v>
       </c>
       <c r="AW40" t="n">
-        <v>0.8970347108446259</v>
+        <v>0.448517355422313</v>
       </c>
       <c r="AX40" t="n">
         <v>2.691117562816291</v>
@@ -9566,19 +9566,19 @@
         <v>1.26</v>
       </c>
       <c r="AZ40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA40" t="n">
         <v>4.78</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="BC40" t="n">
         <v>0</v>
       </c>
       <c r="BD40" t="n">
-        <v>0.8970347108446259</v>
+        <v>0.448517355422313</v>
       </c>
       <c r="BE40" t="n">
         <v>1</v>
@@ -9768,7 +9768,7 @@
         <v>0.9961364137666053</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.4980682068833027</v>
+        <v>1.494204620649908</v>
       </c>
       <c r="AU41" t="n">
         <v>1.778815024583224</v>
@@ -9777,7 +9777,7 @@
         <v>3.557630049166447</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.964454137352157</v>
+        <v>1.482227068676079</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
@@ -9792,13 +9792,13 @@
         <v>6.33</v>
       </c>
       <c r="BB41" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="BC41" t="n">
         <v>1</v>
       </c>
       <c r="BD41" t="n">
-        <v>1.964454137352157</v>
+        <v>0.4822270686760786</v>
       </c>
       <c r="BE41" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>1.177320418726977</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5886602093634887</v>
+        <v>1.765980628090466</v>
       </c>
       <c r="AU42" t="n">
         <v>1.496593752619039</v>
@@ -9991,7 +9991,7 @@
         <v>2.993187505238078</v>
       </c>
       <c r="AW42" t="n">
-        <v>2.494329048695772</v>
+        <v>1.247164524347886</v>
       </c>
       <c r="AX42" t="n">
         <v>0</v>
@@ -10006,13 +10006,13 @@
         <v>4.48</v>
       </c>
       <c r="BB42" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="BC42" t="n">
         <v>1</v>
       </c>
       <c r="BD42" t="n">
-        <v>1.494329048695772</v>
+        <v>0.2471645243478862</v>
       </c>
       <c r="BE42" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>1.3088847440872</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6544423720435998</v>
+        <v>1.963327116130799</v>
       </c>
       <c r="AU43" t="n">
         <v>1.291662576401841</v>
@@ -10205,7 +10205,7 @@
         <v>2.583325152803683</v>
       </c>
       <c r="AW43" t="n">
-        <v>2.15269412683591</v>
+        <v>1.076347063417955</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -10220,13 +10220,13 @@
         <v>3.34</v>
       </c>
       <c r="BB43" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="BC43" t="n">
         <v>1</v>
       </c>
       <c r="BD43" t="n">
-        <v>1.15269412683591</v>
+        <v>0.07634706341795483</v>
       </c>
       <c r="BE43" t="n">
         <v>0</v>
@@ -10410,7 +10410,7 @@
         <v>1.364935607155474</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.6824678035777371</v>
+        <v>2.047403410733211</v>
       </c>
       <c r="AU44" t="n">
         <v>1.204354947490124</v>
@@ -10419,7 +10419,7 @@
         <v>2.408709894980249</v>
       </c>
       <c r="AW44" t="n">
-        <v>1.897087912253995</v>
+        <v>0.9485439561269977</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>2.9</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.58</v>
+        <v>0.79</v>
       </c>
       <c r="BC44" t="n">
         <v>1</v>
       </c>
       <c r="BD44" t="n">
-        <v>0.8970879122539954</v>
+        <v>-0.05145604387300229</v>
       </c>
       <c r="BE44" t="n">
         <v>0</v>
@@ -10634,7 +10634,7 @@
         <v>0.7655300163241189</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.3827650081620594</v>
+        <v>1.148295024486178</v>
       </c>
       <c r="AU45" t="n">
         <v>1.886869758545364</v>
@@ -10643,7 +10643,7 @@
         <v>2.965081049142714</v>
       </c>
       <c r="AW45" t="n">
-        <v>1.347746813604</v>
+        <v>0.673873406802</v>
       </c>
       <c r="AX45" t="n">
         <v>1.347764113246688</v>
@@ -10652,19 +10652,19 @@
         <v>0.71</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA45" t="n">
         <v>5.59</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="BC45" t="n">
         <v>1</v>
       </c>
       <c r="BD45" t="n">
-        <v>0.3477468136040001</v>
+        <v>-0.326126593198</v>
       </c>
       <c r="BE45" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0.5179407617025185</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.2589703808512592</v>
+        <v>0.7769111425537777</v>
       </c>
       <c r="AU46" t="n">
         <v>2.158086507093827</v>
@@ -10873,7 +10873,7 @@
         <v>3.139034919409203</v>
       </c>
       <c r="AW46" t="n">
-        <v>0.9808956976256873</v>
+        <v>0.4904478488128436</v>
       </c>
       <c r="AX46" t="n">
         <v>1.961896824630752</v>
@@ -10882,19 +10882,19 @@
         <v>0.91</v>
       </c>
       <c r="AZ46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA46" t="n">
         <v>6.77</v>
       </c>
       <c r="BB46" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="BC46" t="n">
         <v>1</v>
       </c>
       <c r="BD46" t="n">
-        <v>-0.01910430237431271</v>
+        <v>-0.5095521511871564</v>
       </c>
       <c r="BE46" t="n">
         <v>0</v>
@@ -11094,7 +11094,7 @@
         <v>0.3711918040849658</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.1855959020424829</v>
+        <v>0.5567877061274488</v>
       </c>
       <c r="AU47" t="n">
         <v>2.319948775531037</v>
@@ -11103,7 +11103,7 @@
         <v>3.247928285743451</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.887178547042085</v>
+        <v>0.4435892735210425</v>
       </c>
       <c r="AX47" t="n">
         <v>2.319948775531037</v>
@@ -11112,19 +11112,19 @@
         <v>1</v>
       </c>
       <c r="AZ47" t="n">
-        <v>2.61</v>
+        <v>5.23</v>
       </c>
       <c r="BA47" t="n">
         <v>7.54</v>
       </c>
       <c r="BB47" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="BC47" t="n">
         <v>1</v>
       </c>
       <c r="BD47" t="n">
-        <v>-0.112821452957915</v>
+        <v>-0.5564107264789575</v>
       </c>
       <c r="BE47" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0.9188699125235844</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.4594349562617922</v>
+        <v>1.378304868785377</v>
       </c>
       <c r="AU48" t="n">
         <v>2.756609737570753</v>
@@ -11333,7 +11333,7 @@
         <v>3.369189679253143</v>
       </c>
       <c r="AW48" t="n">
-        <v>1.531450120787533</v>
+        <v>0.7657250603937666</v>
       </c>
       <c r="AX48" t="n">
         <v>0.3062899708411948</v>
@@ -11342,19 +11342,19 @@
         <v>0.11</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="BA48" t="n">
         <v>9.289999999999999</v>
       </c>
       <c r="BB48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="BC48" t="n">
         <v>1</v>
       </c>
       <c r="BD48" t="n">
-        <v>0.5314501207875333</v>
+        <v>-0.2342749396062334</v>
       </c>
       <c r="BE48" t="n">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0.664236991944173</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.3321184959720865</v>
+        <v>0.9963554879162595</v>
       </c>
       <c r="AU49" t="n">
         <v>3.663071646750953</v>
@@ -11563,7 +11563,7 @@
         <v>3.907276423201017</v>
       </c>
       <c r="AW49" t="n">
-        <v>1.221079881427279</v>
+        <v>0.6105399407136397</v>
       </c>
       <c r="AX49" t="n">
         <v>0.4884095529001271</v>
@@ -11572,19 +11572,19 @@
         <v>0.13</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BA49" t="n">
         <v>14.31</v>
       </c>
       <c r="BB49" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC49" t="n">
         <v>1</v>
       </c>
       <c r="BD49" t="n">
-        <v>0.2210798814272794</v>
+        <v>-0.3894600592863603</v>
       </c>
       <c r="BE49" t="n">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>0.5139435288486942</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.2569717644243471</v>
+        <v>0.7709152932730413</v>
       </c>
       <c r="AU50" t="n">
         <v>4.215943010086945</v>
@@ -11793,7 +11793,7 @@
         <v>4.215943010086944</v>
       </c>
       <c r="AW50" t="n">
-        <v>1.003707444758371</v>
+        <v>0.5018537223791855</v>
       </c>
       <c r="AX50" t="n">
         <v>0.6022775728695635</v>
@@ -11802,19 +11802,19 @@
         <v>0.14</v>
       </c>
       <c r="AZ50" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="BA50" t="n">
         <v>17.77</v>
       </c>
       <c r="BB50" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="BC50" t="n">
         <v>1</v>
       </c>
       <c r="BD50" t="n">
-        <v>0.003707444758370926</v>
+        <v>-0.4981462776208145</v>
       </c>
       <c r="BE50" t="n">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>0.5924159981042688</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.2962079990521344</v>
+        <v>0.8886239971564032</v>
       </c>
       <c r="AU51" t="n">
         <v>1.79519999425536</v>
@@ -12023,7 +12023,7 @@
         <v>2.2439999928192</v>
       </c>
       <c r="AW51" t="n">
-        <v>1.570725659259854</v>
+        <v>0.7853628296299269</v>
       </c>
       <c r="AX51" t="n">
         <v>1.79519999425536</v>
@@ -12032,19 +12032,19 @@
         <v>1</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1.14</v>
+        <v>2.29</v>
       </c>
       <c r="BA51" t="n">
         <v>4.03</v>
       </c>
       <c r="BB51" t="n">
-        <v>0.87</v>
+        <v>0.44</v>
       </c>
       <c r="BC51" t="n">
         <v>1</v>
       </c>
       <c r="BD51" t="n">
-        <v>0.5707256592598537</v>
+        <v>-0.2146371703700731</v>
       </c>
       <c r="BE51" t="n">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0.3500574275245327</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.1750287137622663</v>
+        <v>0.525086141286799</v>
       </c>
       <c r="AU52" t="n">
         <v>1.961528688715054</v>
@@ -12253,7 +12253,7 @@
         <v>2.112415510923904</v>
       </c>
       <c r="AW52" t="n">
-        <v>1.357962488959803</v>
+        <v>0.6789812444799016</v>
       </c>
       <c r="AX52" t="n">
         <v>2.414189155341605</v>
@@ -12262,19 +12262,19 @@
         <v>1.23</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1.78</v>
+        <v>3.56</v>
       </c>
       <c r="BA52" t="n">
         <v>4.14</v>
       </c>
       <c r="BB52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="BC52" t="n">
         <v>1</v>
       </c>
       <c r="BD52" t="n">
-        <v>0.3579624889598032</v>
+        <v>-0.3210187555200984</v>
       </c>
       <c r="BE52" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0.2434221914488489</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.1217110957244245</v>
+        <v>0.3651332871732734</v>
       </c>
       <c r="AU53" t="n">
         <v>2.028518262073741</v>
@@ -12483,7 +12483,7 @@
         <v>2.028518262073741</v>
       </c>
       <c r="AW53" t="n">
-        <v>1.239603162224762</v>
+        <v>0.6198015811123812</v>
       </c>
       <c r="AX53" t="n">
         <v>2.704691016098321</v>
@@ -12492,19 +12492,19 @@
         <v>1.33</v>
       </c>
       <c r="AZ53" t="n">
-        <v>2.18</v>
+        <v>4.36</v>
       </c>
       <c r="BA53" t="n">
         <v>4.11</v>
       </c>
       <c r="BB53" t="n">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="BC53" t="n">
         <v>1</v>
       </c>
       <c r="BD53" t="n">
-        <v>0.2396031622247623</v>
+        <v>-0.3801984188876188</v>
       </c>
       <c r="BE53" t="n">
         <v>0</v>
@@ -12694,7 +12694,7 @@
         <v>1.050597462721013</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5252987313605065</v>
+        <v>1.575896194081519</v>
       </c>
       <c r="AU54" t="n">
         <v>2.15286365311683</v>
@@ -12703,7 +12703,7 @@
         <v>4.30572730623366</v>
       </c>
       <c r="AW54" t="n">
-        <v>2.15280343693909</v>
+        <v>1.076401718469545</v>
       </c>
       <c r="AX54" t="n">
         <v>0</v>
@@ -12718,13 +12718,13 @@
         <v>9.27</v>
       </c>
       <c r="BB54" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC54" t="n">
         <v>0</v>
       </c>
       <c r="BD54" t="n">
-        <v>2.15280343693909</v>
+        <v>1.076401718469545</v>
       </c>
       <c r="BE54" t="n">
         <v>0</v>
@@ -12908,7 +12908,7 @@
         <v>1.167834757528309</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5839173787641543</v>
+        <v>1.751752136292463</v>
       </c>
       <c r="AU55" t="n">
         <v>1.920780851197876</v>
@@ -12917,7 +12917,7 @@
         <v>3.841561702395752</v>
       </c>
       <c r="AW55" t="n">
-        <v>1.920774614164082</v>
+        <v>0.9603873070820412</v>
       </c>
       <c r="AX55" t="n">
         <v>0</v>
@@ -12932,13 +12932,13 @@
         <v>7.38</v>
       </c>
       <c r="BB55" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BC55" t="n">
         <v>0</v>
       </c>
       <c r="BD55" t="n">
-        <v>1.920774614164082</v>
+        <v>0.9603873070820412</v>
       </c>
       <c r="BE55" t="n">
         <v>0</v>
@@ -13122,7 +13122,7 @@
         <v>0.6443531269920291</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.3221765634960145</v>
+        <v>0.9665296904880436</v>
       </c>
       <c r="AU56" t="n">
         <v>2.301261167828676</v>
@@ -13131,7 +13131,7 @@
         <v>5.753152919571689</v>
       </c>
       <c r="AW56" t="n">
-        <v>3.626474120965962</v>
+        <v>1.813237060482981</v>
       </c>
       <c r="AX56" t="n">
         <v>0</v>
@@ -13146,13 +13146,13 @@
         <v>13.24</v>
       </c>
       <c r="BB56" t="n">
-        <v>1.58</v>
+        <v>0.79</v>
       </c>
       <c r="BC56" t="n">
         <v>1</v>
       </c>
       <c r="BD56" t="n">
-        <v>2.626474120965962</v>
+        <v>0.8132370604829808</v>
       </c>
       <c r="BE56" t="n">
         <v>0</v>
@@ -13336,7 +13336,7 @@
         <v>0.8067543111788115</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.4033771555894057</v>
+        <v>1.210131466768217</v>
       </c>
       <c r="AU57" t="n">
         <v>2.051070282657995</v>
@@ -13345,7 +13345,7 @@
         <v>5.127675706644989</v>
       </c>
       <c r="AW57" t="n">
-        <v>3.273309544654045</v>
+        <v>1.636654772327023</v>
       </c>
       <c r="AX57" t="n">
         <v>0</v>
@@ -13360,13 +13360,13 @@
         <v>10.52</v>
       </c>
       <c r="BB57" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="BC57" t="n">
         <v>1</v>
       </c>
       <c r="BD57" t="n">
-        <v>2.273309544654045</v>
+        <v>0.6366547723270226</v>
       </c>
       <c r="BE57" t="n">
         <v>0</v>
@@ -13550,7 +13550,7 @@
         <v>0.996567703585592</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.498283851792796</v>
+        <v>1.494851555378388</v>
       </c>
       <c r="AU58" t="n">
         <v>1.758648888680456</v>
@@ -13559,7 +13559,7 @@
         <v>4.396622221701141</v>
       </c>
       <c r="AW58" t="n">
-        <v>2.951466461517471</v>
+        <v>1.475733230758736</v>
       </c>
       <c r="AX58" t="n">
         <v>0</v>
@@ -13574,13 +13574,13 @@
         <v>7.73</v>
       </c>
       <c r="BB58" t="n">
-        <v>1.68</v>
+        <v>0.84</v>
       </c>
       <c r="BC58" t="n">
         <v>1</v>
       </c>
       <c r="BD58" t="n">
-        <v>1.951466461517471</v>
+        <v>0.4757332307587356</v>
       </c>
       <c r="BE58" t="n">
         <v>0</v>
@@ -13774,7 +13774,7 @@
         <v>0.9244593453595222</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.4622296726797611</v>
+        <v>1.386689018039283</v>
       </c>
       <c r="AU59" t="n">
         <v>3.081531151198408</v>
@@ -13783,7 +13783,7 @@
         <v>4.00599049655793</v>
       </c>
       <c r="AW59" t="n">
-        <v>1.766877453332357</v>
+        <v>0.8834387266661783</v>
       </c>
       <c r="AX59" t="n">
         <v>0.3081531151198407</v>
@@ -13792,19 +13792,19 @@
         <v>0.1</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="BA59" t="n">
         <v>12.34</v>
       </c>
       <c r="BB59" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="BC59" t="n">
         <v>0</v>
       </c>
       <c r="BD59" t="n">
-        <v>1.766877453332357</v>
+        <v>0.8834387266661783</v>
       </c>
       <c r="BE59" t="n">
         <v>0</v>
@@ -14004,7 +14004,7 @@
         <v>0.6741750881557208</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.3370875440778604</v>
+        <v>1.011262632233581</v>
       </c>
       <c r="AU60" t="n">
         <v>3.908261380612875</v>
@@ -14013,7 +14013,7 @@
         <v>4.396794053189484</v>
       </c>
       <c r="AW60" t="n">
-        <v>1.514099092015213</v>
+        <v>0.7570495460076065</v>
       </c>
       <c r="AX60" t="n">
         <v>0.4885326725766093</v>
@@ -14022,19 +14022,19 @@
         <v>0.12</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="BA60" t="n">
         <v>17.18</v>
       </c>
       <c r="BB60" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="BC60" t="n">
         <v>0</v>
       </c>
       <c r="BD60" t="n">
-        <v>1.514099092015213</v>
+        <v>0.7570495460076065</v>
       </c>
       <c r="BE60" t="n">
         <v>0</v>
@@ -14234,7 +14234,7 @@
         <v>0.5220820632683141</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.261041031634157</v>
+        <v>0.7831230949024711</v>
       </c>
       <c r="AU61" t="n">
         <v>4.417617458424195</v>
@@ -14243,7 +14243,7 @@
         <v>4.618418251988931</v>
       </c>
       <c r="AW61" t="n">
-        <v>1.280917327194143</v>
+        <v>0.6404586635970717</v>
       </c>
       <c r="AX61" t="n">
         <v>0.6024023806942085</v>
@@ -14252,19 +14252,19 @@
         <v>0.14</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BA61" t="n">
         <v>20.4</v>
       </c>
       <c r="BB61" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="BC61" t="n">
         <v>0</v>
       </c>
       <c r="BD61" t="n">
-        <v>1.280917327194143</v>
+        <v>0.6404586635970717</v>
       </c>
       <c r="BE61" t="n">
         <v>0</v>
@@ -14464,7 +14464,7 @@
         <v>0.8709410518064771</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.4354705259032385</v>
+        <v>1.306411577709716</v>
       </c>
       <c r="AU62" t="n">
         <v>1.8870389455807</v>
@@ -14473,7 +14473,7 @@
         <v>2.903136839354923</v>
       </c>
       <c r="AW62" t="n">
-        <v>1.033942749746113</v>
+        <v>0.5169713748730564</v>
       </c>
       <c r="AX62" t="n">
         <v>1.161254735741969</v>
@@ -14482,19 +14482,19 @@
         <v>0.62</v>
       </c>
       <c r="AZ62" t="n">
-        <v>1.12</v>
+        <v>2.25</v>
       </c>
       <c r="BA62" t="n">
         <v>5.48</v>
       </c>
       <c r="BB62" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="BC62" t="n">
         <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>1.033942749746113</v>
+        <v>0.5169713748730564</v>
       </c>
       <c r="BE62" t="n">
         <v>0</v>
@@ -14694,7 +14694,7 @@
         <v>0.601531301175051</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.3007656505875255</v>
+        <v>0.9022969517625765</v>
       </c>
       <c r="AU63" t="n">
         <v>2.020067802453529</v>
@@ -14703,7 +14703,7 @@
         <v>2.693423736604706</v>
       </c>
       <c r="AW63" t="n">
-        <v>0.9176127215842103</v>
+        <v>0.4588063607921051</v>
       </c>
       <c r="AX63" t="n">
         <v>1.795615824403137</v>
@@ -14712,19 +14712,19 @@
         <v>0.89</v>
       </c>
       <c r="AZ63" t="n">
-        <v>1.96</v>
+        <v>3.91</v>
       </c>
       <c r="BA63" t="n">
         <v>5.44</v>
       </c>
       <c r="BB63" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="BC63" t="n">
         <v>0</v>
       </c>
       <c r="BD63" t="n">
-        <v>0.9176127215842103</v>
+        <v>0.4588063607921051</v>
       </c>
       <c r="BE63" t="n">
         <v>0</v>
@@ -14924,7 +14924,7 @@
         <v>0.356148358125887</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.1780741790629435</v>
+        <v>0.5342225371888305</v>
       </c>
       <c r="AU64" t="n">
         <v>2.112744497356957</v>
@@ -14933,7 +14933,7 @@
         <v>2.414565139836522</v>
       </c>
       <c r="AW64" t="n">
-        <v>0.8044267203536642</v>
+        <v>0.4022133601768321</v>
       </c>
       <c r="AX64" t="n">
         <v>2.414565139836522</v>
@@ -14942,19 +14942,19 @@
         <v>1.14</v>
       </c>
       <c r="AZ64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA64" t="n">
         <v>5.1</v>
       </c>
       <c r="BB64" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="BC64" t="n">
         <v>0</v>
       </c>
       <c r="BD64" t="n">
-        <v>0.8044267203536642</v>
+        <v>0.4022133601768321</v>
       </c>
       <c r="BE64" t="n">
         <v>0</v>
@@ -15154,7 +15154,7 @@
         <v>0.6262816693778775</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.3131408346889388</v>
+        <v>0.9394225040668163</v>
       </c>
       <c r="AU65" t="n">
         <v>2.408775651453375</v>
@@ -15163,7 +15163,7 @@
         <v>3.412432172892282</v>
       </c>
       <c r="AW65" t="n">
-        <v>1.639890725566944</v>
+        <v>0.8199453627834721</v>
       </c>
       <c r="AX65" t="n">
         <v>1.003656521438906</v>
@@ -15172,19 +15172,19 @@
         <v>0.42</v>
       </c>
       <c r="AZ65" t="n">
-        <v>0.61</v>
+        <v>1.22</v>
       </c>
       <c r="BA65" t="n">
         <v>8.220000000000001</v>
       </c>
       <c r="BB65" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="BC65" t="n">
         <v>1</v>
       </c>
       <c r="BD65" t="n">
-        <v>0.6398907255669442</v>
+        <v>-0.1800546372165279</v>
       </c>
       <c r="BE65" t="n">
         <v>1</v>
@@ -15384,7 +15384,7 @@
         <v>0.3701862565708062</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.1850931282854031</v>
+        <v>0.5552793848562092</v>
       </c>
       <c r="AU66" t="n">
         <v>2.644187546934329</v>
@@ -15393,7 +15393,7 @@
         <v>3.635757877034703</v>
       </c>
       <c r="AW66" t="n">
-        <v>1.440410760050044</v>
+        <v>0.720205380025022</v>
       </c>
       <c r="AX66" t="n">
         <v>1.652617216833956</v>
@@ -15402,19 +15402,19 @@
         <v>0.62</v>
       </c>
       <c r="AZ66" t="n">
-        <v>1.15</v>
+        <v>2.29</v>
       </c>
       <c r="BA66" t="n">
         <v>9.609999999999999</v>
       </c>
       <c r="BB66" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="BC66" t="n">
         <v>1</v>
       </c>
       <c r="BD66" t="n">
-        <v>0.440410760050044</v>
+        <v>-0.279794619974978</v>
       </c>
       <c r="BE66" t="n">
         <v>1</v>
@@ -15614,7 +15614,7 @@
         <v>0.2084861098395473</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.1042430549197736</v>
+        <v>0.3127291647593209</v>
       </c>
       <c r="AU67" t="n">
         <v>2.719384041385399</v>
@@ -15623,7 +15623,7 @@
         <v>3.625845388513866</v>
       </c>
       <c r="AW67" t="n">
-        <v>1.132523439726267</v>
+        <v>0.5662617198631337</v>
       </c>
       <c r="AX67" t="n">
         <v>2.266153367821166</v>
@@ -15632,19 +15632,19 @@
         <v>0.83</v>
       </c>
       <c r="AZ67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA67" t="n">
         <v>9.859999999999999</v>
       </c>
       <c r="BB67" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="BC67" t="n">
         <v>1</v>
       </c>
       <c r="BD67" t="n">
-        <v>0.1325234397262673</v>
+        <v>-0.4337382801368663</v>
       </c>
       <c r="BE67" t="n">
         <v>1</v>
@@ -15844,7 +15844,7 @@
         <v>0.996108063494774</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.498054031747387</v>
+        <v>1.494162095242161</v>
       </c>
       <c r="AU68" t="n">
         <v>2.490270158736935</v>
@@ -15853,7 +15853,7 @@
         <v>3.023899478466278</v>
       </c>
       <c r="AW68" t="n">
-        <v>1.870095407737034</v>
+        <v>0.9350477038685172</v>
       </c>
       <c r="AX68" t="n">
         <v>0.1778764399097811</v>
@@ -15862,19 +15862,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="BA68" t="n">
         <v>7.53</v>
       </c>
       <c r="BB68" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="BC68" t="n">
         <v>1</v>
       </c>
       <c r="BD68" t="n">
-        <v>0.8700954077370344</v>
+        <v>-0.06495229613148279</v>
       </c>
       <c r="BE68" t="n">
         <v>1</v>
@@ -16074,7 +16074,7 @@
         <v>0.5422977154202354</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.2711488577101177</v>
+        <v>0.8134465731303531</v>
       </c>
       <c r="AU69" t="n">
         <v>3.765956357084968</v>
@@ -16083,7 +16083,7 @@
         <v>4.142551992793465</v>
       </c>
       <c r="AW69" t="n">
-        <v>1.790785261486434</v>
+        <v>0.8953926307432171</v>
       </c>
       <c r="AX69" t="n">
         <v>0.3765956357084969</v>
@@ -16092,19 +16092,19 @@
         <v>0.1</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="BA69" t="n">
         <v>15.6</v>
       </c>
       <c r="BB69" t="n">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="BC69" t="n">
         <v>1</v>
       </c>
       <c r="BD69" t="n">
-        <v>0.7907852614864341</v>
+        <v>-0.1046073692567829</v>
       </c>
       <c r="BE69" t="n">
         <v>1</v>
@@ -16304,7 +16304,7 @@
         <v>0.3032699499138014</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.1516349749569007</v>
+        <v>0.454904924870702</v>
       </c>
       <c r="AU70" t="n">
         <v>4.665691537135405</v>
@@ -16313,7 +16313,7 @@
         <v>4.665691537135405</v>
       </c>
       <c r="AW70" t="n">
-        <v>1.318551980233498</v>
+        <v>0.6592759901167491</v>
       </c>
       <c r="AX70" t="n">
         <v>0.5832114421419257</v>
@@ -16322,19 +16322,19 @@
         <v>0.12</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="BA70" t="n">
         <v>21.77</v>
       </c>
       <c r="BB70" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="BC70" t="n">
         <v>1</v>
       </c>
       <c r="BD70" t="n">
-        <v>0.3185519802334982</v>
+        <v>-0.3407240098832509</v>
       </c>
       <c r="BE70" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>0.6506351027843993</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.3253175513921996</v>
+        <v>0.9759526541765989</v>
       </c>
       <c r="AU71" t="n">
         <v>2.073102043185586</v>
@@ -16543,7 +16543,7 @@
         <v>2.551510206997644</v>
       </c>
       <c r="AW71" t="n">
-        <v>1.82782869808635</v>
+        <v>0.9139143490431749</v>
       </c>
       <c r="AX71" t="n">
         <v>1.275755103498822</v>
@@ -16552,19 +16552,19 @@
         <v>0.62</v>
       </c>
       <c r="AZ71" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="BA71" t="n">
         <v>5.29</v>
       </c>
       <c r="BB71" t="n">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="BC71" t="n">
         <v>1</v>
       </c>
       <c r="BD71" t="n">
-        <v>0.8278286980863498</v>
+        <v>-0.08608565095682508</v>
       </c>
       <c r="BE71" t="n">
         <v>1</v>
@@ -16764,7 +16764,7 @@
         <v>0.4070323561649412</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.2035161780824706</v>
+        <v>0.6105485342474117</v>
       </c>
       <c r="AU72" t="n">
         <v>2.180530479455042</v>
@@ -16773,7 +16773,7 @@
         <v>2.422811643838935</v>
       </c>
       <c r="AW72" t="n">
-        <v>1.722592254118914</v>
+        <v>0.8612961270594571</v>
       </c>
       <c r="AX72" t="n">
         <v>1.938249315071148</v>
@@ -16782,19 +16782,19 @@
         <v>0.89</v>
       </c>
       <c r="AZ72" t="n">
-        <v>1.13</v>
+        <v>2.25</v>
       </c>
       <c r="BA72" t="n">
         <v>5.28</v>
       </c>
       <c r="BB72" t="n">
-        <v>0.79</v>
+        <v>0.39</v>
       </c>
       <c r="BC72" t="n">
         <v>1</v>
       </c>
       <c r="BD72" t="n">
-        <v>0.7225922541189143</v>
+        <v>-0.1387038729405429</v>
       </c>
       <c r="BE72" t="n">
         <v>1</v>
@@ -16994,7 +16994,7 @@
         <v>0.2328978981908869</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.1164489490954434</v>
+        <v>0.3493468472863303</v>
       </c>
       <c r="AU73" t="n">
         <v>2.203088226130011</v>
@@ -17003,7 +17003,7 @@
         <v>2.203088226130011</v>
       </c>
       <c r="AW73" t="n">
-        <v>1.370039541618018</v>
+        <v>0.6850197708090089</v>
       </c>
       <c r="AX73" t="n">
         <v>2.517815115577156</v>
@@ -17012,19 +17012,19 @@
         <v>1.14</v>
       </c>
       <c r="AZ73" t="n">
-        <v>1.84</v>
+        <v>3.68</v>
       </c>
       <c r="BA73" t="n">
         <v>4.85</v>
       </c>
       <c r="BB73" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="BC73" t="n">
         <v>1</v>
       </c>
       <c r="BD73" t="n">
-        <v>0.3700395416180178</v>
+        <v>-0.3149802291909911</v>
       </c>
       <c r="BE73" t="n">
         <v>1</v>
@@ -17224,7 +17224,7 @@
         <v>0.4034413547560692</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.2017206773780346</v>
+        <v>0.6051620321341038</v>
       </c>
       <c r="AU74" t="n">
         <v>1.997034706042543</v>
@@ -17233,7 +17233,7 @@
         <v>2.420648128536415</v>
       </c>
       <c r="AW74" t="n">
-        <v>1.341996370575936</v>
+        <v>0.670998185287968</v>
       </c>
       <c r="AX74" t="n">
         <v>2.420648128536415</v>
@@ -17242,19 +17242,19 @@
         <v>1.21</v>
       </c>
       <c r="AZ74" t="n">
-        <v>1.8</v>
+        <v>3.61</v>
       </c>
       <c r="BA74" t="n">
         <v>4.83</v>
       </c>
       <c r="BB74" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="BC74" t="n">
         <v>0</v>
       </c>
       <c r="BD74" t="n">
-        <v>1.341996370575936</v>
+        <v>0.670998185287968</v>
       </c>
       <c r="BE74" t="n">
         <v>0</v>
@@ -17446,7 +17446,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU75" t="n">
         <v>1.625884074465491</v>
@@ -17455,7 +17455,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW75" t="n">
-        <v>1.539906975674794</v>
+        <v>0.769953487837397</v>
       </c>
       <c r="AX75" t="n">
         <v>0</v>
@@ -17470,13 +17470,13 @@
         <v>6.61</v>
       </c>
       <c r="BB75" t="n">
-        <v>0.95</v>
+        <v>0.47</v>
       </c>
       <c r="BC75" t="n">
         <v>0</v>
       </c>
       <c r="BD75" t="n">
-        <v>1.539906975674794</v>
+        <v>0.769953487837397</v>
       </c>
       <c r="BE75" t="n">
         <v>0</v>
@@ -17676,7 +17676,7 @@
         <v>0.3967068570383532</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.1983534285191766</v>
+        <v>0.5950602855575299</v>
       </c>
       <c r="AU76" t="n">
         <v>2.082710999451354</v>
@@ -17685,7 +17685,7 @@
         <v>2.618265256453131</v>
       </c>
       <c r="AW76" t="n">
-        <v>1.325345397630573</v>
+        <v>0.6626726988152866</v>
       </c>
       <c r="AX76" t="n">
         <v>2.38024114223012</v>
@@ -17694,19 +17694,19 @@
         <v>1.14</v>
       </c>
       <c r="AZ76" t="n">
-        <v>1.8</v>
+        <v>3.59</v>
       </c>
       <c r="BA76" t="n">
         <v>5.45</v>
       </c>
       <c r="BB76" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="BC76" t="n">
         <v>0</v>
       </c>
       <c r="BD76" t="n">
-        <v>1.325345397630573</v>
+        <v>0.6626726988152866</v>
       </c>
       <c r="BE76" t="n">
         <v>0</v>
@@ -17906,7 +17906,7 @@
         <v>0.4376834988068748</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.2188417494034374</v>
+        <v>0.6565252482103122</v>
       </c>
       <c r="AU77" t="n">
         <v>2.100880794272999</v>
@@ -17915,7 +17915,7 @@
         <v>3.151321191409498</v>
       </c>
       <c r="AW77" t="n">
-        <v>0.7002935980909997</v>
+        <v>0.3501467990454998</v>
       </c>
       <c r="AX77" t="n">
         <v>2.100880794272999</v>
@@ -17924,19 +17924,19 @@
         <v>1</v>
       </c>
       <c r="AZ77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA77" t="n">
         <v>6.62</v>
       </c>
       <c r="BB77" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC77" t="n">
         <v>0</v>
       </c>
       <c r="BD77" t="n">
-        <v>0.7002935980909997</v>
+        <v>0.3501467990454998</v>
       </c>
       <c r="BE77" t="n">
         <v>0</v>
@@ -18136,7 +18136,7 @@
         <v>0.3342882835299505</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.1671441417649753</v>
+        <v>0.5014324252949258</v>
       </c>
       <c r="AU78" t="n">
         <v>2.039158529532698</v>
@@ -18145,7 +18145,7 @@
         <v>2.590734197357117</v>
       </c>
       <c r="AW78" t="n">
-        <v>0.601718910353911</v>
+        <v>0.3008594551769555</v>
       </c>
       <c r="AX78" t="n">
         <v>2.507162126474629</v>
@@ -18154,19 +18154,19 @@
         <v>1.23</v>
       </c>
       <c r="AZ78" t="n">
-        <v>4.17</v>
+        <v>8.33</v>
       </c>
       <c r="BA78" t="n">
         <v>5.28</v>
       </c>
       <c r="BB78" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="BC78" t="n">
         <v>0</v>
       </c>
       <c r="BD78" t="n">
-        <v>0.601718910353911</v>
+        <v>0.3008594551769555</v>
       </c>
       <c r="BE78" t="n">
         <v>0</v>
@@ -18366,7 +18366,7 @@
         <v>0.2463079667326608</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.1231539833663304</v>
+        <v>0.3694619500989912</v>
       </c>
       <c r="AU79" t="n">
         <v>2.142879310574149</v>
@@ -18375,7 +18375,7 @@
         <v>2.734018430732535</v>
       </c>
       <c r="AW79" t="n">
-        <v>0.6342430143366016</v>
+        <v>0.3171215071683008</v>
       </c>
       <c r="AX79" t="n">
         <v>2.623179845702837</v>
@@ -18384,19 +18384,19 @@
         <v>1.22</v>
       </c>
       <c r="AZ79" t="n">
-        <v>4.14</v>
+        <v>8.27</v>
       </c>
       <c r="BA79" t="n">
         <v>5.86</v>
       </c>
       <c r="BB79" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="BC79" t="n">
         <v>0</v>
       </c>
       <c r="BD79" t="n">
-        <v>0.6342430143366016</v>
+        <v>0.3171215071683008</v>
       </c>
       <c r="BE79" t="n">
         <v>0</v>
@@ -18588,7 +18588,7 @@
         <v>0.4528339480554178</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.2264169740277089</v>
+        <v>0.6792509220831268</v>
       </c>
       <c r="AU80" t="n">
         <v>1.698127305207817</v>
@@ -18597,7 +18597,7 @@
         <v>1.358501844166254</v>
       </c>
       <c r="AW80" t="n">
-        <v>0.3396254610415634</v>
+        <v>0.1698127305207817</v>
       </c>
       <c r="AX80" t="n">
         <v>2.717003688332507</v>
@@ -18606,19 +18606,19 @@
         <v>1.6</v>
       </c>
       <c r="AZ80" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA80" t="n">
         <v>2.31</v>
       </c>
       <c r="BB80" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BC80" t="n">
         <v>0</v>
       </c>
       <c r="BD80" t="n">
-        <v>0.3396254610415634</v>
+        <v>0.1698127305207817</v>
       </c>
       <c r="BE80" t="n">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>1.083564493758669</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5417822468793343</v>
+        <v>1.625346740638003</v>
       </c>
       <c r="AU81" t="n">
         <v>1.083564493758669</v>
@@ -18819,7 +18819,7 @@
         <v>1.083564493758669</v>
       </c>
       <c r="AW81" t="n">
-        <v>0.2708911234396671</v>
+        <v>0.1354455617198336</v>
       </c>
       <c r="AX81" t="n">
         <v>1.625346740638003</v>
@@ -18828,19 +18828,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA81" t="n">
         <v>1.17</v>
       </c>
       <c r="BB81" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="BC81" t="n">
         <v>0</v>
       </c>
       <c r="BD81" t="n">
-        <v>0.2708911234396671</v>
+        <v>0.1354455617198336</v>
       </c>
       <c r="BE81" t="n">
         <v>0</v>
@@ -19032,7 +19032,7 @@
         <v>0.7256578088036806</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.3628289044018403</v>
+        <v>1.088486713205521</v>
       </c>
       <c r="AU82" t="n">
         <v>1.451315617607361</v>
@@ -19041,7 +19041,7 @@
         <v>1.451315617607361</v>
       </c>
       <c r="AW82" t="n">
-        <v>0.3628289044018403</v>
+        <v>0.1814144522009201</v>
       </c>
       <c r="AX82" t="n">
         <v>2.176973426411042</v>
@@ -19050,19 +19050,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ82" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA82" t="n">
         <v>2.11</v>
       </c>
       <c r="BB82" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="BC82" t="n">
         <v>0</v>
       </c>
       <c r="BD82" t="n">
-        <v>0.3628289044018403</v>
+        <v>0.1814144522009201</v>
       </c>
       <c r="BE82" t="n">
         <v>0</v>
@@ -19284,7 +19284,7 @@
         <v>0.579989212200653</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.2899946061003265</v>
+        <v>0.8699838183009796</v>
       </c>
       <c r="AU83" t="n">
         <v>3.189940667103591</v>
@@ -19293,7 +19293,7 @@
         <v>6.669875940307509</v>
       </c>
       <c r="AW83" t="n">
-        <v>1.739967636601959</v>
+        <v>0.8699838183009796</v>
       </c>
       <c r="AX83" t="n">
         <v>0</v>
@@ -19308,13 +19308,13 @@
         <v>21.28</v>
       </c>
       <c r="BB83" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="BC83" t="n">
         <v>1</v>
       </c>
       <c r="BD83" t="n">
-        <v>0.7399676366019592</v>
+        <v>-0.1300161816990204</v>
       </c>
       <c r="BE83" t="n">
         <v>1</v>
@@ -19534,7 +19534,7 @@
         <v>0.7130526425374406</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.3565263212687203</v>
+        <v>1.069578963806161</v>
       </c>
       <c r="AU84" t="n">
         <v>2.174810559739194</v>
@@ -19543,7 +19543,7 @@
         <v>3.707873741194691</v>
       </c>
       <c r="AW84" t="n">
-        <v>0.6060947461568245</v>
+        <v>0.3030473730784122</v>
       </c>
       <c r="AX84" t="n">
         <v>1.426105285074881</v>
@@ -19552,19 +19552,19 @@
         <v>0.66</v>
       </c>
       <c r="AZ84" t="n">
-        <v>2.35</v>
+        <v>4.71</v>
       </c>
       <c r="BA84" t="n">
         <v>8.06</v>
       </c>
       <c r="BB84" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="BC84" t="n">
         <v>0</v>
       </c>
       <c r="BD84" t="n">
-        <v>0.6060947461568245</v>
+        <v>0.3030473730784122</v>
       </c>
       <c r="BE84" t="n">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU85" t="n">
         <v>1.625884074465491</v>
@@ -19771,7 +19771,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW85" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX85" t="n">
         <v>0</v>
@@ -19786,13 +19786,13 @@
         <v>6.61</v>
       </c>
       <c r="BB85" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC85" t="n">
         <v>0</v>
       </c>
       <c r="BD85" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE85" t="n">
         <v>0</v>
@@ -19984,7 +19984,7 @@
         <v>1.21622542008426</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.6081127100421301</v>
+        <v>1.82433813012639</v>
       </c>
       <c r="AU86" t="n">
         <v>2.189205756151668</v>
@@ -19993,7 +19993,7 @@
         <v>5.108146764353893</v>
       </c>
       <c r="AW86" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.3648676260252781</v>
       </c>
       <c r="AX86" t="n">
         <v>0</v>
@@ -20008,13 +20008,13 @@
         <v>11.18</v>
       </c>
       <c r="BB86" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC86" t="n">
         <v>0</v>
       </c>
       <c r="BD86" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.3648676260252781</v>
       </c>
       <c r="BE86" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0.5291688450784122</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.617363652591481</v>
+        <v>1.852090957774443</v>
       </c>
       <c r="AU87" t="n">
         <v>2.663483186894675</v>
@@ -20243,7 +20243,7 @@
         <v>5.997246910888672</v>
       </c>
       <c r="AW87" t="n">
-        <v>1.569867573732623</v>
+        <v>0.7849337868663115</v>
       </c>
       <c r="AX87" t="n">
         <v>0</v>
@@ -20258,13 +20258,13 @@
         <v>15.97</v>
       </c>
       <c r="BB87" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="BC87" t="n">
         <v>1</v>
       </c>
       <c r="BD87" t="n">
-        <v>0.5698675737326231</v>
+        <v>-0.2150662131336885</v>
       </c>
       <c r="BE87" t="n">
         <v>0</v>
@@ -20476,7 +20476,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU88" t="n">
         <v>1.625884074465491</v>
@@ -20485,7 +20485,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW88" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX88" t="n">
         <v>0</v>
@@ -20500,13 +20500,13 @@
         <v>6.61</v>
       </c>
       <c r="BB88" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC88" t="n">
         <v>0</v>
       </c>
       <c r="BD88" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE88" t="n">
         <v>0</v>
@@ -20698,7 +20698,7 @@
         <v>1.443001443001443</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.7215007215007215</v>
+        <v>2.164502164502164</v>
       </c>
       <c r="AU89" t="n">
         <v>1.443001443001443</v>
@@ -20707,7 +20707,7 @@
         <v>3.607503607503608</v>
       </c>
       <c r="AW89" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="AX89" t="n">
         <v>0</v>
@@ -20722,13 +20722,13 @@
         <v>5.21</v>
       </c>
       <c r="BB89" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC89" t="n">
         <v>0</v>
       </c>
       <c r="BD89" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="BE89" t="n">
         <v>0</v>
@@ -20950,7 +20950,7 @@
         <v>0.5737626378393017</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.2868813189196509</v>
+        <v>0.8606439567589526</v>
       </c>
       <c r="AU90" t="n">
         <v>2.897501321088474</v>
@@ -20959,7 +20959,7 @@
         <v>4.8482942897421</v>
       </c>
       <c r="AW90" t="n">
-        <v>1.922104836761661</v>
+        <v>0.9610524183808303</v>
       </c>
       <c r="AX90" t="n">
         <v>0.1434406594598254</v>
@@ -20968,19 +20968,19 @@
         <v>0.05</v>
       </c>
       <c r="AZ90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="BA90" t="n">
         <v>14.05</v>
       </c>
       <c r="BB90" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="BC90" t="n">
         <v>2</v>
       </c>
       <c r="BD90" t="n">
-        <v>-0.07789516323833934</v>
+        <v>-1.03894758161917</v>
       </c>
       <c r="BE90" t="n">
         <v>2</v>
@@ -21190,7 +21190,7 @@
         <v>2.648901368157557</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.7946704104472671</v>
+        <v>2.384011231341801</v>
       </c>
       <c r="AU91" t="n">
         <v>0</v>
@@ -21416,7 +21416,7 @@
         <v>1.350472051367046</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.148478263538482</v>
+        <v>6.445434790615447</v>
       </c>
       <c r="AU92" t="n">
         <v>0</v>
@@ -21634,7 +21634,7 @@
         <v>1.596266257211703</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.811635514137092</v>
+        <v>5.434906542411276</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -21890,7 +21890,7 @@
         <v>0.589087044679896</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.687268218793212</v>
+        <v>2.061804656379636</v>
       </c>
       <c r="AU94" t="n">
         <v>2.611619231414206</v>
@@ -21899,7 +21899,7 @@
         <v>5.144693523537759</v>
       </c>
       <c r="AW94" t="n">
-        <v>1.629807490281046</v>
+        <v>0.8149037451405229</v>
       </c>
       <c r="AX94" t="n">
         <v>0</v>
@@ -21914,13 +21914,13 @@
         <v>13.44</v>
       </c>
       <c r="BB94" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="BC94" t="n">
         <v>1</v>
       </c>
       <c r="BD94" t="n">
-        <v>0.6298074902810458</v>
+        <v>-0.1850962548594771</v>
       </c>
       <c r="BE94" t="n">
         <v>1</v>
@@ -22176,7 +22176,7 @@
         <v>0.3833904521208585</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.4472888608076683</v>
+        <v>1.341866582423005</v>
       </c>
       <c r="AU95" t="n">
         <v>2.849869027431715</v>
@@ -22185,7 +22185,7 @@
         <v>6.223705006095269</v>
       </c>
       <c r="AW95" t="n">
-        <v>1.827494488442759</v>
+        <v>0.9137472442213795</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
@@ -22200,13 +22200,13 @@
         <v>17.74</v>
       </c>
       <c r="BB95" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="BC95" t="n">
         <v>2</v>
       </c>
       <c r="BD95" t="n">
-        <v>-0.1725055115572409</v>
+        <v>-1.086252755778621</v>
       </c>
       <c r="BE95" t="n">
         <v>1</v>
@@ -22460,7 +22460,7 @@
         <v>1.415271165070683</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.7076355825353415</v>
+        <v>2.122906747606025</v>
       </c>
       <c r="AU96" t="n">
         <v>1.69832539808482</v>
@@ -22469,7 +22469,7 @@
         <v>3.078214784028736</v>
       </c>
       <c r="AW96" t="n">
-        <v>1.185289600746697</v>
+        <v>0.5926448003733485</v>
       </c>
       <c r="AX96" t="n">
         <v>0</v>
@@ -22484,13 +22484,13 @@
         <v>5.23</v>
       </c>
       <c r="BB96" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="BC96" t="n">
         <v>2</v>
       </c>
       <c r="BD96" t="n">
-        <v>-0.8147103992533029</v>
+        <v>-1.407355199626652</v>
       </c>
       <c r="BE96" t="n">
         <v>1</v>
@@ -22708,7 +22708,7 @@
         <v>0.2715347415125028</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.1357673707562514</v>
+        <v>0.4073021122687542</v>
       </c>
       <c r="AU97" t="n">
         <v>3.122649527393782</v>
@@ -22717,7 +22717,7 @@
         <v>7.874507503862581</v>
       </c>
       <c r="AW97" t="n">
-        <v>1.629208449075017</v>
+        <v>0.8146042245375084</v>
       </c>
       <c r="AX97" t="n">
         <v>0</v>
@@ -22732,13 +22732,13 @@
         <v>24.59</v>
       </c>
       <c r="BB97" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="BC97" t="n">
         <v>1</v>
       </c>
       <c r="BD97" t="n">
-        <v>0.6292084490750167</v>
+        <v>-0.1853957754624916</v>
       </c>
       <c r="BE97" t="n">
         <v>0</v>
@@ -22936,7 +22936,7 @@
         <v>1.34390177690693</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.6719508884534648</v>
+        <v>2.015852665360395</v>
       </c>
       <c r="AU98" t="n">
         <v>2.822193731504552</v>
@@ -23150,7 +23150,7 @@
         <v>2.138122728244602</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.069061364122301</v>
+        <v>3.207184092366902</v>
       </c>
       <c r="AU99" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0.564045696726166</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.282022848363083</v>
+        <v>0.846068545089249</v>
       </c>
       <c r="AU100" t="n">
         <v>2.98944219264868</v>
@@ -23411,7 +23411,7 @@
         <v>4.766186137336103</v>
       </c>
       <c r="AW100" t="n">
-        <v>1.889553084032656</v>
+        <v>0.9447765420163281</v>
       </c>
       <c r="AX100" t="n">
         <v>0.1410114241815415</v>
@@ -23420,19 +23420,19 @@
         <v>0.05</v>
       </c>
       <c r="AZ100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="BA100" t="n">
         <v>14.25</v>
       </c>
       <c r="BB100" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="BC100" t="n">
         <v>2</v>
       </c>
       <c r="BD100" t="n">
-        <v>-0.1104469159673438</v>
+        <v>-1.055223457983672</v>
       </c>
       <c r="BE100" t="n">
         <v>2</v>
@@ -23642,7 +23642,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU101" t="n">
         <v>1.625884074465491</v>
@@ -23651,7 +23651,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX101" t="n">
         <v>0</v>
@@ -23666,13 +23666,13 @@
         <v>6.61</v>
       </c>
       <c r="BB101" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC101" t="n">
         <v>0</v>
       </c>
       <c r="BD101" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE101" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU102" t="n">
         <v>1.625884074465491</v>
@@ -23873,7 +23873,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX102" t="n">
         <v>0</v>
@@ -23888,13 +23888,13 @@
         <v>6.61</v>
       </c>
       <c r="BB102" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC102" t="n">
         <v>0</v>
       </c>
       <c r="BD102" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE102" t="n">
         <v>0</v>
@@ -24086,7 +24086,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU103" t="n">
         <v>1.625884074465491</v>
@@ -24095,7 +24095,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX103" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>6.61</v>
       </c>
       <c r="BB103" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC103" t="n">
         <v>0</v>
       </c>
       <c r="BD103" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE103" t="n">
         <v>0</v>
@@ -24308,7 +24308,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU104" t="n">
         <v>1.625884074465491</v>
@@ -24317,7 +24317,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW104" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX104" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>6.61</v>
       </c>
       <c r="BB104" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC104" t="n">
         <v>0</v>
       </c>
       <c r="BD104" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE104" t="n">
         <v>0</v>
@@ -24530,7 +24530,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU105" t="n">
         <v>1.625884074465491</v>
@@ -24539,7 +24539,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX105" t="n">
         <v>0</v>
@@ -24554,13 +24554,13 @@
         <v>6.61</v>
       </c>
       <c r="BB105" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC105" t="n">
         <v>0</v>
       </c>
       <c r="BD105" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE105" t="n">
         <v>0</v>
@@ -24744,7 +24744,7 @@
         <v>2.138122728244602</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.069061364122301</v>
+        <v>3.207184092366902</v>
       </c>
       <c r="AU106" t="n">
         <v>0</v>
@@ -24966,7 +24966,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU107" t="n">
         <v>1.625884074465491</v>
@@ -24975,7 +24975,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX107" t="n">
         <v>0</v>
@@ -24990,13 +24990,13 @@
         <v>6.61</v>
       </c>
       <c r="BB107" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC107" t="n">
         <v>0</v>
       </c>
       <c r="BD107" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE107" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0.7148780418060678</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.3574390209030339</v>
+        <v>1.072317062709102</v>
       </c>
       <c r="AU108" t="n">
         <v>3.002487775585485</v>
@@ -25205,7 +25205,7 @@
         <v>6.433902376254611</v>
       </c>
       <c r="AW108" t="n">
-        <v>1.501243887792743</v>
+        <v>0.7506219438963713</v>
       </c>
       <c r="AX108" t="n">
         <v>0</v>
@@ -25220,13 +25220,13 @@
         <v>19.32</v>
       </c>
       <c r="BB108" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC108" t="n">
         <v>1</v>
       </c>
       <c r="BD108" t="n">
-        <v>0.5012438877927425</v>
+        <v>-0.2493780561036287</v>
       </c>
       <c r="BE108" t="n">
         <v>0</v>
@@ -25418,7 +25418,7 @@
         <v>1.21622542008426</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6081127100421301</v>
+        <v>1.82433813012639</v>
       </c>
       <c r="AU109" t="n">
         <v>2.189205756151668</v>
@@ -25427,7 +25427,7 @@
         <v>5.108146764353893</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.3648676260252781</v>
       </c>
       <c r="AX109" t="n">
         <v>0</v>
@@ -25442,13 +25442,13 @@
         <v>11.18</v>
       </c>
       <c r="BB109" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC109" t="n">
         <v>0</v>
       </c>
       <c r="BD109" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.3648676260252781</v>
       </c>
       <c r="BE109" t="n">
         <v>0</v>
@@ -25650,7 +25650,7 @@
         <v>0.5267399537522321</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.2633699768761161</v>
+        <v>0.7901099306283482</v>
       </c>
       <c r="AU110" t="n">
         <v>1.948937828883259</v>
@@ -25659,7 +25659,7 @@
         <v>2.633699768761161</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.5794139491274554</v>
+        <v>0.2897069745637277</v>
       </c>
       <c r="AX110" t="n">
         <v>2.106959815008929</v>
@@ -25668,19 +25668,19 @@
         <v>1.08</v>
       </c>
       <c r="AZ110" t="n">
-        <v>3.64</v>
+        <v>7.27</v>
       </c>
       <c r="BA110" t="n">
         <v>5.13</v>
       </c>
       <c r="BB110" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="BC110" t="n">
         <v>0</v>
       </c>
       <c r="BD110" t="n">
-        <v>0.5794139491274554</v>
+        <v>0.2897069745637277</v>
       </c>
       <c r="BE110" t="n">
         <v>0</v>
@@ -25888,7 +25888,7 @@
         <v>0.5043815626346069</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.2521907813173034</v>
+        <v>0.7565723439519103</v>
       </c>
       <c r="AU111" t="n">
         <v>2.168840719328809</v>
@@ -25897,7 +25897,7 @@
         <v>3.127165688334562</v>
       </c>
       <c r="AW111" t="n">
-        <v>0.5548197188980675</v>
+        <v>0.2774098594490337</v>
       </c>
       <c r="AX111" t="n">
         <v>2.017526250538427</v>
@@ -25906,19 +25906,19 @@
         <v>0.93</v>
       </c>
       <c r="AZ111" t="n">
-        <v>3.64</v>
+        <v>7.27</v>
       </c>
       <c r="BA111" t="n">
         <v>6.78</v>
       </c>
       <c r="BB111" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="BC111" t="n">
         <v>0</v>
       </c>
       <c r="BD111" t="n">
-        <v>0.5548197188980675</v>
+        <v>0.2774098594490337</v>
       </c>
       <c r="BE111" t="n">
         <v>0</v>
@@ -26116,7 +26116,7 @@
         <v>1.443001443001443</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.7215007215007215</v>
+        <v>2.164502164502164</v>
       </c>
       <c r="AU112" t="n">
         <v>1.443001443001443</v>
@@ -26125,7 +26125,7 @@
         <v>3.607503607503608</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="AX112" t="n">
         <v>0</v>
@@ -26140,13 +26140,13 @@
         <v>5.21</v>
       </c>
       <c r="BB112" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC112" t="n">
         <v>0</v>
       </c>
       <c r="BD112" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="BE112" t="n">
         <v>0</v>
@@ -26338,7 +26338,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU113" t="n">
         <v>1.625884074465491</v>
@@ -26347,7 +26347,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX113" t="n">
         <v>0</v>
@@ -26362,13 +26362,13 @@
         <v>6.61</v>
       </c>
       <c r="BB113" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC113" t="n">
         <v>0</v>
       </c>
       <c r="BD113" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE113" t="n">
         <v>0</v>
@@ -26560,7 +26560,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU114" t="n">
         <v>1.625884074465491</v>
@@ -26569,7 +26569,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX114" t="n">
         <v>0</v>
@@ -26584,13 +26584,13 @@
         <v>6.61</v>
       </c>
       <c r="BB114" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC114" t="n">
         <v>0</v>
       </c>
       <c r="BD114" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE114" t="n">
         <v>0</v>
@@ -26782,7 +26782,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU115" t="n">
         <v>1.625884074465491</v>
@@ -26791,7 +26791,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW115" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX115" t="n">
         <v>0</v>
@@ -26806,13 +26806,13 @@
         <v>6.61</v>
       </c>
       <c r="BB115" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC115" t="n">
         <v>0</v>
       </c>
       <c r="BD115" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE115" t="n">
         <v>0</v>
@@ -27004,7 +27004,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU116" t="n">
         <v>1.625884074465491</v>
@@ -27013,7 +27013,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW116" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX116" t="n">
         <v>0</v>
@@ -27028,13 +27028,13 @@
         <v>6.61</v>
       </c>
       <c r="BB116" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC116" t="n">
         <v>0</v>
       </c>
       <c r="BD116" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE116" t="n">
         <v>0</v>
@@ -27226,7 +27226,7 @@
         <v>1.354903395387909</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.6774516976939544</v>
+        <v>2.032355093081863</v>
       </c>
       <c r="AU117" t="n">
         <v>1.625884074465491</v>
@@ -27235,7 +27235,7 @@
         <v>4.064710186163726</v>
       </c>
       <c r="AW117" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="AX117" t="n">
         <v>0</v>
@@ -27250,13 +27250,13 @@
         <v>6.61</v>
       </c>
       <c r="BB117" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC117" t="n">
         <v>0</v>
       </c>
       <c r="BD117" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.4064710186163726</v>
       </c>
       <c r="BE117" t="n">
         <v>0</v>
@@ -27456,7 +27456,7 @@
         <v>0.7148780418060678</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.3574390209030339</v>
+        <v>1.072317062709102</v>
       </c>
       <c r="AU118" t="n">
         <v>3.002487775585485</v>
@@ -27465,7 +27465,7 @@
         <v>6.433902376254611</v>
       </c>
       <c r="AW118" t="n">
-        <v>1.501243887792743</v>
+        <v>0.7506219438963713</v>
       </c>
       <c r="AX118" t="n">
         <v>0</v>
@@ -27480,13 +27480,13 @@
         <v>19.32</v>
       </c>
       <c r="BB118" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC118" t="n">
         <v>1</v>
       </c>
       <c r="BD118" t="n">
-        <v>0.5012438877927425</v>
+        <v>-0.2493780561036287</v>
       </c>
       <c r="BE118" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>1.21622542008426</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.6081127100421301</v>
+        <v>1.82433813012639</v>
       </c>
       <c r="AU119" t="n">
         <v>2.189205756151668</v>
@@ -27687,7 +27687,7 @@
         <v>5.108146764353893</v>
       </c>
       <c r="AW119" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.3648676260252781</v>
       </c>
       <c r="AX119" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>11.18</v>
       </c>
       <c r="BB119" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="BC119" t="n">
         <v>0</v>
       </c>
       <c r="BD119" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.3648676260252781</v>
       </c>
       <c r="BE119" t="n">
         <v>0</v>
@@ -27892,7 +27892,7 @@
         <v>2.138122728244602</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.069061364122301</v>
+        <v>3.207184092366902</v>
       </c>
       <c r="AU120" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>1.443001443001443</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.7215007215007215</v>
+        <v>2.164502164502164</v>
       </c>
       <c r="AU121" t="n">
         <v>1.443001443001443</v>
@@ -28123,7 +28123,7 @@
         <v>3.607503607503608</v>
       </c>
       <c r="AW121" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="AX121" t="n">
         <v>0</v>
@@ -28138,13 +28138,13 @@
         <v>5.21</v>
       </c>
       <c r="BB121" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC121" t="n">
         <v>0</v>
       </c>
       <c r="BD121" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.3607503607503608</v>
       </c>
       <c r="BE121" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>1.397565441001775</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.6987827205008875</v>
+        <v>2.096348161502663</v>
       </c>
       <c r="AU122" t="n">
         <v>1.537321985101953</v>
@@ -28345,7 +28345,7 @@
         <v>3.843304962754881</v>
       </c>
       <c r="AW122" t="n">
-        <v>0.7686609925509763</v>
+        <v>0.3843304962754882</v>
       </c>
       <c r="AX122" t="n">
         <v>0</v>
@@ -28360,13 +28360,13 @@
         <v>5.91</v>
       </c>
       <c r="BB122" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BC122" t="n">
         <v>0</v>
       </c>
       <c r="BD122" t="n">
-        <v>0.7686609925509763</v>
+        <v>0.3843304962754882</v>
       </c>
       <c r="BE122" t="n">
         <v>0</v>

--- a/mini project_v7_results.xlsx
+++ b/mini project_v7_results.xlsx
@@ -1039,7 +1039,7 @@
       </c>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
@@ -1054,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU2" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV2" t="n">
         <v>87.589</v>
@@ -1066,10 +1066,10 @@
         <v>95.321</v>
       </c>
       <c r="BX2" t="n">
-        <v>8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BY2" t="n">
-        <v>-8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BZ2" t="n">
         <v>13.739</v>
@@ -1078,10 +1078,10 @@
         <v>14.952</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.949344579224887e+117</v>
+        <v>14.952</v>
       </c>
       <c r="CC2" t="n">
-        <v>-2.949344579224887e+117</v>
+        <v>14.952</v>
       </c>
       <c r="CD2" t="n">
         <v>12.409</v>
@@ -1090,13 +1090,13 @@
         <v>13.504</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CH2" t="n">
-        <v>2.279</v>
+        <v>0.279</v>
       </c>
       <c r="CI2" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
@@ -1268,10 +1268,10 @@
         <v>2.999</v>
       </c>
       <c r="BT3" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV3" t="n">
         <v>64.35599999999999</v>
@@ -1280,10 +1280,10 @@
         <v>95.321</v>
       </c>
       <c r="BX3" t="n">
-        <v>8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BY3" t="n">
-        <v>-8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BZ3" t="n">
         <v>10.095</v>
@@ -1292,10 +1292,10 @@
         <v>14.952</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.949344579224887e+117</v>
+        <v>14.952</v>
       </c>
       <c r="CC3" t="n">
-        <v>-2.949344579224887e+117</v>
+        <v>14.952</v>
       </c>
       <c r="CD3" t="n">
         <v>9.117000000000001</v>
@@ -1304,13 +1304,13 @@
         <v>13.504</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CG3" t="n">
-        <v>-1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.279</v>
+        <v>0.279</v>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
@@ -1482,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU4" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV4" t="n">
         <v>50.864</v>
@@ -1494,10 +1494,10 @@
         <v>95.31999999999999</v>
       </c>
       <c r="BX4" t="n">
-        <v>8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BY4" t="n">
-        <v>-8.294540791249679e+197</v>
+        <v>95.319</v>
       </c>
       <c r="BZ4" t="n">
         <v>7.979</v>
@@ -1506,10 +1506,10 @@
         <v>14.953</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.949344579224887e+117</v>
+        <v>14.952</v>
       </c>
       <c r="CC4" t="n">
-        <v>-2.949344579224887e+117</v>
+        <v>14.954</v>
       </c>
       <c r="CD4" t="n">
         <v>7.206</v>
@@ -1518,13 +1518,13 @@
         <v>13.504</v>
       </c>
       <c r="CF4" t="n">
-        <v>1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CG4" t="n">
-        <v>-1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.279</v>
+        <v>0.279</v>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         <v>3.001</v>
       </c>
       <c r="BT5" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU5" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3.002</v>
       </c>
       <c r="BV5" t="n">
         <v>29.254</v>
@@ -1708,10 +1708,10 @@
         <v>95.321</v>
       </c>
       <c r="BX5" t="n">
-        <v>8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BY5" t="n">
-        <v>-8.294540791249679e+197</v>
+        <v>95.321</v>
       </c>
       <c r="BZ5" t="n">
         <v>4.589</v>
@@ -1720,10 +1720,10 @@
         <v>14.953</v>
       </c>
       <c r="CB5" t="n">
-        <v>2.949344579224887e+117</v>
+        <v>14.952</v>
       </c>
       <c r="CC5" t="n">
-        <v>-2.949344579224887e+117</v>
+        <v>14.954</v>
       </c>
       <c r="CD5" t="n">
         <v>4.144</v>
@@ -1732,13 +1732,13 @@
         <v>13.503</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.112930515714721e+113</v>
+        <v>13.504</v>
       </c>
       <c r="CG5" t="n">
-        <v>-1.112930515714721e+113</v>
+        <v>13.502</v>
       </c>
       <c r="CH5" t="n">
-        <v>2.279</v>
+        <v>0.279</v>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
@@ -1905,10 +1905,10 @@
       </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL6" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         <v>2.5</v>
       </c>
       <c r="BT6" t="n">
-        <v>8.08281277464764e+38</v>
+        <v>2.449</v>
       </c>
       <c r="BU6" t="n">
-        <v>-8.08281277464764e+38</v>
+        <v>2.551</v>
       </c>
       <c r="BV6" t="n">
         <v>46.006</v>
@@ -1934,10 +1934,10 @@
         <v>101.7</v>
       </c>
       <c r="BX6" t="n">
-        <v>4.428944566894755e+200</v>
+        <v>101.499</v>
       </c>
       <c r="BY6" t="n">
-        <v>-4.428944566894755e+200</v>
+        <v>101.901</v>
       </c>
       <c r="BZ6" t="n">
         <v>6.277</v>
@@ -1946,10 +1946,10 @@
         <v>13.876</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.240524454603351e+114</v>
+        <v>13.834</v>
       </c>
       <c r="CC6" t="n">
-        <v>-1.240524454603351e+114</v>
+        <v>13.918</v>
       </c>
       <c r="CD6" t="n">
         <v>5.448</v>
@@ -1958,13 +1958,13 @@
         <v>12.043</v>
       </c>
       <c r="CF6" t="n">
-        <v>5.618774112887018e+107</v>
+        <v>11.954</v>
       </c>
       <c r="CG6" t="n">
-        <v>-5.618774112887018e+107</v>
+        <v>12.132</v>
       </c>
       <c r="CH6" t="n">
-        <v>4.295</v>
+        <v>2.295</v>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
@@ -2135,10 +2135,10 @@
       </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL7" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
@@ -2152,10 +2152,10 @@
         <v>2.333</v>
       </c>
       <c r="BT7" t="n">
-        <v>9.378237583204417e+35</v>
+        <v>2.286</v>
       </c>
       <c r="BU7" t="n">
-        <v>-9.378237583204417e+35</v>
+        <v>2.38</v>
       </c>
       <c r="BV7" t="n">
         <v>53.973</v>
@@ -2164,10 +2164,10 @@
         <v>103.826</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.594606684856304e+201</v>
+        <v>103.69</v>
       </c>
       <c r="BY7" t="n">
-        <v>-3.594606684856304e+201</v>
+        <v>103.962</v>
       </c>
       <c r="BZ7" t="n">
         <v>7.026</v>
@@ -2176,10 +2176,10 @@
         <v>13.516</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.289810611075347e+112</v>
+        <v>13.473</v>
       </c>
       <c r="CC7" t="n">
-        <v>-9.289810611075347e+112</v>
+        <v>13.559</v>
       </c>
       <c r="CD7" t="n">
         <v>6.007</v>
@@ -2188,13 +2188,13 @@
         <v>11.555</v>
       </c>
       <c r="CF7" t="n">
-        <v>9.631182784751294e+105</v>
+        <v>11.468</v>
       </c>
       <c r="CG7" t="n">
-        <v>-9.631182784751294e+105</v>
+        <v>11.642</v>
       </c>
       <c r="CH7" t="n">
-        <v>4.419</v>
+        <v>2.421</v>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
@@ -2365,10 +2365,10 @@
       </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL8" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
         <v>2.25</v>
       </c>
       <c r="BT8" t="n">
-        <v>3.200965864440682e+34</v>
+        <v>2.213</v>
       </c>
       <c r="BU8" t="n">
-        <v>-3.200965864440682e+34</v>
+        <v>2.287</v>
       </c>
       <c r="BV8" t="n">
         <v>58.458</v>
@@ -2394,10 +2394,10 @@
         <v>104.888</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.023420691610435e+202</v>
+        <v>104.737</v>
       </c>
       <c r="BY8" t="n">
-        <v>-1.023420691610435e+202</v>
+        <v>105.039</v>
       </c>
       <c r="BZ8" t="n">
         <v>7.433</v>
@@ -2406,10 +2406,10 @@
         <v>13.337</v>
       </c>
       <c r="CB8" t="n">
-        <v>2.544164786942561e+112</v>
+        <v>13.306</v>
       </c>
       <c r="CC8" t="n">
-        <v>-2.544164786942561e+112</v>
+        <v>13.368</v>
       </c>
       <c r="CD8" t="n">
         <v>6.304</v>
@@ -2418,13 +2418,13 @@
         <v>11.311</v>
       </c>
       <c r="CF8" t="n">
-        <v>1.262491125449013e+105</v>
+        <v>11.246</v>
       </c>
       <c r="CG8" t="n">
-        <v>-1.262491125449013e+105</v>
+        <v>11.376</v>
       </c>
       <c r="CH8" t="n">
-        <v>4.47</v>
+        <v>2.47</v>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
@@ -2595,10 +2595,10 @@
       </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL9" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
@@ -2612,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="BT9" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU9" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV9" t="n">
         <v>45.912</v>
@@ -2624,10 +2624,10 @@
         <v>91.27800000000001</v>
       </c>
       <c r="BX9" t="n">
-        <v>9.856183562725373e+195</v>
+        <v>91.188</v>
       </c>
       <c r="BY9" t="n">
-        <v>-9.856183562725373e+195</v>
+        <v>91.36799999999999</v>
       </c>
       <c r="BZ9" t="n">
         <v>7.259</v>
@@ -2636,10 +2636,10 @@
         <v>14.432</v>
       </c>
       <c r="CB9" t="n">
-        <v>7.993291555951757e+115</v>
+        <v>14.422</v>
       </c>
       <c r="CC9" t="n">
-        <v>-7.993291555951757e+115</v>
+        <v>14.442</v>
       </c>
       <c r="CD9" t="n">
         <v>4.938</v>
@@ -2648,13 +2648,13 @@
         <v>9.817</v>
       </c>
       <c r="CF9" t="n">
-        <v>7.813382683914884e+95</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="CG9" t="n">
-        <v>-7.813382683914884e+95</v>
+        <v>10.536</v>
       </c>
       <c r="CH9" t="n">
-        <v>3.537</v>
+        <v>1.537</v>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
@@ -2825,10 +2825,10 @@
       </c>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL10" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
@@ -2842,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU10" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV10" t="n">
         <v>55.915</v>
@@ -2854,10 +2854,10 @@
         <v>89.929</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.248463919739849e+195</v>
+        <v>89.824</v>
       </c>
       <c r="BY10" t="n">
-        <v>-2.248463919739849e+195</v>
+        <v>90.03400000000001</v>
       </c>
       <c r="BZ10" t="n">
         <v>8.865</v>
@@ -2866,10 +2866,10 @@
         <v>14.258</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.400423669607374e+115</v>
+        <v>14.246</v>
       </c>
       <c r="CC10" t="n">
-        <v>-2.400423669607374e+115</v>
+        <v>14.27</v>
       </c>
       <c r="CD10" t="n">
         <v>5.339</v>
@@ -2878,13 +2878,13 @@
         <v>8.587</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.492173084961324e+90</v>
+        <v>7.954</v>
       </c>
       <c r="CG10" t="n">
-        <v>-1.492173084961324e+90</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="CH10" t="n">
-        <v>3.656</v>
+        <v>1.658</v>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
@@ -3055,10 +3055,10 @@
       </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL11" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
@@ -3072,10 +3072,10 @@
         <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU11" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV11" t="n">
         <v>62.514</v>
@@ -3084,10 +3084,10 @@
         <v>89.256</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.0744024777844e+195</v>
+        <v>89.18899999999999</v>
       </c>
       <c r="BY11" t="n">
-        <v>-1.0744024777844e+195</v>
+        <v>89.32299999999999</v>
       </c>
       <c r="BZ11" t="n">
         <v>9.925000000000001</v>
@@ -3096,10 +3096,10 @@
         <v>14.171</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.315908595289126e+115</v>
+        <v>14.164</v>
       </c>
       <c r="CC11" t="n">
-        <v>-1.315908595289126e+115</v>
+        <v>14.178</v>
       </c>
       <c r="CD11" t="n">
         <v>5.584</v>
@@ -3108,13 +3108,13 @@
         <v>7.973</v>
       </c>
       <c r="CF11" t="n">
-        <v>2.070258699410198e+87</v>
+        <v>7.467</v>
       </c>
       <c r="CG11" t="n">
-        <v>-2.070258699410198e+87</v>
+        <v>8.478999999999999</v>
       </c>
       <c r="CH11" t="n">
-        <v>3.705</v>
+        <v>1.705</v>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
@@ -3285,10 +3285,10 @@
       </c>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL12" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr"/>
@@ -3302,10 +3302,10 @@
         <v>3.501</v>
       </c>
       <c r="BT12" t="n">
-        <v>9.10043815000215e+53</v>
+        <v>3.464</v>
       </c>
       <c r="BU12" t="n">
-        <v>-9.10043815000215e+53</v>
+        <v>3.538</v>
       </c>
       <c r="BV12" t="n">
         <v>48.105</v>
@@ -3314,10 +3314,10 @@
         <v>123.845</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.270439326204504e+208</v>
+        <v>120.515</v>
       </c>
       <c r="BY12" t="n">
-        <v>-1.270439326204504e+208</v>
+        <v>127.175</v>
       </c>
       <c r="BZ12" t="n">
         <v>6.065</v>
@@ -3326,10 +3326,10 @@
         <v>15.614</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.047114372167222e+119</v>
+        <v>15.6</v>
       </c>
       <c r="CC12" t="n">
-        <v>-2.047114372167222e+119</v>
+        <v>15.628</v>
       </c>
       <c r="CD12" t="n">
         <v>5.468</v>
@@ -3338,13 +3338,13 @@
         <v>14.077</v>
       </c>
       <c r="CF12" t="n">
-        <v>6.596394368646163e+114</v>
+        <v>14.067</v>
       </c>
       <c r="CG12" t="n">
-        <v>-6.596394368646163e+114</v>
+        <v>14.087</v>
       </c>
       <c r="CH12" t="n">
-        <v>4.462</v>
+        <v>2.462</v>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
       </c>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL13" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
@@ -3532,10 +3532,10 @@
         <v>3.666</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.101009437552725e+56</v>
+        <v>3.638</v>
       </c>
       <c r="BU13" t="n">
-        <v>-1.101009437552725e+56</v>
+        <v>3.694</v>
       </c>
       <c r="BV13" t="n">
         <v>54.932</v>
@@ -3544,10 +3544,10 @@
         <v>133.351</v>
       </c>
       <c r="BX13" t="n">
-        <v>3.159997944126022e+211</v>
+        <v>130.518</v>
       </c>
       <c r="BY13" t="n">
-        <v>-3.159997944126022e+211</v>
+        <v>136.184</v>
       </c>
       <c r="BZ13" t="n">
         <v>6.523</v>
@@ -3556,10 +3556,10 @@
         <v>15.835</v>
       </c>
       <c r="CB13" t="n">
-        <v>8.4153154291302e+119</v>
+        <v>15.826</v>
       </c>
       <c r="CC13" t="n">
-        <v>-8.4153154291302e+119</v>
+        <v>15.844</v>
       </c>
       <c r="CD13" t="n">
         <v>5.878</v>
@@ -3568,13 +3568,13 @@
         <v>14.269</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.572592437955533e+115</v>
+        <v>14.263</v>
       </c>
       <c r="CG13" t="n">
-        <v>-2.572592437955533e+115</v>
+        <v>14.275</v>
       </c>
       <c r="CH13" t="n">
-        <v>4.586</v>
+        <v>2.588</v>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
@@ -3745,10 +3745,10 @@
       </c>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL14" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
@@ -3762,10 +3762,10 @@
         <v>3.749</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.209290712883563e+57</v>
+        <v>3.722</v>
       </c>
       <c r="BU14" t="n">
-        <v>-1.209290712883563e+57</v>
+        <v>3.776</v>
       </c>
       <c r="BV14" t="n">
         <v>58.203</v>
@@ -3774,10 +3774,10 @@
         <v>138.105</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.572297484315652e+213</v>
+        <v>135.508</v>
       </c>
       <c r="BY14" t="n">
-        <v>-1.572297484315652e+213</v>
+        <v>140.702</v>
       </c>
       <c r="BZ14" t="n">
         <v>6.72</v>
@@ -3786,10 +3786,10 @@
         <v>15.945</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.70549481500521e+120</v>
+        <v>15.934</v>
       </c>
       <c r="CC14" t="n">
-        <v>-1.70549481500521e+120</v>
+        <v>15.956</v>
       </c>
       <c r="CD14" t="n">
         <v>6.054</v>
@@ -3798,13 +3798,13 @@
         <v>14.365</v>
       </c>
       <c r="CF14" t="n">
-        <v>5.078388166328036e+115</v>
+        <v>14.357</v>
       </c>
       <c r="CG14" t="n">
-        <v>-5.078388166328036e+115</v>
+        <v>14.373</v>
       </c>
       <c r="CH14" t="n">
-        <v>4.637</v>
+        <v>2.637</v>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="inlineStr"/>
@@ -3980,10 +3980,10 @@
         <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU15" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV15" t="n">
         <v>94.91</v>
@@ -3992,10 +3992,10 @@
         <v>129.913</v>
       </c>
       <c r="BX15" t="n">
-        <v>2.318474942742438e+211</v>
+        <v>129.913</v>
       </c>
       <c r="BY15" t="n">
-        <v>-2.318474942742438e+211</v>
+        <v>129.913</v>
       </c>
       <c r="BZ15" t="n">
         <v>15.312</v>
@@ -4004,10 +4004,10 @@
         <v>20.959</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CC15" t="n">
-        <v>-1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CD15" t="n">
         <v>12.797</v>
@@ -4016,13 +4016,13 @@
         <v>17.517</v>
       </c>
       <c r="CF15" t="n">
-        <v>2.216767320040378e+124</v>
+        <v>17.517</v>
       </c>
       <c r="CG15" t="n">
-        <v>-2.216767320040378e+124</v>
+        <v>17.517</v>
       </c>
       <c r="CH15" t="n">
-        <v>3.405</v>
+        <v>1.405</v>
       </c>
       <c r="CI15" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="inlineStr"/>
@@ -4194,10 +4194,10 @@
         <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU16" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV16" t="n">
         <v>73.744</v>
@@ -4206,10 +4206,10 @@
         <v>129.912</v>
       </c>
       <c r="BX16" t="n">
-        <v>2.318474942742438e+211</v>
+        <v>129.913</v>
       </c>
       <c r="BY16" t="n">
-        <v>-2.318474942742438e+211</v>
+        <v>129.911</v>
       </c>
       <c r="BZ16" t="n">
         <v>11.897</v>
@@ -4218,10 +4218,10 @@
         <v>20.959</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CC16" t="n">
-        <v>-1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CD16" t="n">
         <v>9.943</v>
@@ -4230,13 +4230,13 @@
         <v>17.516</v>
       </c>
       <c r="CF16" t="n">
-        <v>2.216767320040378e+124</v>
+        <v>17.517</v>
       </c>
       <c r="CG16" t="n">
-        <v>-2.216767320040378e+124</v>
+        <v>17.515</v>
       </c>
       <c r="CH16" t="n">
-        <v>3.405</v>
+        <v>1.405</v>
       </c>
       <c r="CI16" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
@@ -4408,10 +4408,10 @@
         <v>2.999</v>
       </c>
       <c r="BT17" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU17" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV17" t="n">
         <v>60.297</v>
@@ -4420,10 +4420,10 @@
         <v>129.912</v>
       </c>
       <c r="BX17" t="n">
-        <v>2.318474942742438e+211</v>
+        <v>129.913</v>
       </c>
       <c r="BY17" t="n">
-        <v>-2.318474942742438e+211</v>
+        <v>129.911</v>
       </c>
       <c r="BZ17" t="n">
         <v>9.728</v>
@@ -4432,10 +4432,10 @@
         <v>20.959</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CC17" t="n">
-        <v>-1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CD17" t="n">
         <v>8.130000000000001</v>
@@ -4444,13 +4444,13 @@
         <v>17.516</v>
       </c>
       <c r="CF17" t="n">
-        <v>2.216767320040378e+124</v>
+        <v>17.517</v>
       </c>
       <c r="CG17" t="n">
-        <v>-2.216767320040378e+124</v>
+        <v>17.515</v>
       </c>
       <c r="CH17" t="n">
-        <v>3.405</v>
+        <v>1.405</v>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
@@ -4622,10 +4622,10 @@
         <v>2.999</v>
       </c>
       <c r="BT18" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU18" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV18" t="n">
         <v>43.356</v>
@@ -4634,10 +4634,10 @@
         <v>129.912</v>
       </c>
       <c r="BX18" t="n">
-        <v>2.318474942742438e+211</v>
+        <v>129.913</v>
       </c>
       <c r="BY18" t="n">
-        <v>-2.318474942742438e+211</v>
+        <v>129.911</v>
       </c>
       <c r="BZ18" t="n">
         <v>6.995</v>
@@ -4646,10 +4646,10 @@
         <v>20.96</v>
       </c>
       <c r="CB18" t="n">
-        <v>1.371725212958153e+132</v>
+        <v>20.959</v>
       </c>
       <c r="CC18" t="n">
-        <v>-1.371725212958153e+132</v>
+        <v>20.961</v>
       </c>
       <c r="CD18" t="n">
         <v>5.846</v>
@@ -4658,13 +4658,13 @@
         <v>17.517</v>
       </c>
       <c r="CF18" t="n">
-        <v>2.216767320040378e+124</v>
+        <v>17.517</v>
       </c>
       <c r="CG18" t="n">
-        <v>-2.216767320040378e+124</v>
+        <v>17.517</v>
       </c>
       <c r="CH18" t="n">
-        <v>3.405</v>
+        <v>1.405</v>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
@@ -4831,10 +4831,10 @@
       </c>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL19" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="inlineStr"/>
@@ -4848,10 +4848,10 @@
         <v>2.5</v>
       </c>
       <c r="BT19" t="n">
-        <v>8.08281277464764e+38</v>
+        <v>2.449</v>
       </c>
       <c r="BU19" t="n">
-        <v>-8.08281277464764e+38</v>
+        <v>2.551</v>
       </c>
       <c r="BV19" t="n">
         <v>57.74</v>
@@ -4860,10 +4860,10 @@
         <v>118.995</v>
       </c>
       <c r="BX19" t="n">
-        <v>2.341559912042521e+207</v>
+        <v>118.494</v>
       </c>
       <c r="BY19" t="n">
-        <v>-2.341559912042521e+207</v>
+        <v>119.496</v>
       </c>
       <c r="BZ19" t="n">
         <v>8.19</v>
@@ -4872,10 +4872,10 @@
         <v>16.879</v>
       </c>
       <c r="CB19" t="n">
-        <v>2.675322444178222e+121</v>
+        <v>16.378</v>
       </c>
       <c r="CC19" t="n">
-        <v>-2.675322444178222e+121</v>
+        <v>17.38</v>
       </c>
       <c r="CD19" t="n">
         <v>6.817</v>
@@ -4884,13 +4884,13 @@
         <v>14.049</v>
       </c>
       <c r="CF19" t="n">
-        <v>2.507653938457769e+113</v>
+        <v>13.614</v>
       </c>
       <c r="CG19" t="n">
-        <v>-2.507653938457769e+113</v>
+        <v>14.484</v>
       </c>
       <c r="CH19" t="n">
-        <v>4.32</v>
+        <v>2.32</v>
       </c>
       <c r="CI19" t="inlineStr">
         <is>
@@ -5061,10 +5061,10 @@
       </c>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL20" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr"/>
@@ -5078,10 +5078,10 @@
         <v>2.333</v>
       </c>
       <c r="BT20" t="n">
-        <v>9.378237583204417e+35</v>
+        <v>2.286</v>
       </c>
       <c r="BU20" t="n">
-        <v>-9.378237583204417e+35</v>
+        <v>2.38</v>
       </c>
       <c r="BV20" t="n">
         <v>63.033</v>
@@ -5090,10 +5090,10 @@
         <v>115.357</v>
       </c>
       <c r="BX20" t="n">
-        <v>1.089782552118395e+206</v>
+        <v>114.844</v>
       </c>
       <c r="BY20" t="n">
-        <v>-1.089782552118395e+206</v>
+        <v>115.87</v>
       </c>
       <c r="BZ20" t="n">
         <v>8.48</v>
@@ -5102,10 +5102,10 @@
         <v>15.519</v>
       </c>
       <c r="CB20" t="n">
-        <v>7.189496514959947e+117</v>
+        <v>15.061</v>
       </c>
       <c r="CC20" t="n">
-        <v>-7.189496514959947e+117</v>
+        <v>15.977</v>
       </c>
       <c r="CD20" t="n">
         <v>7.045</v>
@@ -5114,13 +5114,13 @@
         <v>12.893</v>
       </c>
       <c r="CF20" t="n">
-        <v>5.619793228670059e+109</v>
+        <v>12.496</v>
       </c>
       <c r="CG20" t="n">
-        <v>-5.619793228670059e+109</v>
+        <v>13.29</v>
       </c>
       <c r="CH20" t="n">
-        <v>4.432</v>
+        <v>2.434</v>
       </c>
       <c r="CI20" t="inlineStr">
         <is>
@@ -5291,10 +5291,10 @@
       </c>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL21" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
@@ -5308,10 +5308,10 @@
         <v>2.25</v>
       </c>
       <c r="BT21" t="n">
-        <v>3.200965864440682e+34</v>
+        <v>2.213</v>
       </c>
       <c r="BU21" t="n">
-        <v>-3.200965864440682e+34</v>
+        <v>2.287</v>
       </c>
       <c r="BV21" t="n">
         <v>66.21299999999999</v>
@@ -5320,10 +5320,10 @@
         <v>113.536</v>
       </c>
       <c r="BX21" t="n">
-        <v>2.353188450251907e+205</v>
+        <v>113.166</v>
       </c>
       <c r="BY21" t="n">
-        <v>-2.353188450251907e+205</v>
+        <v>113.906</v>
       </c>
       <c r="BZ21" t="n">
         <v>8.654</v>
@@ -5332,10 +5332,10 @@
         <v>14.839</v>
       </c>
       <c r="CB21" t="n">
-        <v>1.181491601610152e+116</v>
+        <v>14.479</v>
       </c>
       <c r="CC21" t="n">
-        <v>-1.181491601610152e+116</v>
+        <v>15.199</v>
       </c>
       <c r="CD21" t="n">
         <v>7.182</v>
@@ -5344,13 +5344,13 @@
         <v>12.315</v>
       </c>
       <c r="CF21" t="n">
-        <v>8.434150549832392e+107</v>
+        <v>12.002</v>
       </c>
       <c r="CG21" t="n">
-        <v>-8.434150549832392e+107</v>
+        <v>12.628</v>
       </c>
       <c r="CH21" t="n">
-        <v>4.478</v>
+        <v>2.478</v>
       </c>
       <c r="CI21" t="inlineStr">
         <is>
@@ -5521,10 +5521,10 @@
       </c>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL22" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
@@ -5538,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="BT22" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU22" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV22" t="n">
         <v>60.919</v>
@@ -5550,10 +5550,10 @@
         <v>108.574</v>
       </c>
       <c r="BX22" t="n">
-        <v>5.210912886270629e+202</v>
+        <v>106.456</v>
       </c>
       <c r="BY22" t="n">
-        <v>-5.210912886270629e+202</v>
+        <v>110.692</v>
       </c>
       <c r="BZ22" t="n">
         <v>9.782999999999999</v>
@@ -5562,10 +5562,10 @@
         <v>17.436</v>
       </c>
       <c r="CB22" t="n">
-        <v>1.723838028596992e+123</v>
+        <v>17.075</v>
       </c>
       <c r="CC22" t="n">
-        <v>-1.723838028596992e+123</v>
+        <v>17.797</v>
       </c>
       <c r="CD22" t="n">
         <v>6.634</v>
@@ -5574,13 +5574,13 @@
         <v>11.824</v>
       </c>
       <c r="CF22" t="n">
-        <v>3.487105811044885e+101</v>
+        <v>10.362</v>
       </c>
       <c r="CG22" t="n">
-        <v>-3.487105811044885e+101</v>
+        <v>13.286</v>
       </c>
       <c r="CH22" t="n">
-        <v>3.665</v>
+        <v>1.665</v>
       </c>
       <c r="CI22" t="inlineStr">
         <is>
@@ -5751,10 +5751,10 @@
       </c>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL23" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
@@ -5768,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="BT23" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU23" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BV23" t="n">
         <v>68.39</v>
@@ -5780,10 +5780,10 @@
         <v>101.461</v>
       </c>
       <c r="BX23" t="n">
-        <v>6.816703365971116e+199</v>
+        <v>99.48699999999999</v>
       </c>
       <c r="BY23" t="n">
-        <v>-6.816703365971116e+199</v>
+        <v>103.435</v>
       </c>
       <c r="BZ23" t="n">
         <v>10.96</v>
@@ -5792,10 +5792,10 @@
         <v>16.26</v>
       </c>
       <c r="CB23" t="n">
-        <v>1.857716839404103e+120</v>
+        <v>15.926</v>
       </c>
       <c r="CC23" t="n">
-        <v>-1.857716839404103e+120</v>
+        <v>16.594</v>
       </c>
       <c r="CD23" t="n">
         <v>6.69</v>
@@ -5804,13 +5804,13 @@
         <v>9.925000000000001</v>
       </c>
       <c r="CF23" t="n">
-        <v>8.706826966409715e+93</v>
+        <v>8.667</v>
       </c>
       <c r="CG23" t="n">
-        <v>-8.706826966409715e+93</v>
+        <v>11.183</v>
       </c>
       <c r="CH23" t="n">
-        <v>3.725</v>
+        <v>1.726</v>
       </c>
       <c r="CI23" t="inlineStr">
         <is>
@@ -5981,10 +5981,10 @@
       </c>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL24" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
@@ -5998,10 +5998,10 @@
         <v>2.999</v>
       </c>
       <c r="BT24" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU24" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV24" t="n">
         <v>73.637</v>
@@ -6010,10 +6010,10 @@
         <v>97.90300000000001</v>
       </c>
       <c r="BX24" t="n">
-        <v>2.470412727014384e+198</v>
+        <v>96.367</v>
       </c>
       <c r="BY24" t="n">
-        <v>-2.470412727014384e+198</v>
+        <v>99.43899999999999</v>
       </c>
       <c r="BZ24" t="n">
         <v>11.788</v>
@@ -6022,10 +6022,10 @@
         <v>15.673</v>
       </c>
       <c r="CB24" t="n">
-        <v>6.110983698068989e+118</v>
+        <v>15.412</v>
       </c>
       <c r="CC24" t="n">
-        <v>-6.110983698068989e+118</v>
+        <v>15.934</v>
       </c>
       <c r="CD24" t="n">
         <v>6.751</v>
@@ -6034,13 +6034,13 @@
         <v>8.976000000000001</v>
       </c>
       <c r="CF24" t="n">
-        <v>1.383049210877878e+90</v>
+        <v>7.969</v>
       </c>
       <c r="CG24" t="n">
-        <v>-1.383049210877878e+90</v>
+        <v>9.983000000000001</v>
       </c>
       <c r="CH24" t="n">
-        <v>3.753</v>
+        <v>1.753</v>
       </c>
       <c r="CI24" t="inlineStr">
         <is>
@@ -6211,10 +6211,10 @@
       </c>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL25" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
@@ -6228,10 +6228,10 @@
         <v>3.5</v>
       </c>
       <c r="BT25" t="n">
-        <v>9.10043815000215e+53</v>
+        <v>3.464</v>
       </c>
       <c r="BU25" t="n">
-        <v>-9.10043815000215e+53</v>
+        <v>3.536</v>
       </c>
       <c r="BV25" t="n">
         <v>56.255</v>
@@ -6240,10 +6240,10 @@
         <v>141.141</v>
       </c>
       <c r="BX25" t="n">
-        <v>6.716746511479804e+214</v>
+        <v>140.693</v>
       </c>
       <c r="BY25" t="n">
-        <v>-6.716746511479804e+214</v>
+        <v>141.589</v>
       </c>
       <c r="BZ25" t="n">
         <v>7.42</v>
@@ -6252,10 +6252,10 @@
         <v>18.616</v>
       </c>
       <c r="CB25" t="n">
-        <v>4.414819075380429e+126</v>
+        <v>18.469</v>
       </c>
       <c r="CC25" t="n">
-        <v>-4.414819075380429e+126</v>
+        <v>18.763</v>
       </c>
       <c r="CD25" t="n">
         <v>6.411</v>
@@ -6264,13 +6264,13 @@
         <v>16.085</v>
       </c>
       <c r="CF25" t="n">
-        <v>2.943964997670447e+120</v>
+        <v>16.021</v>
       </c>
       <c r="CG25" t="n">
-        <v>-2.943964997670447e+120</v>
+        <v>16.149</v>
       </c>
       <c r="CH25" t="n">
-        <v>4.479</v>
+        <v>2.479</v>
       </c>
       <c r="CI25" t="inlineStr">
         <is>
@@ -6441,10 +6441,10 @@
       </c>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL26" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
@@ -6458,10 +6458,10 @@
         <v>3.668</v>
       </c>
       <c r="BT26" t="n">
-        <v>1.101009437552725e+56</v>
+        <v>3.638</v>
       </c>
       <c r="BU26" t="n">
-        <v>-1.101009437552725e+56</v>
+        <v>3.698</v>
       </c>
       <c r="BV26" t="n">
         <v>63.086</v>
@@ -6470,10 +6470,10 @@
         <v>144.882</v>
       </c>
       <c r="BX26" t="n">
-        <v>9.580215378629671e+215</v>
+        <v>144.558</v>
       </c>
       <c r="BY26" t="n">
-        <v>-9.580215378629671e+215</v>
+        <v>145.206</v>
       </c>
       <c r="BZ26" t="n">
         <v>7.767</v>
@@ -6482,10 +6482,10 @@
         <v>17.837</v>
       </c>
       <c r="CB26" t="n">
-        <v>6.512714142728558e+124</v>
+        <v>17.692</v>
       </c>
       <c r="CC26" t="n">
-        <v>-6.512714142728558e+124</v>
+        <v>17.982</v>
       </c>
       <c r="CD26" t="n">
         <v>6.796</v>
@@ -6494,13 +6494,13 @@
         <v>15.608</v>
       </c>
       <c r="CF26" t="n">
-        <v>1.501107173029697e+119</v>
+        <v>15.542</v>
       </c>
       <c r="CG26" t="n">
-        <v>-1.501107173029697e+119</v>
+        <v>15.674</v>
       </c>
       <c r="CH26" t="n">
-        <v>4.595</v>
+        <v>2.597</v>
       </c>
       <c r="CI26" t="inlineStr">
         <is>
@@ -6671,10 +6671,10 @@
       </c>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL27" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
@@ -6688,10 +6688,10 @@
         <v>3.749</v>
       </c>
       <c r="BT27" t="n">
-        <v>1.209290712883563e+57</v>
+        <v>3.722</v>
       </c>
       <c r="BU27" t="n">
-        <v>-1.209290712883563e+57</v>
+        <v>3.776</v>
       </c>
       <c r="BV27" t="n">
         <v>64.786</v>
@@ -6700,10 +6700,10 @@
         <v>146.754</v>
       </c>
       <c r="BX27" t="n">
-        <v>3.615240839648856e+216</v>
+        <v>146.414</v>
       </c>
       <c r="BY27" t="n">
-        <v>-3.615240839648856e+216</v>
+        <v>147.094</v>
       </c>
       <c r="BZ27" t="n">
         <v>7.702</v>
@@ -6712,10 +6712,10 @@
         <v>17.447</v>
       </c>
       <c r="CB27" t="n">
-        <v>7.920193734541334e+123</v>
+        <v>17.338</v>
       </c>
       <c r="CC27" t="n">
-        <v>-7.920193734541334e+123</v>
+        <v>17.556</v>
       </c>
       <c r="CD27" t="n">
         <v>6.785</v>
@@ -6724,13 +6724,13 @@
         <v>15.37</v>
       </c>
       <c r="CF27" t="n">
-        <v>3.392648825952301e+118</v>
+        <v>15.322</v>
       </c>
       <c r="CG27" t="n">
-        <v>-3.392648825952301e+118</v>
+        <v>15.418</v>
       </c>
       <c r="CH27" t="n">
-        <v>4.643</v>
+        <v>2.643</v>
       </c>
       <c r="CI27" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
@@ -6906,10 +6906,10 @@
         <v>2</v>
       </c>
       <c r="BT28" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU28" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV28" t="n">
         <v>85.18899999999999</v>
@@ -6918,10 +6918,10 @@
         <v>74.17400000000001</v>
       </c>
       <c r="BX28" t="n">
-        <v>1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BY28" t="n">
-        <v>-1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BZ28" t="n">
         <v>14.72</v>
@@ -6930,10 +6930,10 @@
         <v>12.817</v>
       </c>
       <c r="CB28" t="n">
-        <v>5.976068510578957e+110</v>
+        <v>12.816</v>
       </c>
       <c r="CC28" t="n">
-        <v>-5.976068510578957e+110</v>
+        <v>12.818</v>
       </c>
       <c r="CD28" t="n">
         <v>11.211</v>
@@ -6942,13 +6942,13 @@
         <v>9.760999999999999</v>
       </c>
       <c r="CF28" t="n">
-        <v>8.960864466146291e+98</v>
+        <v>9.762</v>
       </c>
       <c r="CG28" t="n">
-        <v>-8.960864466146291e+98</v>
+        <v>9.76</v>
       </c>
       <c r="CH28" t="n">
-        <v>2.797</v>
+        <v>0.797</v>
       </c>
       <c r="CI28" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         <v>2</v>
       </c>
       <c r="BT29" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU29" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV29" t="n">
         <v>63.395</v>
@@ -7132,10 +7132,10 @@
         <v>74.17400000000001</v>
       </c>
       <c r="BX29" t="n">
-        <v>1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BY29" t="n">
-        <v>-1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BZ29" t="n">
         <v>10.954</v>
@@ -7144,10 +7144,10 @@
         <v>12.817</v>
       </c>
       <c r="CB29" t="n">
-        <v>5.976068510578957e+110</v>
+        <v>12.816</v>
       </c>
       <c r="CC29" t="n">
-        <v>-5.976068510578957e+110</v>
+        <v>12.818</v>
       </c>
       <c r="CD29" t="n">
         <v>8.343</v>
@@ -7156,13 +7156,13 @@
         <v>9.762</v>
       </c>
       <c r="CF29" t="n">
-        <v>8.960864466146291e+98</v>
+        <v>9.762</v>
       </c>
       <c r="CG29" t="n">
-        <v>-8.960864466146291e+98</v>
+        <v>9.762</v>
       </c>
       <c r="CH29" t="n">
-        <v>2.797</v>
+        <v>0.797</v>
       </c>
       <c r="CI29" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
@@ -7334,10 +7334,10 @@
         <v>2</v>
       </c>
       <c r="BT30" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU30" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV30" t="n">
         <v>49.846</v>
@@ -7346,10 +7346,10 @@
         <v>74.17400000000001</v>
       </c>
       <c r="BX30" t="n">
-        <v>1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BY30" t="n">
-        <v>-1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BZ30" t="n">
         <v>8.613</v>
@@ -7358,10 +7358,10 @@
         <v>12.817</v>
       </c>
       <c r="CB30" t="n">
-        <v>5.976068510578957e+110</v>
+        <v>12.816</v>
       </c>
       <c r="CC30" t="n">
-        <v>-5.976068510578957e+110</v>
+        <v>12.818</v>
       </c>
       <c r="CD30" t="n">
         <v>6.56</v>
@@ -7370,13 +7370,13 @@
         <v>9.762</v>
       </c>
       <c r="CF30" t="n">
-        <v>8.960864466146291e+98</v>
+        <v>9.762</v>
       </c>
       <c r="CG30" t="n">
-        <v>-8.960864466146291e+98</v>
+        <v>9.762</v>
       </c>
       <c r="CH30" t="n">
-        <v>2.797</v>
+        <v>0.797</v>
       </c>
       <c r="CI30" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
@@ -7548,10 +7548,10 @@
         <v>2.001</v>
       </c>
       <c r="BT31" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU31" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2.002</v>
       </c>
       <c r="BV31" t="n">
         <v>30.845</v>
@@ -7560,10 +7560,10 @@
         <v>74.175</v>
       </c>
       <c r="BX31" t="n">
-        <v>1.059908245374e+187</v>
+        <v>74.17400000000001</v>
       </c>
       <c r="BY31" t="n">
-        <v>-1.059908245374e+187</v>
+        <v>74.176</v>
       </c>
       <c r="BZ31" t="n">
         <v>5.33</v>
@@ -7572,10 +7572,10 @@
         <v>12.817</v>
       </c>
       <c r="CB31" t="n">
-        <v>5.976068510578957e+110</v>
+        <v>12.816</v>
       </c>
       <c r="CC31" t="n">
-        <v>-5.976068510578957e+110</v>
+        <v>12.818</v>
       </c>
       <c r="CD31" t="n">
         <v>4.059</v>
@@ -7584,13 +7584,13 @@
         <v>9.760999999999999</v>
       </c>
       <c r="CF31" t="n">
-        <v>8.960864466146291e+98</v>
+        <v>9.762</v>
       </c>
       <c r="CG31" t="n">
-        <v>-8.960864466146291e+98</v>
+        <v>9.76</v>
       </c>
       <c r="CH31" t="n">
-        <v>2.797</v>
+        <v>0.797</v>
       </c>
       <c r="CI31" t="inlineStr">
         <is>
@@ -7757,10 +7757,10 @@
       </c>
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL32" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr"/>
@@ -7774,10 +7774,10 @@
         <v>2</v>
       </c>
       <c r="BT32" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU32" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV32" t="n">
         <v>53.033</v>
@@ -7786,10 +7786,10 @@
         <v>91.126</v>
       </c>
       <c r="BX32" t="n">
-        <v>1.583208840798712e+195</v>
+        <v>89.536</v>
       </c>
       <c r="BY32" t="n">
-        <v>-1.583208840798712e+195</v>
+        <v>92.71599999999999</v>
       </c>
       <c r="BZ32" t="n">
         <v>7.454</v>
@@ -7798,10 +7798,10 @@
         <v>12.808</v>
       </c>
       <c r="CB32" t="n">
-        <v>5.584063601882692e+110</v>
+        <v>12.808</v>
       </c>
       <c r="CC32" t="n">
-        <v>-5.584063601882692e+110</v>
+        <v>12.808</v>
       </c>
       <c r="CD32" t="n">
         <v>5.919</v>
@@ -7810,13 +7810,13 @@
         <v>10.171</v>
       </c>
       <c r="CF32" t="n">
-        <v>5.041763871653841e+100</v>
+        <v>10.163</v>
       </c>
       <c r="CG32" t="n">
-        <v>-5.041763871653841e+100</v>
+        <v>10.179</v>
       </c>
       <c r="CH32" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="CI32" t="inlineStr">
         <is>
@@ -7987,10 +7987,10 @@
       </c>
       <c r="BJ33" t="inlineStr"/>
       <c r="BK33" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL33" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM33" t="inlineStr"/>
       <c r="BN33" t="inlineStr"/>
@@ -8004,10 +8004,10 @@
         <v>2</v>
       </c>
       <c r="BT33" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU33" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV33" t="n">
         <v>59.267</v>
@@ -8016,10 +8016,10 @@
         <v>96.776</v>
       </c>
       <c r="BX33" t="n">
-        <v>8.410848355945159e+197</v>
+        <v>95.453</v>
       </c>
       <c r="BY33" t="n">
-        <v>-8.410848355945159e+197</v>
+        <v>98.099</v>
       </c>
       <c r="BZ33" t="n">
         <v>7.842</v>
@@ -8028,10 +8028,10 @@
         <v>12.805</v>
       </c>
       <c r="CB33" t="n">
-        <v>5.459170454453003e+110</v>
+        <v>12.805</v>
       </c>
       <c r="CC33" t="n">
-        <v>-5.459170454453003e+110</v>
+        <v>12.805</v>
       </c>
       <c r="CD33" t="n">
         <v>6.313</v>
@@ -8040,13 +8040,13 @@
         <v>10.308</v>
       </c>
       <c r="CF33" t="n">
-        <v>1.932457931928276e+101</v>
+        <v>10.303</v>
       </c>
       <c r="CG33" t="n">
-        <v>-1.932457931928276e+101</v>
+        <v>10.313</v>
       </c>
       <c r="CH33" t="n">
-        <v>4.421</v>
+        <v>2.423</v>
       </c>
       <c r="CI33" t="inlineStr">
         <is>
@@ -8217,10 +8217,10 @@
       </c>
       <c r="BJ34" t="inlineStr"/>
       <c r="BK34" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL34" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM34" t="inlineStr"/>
       <c r="BN34" t="inlineStr"/>
@@ -8234,10 +8234,10 @@
         <v>2</v>
       </c>
       <c r="BT34" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU34" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV34" t="n">
         <v>62.635</v>
@@ -8246,10 +8246,10 @@
         <v>99.601</v>
       </c>
       <c r="BX34" t="n">
-        <v>1.934965268896773e+199</v>
+        <v>98.371</v>
       </c>
       <c r="BY34" t="n">
-        <v>-1.934965268896773e+199</v>
+        <v>100.831</v>
       </c>
       <c r="BZ34" t="n">
         <v>8.051</v>
@@ -8258,10 +8258,10 @@
         <v>12.803</v>
       </c>
       <c r="CB34" t="n">
-        <v>5.397811950472553e+110</v>
+        <v>12.803</v>
       </c>
       <c r="CC34" t="n">
-        <v>-5.397811950472553e+110</v>
+        <v>12.803</v>
       </c>
       <c r="CD34" t="n">
         <v>6.525</v>
@@ -8270,13 +8270,13 @@
         <v>10.376</v>
       </c>
       <c r="CF34" t="n">
-        <v>3.781802098357586e+101</v>
+        <v>10.37</v>
       </c>
       <c r="CG34" t="n">
-        <v>-3.781802098357586e+101</v>
+        <v>10.382</v>
       </c>
       <c r="CH34" t="n">
-        <v>4.471</v>
+        <v>2.471</v>
       </c>
       <c r="CI34" t="inlineStr">
         <is>
@@ -8447,10 +8447,10 @@
       </c>
       <c r="BJ35" t="inlineStr"/>
       <c r="BK35" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL35" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM35" t="inlineStr"/>
       <c r="BN35" t="inlineStr"/>
@@ -8464,10 +8464,10 @@
         <v>2.5</v>
       </c>
       <c r="BT35" t="n">
-        <v>8.08281277464764e+38</v>
+        <v>2.449</v>
       </c>
       <c r="BU35" t="n">
-        <v>-8.08281277464764e+38</v>
+        <v>2.551</v>
       </c>
       <c r="BV35" t="n">
         <v>53.619</v>
@@ -8476,10 +8476,10 @@
         <v>80.705</v>
       </c>
       <c r="BX35" t="n">
-        <v>3.523276644661731e+190</v>
+        <v>80.44</v>
       </c>
       <c r="BY35" t="n">
-        <v>-3.523276644661731e+190</v>
+        <v>80.97</v>
       </c>
       <c r="BZ35" t="n">
         <v>8.879</v>
@@ -8488,10 +8488,10 @@
         <v>13.364</v>
       </c>
       <c r="CB35" t="n">
-        <v>3.598078882781735e+112</v>
+        <v>13.352</v>
       </c>
       <c r="CC35" t="n">
-        <v>-3.598078882781735e+112</v>
+        <v>13.376</v>
       </c>
       <c r="CD35" t="n">
         <v>5.279</v>
@@ -8500,13 +8500,13 @@
         <v>7.946</v>
       </c>
       <c r="CF35" t="n">
-        <v>7.011000930045736e+88</v>
+        <v>7.735</v>
       </c>
       <c r="CG35" t="n">
-        <v>-7.011000930045736e+88</v>
+        <v>8.157</v>
       </c>
       <c r="CH35" t="n">
-        <v>3.564</v>
+        <v>1.564</v>
       </c>
       <c r="CI35" t="inlineStr">
         <is>
@@ -8677,10 +8677,10 @@
       </c>
       <c r="BJ36" t="inlineStr"/>
       <c r="BK36" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL36" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM36" t="inlineStr"/>
       <c r="BN36" t="inlineStr"/>
@@ -8694,10 +8694,10 @@
         <v>2.667</v>
       </c>
       <c r="BT36" t="n">
-        <v>6.966326217519867e+41</v>
+        <v>2.624</v>
       </c>
       <c r="BU36" t="n">
-        <v>-6.966326217519867e+41</v>
+        <v>2.71</v>
       </c>
       <c r="BV36" t="n">
         <v>62.906</v>
@@ -8706,10 +8706,10 @@
         <v>82.881</v>
       </c>
       <c r="BX36" t="n">
-        <v>5.26107324687789e+191</v>
+        <v>82.688</v>
       </c>
       <c r="BY36" t="n">
-        <v>-5.26107324687789e+191</v>
+        <v>83.074</v>
       </c>
       <c r="BZ36" t="n">
         <v>10.281</v>
@@ -8718,10 +8718,10 @@
         <v>13.546</v>
       </c>
       <c r="CB36" t="n">
-        <v>1.410612392858388e+113</v>
+        <v>13.54</v>
       </c>
       <c r="CC36" t="n">
-        <v>-1.410612392858388e+113</v>
+        <v>13.552</v>
       </c>
       <c r="CD36" t="n">
         <v>5.571</v>
@@ -8730,13 +8730,13 @@
         <v>7.34</v>
       </c>
       <c r="CF36" t="n">
-        <v>2.993985036198083e+85</v>
+        <v>7.147</v>
       </c>
       <c r="CG36" t="n">
-        <v>-2.993985036198083e+85</v>
+        <v>7.533</v>
       </c>
       <c r="CH36" t="n">
-        <v>3.669</v>
+        <v>1.671</v>
       </c>
       <c r="CI36" t="inlineStr">
         <is>
@@ -8907,10 +8907,10 @@
       </c>
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL37" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM37" t="inlineStr"/>
       <c r="BN37" t="inlineStr"/>
@@ -8924,10 +8924,10 @@
         <v>2.75</v>
       </c>
       <c r="BT37" t="n">
-        <v>2.04100465661863e+43</v>
+        <v>2.711</v>
       </c>
       <c r="BU37" t="n">
-        <v>-2.04100465661863e+43</v>
+        <v>2.789</v>
       </c>
       <c r="BV37" t="n">
         <v>68.61799999999999</v>
@@ -8936,10 +8936,10 @@
         <v>83.96899999999999</v>
       </c>
       <c r="BX37" t="n">
-        <v>2.031355723381052e+192</v>
+        <v>83.768</v>
       </c>
       <c r="BY37" t="n">
-        <v>-2.031355723381052e+192</v>
+        <v>84.17</v>
       </c>
       <c r="BZ37" t="n">
         <v>11.144</v>
@@ -8948,10 +8948,10 @@
         <v>13.637</v>
       </c>
       <c r="CB37" t="n">
-        <v>2.791889573283981e+113</v>
+        <v>13.629</v>
       </c>
       <c r="CC37" t="n">
-        <v>-2.791889573283981e+113</v>
+        <v>13.645</v>
       </c>
       <c r="CD37" t="n">
         <v>5.751</v>
@@ -8960,13 +8960,13 @@
         <v>7.038</v>
       </c>
       <c r="CF37" t="n">
-        <v>6.201476220902538e+83</v>
+        <v>6.885</v>
       </c>
       <c r="CG37" t="n">
-        <v>-6.201476220902538e+83</v>
+        <v>7.191</v>
       </c>
       <c r="CH37" t="n">
-        <v>3.714</v>
+        <v>1.714</v>
       </c>
       <c r="CI37" t="inlineStr">
         <is>
@@ -9137,10 +9137,10 @@
       </c>
       <c r="BJ38" t="inlineStr"/>
       <c r="BK38" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL38" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM38" t="inlineStr"/>
       <c r="BN38" t="inlineStr"/>
@@ -9154,10 +9154,10 @@
         <v>3</v>
       </c>
       <c r="BT38" t="n">
-        <v>1.42724769270596e+45</v>
+        <v>2.828</v>
       </c>
       <c r="BU38" t="n">
-        <v>-1.42724769270596e+45</v>
+        <v>3.172</v>
       </c>
       <c r="BV38" t="n">
         <v>52.972</v>
@@ -9166,10 +9166,10 @@
         <v>113.27</v>
       </c>
       <c r="BX38" t="n">
-        <v>4.541422324361021e+202</v>
+        <v>106.309</v>
       </c>
       <c r="BY38" t="n">
-        <v>-4.541422324361021e+202</v>
+        <v>120.231</v>
       </c>
       <c r="BZ38" t="n">
         <v>6.803</v>
@@ -9178,10 +9178,10 @@
         <v>14.547</v>
       </c>
       <c r="CB38" t="n">
-        <v>9.214825884399812e+115</v>
+        <v>14.443</v>
       </c>
       <c r="CC38" t="n">
-        <v>-9.214825884399812e+115</v>
+        <v>14.651</v>
       </c>
       <c r="CD38" t="n">
         <v>5.709</v>
@@ -9190,13 +9190,13 @@
         <v>12.208</v>
       </c>
       <c r="CF38" t="n">
-        <v>5.918989114501499e+107</v>
+        <v>11.96</v>
       </c>
       <c r="CG38" t="n">
-        <v>-5.918989114501499e+107</v>
+        <v>12.456</v>
       </c>
       <c r="CH38" t="n">
-        <v>4.465</v>
+        <v>2.465</v>
       </c>
       <c r="CI38" t="inlineStr">
         <is>
@@ -9367,10 +9367,10 @@
       </c>
       <c r="BJ39" t="inlineStr"/>
       <c r="BK39" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL39" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="inlineStr"/>
@@ -9384,10 +9384,10 @@
         <v>3.334</v>
       </c>
       <c r="BT39" t="n">
-        <v>1.488227678162284e+50</v>
+        <v>3.182</v>
       </c>
       <c r="BU39" t="n">
-        <v>-1.488227678162284e+50</v>
+        <v>3.486</v>
       </c>
       <c r="BV39" t="n">
         <v>57.433</v>
@@ -9396,10 +9396,10 @@
         <v>126.303</v>
       </c>
       <c r="BX39" t="n">
-        <v>7.393928138261645e+207</v>
+        <v>120.149</v>
       </c>
       <c r="BY39" t="n">
-        <v>-7.393928138261645e+207</v>
+        <v>132.457</v>
       </c>
       <c r="BZ39" t="n">
         <v>6.876</v>
@@ -9408,10 +9408,10 @@
         <v>15.121</v>
       </c>
       <c r="CB39" t="n">
-        <v>4.945272113603638e+117</v>
+        <v>15.041</v>
       </c>
       <c r="CC39" t="n">
-        <v>-4.945272113603638e+117</v>
+        <v>15.201</v>
       </c>
       <c r="CD39" t="n">
         <v>5.922</v>
@@ -9420,13 +9420,13 @@
         <v>13.023</v>
       </c>
       <c r="CF39" t="n">
-        <v>5.161802837151998e+110</v>
+        <v>12.815</v>
       </c>
       <c r="CG39" t="n">
-        <v>-5.161802837151998e+110</v>
+        <v>13.231</v>
       </c>
       <c r="CH39" t="n">
-        <v>4.588</v>
+        <v>2.59</v>
       </c>
       <c r="CI39" t="inlineStr">
         <is>
@@ -9597,10 +9597,10 @@
       </c>
       <c r="BJ40" t="inlineStr"/>
       <c r="BK40" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL40" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM40" t="inlineStr"/>
       <c r="BN40" t="inlineStr"/>
@@ -9614,10 +9614,10 @@
         <v>3.5</v>
       </c>
       <c r="BT40" t="n">
-        <v>4.789048565205903e+52</v>
+        <v>3.364</v>
       </c>
       <c r="BU40" t="n">
-        <v>-4.789048565205903e+52</v>
+        <v>3.636</v>
       </c>
       <c r="BV40" t="n">
         <v>59.572</v>
@@ -9626,10 +9626,10 @@
         <v>132.819</v>
       </c>
       <c r="BX40" t="n">
-        <v>2.972717914992697e+210</v>
+        <v>127.272</v>
       </c>
       <c r="BY40" t="n">
-        <v>-2.972717914992697e+210</v>
+        <v>138.366</v>
       </c>
       <c r="BZ40" t="n">
         <v>6.912</v>
@@ -9638,10 +9638,10 @@
         <v>15.411</v>
       </c>
       <c r="CB40" t="n">
-        <v>3.618452838099098e+118</v>
+        <v>15.332</v>
       </c>
       <c r="CC40" t="n">
-        <v>-3.618452838099098e+118</v>
+        <v>15.49</v>
       </c>
       <c r="CD40" t="n">
         <v>6.024</v>
@@ -9650,13 +9650,13 @@
         <v>13.431</v>
       </c>
       <c r="CF40" t="n">
-        <v>1.521235170414617e+112</v>
+        <v>13.238</v>
       </c>
       <c r="CG40" t="n">
-        <v>-1.521235170414617e+112</v>
+        <v>13.624</v>
       </c>
       <c r="CH40" t="n">
-        <v>4.638</v>
+        <v>2.638</v>
       </c>
       <c r="CI40" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="BT41" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU41" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV41" t="n">
         <v>49.913</v>
@@ -9844,10 +9844,10 @@
         <v>84.179</v>
       </c>
       <c r="BX41" t="n">
-        <v>3.312750310193722e+192</v>
+        <v>84.179</v>
       </c>
       <c r="BY41" t="n">
-        <v>-3.312750310193722e+192</v>
+        <v>84.179</v>
       </c>
       <c r="BZ41" t="n">
         <v>6.769</v>
@@ -9856,10 +9856,10 @@
         <v>11.416</v>
       </c>
       <c r="CB41" t="n">
-        <v>5.679100380292329e+105</v>
+        <v>11.417</v>
       </c>
       <c r="CC41" t="n">
-        <v>-5.679100380292329e+105</v>
+        <v>11.415</v>
       </c>
       <c r="CD41" t="n">
         <v>6.142</v>
@@ -9868,13 +9868,13 @@
         <v>10.359</v>
       </c>
       <c r="CF41" t="n">
-        <v>3.410341458507834e+101</v>
+        <v>10.359</v>
       </c>
       <c r="CG41" t="n">
-        <v>-3.410341458507834e+101</v>
+        <v>10.359</v>
       </c>
       <c r="CH41" t="n">
-        <v>2.399</v>
+        <v>0.399</v>
       </c>
       <c r="CI41" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
@@ -10046,10 +10046,10 @@
         <v>2.001</v>
       </c>
       <c r="BT42" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU42" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2.002</v>
       </c>
       <c r="BV42" t="n">
         <v>41.994</v>
@@ -10058,10 +10058,10 @@
         <v>84.179</v>
       </c>
       <c r="BX42" t="n">
-        <v>3.312750310193722e+192</v>
+        <v>84.179</v>
       </c>
       <c r="BY42" t="n">
-        <v>-3.312750310193722e+192</v>
+        <v>84.179</v>
       </c>
       <c r="BZ42" t="n">
         <v>5.695</v>
@@ -10070,10 +10070,10 @@
         <v>11.416</v>
       </c>
       <c r="CB42" t="n">
-        <v>5.679100380292329e+105</v>
+        <v>11.417</v>
       </c>
       <c r="CC42" t="n">
-        <v>-5.679100380292329e+105</v>
+        <v>11.415</v>
       </c>
       <c r="CD42" t="n">
         <v>5.168</v>
@@ -10082,13 +10082,13 @@
         <v>10.36</v>
       </c>
       <c r="CF42" t="n">
-        <v>3.410341458507834e+101</v>
+        <v>10.359</v>
       </c>
       <c r="CG42" t="n">
-        <v>-3.410341458507834e+101</v>
+        <v>10.361</v>
       </c>
       <c r="CH42" t="n">
-        <v>2.399</v>
+        <v>0.399</v>
       </c>
       <c r="CI42" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="BJ43" t="inlineStr"/>
       <c r="BK43" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
@@ -10260,10 +10260,10 @@
         <v>2</v>
       </c>
       <c r="BT43" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU43" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV43" t="n">
         <v>36.243</v>
@@ -10272,10 +10272,10 @@
         <v>84.178</v>
       </c>
       <c r="BX43" t="n">
-        <v>3.312750310193722e+192</v>
+        <v>84.179</v>
       </c>
       <c r="BY43" t="n">
-        <v>-3.312750310193722e+192</v>
+        <v>84.17700000000001</v>
       </c>
       <c r="BZ43" t="n">
         <v>4.916</v>
@@ -10284,10 +10284,10 @@
         <v>11.418</v>
       </c>
       <c r="CB43" t="n">
-        <v>5.679100380292329e+105</v>
+        <v>11.417</v>
       </c>
       <c r="CC43" t="n">
-        <v>-5.679100380292329e+105</v>
+        <v>11.419</v>
       </c>
       <c r="CD43" t="n">
         <v>4.46</v>
@@ -10296,13 +10296,13 @@
         <v>10.359</v>
       </c>
       <c r="CF43" t="n">
-        <v>3.410341458507834e+101</v>
+        <v>10.359</v>
       </c>
       <c r="CG43" t="n">
-        <v>-3.410341458507834e+101</v>
+        <v>10.359</v>
       </c>
       <c r="CH43" t="n">
-        <v>2.399</v>
+        <v>0.399</v>
       </c>
       <c r="CI43" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL44" t="inlineStr"/>
       <c r="BM44" t="inlineStr"/>
@@ -10474,10 +10474,10 @@
         <v>2</v>
       </c>
       <c r="BT44" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU44" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV44" t="n">
         <v>33.794</v>
@@ -10486,10 +10486,10 @@
         <v>84.18000000000001</v>
       </c>
       <c r="BX44" t="n">
-        <v>3.312750310193722e+192</v>
+        <v>84.179</v>
       </c>
       <c r="BY44" t="n">
-        <v>-3.312750310193722e+192</v>
+        <v>84.181</v>
       </c>
       <c r="BZ44" t="n">
         <v>4.583</v>
@@ -10498,10 +10498,10 @@
         <v>11.416</v>
       </c>
       <c r="CB44" t="n">
-        <v>5.679100380292329e+105</v>
+        <v>11.417</v>
       </c>
       <c r="CC44" t="n">
-        <v>-5.679100380292329e+105</v>
+        <v>11.415</v>
       </c>
       <c r="CD44" t="n">
         <v>4.159</v>
@@ -10510,13 +10510,13 @@
         <v>10.36</v>
       </c>
       <c r="CF44" t="n">
-        <v>3.410341458507834e+101</v>
+        <v>10.359</v>
       </c>
       <c r="CG44" t="n">
-        <v>-3.410341458507834e+101</v>
+        <v>10.361</v>
       </c>
       <c r="CH44" t="n">
-        <v>2.399</v>
+        <v>0.399</v>
       </c>
       <c r="CI44" t="inlineStr">
         <is>
@@ -10683,10 +10683,10 @@
       </c>
       <c r="BJ45" t="inlineStr"/>
       <c r="BK45" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL45" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM45" t="inlineStr"/>
       <c r="BN45" t="inlineStr"/>
@@ -10700,10 +10700,10 @@
         <v>2</v>
       </c>
       <c r="BT45" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU45" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV45" t="n">
         <v>51.823</v>
@@ -10712,10 +10712,10 @@
         <v>96.128</v>
       </c>
       <c r="BX45" t="n">
-        <v>8.851123951406993e+197</v>
+        <v>95.383</v>
       </c>
       <c r="BY45" t="n">
-        <v>-8.851123951406993e+197</v>
+        <v>96.873</v>
       </c>
       <c r="BZ45" t="n">
         <v>6.527</v>
@@ -10724,10 +10724,10 @@
         <v>12.107</v>
       </c>
       <c r="CB45" t="n">
-        <v>1.721402165315768e+108</v>
+        <v>12.088</v>
       </c>
       <c r="CC45" t="n">
-        <v>-1.721402165315768e+108</v>
+        <v>12.126</v>
       </c>
       <c r="CD45" t="n">
         <v>5.645</v>
@@ -10736,13 +10736,13 @@
         <v>10.471</v>
       </c>
       <c r="CF45" t="n">
-        <v>9.835727314846698e+101</v>
+        <v>10.47</v>
       </c>
       <c r="CG45" t="n">
-        <v>-9.835727314846698e+101</v>
+        <v>10.472</v>
       </c>
       <c r="CH45" t="n">
-        <v>4.296</v>
+        <v>2.296</v>
       </c>
       <c r="CI45" t="inlineStr">
         <is>
@@ -10913,10 +10913,10 @@
       </c>
       <c r="BJ46" t="inlineStr"/>
       <c r="BK46" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL46" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM46" t="inlineStr"/>
       <c r="BN46" t="inlineStr"/>
@@ -10930,10 +10930,10 @@
         <v>2</v>
       </c>
       <c r="BT46" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU46" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV46" t="n">
         <v>58.923</v>
@@ -10942,10 +10942,10 @@
         <v>100.112</v>
       </c>
       <c r="BX46" t="n">
-        <v>5.705540376486032e+199</v>
+        <v>99.52200000000001</v>
       </c>
       <c r="BY46" t="n">
-        <v>-5.705540376486032e+199</v>
+        <v>100.702</v>
       </c>
       <c r="BZ46" t="n">
         <v>7.262</v>
@@ -10954,10 +10954,10 @@
         <v>12.338</v>
       </c>
       <c r="CB46" t="n">
-        <v>1.1567745318131e+109</v>
+        <v>12.325</v>
       </c>
       <c r="CC46" t="n">
-        <v>-1.1567745318131e+109</v>
+        <v>12.351</v>
       </c>
       <c r="CD46" t="n">
         <v>6.184</v>
@@ -10966,13 +10966,13 @@
         <v>10.507</v>
       </c>
       <c r="CF46" t="n">
-        <v>1.400146090801529e+102</v>
+        <v>10.507</v>
       </c>
       <c r="CG46" t="n">
-        <v>-1.400146090801529e+102</v>
+        <v>10.507</v>
       </c>
       <c r="CH46" t="n">
-        <v>4.419</v>
+        <v>2.421</v>
       </c>
       <c r="CI46" t="inlineStr">
         <is>
@@ -11143,10 +11143,10 @@
       </c>
       <c r="BJ47" t="inlineStr"/>
       <c r="BK47" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL47" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM47" t="inlineStr"/>
       <c r="BN47" t="inlineStr"/>
@@ -11160,10 +11160,10 @@
         <v>2</v>
       </c>
       <c r="BT47" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU47" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV47" t="n">
         <v>63.167</v>
@@ -11172,10 +11172,10 @@
         <v>102.104</v>
       </c>
       <c r="BX47" t="n">
-        <v>4.57512835135982e+200</v>
+        <v>101.532</v>
       </c>
       <c r="BY47" t="n">
-        <v>-4.57512835135982e+200</v>
+        <v>102.676</v>
       </c>
       <c r="BZ47" t="n">
         <v>7.704</v>
@@ -11184,10 +11184,10 @@
         <v>12.453</v>
       </c>
       <c r="CB47" t="n">
-        <v>2.996979310621523e+109</v>
+        <v>12.438</v>
       </c>
       <c r="CC47" t="n">
-        <v>-2.996979310621523e+109</v>
+        <v>12.468</v>
       </c>
       <c r="CD47" t="n">
         <v>6.512</v>
@@ -11196,13 +11196,13 @@
         <v>10.526</v>
       </c>
       <c r="CF47" t="n">
-        <v>1.670362715618325e+102</v>
+        <v>10.525</v>
       </c>
       <c r="CG47" t="n">
-        <v>-1.670362715618325e+102</v>
+        <v>10.527</v>
       </c>
       <c r="CH47" t="n">
-        <v>4.47</v>
+        <v>2.47</v>
       </c>
       <c r="CI47" t="inlineStr">
         <is>
@@ -11373,10 +11373,10 @@
       </c>
       <c r="BJ48" t="inlineStr"/>
       <c r="BK48" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL48" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM48" t="inlineStr"/>
       <c r="BN48" t="inlineStr"/>
@@ -11390,10 +11390,10 @@
         <v>2.499</v>
       </c>
       <c r="BT48" t="n">
-        <v>8.08281277464764e+38</v>
+        <v>2.449</v>
       </c>
       <c r="BU48" t="n">
-        <v>-8.08281277464764e+38</v>
+        <v>2.549</v>
       </c>
       <c r="BV48" t="n">
         <v>52.502</v>
@@ -11402,10 +11402,10 @@
         <v>85.706</v>
       </c>
       <c r="BX48" t="n">
-        <v>1.969731187280753e+193</v>
+        <v>85.693</v>
       </c>
       <c r="BY48" t="n">
-        <v>-1.969731187280753e+193</v>
+        <v>85.71899999999999</v>
       </c>
       <c r="BZ48" t="n">
         <v>7.758</v>
@@ -11414,10 +11414,10 @@
         <v>12.664</v>
       </c>
       <c r="CB48" t="n">
-        <v>1.109181632119873e+110</v>
+        <v>12.602</v>
       </c>
       <c r="CC48" t="n">
-        <v>-1.109181632119873e+110</v>
+        <v>12.726</v>
       </c>
       <c r="CD48" t="n">
         <v>5.05</v>
@@ -11426,13 +11426,13 @@
         <v>8.244</v>
       </c>
       <c r="CF48" t="n">
-        <v>1.367741431520992e+90</v>
+        <v>7.968</v>
       </c>
       <c r="CG48" t="n">
-        <v>-1.367741431520992e+90</v>
+        <v>8.52</v>
       </c>
       <c r="CH48" t="n">
-        <v>3.541</v>
+        <v>1.541</v>
       </c>
       <c r="CI48" t="inlineStr">
         <is>
@@ -11603,10 +11603,10 @@
       </c>
       <c r="BJ49" t="inlineStr"/>
       <c r="BK49" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL49" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM49" t="inlineStr"/>
       <c r="BN49" t="inlineStr"/>
@@ -11620,10 +11620,10 @@
         <v>2.667</v>
       </c>
       <c r="BT49" t="n">
-        <v>6.966326217519867e+41</v>
+        <v>2.624</v>
       </c>
       <c r="BU49" t="n">
-        <v>-6.966326217519867e+41</v>
+        <v>2.71</v>
       </c>
       <c r="BV49" t="n">
         <v>63.163</v>
@@ -11632,10 +11632,10 @@
         <v>86.21599999999999</v>
       </c>
       <c r="BX49" t="n">
-        <v>3.568874929542005e+193</v>
+        <v>86.214</v>
       </c>
       <c r="BY49" t="n">
-        <v>-3.568874929542005e+193</v>
+        <v>86.218</v>
       </c>
       <c r="BZ49" t="n">
         <v>9.582000000000001</v>
@@ -11644,10 +11644,10 @@
         <v>13.079</v>
       </c>
       <c r="CB49" t="n">
-        <v>2.989026453620814e+111</v>
+        <v>13.033</v>
       </c>
       <c r="CC49" t="n">
-        <v>-2.989026453620814e+111</v>
+        <v>13.125</v>
       </c>
       <c r="CD49" t="n">
         <v>5.523</v>
@@ -11656,13 +11656,13 @@
         <v>7.539</v>
       </c>
       <c r="CF49" t="n">
-        <v>2.169266598299541e+86</v>
+        <v>7.288</v>
       </c>
       <c r="CG49" t="n">
-        <v>-2.169266598299541e+86</v>
+        <v>7.79</v>
       </c>
       <c r="CH49" t="n">
-        <v>3.658</v>
+        <v>1.66</v>
       </c>
       <c r="CI49" t="inlineStr">
         <is>
@@ -11833,10 +11833,10 @@
       </c>
       <c r="BJ50" t="inlineStr"/>
       <c r="BK50" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL50" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM50" t="inlineStr"/>
       <c r="BN50" t="inlineStr"/>
@@ -11850,10 +11850,10 @@
         <v>2.75</v>
       </c>
       <c r="BT50" t="n">
-        <v>2.04100465661863e+43</v>
+        <v>2.711</v>
       </c>
       <c r="BU50" t="n">
-        <v>-2.04100465661863e+43</v>
+        <v>2.789</v>
       </c>
       <c r="BV50" t="n">
         <v>69.43899999999999</v>
@@ -11862,10 +11862,10 @@
         <v>86.471</v>
       </c>
       <c r="BX50" t="n">
-        <v>4.803038747582549e+193</v>
+        <v>86.45999999999999</v>
       </c>
       <c r="BY50" t="n">
-        <v>-4.803038747582549e+193</v>
+        <v>86.482</v>
       </c>
       <c r="BZ50" t="n">
         <v>10.67</v>
@@ -11874,10 +11874,10 @@
         <v>13.287</v>
       </c>
       <c r="CB50" t="n">
-        <v>1.550116114723028e+112</v>
+        <v>13.24</v>
       </c>
       <c r="CC50" t="n">
-        <v>-1.550116114723028e+112</v>
+        <v>13.334</v>
       </c>
       <c r="CD50" t="n">
         <v>5.771</v>
@@ -11886,13 +11886,13 @@
         <v>7.186</v>
       </c>
       <c r="CF50" t="n">
-        <v>2.739094852606898e+84</v>
+        <v>6.988</v>
       </c>
       <c r="CG50" t="n">
-        <v>-2.739094852606898e+84</v>
+        <v>7.384</v>
       </c>
       <c r="CH50" t="n">
-        <v>3.706</v>
+        <v>1.706</v>
       </c>
       <c r="CI50" t="inlineStr">
         <is>
@@ -12063,10 +12063,10 @@
       </c>
       <c r="BJ51" t="inlineStr"/>
       <c r="BK51" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL51" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM51" t="inlineStr"/>
       <c r="BN51" t="inlineStr"/>
@@ -12080,10 +12080,10 @@
         <v>2.999</v>
       </c>
       <c r="BT51" t="n">
-        <v>1.42724769270596e+45</v>
+        <v>2.828</v>
       </c>
       <c r="BU51" t="n">
-        <v>-1.42724769270596e+45</v>
+        <v>3.17</v>
       </c>
       <c r="BV51" t="n">
         <v>53.081</v>
@@ -12092,10 +12092,10 @@
         <v>118.273</v>
       </c>
       <c r="BX51" t="n">
-        <v>2.5389380650709e+205</v>
+        <v>113.252</v>
       </c>
       <c r="BY51" t="n">
-        <v>-2.5389380650709e+205</v>
+        <v>123.294</v>
       </c>
       <c r="BZ51" t="n">
         <v>6.214</v>
@@ -12104,10 +12104,10 @@
         <v>13.846</v>
       </c>
       <c r="CB51" t="n">
-        <v>2.840659125921407e+113</v>
+        <v>13.631</v>
       </c>
       <c r="CC51" t="n">
-        <v>-2.840659125921407e+113</v>
+        <v>14.061</v>
       </c>
       <c r="CD51" t="n">
         <v>5.613</v>
@@ -12116,13 +12116,13 @@
         <v>12.507</v>
       </c>
       <c r="CF51" t="n">
-        <v>1.154706257409188e+109</v>
+        <v>12.32</v>
       </c>
       <c r="CG51" t="n">
-        <v>-1.154706257409188e+109</v>
+        <v>12.694</v>
       </c>
       <c r="CH51" t="n">
-        <v>4.462</v>
+        <v>2.462</v>
       </c>
       <c r="CI51" t="inlineStr">
         <is>
@@ -12293,10 +12293,10 @@
       </c>
       <c r="BJ52" t="inlineStr"/>
       <c r="BK52" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL52" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM52" t="inlineStr"/>
       <c r="BN52" t="inlineStr"/>
@@ -12310,10 +12310,10 @@
         <v>3.334</v>
       </c>
       <c r="BT52" t="n">
-        <v>1.488227678162284e+50</v>
+        <v>3.182</v>
       </c>
       <c r="BU52" t="n">
-        <v>-1.488227678162284e+50</v>
+        <v>3.486</v>
       </c>
       <c r="BV52" t="n">
         <v>58.682</v>
@@ -12322,10 +12322,10 @@
         <v>129.638</v>
       </c>
       <c r="BX52" t="n">
-        <v>5.015707542018497e+209</v>
+        <v>125.272</v>
       </c>
       <c r="BY52" t="n">
-        <v>-5.015707542018497e+209</v>
+        <v>134.004</v>
       </c>
       <c r="BZ52" t="n">
         <v>6.634</v>
@@ -12334,10 +12334,10 @@
         <v>14.656</v>
       </c>
       <c r="CB52" t="n">
-        <v>1.04788170320566e+116</v>
+        <v>14.478</v>
       </c>
       <c r="CC52" t="n">
-        <v>-1.04788170320566e+116</v>
+        <v>14.834</v>
       </c>
       <c r="CD52" t="n">
         <v>5.985</v>
@@ -12346,13 +12346,13 @@
         <v>13.222</v>
       </c>
       <c r="CF52" t="n">
-        <v>3.739940696517502e+111</v>
+        <v>13.068</v>
       </c>
       <c r="CG52" t="n">
-        <v>-3.739940696517502e+111</v>
+        <v>13.376</v>
       </c>
       <c r="CH52" t="n">
-        <v>4.586</v>
+        <v>2.588</v>
       </c>
       <c r="CI52" t="inlineStr">
         <is>
@@ -12523,10 +12523,10 @@
       </c>
       <c r="BJ53" t="inlineStr"/>
       <c r="BK53" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL53" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM53" t="inlineStr"/>
       <c r="BN53" t="inlineStr"/>
@@ -12540,10 +12540,10 @@
         <v>3.501</v>
       </c>
       <c r="BT53" t="n">
-        <v>4.789048565205903e+52</v>
+        <v>3.364</v>
       </c>
       <c r="BU53" t="n">
-        <v>-4.789048565205903e+52</v>
+        <v>3.638</v>
       </c>
       <c r="BV53" t="n">
         <v>61</v>
@@ -12552,10 +12552,10 @@
         <v>135.32</v>
       </c>
       <c r="BX53" t="n">
-        <v>7.02884244595912e+211</v>
+        <v>131.362</v>
       </c>
       <c r="BY53" t="n">
-        <v>-7.02884244595912e+211</v>
+        <v>139.278</v>
       </c>
       <c r="BZ53" t="n">
         <v>6.789</v>
@@ -12564,10 +12564,10 @@
         <v>15.061</v>
       </c>
       <c r="CB53" t="n">
-        <v>2.009041513810675e+117</v>
+        <v>14.895</v>
       </c>
       <c r="CC53" t="n">
-        <v>-2.009041513810675e+117</v>
+        <v>15.227</v>
       </c>
       <c r="CD53" t="n">
         <v>6.121</v>
@@ -12576,13 +12576,13 @@
         <v>13.579</v>
       </c>
       <c r="CF53" t="n">
-        <v>6.719057328386941e+112</v>
+        <v>13.436</v>
       </c>
       <c r="CG53" t="n">
-        <v>-6.719057328386941e+112</v>
+        <v>13.722</v>
       </c>
       <c r="CH53" t="n">
-        <v>4.637</v>
+        <v>2.637</v>
       </c>
       <c r="CI53" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="BJ54" t="inlineStr"/>
       <c r="BK54" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL54" t="inlineStr"/>
       <c r="BM54" t="inlineStr"/>
@@ -12758,10 +12758,10 @@
         <v>3.001</v>
       </c>
       <c r="BT54" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU54" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3.002</v>
       </c>
       <c r="BV54" t="n">
         <v>51.139</v>
@@ -12770,10 +12770,10 @@
         <v>118.77</v>
       </c>
       <c r="BX54" t="n">
-        <v>2.95731504490433e+207</v>
+        <v>118.771</v>
       </c>
       <c r="BY54" t="n">
-        <v>-2.95731504490433e+207</v>
+        <v>118.769</v>
       </c>
       <c r="BZ54" t="n">
         <v>7.502</v>
@@ -12782,10 +12782,10 @@
         <v>17.423</v>
       </c>
       <c r="CB54" t="n">
-        <v>1.302002341630217e+124</v>
+        <v>17.424</v>
       </c>
       <c r="CC54" t="n">
-        <v>-1.302002341630217e+124</v>
+        <v>17.422</v>
       </c>
       <c r="CD54" t="n">
         <v>6.188</v>
@@ -12794,13 +12794,13 @@
         <v>14.372</v>
       </c>
       <c r="CF54" t="n">
-        <v>5.648490197656238e+115</v>
+        <v>14.372</v>
       </c>
       <c r="CG54" t="n">
-        <v>-5.648490197656238e+115</v>
+        <v>14.372</v>
       </c>
       <c r="CH54" t="n">
-        <v>3.179</v>
+        <v>1.179</v>
       </c>
       <c r="CI54" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="BJ55" t="inlineStr"/>
       <c r="BK55" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL55" t="inlineStr"/>
       <c r="BM55" t="inlineStr"/>
@@ -12972,10 +12972,10 @@
         <v>2.999</v>
       </c>
       <c r="BT55" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU55" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV55" t="n">
         <v>45.626</v>
@@ -12984,10 +12984,10 @@
         <v>118.769</v>
       </c>
       <c r="BX55" t="n">
-        <v>2.95731504490433e+207</v>
+        <v>118.771</v>
       </c>
       <c r="BY55" t="n">
-        <v>-2.95731504490433e+207</v>
+        <v>118.767</v>
       </c>
       <c r="BZ55" t="n">
         <v>6.694</v>
@@ -12996,10 +12996,10 @@
         <v>17.425</v>
       </c>
       <c r="CB55" t="n">
-        <v>1.302002341630217e+124</v>
+        <v>17.424</v>
       </c>
       <c r="CC55" t="n">
-        <v>-1.302002341630217e+124</v>
+        <v>17.426</v>
       </c>
       <c r="CD55" t="n">
         <v>5.521</v>
@@ -13008,13 +13008,13 @@
         <v>14.372</v>
       </c>
       <c r="CF55" t="n">
-        <v>5.648490197656238e+115</v>
+        <v>14.372</v>
       </c>
       <c r="CG55" t="n">
-        <v>-5.648490197656238e+115</v>
+        <v>14.372</v>
       </c>
       <c r="CH55" t="n">
-        <v>3.179</v>
+        <v>1.179</v>
       </c>
       <c r="CI55" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="BJ56" t="inlineStr"/>
       <c r="BK56" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL56" t="inlineStr"/>
       <c r="BM56" t="inlineStr"/>
@@ -13186,10 +13186,10 @@
         <v>3.001</v>
       </c>
       <c r="BT56" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU56" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3.002</v>
       </c>
       <c r="BV56" t="n">
         <v>64.175</v>
@@ -13198,10 +13198,10 @@
         <v>167.321</v>
       </c>
       <c r="BX56" t="n">
-        <v>2.264246409987082e+222</v>
+        <v>167.321</v>
       </c>
       <c r="BY56" t="n">
-        <v>-2.264246409987082e+222</v>
+        <v>167.321</v>
       </c>
       <c r="BZ56" t="n">
         <v>10.302</v>
@@ -13210,10 +13210,10 @@
         <v>26.86</v>
       </c>
       <c r="CB56" t="n">
-        <v>8.136376941347036e+142</v>
+        <v>26.86</v>
       </c>
       <c r="CC56" t="n">
-        <v>-8.136376941347036e+142</v>
+        <v>26.86</v>
       </c>
       <c r="CD56" t="n">
         <v>11.109</v>
@@ -13222,13 +13222,13 @@
         <v>28.964</v>
       </c>
       <c r="CF56" t="n">
-        <v>1.534656985509174e+146</v>
+        <v>28.964</v>
       </c>
       <c r="CG56" t="n">
-        <v>-1.534656985509174e+146</v>
+        <v>28.964</v>
       </c>
       <c r="CH56" t="n">
-        <v>4.204</v>
+        <v>2.204</v>
       </c>
       <c r="CI56" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="BJ57" t="inlineStr"/>
       <c r="BK57" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL57" t="inlineStr"/>
       <c r="BM57" t="inlineStr"/>
@@ -13400,10 +13400,10 @@
         <v>3.001</v>
       </c>
       <c r="BT57" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU57" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3.002</v>
       </c>
       <c r="BV57" t="n">
         <v>57.198</v>
@@ -13412,10 +13412,10 @@
         <v>167.321</v>
       </c>
       <c r="BX57" t="n">
-        <v>2.264246409987082e+222</v>
+        <v>167.321</v>
       </c>
       <c r="BY57" t="n">
-        <v>-2.264246409987082e+222</v>
+        <v>167.321</v>
       </c>
       <c r="BZ57" t="n">
         <v>9.182</v>
@@ -13424,10 +13424,10 @@
         <v>26.86</v>
       </c>
       <c r="CB57" t="n">
-        <v>8.136376941347036e+142</v>
+        <v>26.86</v>
       </c>
       <c r="CC57" t="n">
-        <v>-8.136376941347036e+142</v>
+        <v>26.86</v>
       </c>
       <c r="CD57" t="n">
         <v>9.901</v>
@@ -13436,13 +13436,13 @@
         <v>28.963</v>
       </c>
       <c r="CF57" t="n">
-        <v>1.534656985509174e+146</v>
+        <v>28.964</v>
       </c>
       <c r="CG57" t="n">
-        <v>-1.534656985509174e+146</v>
+        <v>28.962</v>
       </c>
       <c r="CH57" t="n">
-        <v>4.204</v>
+        <v>2.204</v>
       </c>
       <c r="CI57" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="BJ58" t="inlineStr"/>
       <c r="BK58" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BL58" t="inlineStr"/>
       <c r="BM58" t="inlineStr"/>
@@ -13614,10 +13614,10 @@
         <v>2.999</v>
       </c>
       <c r="BT58" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU58" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV58" t="n">
         <v>49.043</v>
@@ -13626,10 +13626,10 @@
         <v>167.32</v>
       </c>
       <c r="BX58" t="n">
-        <v>2.264246409987082e+222</v>
+        <v>167.321</v>
       </c>
       <c r="BY58" t="n">
-        <v>-2.264246409987082e+222</v>
+        <v>167.319</v>
       </c>
       <c r="BZ58" t="n">
         <v>7.873</v>
@@ -13638,10 +13638,10 @@
         <v>26.86</v>
       </c>
       <c r="CB58" t="n">
-        <v>8.136376941347036e+142</v>
+        <v>26.86</v>
       </c>
       <c r="CC58" t="n">
-        <v>-8.136376941347036e+142</v>
+        <v>26.86</v>
       </c>
       <c r="CD58" t="n">
         <v>8.49</v>
@@ -13650,13 +13650,13 @@
         <v>28.965</v>
       </c>
       <c r="CF58" t="n">
-        <v>1.534656985509174e+146</v>
+        <v>28.964</v>
       </c>
       <c r="CG58" t="n">
-        <v>-1.534656985509174e+146</v>
+        <v>28.966</v>
       </c>
       <c r="CH58" t="n">
-        <v>4.204</v>
+        <v>2.204</v>
       </c>
       <c r="CI58" t="inlineStr">
         <is>
@@ -13823,10 +13823,10 @@
       </c>
       <c r="BJ59" t="inlineStr"/>
       <c r="BK59" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL59" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM59" t="inlineStr"/>
       <c r="BN59" t="inlineStr"/>
@@ -13840,10 +13840,10 @@
         <v>2.5</v>
       </c>
       <c r="BT59" t="n">
-        <v>8.08281277464764e+38</v>
+        <v>2.449</v>
       </c>
       <c r="BU59" t="n">
-        <v>-8.08281277464764e+38</v>
+        <v>2.551</v>
       </c>
       <c r="BV59" t="n">
         <v>55.442</v>
@@ -13852,10 +13852,10 @@
         <v>89.959</v>
       </c>
       <c r="BX59" t="n">
-        <v>2.424619160705933e+195</v>
+        <v>89.91800000000001</v>
       </c>
       <c r="BY59" t="n">
-        <v>-2.424619160705933e+195</v>
+        <v>90</v>
       </c>
       <c r="BZ59" t="n">
         <v>8.483000000000001</v>
@@ -13864,10 +13864,10 @@
         <v>13.764</v>
       </c>
       <c r="CB59" t="n">
-        <v>7.483037309336311e+113</v>
+        <v>13.764</v>
       </c>
       <c r="CC59" t="n">
-        <v>-7.483037309336311e+113</v>
+        <v>13.764</v>
       </c>
       <c r="CD59" t="n">
         <v>5.164</v>
@@ -13876,13 +13876,13 @@
         <v>8.379</v>
       </c>
       <c r="CF59" t="n">
-        <v>4.960958222714834e+90</v>
+        <v>8.071999999999999</v>
       </c>
       <c r="CG59" t="n">
-        <v>-4.960958222714834e+90</v>
+        <v>8.686</v>
       </c>
       <c r="CH59" t="n">
-        <v>3.548</v>
+        <v>1.548</v>
       </c>
       <c r="CI59" t="inlineStr">
         <is>
@@ -14053,10 +14053,10 @@
       </c>
       <c r="BJ60" t="inlineStr"/>
       <c r="BK60" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL60" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM60" t="inlineStr"/>
       <c r="BN60" t="inlineStr"/>
@@ -14070,10 +14070,10 @@
         <v>2.666</v>
       </c>
       <c r="BT60" t="n">
-        <v>6.966326217519867e+41</v>
+        <v>2.624</v>
       </c>
       <c r="BU60" t="n">
-        <v>-6.966326217519867e+41</v>
+        <v>2.708</v>
       </c>
       <c r="BV60" t="n">
         <v>65.256</v>
@@ -14082,10 +14082,10 @@
         <v>89.05</v>
       </c>
       <c r="BX60" t="n">
-        <v>8.828420836639852e+194</v>
+        <v>88.996</v>
       </c>
       <c r="BY60" t="n">
-        <v>-8.828420836639852e+194</v>
+        <v>89.104</v>
       </c>
       <c r="BZ60" t="n">
         <v>10.122</v>
@@ -14094,10 +14094,10 @@
         <v>13.813</v>
       </c>
       <c r="CB60" t="n">
-        <v>1.066574790761749e+114</v>
+        <v>13.814</v>
       </c>
       <c r="CC60" t="n">
-        <v>-1.066574790761749e+114</v>
+        <v>13.812</v>
       </c>
       <c r="CD60" t="n">
         <v>5.591</v>
@@ -14106,13 +14106,13 @@
         <v>7.63</v>
       </c>
       <c r="CF60" t="n">
-        <v>5.120550690398318e+86</v>
+        <v>7.35</v>
       </c>
       <c r="CG60" t="n">
-        <v>-5.120550690398318e+86</v>
+        <v>7.91</v>
       </c>
       <c r="CH60" t="n">
-        <v>3.662</v>
+        <v>1.663</v>
       </c>
       <c r="CI60" t="inlineStr">
         <is>
@@ -14283,10 +14283,10 @@
       </c>
       <c r="BJ61" t="inlineStr"/>
       <c r="BK61" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL61" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM61" t="inlineStr"/>
       <c r="BN61" t="inlineStr"/>
@@ -14300,10 +14300,10 @@
         <v>2.75</v>
       </c>
       <c r="BT61" t="n">
-        <v>2.04100465661863e+43</v>
+        <v>2.711</v>
       </c>
       <c r="BU61" t="n">
-        <v>-2.04100465661863e+43</v>
+        <v>2.789</v>
       </c>
       <c r="BV61" t="n">
         <v>71.161</v>
@@ -14312,10 +14312,10 @@
         <v>88.59699999999999</v>
       </c>
       <c r="BX61" t="n">
-        <v>5.328860803156043e+194</v>
+        <v>88.566</v>
       </c>
       <c r="BY61" t="n">
-        <v>-5.328860803156043e+194</v>
+        <v>88.628</v>
       </c>
       <c r="BZ61" t="n">
         <v>11.115</v>
@@ -14324,10 +14324,10 @@
         <v>13.838</v>
       </c>
       <c r="CB61" t="n">
-        <v>1.273215308903435e+114</v>
+        <v>13.837</v>
       </c>
       <c r="CC61" t="n">
-        <v>-1.273215308903435e+114</v>
+        <v>13.839</v>
       </c>
       <c r="CD61" t="n">
         <v>5.827</v>
@@ -14336,13 +14336,13 @@
         <v>7.255</v>
       </c>
       <c r="CF61" t="n">
-        <v>5.216603822738058e+84</v>
+        <v>7.034</v>
       </c>
       <c r="CG61" t="n">
-        <v>-5.216603822738058e+84</v>
+        <v>7.476</v>
       </c>
       <c r="CH61" t="n">
-        <v>3.709</v>
+        <v>1.709</v>
       </c>
       <c r="CI61" t="inlineStr">
         <is>
@@ -14513,10 +14513,10 @@
       </c>
       <c r="BJ62" t="inlineStr"/>
       <c r="BK62" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BL62" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BM62" t="inlineStr"/>
       <c r="BN62" t="inlineStr"/>
@@ -14530,10 +14530,10 @@
         <v>2.666</v>
       </c>
       <c r="BT62" t="n">
-        <v>1.368766356267403e+40</v>
+        <v>2.514</v>
       </c>
       <c r="BU62" t="n">
-        <v>-1.368766356267403e+40</v>
+        <v>2.818</v>
       </c>
       <c r="BV62" t="n">
         <v>49.025</v>
@@ -14542,10 +14542,10 @@
         <v>112.579</v>
       </c>
       <c r="BX62" t="n">
-        <v>7.872151665868222e+203</v>
+        <v>109.207</v>
       </c>
       <c r="BY62" t="n">
-        <v>-7.872151665868222e+203</v>
+        <v>115.951</v>
       </c>
       <c r="BZ62" t="n">
         <v>6.316</v>
@@ -14554,10 +14554,10 @@
         <v>14.504</v>
       </c>
       <c r="CB62" t="n">
-        <v>9.822338892522148e+115</v>
+        <v>14.443</v>
       </c>
       <c r="CC62" t="n">
-        <v>-9.822338892522148e+115</v>
+        <v>14.565</v>
       </c>
       <c r="CD62" t="n">
         <v>5.213</v>
@@ -14566,13 +14566,13 @@
         <v>11.971</v>
       </c>
       <c r="CF62" t="n">
-        <v>1.986999310043316e+107</v>
+        <v>11.817</v>
       </c>
       <c r="CG62" t="n">
-        <v>-1.986999310043316e+107</v>
+        <v>12.125</v>
       </c>
       <c r="CH62" t="n">
-        <v>4.29</v>
+        <v>2.285</v>
       </c>
       <c r="CI62" t="inlineStr">
         <is>
@@ -14743,10 +14743,10 @@
       </c>
       <c r="BJ63" t="inlineStr"/>
       <c r="BK63" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL63" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM63" t="inlineStr"/>
       <c r="BN63" t="inlineStr"/>
@@ -14760,10 +14760,10 @@
         <v>3.001</v>
       </c>
       <c r="BT63" t="n">
-        <v>1.42724769270596e+45</v>
+        <v>2.828</v>
       </c>
       <c r="BU63" t="n">
-        <v>-1.42724769270596e+45</v>
+        <v>3.174</v>
       </c>
       <c r="BV63" t="n">
         <v>55.002</v>
@@ -14772,10 +14772,10 @@
         <v>122.525</v>
       </c>
       <c r="BX63" t="n">
-        <v>3.125278170020223e+207</v>
+        <v>118.836</v>
       </c>
       <c r="BY63" t="n">
-        <v>-3.125278170020223e+207</v>
+        <v>126.214</v>
       </c>
       <c r="BZ63" t="n">
         <v>6.71</v>
@@ -14784,10 +14784,10 @@
         <v>14.948</v>
       </c>
       <c r="CB63" t="n">
-        <v>1.916436191045695e+117</v>
+        <v>14.888</v>
       </c>
       <c r="CC63" t="n">
-        <v>-1.916436191045695e+117</v>
+        <v>15.008</v>
       </c>
       <c r="CD63" t="n">
         <v>5.675</v>
@@ -14796,13 +14796,13 @@
         <v>12.642</v>
       </c>
       <c r="CF63" t="n">
-        <v>4.188254717226839e+109</v>
+        <v>12.48</v>
       </c>
       <c r="CG63" t="n">
-        <v>-4.188254717226839e+109</v>
+        <v>12.804</v>
       </c>
       <c r="CH63" t="n">
-        <v>4.463</v>
+        <v>2.463</v>
       </c>
       <c r="CI63" t="inlineStr">
         <is>
@@ -14973,10 +14973,10 @@
       </c>
       <c r="BJ64" t="inlineStr"/>
       <c r="BK64" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL64" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM64" t="inlineStr"/>
       <c r="BN64" t="inlineStr"/>
@@ -14990,10 +14990,10 @@
         <v>3.333</v>
       </c>
       <c r="BT64" t="n">
-        <v>1.488227678162284e+50</v>
+        <v>3.182</v>
       </c>
       <c r="BU64" t="n">
-        <v>-1.488227678162284e+50</v>
+        <v>3.484</v>
       </c>
       <c r="BV64" t="n">
         <v>59.975</v>
@@ -15002,10 +15002,10 @@
         <v>132.474</v>
       </c>
       <c r="BX64" t="n">
-        <v>1.240748915236722e+211</v>
+        <v>129.315</v>
       </c>
       <c r="BY64" t="n">
-        <v>-1.240748915236722e+211</v>
+        <v>135.633</v>
       </c>
       <c r="BZ64" t="n">
         <v>6.967</v>
@@ -15014,10 +15014,10 @@
         <v>15.389</v>
       </c>
       <c r="CB64" t="n">
-        <v>3.739157968929191e+118</v>
+        <v>15.346</v>
       </c>
       <c r="CC64" t="n">
-        <v>-3.739157968929191e+118</v>
+        <v>15.432</v>
       </c>
       <c r="CD64" t="n">
         <v>6.027</v>
@@ -15026,13 +15026,13 @@
         <v>13.313</v>
       </c>
       <c r="CF64" t="n">
-        <v>8.828124643883477e+111</v>
+        <v>13.18</v>
       </c>
       <c r="CG64" t="n">
-        <v>-8.828124643883477e+111</v>
+        <v>13.446</v>
       </c>
       <c r="CH64" t="n">
-        <v>4.587</v>
+        <v>2.589</v>
       </c>
       <c r="CI64" t="inlineStr">
         <is>
@@ -15203,10 +15203,10 @@
       </c>
       <c r="BJ65" t="inlineStr"/>
       <c r="BK65" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BL65" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BM65" t="inlineStr"/>
       <c r="BN65" t="inlineStr"/>
@@ -15220,10 +15220,10 @@
         <v>1.999</v>
       </c>
       <c r="BT65" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU65" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>1.998</v>
       </c>
       <c r="BV65" t="n">
         <v>57.472</v>
@@ -15232,10 +15232,10 @@
         <v>95.438</v>
       </c>
       <c r="BX65" t="n">
-        <v>6.148065161616612e+197</v>
+        <v>94.97499999999999</v>
       </c>
       <c r="BY65" t="n">
-        <v>-6.148065161616612e+197</v>
+        <v>95.901</v>
       </c>
       <c r="BZ65" t="n">
         <v>7.823</v>
@@ -15244,10 +15244,10 @@
         <v>12.991</v>
       </c>
       <c r="CB65" t="n">
-        <v>2.297904667479778e+111</v>
+        <v>12.991</v>
       </c>
       <c r="CC65" t="n">
-        <v>-2.297904667479778e+111</v>
+        <v>12.991</v>
       </c>
       <c r="CD65" t="n">
         <v>6.283</v>
@@ -15256,13 +15256,13 @@
         <v>10.434</v>
       </c>
       <c r="CF65" t="n">
-        <v>6.909388416507361e+101</v>
+        <v>10.432</v>
       </c>
       <c r="CG65" t="n">
-        <v>-6.909388416507361e+101</v>
+        <v>10.436</v>
       </c>
       <c r="CH65" t="n">
-        <v>4.124</v>
+        <v>2.12</v>
       </c>
       <c r="CI65" t="inlineStr">
         <is>
@@ -15433,10 +15433,10 @@
       </c>
       <c r="BJ66" t="inlineStr"/>
       <c r="BK66" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL66" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM66" t="inlineStr"/>
       <c r="BN66" t="inlineStr"/>
@@ -15450,10 +15450,10 @@
         <v>2</v>
       </c>
       <c r="BT66" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU66" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV66" t="n">
         <v>65.178</v>
@@ -15462,10 +15462,10 @@
         <v>98.598</v>
       </c>
       <c r="BX66" t="n">
-        <v>1.531846721804731e+199</v>
+        <v>98.14100000000001</v>
       </c>
       <c r="BY66" t="n">
-        <v>-1.531846721804731e+199</v>
+        <v>99.05500000000001</v>
       </c>
       <c r="BZ66" t="n">
         <v>8.555999999999999</v>
@@ -15474,10 +15474,10 @@
         <v>12.943</v>
       </c>
       <c r="CB66" t="n">
-        <v>1.586156913889549e+111</v>
+        <v>12.942</v>
       </c>
       <c r="CC66" t="n">
-        <v>-1.586156913889549e+111</v>
+        <v>12.944</v>
       </c>
       <c r="CD66" t="n">
         <v>6.921</v>
@@ -15486,13 +15486,13 @@
         <v>10.47</v>
       </c>
       <c r="CF66" t="n">
-        <v>9.835727314846698e+101</v>
+        <v>10.47</v>
       </c>
       <c r="CG66" t="n">
-        <v>-9.835727314846698e+101</v>
+        <v>10.47</v>
       </c>
       <c r="CH66" t="n">
-        <v>4.297</v>
+        <v>2.297</v>
       </c>
       <c r="CI66" t="inlineStr">
         <is>
@@ -15663,10 +15663,10 @@
       </c>
       <c r="BJ67" t="inlineStr"/>
       <c r="BK67" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL67" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM67" t="inlineStr"/>
       <c r="BN67" t="inlineStr"/>
@@ -15680,10 +15680,10 @@
         <v>2</v>
       </c>
       <c r="BT67" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU67" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BV67" t="n">
         <v>69.18000000000001</v>
@@ -15692,10 +15692,10 @@
         <v>101.758</v>
       </c>
       <c r="BX67" t="n">
-        <v>3.81673635106184e+200</v>
+        <v>101.413</v>
       </c>
       <c r="BY67" t="n">
-        <v>-3.81673635106184e+200</v>
+        <v>102.103</v>
       </c>
       <c r="BZ67" t="n">
         <v>8.766999999999999</v>
@@ -15704,10 +15704,10 @@
         <v>12.896</v>
       </c>
       <c r="CB67" t="n">
-        <v>1.094864287054571e+111</v>
+        <v>12.893</v>
       </c>
       <c r="CC67" t="n">
-        <v>-1.094864287054571e+111</v>
+        <v>12.899</v>
       </c>
       <c r="CD67" t="n">
         <v>7.143</v>
@@ -15716,13 +15716,13 @@
         <v>10.507</v>
       </c>
       <c r="CF67" t="n">
-        <v>1.400146090801529e+102</v>
+        <v>10.507</v>
       </c>
       <c r="CG67" t="n">
-        <v>-1.400146090801529e+102</v>
+        <v>10.507</v>
       </c>
       <c r="CH67" t="n">
-        <v>4.42</v>
+        <v>2.422</v>
       </c>
       <c r="CI67" t="inlineStr">
         <is>
@@ -15893,10 +15893,10 @@
       </c>
       <c r="BJ68" t="inlineStr"/>
       <c r="BK68" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BL68" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BM68" t="inlineStr"/>
       <c r="BN68" t="inlineStr"/>
@@ -15910,10 +15910,10 @@
         <v>2.333</v>
       </c>
       <c r="BT68" t="n">
-        <v>9.378237583204417e+35</v>
+        <v>2.286</v>
       </c>
       <c r="BU68" t="n">
-        <v>-9.378237583204417e+35</v>
+        <v>2.38</v>
       </c>
       <c r="BV68" t="n">
         <v>47.221</v>
@@ -15922,10 +15922,10 @@
         <v>88.48999999999999</v>
       </c>
       <c r="BX68" t="n">
-        <v>4.867668495387661e+194</v>
+        <v>88.492</v>
       </c>
       <c r="BY68" t="n">
-        <v>-4.867668495387661e+194</v>
+        <v>88.488</v>
       </c>
       <c r="BZ68" t="n">
         <v>7.13</v>
@@ -15934,10 +15934,10 @@
         <v>13.361</v>
       </c>
       <c r="CB68" t="n">
-        <v>3.692254388738294e+112</v>
+        <v>13.353</v>
       </c>
       <c r="CC68" t="n">
-        <v>-3.692254388738294e+112</v>
+        <v>13.369</v>
       </c>
       <c r="CD68" t="n">
         <v>4.776</v>
@@ -15946,13 +15946,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="CF68" t="n">
-        <v>8.623728521729521e+93</v>
+        <v>8.712</v>
       </c>
       <c r="CG68" t="n">
-        <v>-8.623728521729521e+93</v>
+        <v>9.188000000000001</v>
       </c>
       <c r="CH68" t="n">
-        <v>3.392</v>
+        <v>1.388</v>
       </c>
       <c r="CI68" t="inlineStr">
         <is>
@@ -16123,10 +16123,10 @@
       </c>
       <c r="BJ69" t="inlineStr"/>
       <c r="BK69" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL69" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM69" t="inlineStr"/>
       <c r="BN69" t="inlineStr"/>
@@ -16140,10 +16140,10 @@
         <v>2.5</v>
       </c>
       <c r="BT69" t="n">
-        <v>8.08281277464764e+38</v>
+        <v>2.449</v>
       </c>
       <c r="BU69" t="n">
-        <v>-8.08281277464764e+38</v>
+        <v>2.551</v>
       </c>
       <c r="BV69" t="n">
         <v>66.413</v>
@@ -16152,10 +16152,10 @@
         <v>88.175</v>
       </c>
       <c r="BX69" t="n">
-        <v>3.408975265331046e+194</v>
+        <v>88.17100000000001</v>
       </c>
       <c r="BY69" t="n">
-        <v>-3.408975265331046e+194</v>
+        <v>88.179</v>
       </c>
       <c r="BZ69" t="n">
         <v>10.167</v>
@@ -16164,10 +16164,10 @@
         <v>13.499</v>
       </c>
       <c r="CB69" t="n">
-        <v>1.02203665708966e+113</v>
+        <v>13.493</v>
       </c>
       <c r="CC69" t="n">
-        <v>-1.02203665708966e+113</v>
+        <v>13.505</v>
       </c>
       <c r="CD69" t="n">
         <v>6.209</v>
@@ -16176,13 +16176,13 @@
         <v>8.244</v>
       </c>
       <c r="CF69" t="n">
-        <v>1.367741431520992e+90</v>
+        <v>7.968</v>
       </c>
       <c r="CG69" t="n">
-        <v>-1.367741431520992e+90</v>
+        <v>8.52</v>
       </c>
       <c r="CH69" t="n">
-        <v>3.547</v>
+        <v>1.547</v>
       </c>
       <c r="CI69" t="inlineStr">
         <is>
@@ -16353,10 +16353,10 @@
       </c>
       <c r="BJ70" t="inlineStr"/>
       <c r="BK70" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL70" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM70" t="inlineStr"/>
       <c r="BN70" t="inlineStr"/>
@@ -16370,10 +16370,10 @@
         <v>2.667</v>
       </c>
       <c r="BT70" t="n">
-        <v>6.966326217519867e+41</v>
+        <v>2.624</v>
       </c>
       <c r="BU70" t="n">
-        <v>-6.966326217519867e+41</v>
+        <v>2.71</v>
       </c>
       <c r="BV70" t="n">
         <v>76.863</v>
@@ -16382,10 +16382,10 @@
         <v>87.86199999999999</v>
       </c>
       <c r="BX70" t="n">
-        <v>2.387408339464861e+194</v>
+        <v>87.851</v>
       </c>
       <c r="BY70" t="n">
-        <v>-2.387408339464861e+194</v>
+        <v>87.873</v>
       </c>
       <c r="BZ70" t="n">
         <v>11.929</v>
@@ -16394,10 +16394,10 @@
         <v>13.636</v>
       </c>
       <c r="CB70" t="n">
-        <v>2.829054605828368e+113</v>
+        <v>13.633</v>
       </c>
       <c r="CC70" t="n">
-        <v>-2.829054605828368e+113</v>
+        <v>13.639</v>
       </c>
       <c r="CD70" t="n">
         <v>6.595</v>
@@ -16406,13 +16406,13 @@
         <v>7.539</v>
       </c>
       <c r="CF70" t="n">
-        <v>2.169266598299541e+86</v>
+        <v>7.288</v>
       </c>
       <c r="CG70" t="n">
-        <v>-2.169266598299541e+86</v>
+        <v>7.79</v>
       </c>
       <c r="CH70" t="n">
-        <v>3.661</v>
+        <v>1.663</v>
       </c>
       <c r="CI70" t="inlineStr">
         <is>
@@ -16583,10 +16583,10 @@
       </c>
       <c r="BJ71" t="inlineStr"/>
       <c r="BK71" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BL71" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BM71" t="inlineStr"/>
       <c r="BN71" t="inlineStr"/>
@@ -16600,10 +16600,10 @@
         <v>2.667</v>
       </c>
       <c r="BT71" t="n">
-        <v>1.368766356267403e+40</v>
+        <v>2.514</v>
       </c>
       <c r="BU71" t="n">
-        <v>-1.368766356267403e+40</v>
+        <v>2.82</v>
       </c>
       <c r="BV71" t="n">
         <v>52.721</v>
@@ -16612,10 +16612,10 @@
         <v>110.201</v>
       </c>
       <c r="BX71" t="n">
-        <v>5.754537276585729e+202</v>
+        <v>106.373</v>
       </c>
       <c r="BY71" t="n">
-        <v>-5.754537276585729e+202</v>
+        <v>114.029</v>
       </c>
       <c r="BZ71" t="n">
         <v>6.769</v>
@@ -16624,10 +16624,10 @@
         <v>14.149</v>
       </c>
       <c r="CB71" t="n">
-        <v>6.907836074687604e+114</v>
+        <v>14.063</v>
       </c>
       <c r="CC71" t="n">
-        <v>-6.907836074687604e+114</v>
+        <v>14.235</v>
       </c>
       <c r="CD71" t="n">
         <v>5.641</v>
@@ -16636,13 +16636,13 @@
         <v>11.791</v>
       </c>
       <c r="CF71" t="n">
-        <v>3.565154233973548e+106</v>
+        <v>11.615</v>
       </c>
       <c r="CG71" t="n">
-        <v>-3.565154233973548e+106</v>
+        <v>11.967</v>
       </c>
       <c r="CH71" t="n">
-        <v>4.289</v>
+        <v>2.285</v>
       </c>
       <c r="CI71" t="inlineStr">
         <is>
@@ -16813,10 +16813,10 @@
       </c>
       <c r="BJ72" t="inlineStr"/>
       <c r="BK72" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL72" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM72" t="inlineStr"/>
       <c r="BN72" t="inlineStr"/>
@@ -16830,10 +16830,10 @@
         <v>3.001</v>
       </c>
       <c r="BT72" t="n">
-        <v>1.42724769270596e+45</v>
+        <v>2.828</v>
       </c>
       <c r="BU72" t="n">
-        <v>-1.42724769270596e+45</v>
+        <v>3.174</v>
       </c>
       <c r="BV72" t="n">
         <v>58.507</v>
@@ -16842,10 +16842,10 @@
         <v>120.742</v>
       </c>
       <c r="BX72" t="n">
-        <v>4.394090482967263e+206</v>
+        <v>116.528</v>
       </c>
       <c r="BY72" t="n">
-        <v>-4.394090482967263e+206</v>
+        <v>124.956</v>
       </c>
       <c r="BZ72" t="n">
         <v>7.114</v>
@@ -16854,10 +16854,10 @@
         <v>14.681</v>
       </c>
       <c r="CB72" t="n">
-        <v>2.61747731202439e+116</v>
+        <v>14.594</v>
       </c>
       <c r="CC72" t="n">
-        <v>-2.61747731202439e+116</v>
+        <v>14.768</v>
       </c>
       <c r="CD72" t="n">
         <v>6.06</v>
@@ -16866,13 +16866,13 @@
         <v>12.506</v>
       </c>
       <c r="CF72" t="n">
-        <v>1.154706257409188e+109</v>
+        <v>12.32</v>
       </c>
       <c r="CG72" t="n">
-        <v>-1.154706257409188e+109</v>
+        <v>12.692</v>
       </c>
       <c r="CH72" t="n">
-        <v>4.463</v>
+        <v>2.463</v>
       </c>
       <c r="CI72" t="inlineStr">
         <is>
@@ -17043,10 +17043,10 @@
       </c>
       <c r="BJ73" t="inlineStr"/>
       <c r="BK73" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL73" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr"/>
@@ -17060,10 +17060,10 @@
         <v>3.334</v>
       </c>
       <c r="BT73" t="n">
-        <v>1.488227678162284e+50</v>
+        <v>3.182</v>
       </c>
       <c r="BU73" t="n">
-        <v>-1.488227678162284e+50</v>
+        <v>3.486</v>
       </c>
       <c r="BV73" t="n">
         <v>61.978</v>
@@ -17072,10 +17072,10 @@
         <v>131.284</v>
       </c>
       <c r="BX73" t="n">
-        <v>3.355270848807373e+210</v>
+        <v>127.652</v>
       </c>
       <c r="BY73" t="n">
-        <v>-3.355270848807373e+210</v>
+        <v>134.916</v>
       </c>
       <c r="BZ73" t="n">
         <v>7.182</v>
@@ -17084,10 +17084,10 @@
         <v>15.213</v>
       </c>
       <c r="CB73" t="n">
-        <v>9.9179937174063e+117</v>
+        <v>15.145</v>
       </c>
       <c r="CC73" t="n">
-        <v>-9.9179937174063e+117</v>
+        <v>15.281</v>
       </c>
       <c r="CD73" t="n">
         <v>6.242</v>
@@ -17096,13 +17096,13 @@
         <v>13.222</v>
       </c>
       <c r="CF73" t="n">
-        <v>3.739940696517502e+111</v>
+        <v>13.068</v>
       </c>
       <c r="CG73" t="n">
-        <v>-3.739940696517502e+111</v>
+        <v>13.376</v>
       </c>
       <c r="CH73" t="n">
-        <v>4.587</v>
+        <v>2.589</v>
       </c>
       <c r="CI73" t="inlineStr">
         <is>
@@ -17273,10 +17273,10 @@
       </c>
       <c r="BJ74" t="inlineStr"/>
       <c r="BK74" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL74" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM74" t="inlineStr"/>
       <c r="BN74" t="inlineStr"/>
@@ -17290,10 +17290,10 @@
         <v>3.713</v>
       </c>
       <c r="BT74" t="n">
-        <v>4.330114973248376e+56</v>
+        <v>3.68</v>
       </c>
       <c r="BU74" t="n">
-        <v>-4.330114973248376e+56</v>
+        <v>3.746</v>
       </c>
       <c r="BV74" t="n">
         <v>57.64</v>
@@ -17302,10 +17302,10 @@
         <v>136.067</v>
       </c>
       <c r="BX74" t="n">
-        <v>2.946552494006894e+212</v>
+        <v>132.989</v>
       </c>
       <c r="BY74" t="n">
-        <v>-2.946552494006894e+212</v>
+        <v>139.145</v>
       </c>
       <c r="BZ74" t="n">
         <v>6.734</v>
@@ -17314,10 +17314,10 @@
         <v>15.897</v>
       </c>
       <c r="CB74" t="n">
-        <v>1.26000787293501e+120</v>
+        <v>15.88</v>
       </c>
       <c r="CC74" t="n">
-        <v>-1.26000787293501e+120</v>
+        <v>15.914</v>
       </c>
       <c r="CD74" t="n">
         <v>6.068</v>
@@ -17326,13 +17326,13 @@
         <v>14.324</v>
       </c>
       <c r="CF74" t="n">
-        <v>3.79441841867989e+115</v>
+        <v>14.31</v>
       </c>
       <c r="CG74" t="n">
-        <v>-3.79441841867989e+115</v>
+        <v>14.338</v>
       </c>
       <c r="CH74" t="n">
-        <v>4.616</v>
+        <v>2.613</v>
       </c>
       <c r="CI74" t="inlineStr">
         <is>
@@ -17495,10 +17495,10 @@
       </c>
       <c r="BJ75" t="inlineStr"/>
       <c r="BK75" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL75" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr"/>
@@ -17512,10 +17512,10 @@
         <v>0.857</v>
       </c>
       <c r="BT75" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU75" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV75" t="n">
         <v>38.745</v>
@@ -17524,10 +17524,10 @@
         <v>27.234</v>
       </c>
       <c r="BX75" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY75" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ75" t="n">
         <v>6.078</v>
@@ -17536,10 +17536,10 @@
         <v>4.272</v>
       </c>
       <c r="CB75" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC75" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD75" t="n">
         <v>5.489</v>
@@ -17548,13 +17548,13 @@
         <v>3.858</v>
       </c>
       <c r="CF75" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG75" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH75" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI75" t="inlineStr">
         <is>
@@ -17725,10 +17725,10 @@
       </c>
       <c r="BJ76" t="inlineStr"/>
       <c r="BK76" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL76" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM76" t="inlineStr"/>
       <c r="BN76" t="inlineStr"/>
@@ -17742,10 +17742,10 @@
         <v>3.714</v>
       </c>
       <c r="BT76" t="n">
-        <v>4.330114973248376e+56</v>
+        <v>3.68</v>
       </c>
       <c r="BU76" t="n">
-        <v>-4.330114973248376e+56</v>
+        <v>3.748</v>
       </c>
       <c r="BV76" t="n">
         <v>58.737</v>
@@ -17754,10 +17754,10 @@
         <v>141.011</v>
       </c>
       <c r="BX76" t="n">
-        <v>3.453205572981647e+214</v>
+        <v>139.578</v>
       </c>
       <c r="BY76" t="n">
-        <v>-3.453205572981647e+214</v>
+        <v>142.444</v>
       </c>
       <c r="BZ76" t="n">
         <v>6.979</v>
@@ -17766,10 +17766,10 @@
         <v>16.755</v>
       </c>
       <c r="CB76" t="n">
-        <v>2.353457737292218e+122</v>
+        <v>16.746</v>
       </c>
       <c r="CC76" t="n">
-        <v>-2.353457737292218e+122</v>
+        <v>16.764</v>
       </c>
       <c r="CD76" t="n">
         <v>6.206</v>
@@ -17778,13 +17778,13 @@
         <v>14.899</v>
       </c>
       <c r="CF76" t="n">
-        <v>1.985800193908782e+117</v>
+        <v>14.897</v>
       </c>
       <c r="CG76" t="n">
-        <v>-1.985800193908782e+117</v>
+        <v>14.901</v>
       </c>
       <c r="CH76" t="n">
-        <v>4.617</v>
+        <v>2.614</v>
       </c>
       <c r="CI76" t="inlineStr">
         <is>
@@ -17955,10 +17955,10 @@
       </c>
       <c r="BJ77" t="inlineStr"/>
       <c r="BK77" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BL77" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BM77" t="inlineStr"/>
       <c r="BN77" t="inlineStr"/>
@@ -17972,10 +17972,10 @@
         <v>3.001</v>
       </c>
       <c r="BT77" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU77" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>3.002</v>
       </c>
       <c r="BV77" t="n">
         <v>59.734</v>
@@ -17984,10 +17984,10 @@
         <v>113.731</v>
       </c>
       <c r="BX77" t="n">
-        <v>1.928559528207146e+205</v>
+        <v>113.036</v>
       </c>
       <c r="BY77" t="n">
-        <v>-1.928559528207146e+205</v>
+        <v>114.426</v>
       </c>
       <c r="BZ77" t="n">
         <v>7.342</v>
@@ -17996,10 +17996,10 @@
         <v>13.979</v>
       </c>
       <c r="CB77" t="n">
-        <v>3.112229571603791e+114</v>
+        <v>13.957</v>
       </c>
       <c r="CC77" t="n">
-        <v>-3.112229571603791e+114</v>
+        <v>14.001</v>
       </c>
       <c r="CD77" t="n">
         <v>6.715</v>
@@ -18008,13 +18008,13 @@
         <v>12.785</v>
       </c>
       <c r="CF77" t="n">
-        <v>4.359012911798912e+110</v>
+        <v>12.772</v>
       </c>
       <c r="CG77" t="n">
-        <v>-4.359012911798912e+110</v>
+        <v>12.798</v>
       </c>
       <c r="CH77" t="n">
-        <v>3.955</v>
+        <v>1.957</v>
       </c>
       <c r="CI77" t="inlineStr">
         <is>
@@ -18185,10 +18185,10 @@
       </c>
       <c r="BJ78" t="inlineStr"/>
       <c r="BK78" t="n">
-        <v>18.03</v>
+        <v>0.18</v>
       </c>
       <c r="BL78" t="n">
-        <v>81.97</v>
+        <v>0.82</v>
       </c>
       <c r="BM78" t="inlineStr"/>
       <c r="BN78" t="inlineStr"/>
@@ -18202,10 +18202,10 @@
         <v>2.999</v>
       </c>
       <c r="BT78" t="n">
-        <v>5.153775207320113e+47</v>
+        <v>3</v>
       </c>
       <c r="BU78" t="n">
-        <v>-5.153775207320113e+47</v>
+        <v>2.998</v>
       </c>
       <c r="BV78" t="n">
         <v>60.133</v>
@@ -18214,10 +18214,10 @@
         <v>117.956</v>
       </c>
       <c r="BX78" t="n">
-        <v>9.45685355787614e+206</v>
+        <v>117.433</v>
       </c>
       <c r="BY78" t="n">
-        <v>-9.45685355787614e+206</v>
+        <v>118.479</v>
       </c>
       <c r="BZ78" t="n">
         <v>7.012</v>
@@ -18226,10 +18226,10 @@
         <v>13.755</v>
       </c>
       <c r="CB78" t="n">
-        <v>6.456002836591697e+113</v>
+        <v>13.743</v>
       </c>
       <c r="CC78" t="n">
-        <v>-6.456002836591697e+113</v>
+        <v>13.767</v>
       </c>
       <c r="CD78" t="n">
         <v>6.434</v>
@@ -18238,13 +18238,13 @@
         <v>12.621</v>
       </c>
       <c r="CF78" t="n">
-        <v>1.221774170155797e+110</v>
+        <v>12.614</v>
       </c>
       <c r="CG78" t="n">
-        <v>-1.221774170155797e+110</v>
+        <v>12.628</v>
       </c>
       <c r="CH78" t="n">
-        <v>4.043</v>
+        <v>2.043</v>
       </c>
       <c r="CI78" t="inlineStr">
         <is>
@@ -18415,10 +18415,10 @@
       </c>
       <c r="BJ79" t="inlineStr"/>
       <c r="BK79" t="n">
-        <v>18.39</v>
+        <v>0.18</v>
       </c>
       <c r="BL79" t="n">
-        <v>81.61</v>
+        <v>0.82</v>
       </c>
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr"/>
@@ -18432,10 +18432,10 @@
         <v>3</v>
       </c>
       <c r="BT79" t="n">
-        <v>5.153775207320114e+47</v>
+        <v>3</v>
       </c>
       <c r="BU79" t="n">
-        <v>-5.153775207320114e+47</v>
+        <v>3</v>
       </c>
       <c r="BV79" t="n">
         <v>63.139</v>
@@ -18444,10 +18444,10 @@
         <v>117.858</v>
       </c>
       <c r="BX79" t="n">
-        <v>8.629186849670942e+206</v>
+        <v>117.433</v>
       </c>
       <c r="BY79" t="n">
-        <v>-8.629186849670942e+206</v>
+        <v>118.283</v>
       </c>
       <c r="BZ79" t="n">
         <v>7.371</v>
@@ -18456,10 +18456,10 @@
         <v>13.759</v>
       </c>
       <c r="CB79" t="n">
-        <v>6.699414361041881e+113</v>
+        <v>13.743</v>
       </c>
       <c r="CC79" t="n">
-        <v>-6.699414361041881e+113</v>
+        <v>13.775</v>
       </c>
       <c r="CD79" t="n">
         <v>6.763</v>
@@ -18468,13 +18468,13 @@
         <v>12.624</v>
       </c>
       <c r="CF79" t="n">
-        <v>1.258892136860831e+110</v>
+        <v>12.614</v>
       </c>
       <c r="CG79" t="n">
-        <v>-1.258892136860831e+110</v>
+        <v>12.634</v>
       </c>
       <c r="CH79" t="n">
-        <v>4.041</v>
+        <v>2.043</v>
       </c>
       <c r="CI79" t="inlineStr">
         <is>
@@ -18637,10 +18637,10 @@
       </c>
       <c r="BJ80" t="inlineStr"/>
       <c r="BK80" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BL80" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="BM80" t="inlineStr"/>
       <c r="BN80" t="inlineStr"/>
@@ -18654,10 +18654,10 @@
         <v>2.001</v>
       </c>
       <c r="BT80" t="n">
-        <v>1.267650600228229e+30</v>
+        <v>2</v>
       </c>
       <c r="BU80" t="n">
-        <v>-1.267650600228229e+30</v>
+        <v>2.002</v>
       </c>
       <c r="BV80" t="n">
         <v>51.748</v>
@@ -18666,10 +18666,10 @@
         <v>76.184</v>
       </c>
       <c r="BX80" t="n">
-        <v>1.394947153962323e+109</v>
+        <v>12.344</v>
       </c>
       <c r="BY80" t="n">
-        <v>-1.394947153962323e+109</v>
+        <v>140.024</v>
       </c>
       <c r="BZ80" t="n">
         <v>5.527</v>
@@ -18678,10 +18678,10 @@
         <v>8.137</v>
       </c>
       <c r="CB80" t="n">
-        <v>3.769461828147205e+60</v>
+        <v>4.034</v>
       </c>
       <c r="CC80" t="n">
-        <v>-3.769461828147205e+60</v>
+        <v>12.24</v>
       </c>
       <c r="CD80" t="n">
         <v>4.976</v>
@@ -18690,13 +18690,13 @@
         <v>7.326</v>
       </c>
       <c r="CF80" t="n">
-        <v>1.977300093763907e+58</v>
+        <v>3.828</v>
       </c>
       <c r="CG80" t="n">
-        <v>-1.977300093763907e+58</v>
+        <v>10.824</v>
       </c>
       <c r="CH80" t="n">
-        <v>4.46</v>
+        <v>2.46</v>
       </c>
       <c r="CI80" t="inlineStr">
         <is>
@@ -18859,10 +18859,10 @@
       </c>
       <c r="BJ81" t="inlineStr"/>
       <c r="BK81" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BL81" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BM81" t="inlineStr"/>
       <c r="BN81" t="inlineStr"/>
@@ -18876,10 +18876,10 @@
         <v>0.75</v>
       </c>
       <c r="BT81" t="n">
-        <v>847288609443</v>
+        <v>1.316</v>
       </c>
       <c r="BU81" t="n">
-        <v>-847288609441.5</v>
+        <v>0.184</v>
       </c>
       <c r="BV81" t="n">
         <v>33.302</v>
@@ -18888,10 +18888,10 @@
         <v>30.734</v>
       </c>
       <c r="BX81" t="n">
-        <v>1.745722606732641e+52</v>
+        <v>3.33</v>
       </c>
       <c r="BY81" t="n">
-        <v>-1.745722606732641e+52</v>
+        <v>58.138</v>
       </c>
       <c r="BZ81" t="n">
         <v>3.655</v>
@@ -18900,10 +18900,10 @@
         <v>3.373</v>
       </c>
       <c r="CB81" t="n">
-        <v>1.783372146789475e+28</v>
+        <v>1.917</v>
       </c>
       <c r="CC81" t="n">
-        <v>-1.783372146789475e+28</v>
+        <v>4.829</v>
       </c>
       <c r="CD81" t="n">
         <v>3.366</v>
@@ -18912,13 +18912,13 @@
         <v>3.106</v>
       </c>
       <c r="CF81" t="n">
-        <v>2.285636603415771e+27</v>
+        <v>1.878</v>
       </c>
       <c r="CG81" t="n">
-        <v>-2.285636603415771e+27</v>
+        <v>4.334</v>
       </c>
       <c r="CH81" t="n">
-        <v>3.526</v>
+        <v>1.526</v>
       </c>
       <c r="CI81" t="inlineStr">
         <is>
@@ -19081,10 +19081,10 @@
       </c>
       <c r="BJ82" t="inlineStr"/>
       <c r="BK82" t="n">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="BL82" t="n">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="BM82" t="inlineStr"/>
       <c r="BN82" t="inlineStr"/>
@@ -19098,10 +19098,10 @@
         <v>1.199</v>
       </c>
       <c r="BT82" t="n">
-        <v>1.215766545905693e+19</v>
+        <v>1.552</v>
       </c>
       <c r="BU82" t="n">
-        <v>-1.215766545905693e+19</v>
+        <v>0.846</v>
       </c>
       <c r="BV82" t="n">
         <v>44.605</v>
@@ -19110,10 +19110,10 @@
         <v>49.175</v>
       </c>
       <c r="BX82" t="n">
-        <v>3.865096821424328e+83</v>
+        <v>6.853</v>
       </c>
       <c r="BY82" t="n">
-        <v>-3.865096821424328e+83</v>
+        <v>91.497</v>
       </c>
       <c r="BZ82" t="n">
         <v>4.895</v>
@@ -19122,10 +19122,10 @@
         <v>5.396</v>
       </c>
       <c r="CB82" t="n">
-        <v>1.592161679743963e+45</v>
+        <v>2.832</v>
       </c>
       <c r="CC82" t="n">
-        <v>-1.592161679743963e+45</v>
+        <v>7.96</v>
       </c>
       <c r="CD82" t="n">
         <v>4.509</v>
@@ -19134,13 +19134,13 @@
         <v>4.971</v>
       </c>
       <c r="CF82" t="n">
-        <v>5.948555144197901e+43</v>
+        <v>2.74</v>
       </c>
       <c r="CG82" t="n">
-        <v>-5.948555144197901e+43</v>
+        <v>7.202</v>
       </c>
       <c r="CH82" t="n">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="CI82" t="inlineStr">
         <is>
@@ -19333,19 +19333,19 @@
       </c>
       <c r="BJ83" t="inlineStr"/>
       <c r="BK83" t="n">
-        <v>12.5</v>
+        <v>0.12</v>
       </c>
       <c r="BL83" t="n">
-        <v>37.5</v>
+        <v>0.38</v>
       </c>
       <c r="BM83" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BN83" t="n">
-        <v>12.5</v>
+        <v>0.12</v>
       </c>
       <c r="BO83" t="n">
-        <v>12.5</v>
+        <v>0.12</v>
       </c>
       <c r="BP83" t="inlineStr"/>
       <c r="BQ83" t="inlineStr"/>
@@ -19356,10 +19356,10 @@
         <v>1.625</v>
       </c>
       <c r="BT83" t="n">
-        <v>2.616959150659276e+25</v>
+        <v>1.773</v>
       </c>
       <c r="BU83" t="n">
-        <v>-2.616959150659276e+25</v>
+        <v>1.477</v>
       </c>
       <c r="BV83" t="n">
         <v>73.733</v>
@@ -19368,10 +19368,10 @@
         <v>63.564</v>
       </c>
       <c r="BX83" t="n">
-        <v>1.573165347646175e+125</v>
+        <v>16.697</v>
       </c>
       <c r="BY83" t="n">
-        <v>-1.573165347646175e+125</v>
+        <v>110.431</v>
       </c>
       <c r="BZ83" t="n">
         <v>11.17</v>
@@ -19380,10 +19380,10 @@
         <v>9.629</v>
       </c>
       <c r="CB83" t="n">
-        <v>1.1407701989293e+74</v>
+        <v>5.289</v>
       </c>
       <c r="CC83" t="n">
-        <v>-1.1407701989293e+74</v>
+        <v>13.969</v>
       </c>
       <c r="CD83" t="n">
         <v>9.334</v>
@@ -19392,13 +19392,13 @@
         <v>8.047000000000001</v>
       </c>
       <c r="CF83" t="n">
-        <v>1.393820578738741e+69</v>
+        <v>4.735</v>
       </c>
       <c r="CG83" t="n">
-        <v>-1.393820578738741e+69</v>
+        <v>11.359</v>
       </c>
       <c r="CH83" t="n">
-        <v>2.766</v>
+        <v>0.76</v>
       </c>
       <c r="CI83" t="inlineStr">
         <is>
@@ -19583,13 +19583,13 @@
       </c>
       <c r="BJ84" t="inlineStr"/>
       <c r="BK84" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL84" t="n">
-        <v>23.81</v>
+        <v>0.24</v>
       </c>
       <c r="BM84" t="n">
-        <v>47.62</v>
+        <v>0.48</v>
       </c>
       <c r="BN84" t="inlineStr"/>
       <c r="BO84" t="inlineStr"/>
@@ -19602,10 +19602,10 @@
         <v>1.81</v>
       </c>
       <c r="BT84" t="n">
-        <v>9.25555872870001e+27</v>
+        <v>1.918</v>
       </c>
       <c r="BU84" t="n">
-        <v>-9.25555872870001e+27</v>
+        <v>1.702</v>
       </c>
       <c r="BV84" t="n">
         <v>54.952</v>
@@ -19614,10 +19614,10 @@
         <v>73.396</v>
       </c>
       <c r="BX84" t="n">
-        <v>2.299729364177712e+112</v>
+        <v>13.704</v>
       </c>
       <c r="BY84" t="n">
-        <v>-2.299729364177712e+112</v>
+        <v>133.088</v>
       </c>
       <c r="BZ84" t="n">
         <v>7.385</v>
@@ -19626,10 +19626,10 @@
         <v>9.864000000000001</v>
       </c>
       <c r="CB84" t="n">
-        <v>3.963158511983364e+66</v>
+        <v>4.72</v>
       </c>
       <c r="CC84" t="n">
-        <v>-3.963158511983364e+66</v>
+        <v>15.008</v>
       </c>
       <c r="CD84" t="n">
         <v>6.359</v>
@@ -19638,13 +19638,13 @@
         <v>8.493</v>
       </c>
       <c r="CF84" t="n">
-        <v>1.93268911833827e+63</v>
+        <v>4.369</v>
       </c>
       <c r="CG84" t="n">
-        <v>-1.93268911833827e+63</v>
+        <v>12.617</v>
       </c>
       <c r="CH84" t="n">
-        <v>4.16</v>
+        <v>2.164</v>
       </c>
       <c r="CI84" t="inlineStr">
         <is>
@@ -19811,10 +19811,10 @@
       </c>
       <c r="BJ85" t="inlineStr"/>
       <c r="BK85" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL85" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM85" t="inlineStr"/>
       <c r="BN85" t="inlineStr"/>
@@ -19828,10 +19828,10 @@
         <v>0.857</v>
       </c>
       <c r="BT85" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU85" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV85" t="n">
         <v>38.745</v>
@@ -19840,10 +19840,10 @@
         <v>27.234</v>
       </c>
       <c r="BX85" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY85" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ85" t="n">
         <v>6.078</v>
@@ -19852,10 +19852,10 @@
         <v>4.272</v>
       </c>
       <c r="CB85" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC85" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD85" t="n">
         <v>5.489</v>
@@ -19864,13 +19864,13 @@
         <v>3.858</v>
       </c>
       <c r="CF85" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG85" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH85" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI85" t="inlineStr">
         <is>
@@ -20033,10 +20033,10 @@
       </c>
       <c r="BJ86" t="inlineStr"/>
       <c r="BK86" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL86" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM86" t="inlineStr"/>
       <c r="BN86" t="inlineStr"/>
@@ -20050,10 +20050,10 @@
         <v>0.857</v>
       </c>
       <c r="BT86" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU86" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV86" t="n">
         <v>47.401</v>
@@ -20062,10 +20062,10 @@
         <v>37.118</v>
       </c>
       <c r="BX86" t="n">
-        <v>2.438025970645374e+60</v>
+        <v>4.102</v>
       </c>
       <c r="BY86" t="n">
-        <v>-2.438025970645374e+60</v>
+        <v>70.134</v>
       </c>
       <c r="BZ86" t="n">
         <v>7.647</v>
@@ -20074,10 +20074,10 @@
         <v>5.988</v>
       </c>
       <c r="CB86" t="n">
-        <v>5.644392635431883e+37</v>
+        <v>2.417</v>
       </c>
       <c r="CC86" t="n">
-        <v>-5.644392635431883e+37</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="CD86" t="n">
         <v>6.391</v>
@@ -20086,13 +20086,13 @@
         <v>5.005</v>
       </c>
       <c r="CF86" t="n">
-        <v>3.35407087557762e+35</v>
+        <v>2.294</v>
       </c>
       <c r="CG86" t="n">
-        <v>-3.35407087557762e+35</v>
+        <v>7.716</v>
       </c>
       <c r="CH86" t="n">
-        <v>2.861</v>
+        <v>0.868</v>
       </c>
       <c r="CI86" t="inlineStr">
         <is>
@@ -20285,16 +20285,16 @@
       <c r="BK87" t="inlineStr"/>
       <c r="BL87" t="inlineStr"/>
       <c r="BM87" t="n">
-        <v>27.78</v>
+        <v>0.28</v>
       </c>
       <c r="BN87" t="n">
-        <v>13.89</v>
+        <v>0.14</v>
       </c>
       <c r="BO87" t="n">
-        <v>16.67</v>
+        <v>0.17</v>
       </c>
       <c r="BP87" t="n">
-        <v>41.67</v>
+        <v>0.42</v>
       </c>
       <c r="BQ87" t="inlineStr"/>
       <c r="BR87" t="n">
@@ -20304,10 +20304,10 @@
         <v>2.583</v>
       </c>
       <c r="BT87" t="n">
-        <v>1.229369562708366e+41</v>
+        <v>2.601</v>
       </c>
       <c r="BU87" t="n">
-        <v>-1.229369562708366e+41</v>
+        <v>2.565</v>
       </c>
       <c r="BV87" t="n">
         <v>65.947</v>
@@ -20316,10 +20316,10 @@
         <v>103.853</v>
       </c>
       <c r="BX87" t="n">
-        <v>3.173432898651985e+178</v>
+        <v>63.614</v>
       </c>
       <c r="BY87" t="n">
-        <v>-3.173432898651985e+178</v>
+        <v>144.092</v>
       </c>
       <c r="BZ87" t="n">
         <v>10.09</v>
@@ -20328,10 +20328,10 @@
         <v>15.89</v>
       </c>
       <c r="CB87" t="n">
-        <v>1.495606446724409e+108</v>
+        <v>12.392</v>
       </c>
       <c r="CC87" t="n">
-        <v>-1.495606446724409e+108</v>
+        <v>19.388</v>
       </c>
       <c r="CD87" t="n">
         <v>9.25</v>
@@ -20340,13 +20340,13 @@
         <v>14.567</v>
       </c>
       <c r="CF87" t="n">
-        <v>1.017061311071633e+104</v>
+        <v>11.251</v>
       </c>
       <c r="CG87" t="n">
-        <v>-1.017061311071633e+104</v>
+        <v>17.883</v>
       </c>
       <c r="CH87" t="n">
-        <v>3.525</v>
+        <v>1.532</v>
       </c>
       <c r="CI87" t="inlineStr">
         <is>
@@ -20525,10 +20525,10 @@
       </c>
       <c r="BJ88" t="inlineStr"/>
       <c r="BK88" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL88" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM88" t="inlineStr"/>
       <c r="BN88" t="inlineStr"/>
@@ -20542,10 +20542,10 @@
         <v>0.857</v>
       </c>
       <c r="BT88" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU88" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV88" t="n">
         <v>38.745</v>
@@ -20554,10 +20554,10 @@
         <v>27.234</v>
       </c>
       <c r="BX88" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY88" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ88" t="n">
         <v>6.078</v>
@@ -20566,10 +20566,10 @@
         <v>4.272</v>
       </c>
       <c r="CB88" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC88" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD88" t="n">
         <v>5.489</v>
@@ -20578,13 +20578,13 @@
         <v>3.858</v>
       </c>
       <c r="CF88" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG88" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH88" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI88" t="inlineStr">
         <is>
@@ -20747,10 +20747,10 @@
       </c>
       <c r="BJ89" t="inlineStr"/>
       <c r="BK89" t="n">
-        <v>29.41</v>
+        <v>0.29</v>
       </c>
       <c r="BL89" t="n">
-        <v>70.59</v>
+        <v>0.71</v>
       </c>
       <c r="BM89" t="inlineStr"/>
       <c r="BN89" t="inlineStr"/>
@@ -20764,10 +20764,10 @@
         <v>0.882</v>
       </c>
       <c r="BT89" t="n">
-        <v>107680261437035.2</v>
+        <v>1.375</v>
       </c>
       <c r="BU89" t="n">
-        <v>-107680261437033.4</v>
+        <v>0.389</v>
       </c>
       <c r="BV89" t="n">
         <v>34.387</v>
@@ -20776,10 +20776,10 @@
         <v>28.036</v>
       </c>
       <c r="BX89" t="n">
-        <v>1.614049424603597e+58</v>
+        <v>3.749</v>
       </c>
       <c r="BY89" t="n">
-        <v>-1.614049424603597e+58</v>
+        <v>52.323</v>
       </c>
       <c r="BZ89" t="n">
         <v>5.394</v>
@@ -20788,10 +20788,10 @@
         <v>4.398</v>
       </c>
       <c r="CB89" t="n">
-        <v>3.530581766788063e+34</v>
+        <v>2.191</v>
       </c>
       <c r="CC89" t="n">
-        <v>-3.530581766788063e+34</v>
+        <v>6.605</v>
       </c>
       <c r="CD89" t="n">
         <v>4.872</v>
@@ -20800,13 +20800,13 @@
         <v>3.972</v>
       </c>
       <c r="CF89" t="n">
-        <v>1.765900598224215e+33</v>
+        <v>2.127</v>
       </c>
       <c r="CG89" t="n">
-        <v>-1.765900598224215e+33</v>
+        <v>5.817</v>
       </c>
       <c r="CH89" t="n">
-        <v>1.748</v>
+        <v>-0.258</v>
       </c>
       <c r="CI89" t="inlineStr">
         <is>
@@ -20999,19 +20999,19 @@
       </c>
       <c r="BJ90" t="inlineStr"/>
       <c r="BK90" t="n">
-        <v>14.63</v>
+        <v>0.15</v>
       </c>
       <c r="BL90" t="n">
-        <v>36.59</v>
+        <v>0.37</v>
       </c>
       <c r="BM90" t="n">
-        <v>12.2</v>
+        <v>0.12</v>
       </c>
       <c r="BN90" t="n">
-        <v>24.39</v>
+        <v>0.24</v>
       </c>
       <c r="BO90" t="n">
-        <v>12.2</v>
+        <v>0.12</v>
       </c>
       <c r="BP90" t="inlineStr"/>
       <c r="BQ90" t="inlineStr"/>
@@ -21022,10 +21022,10 @@
         <v>1.536</v>
       </c>
       <c r="BT90" t="n">
-        <v>6.544113235020104e+23</v>
+        <v>1.727</v>
       </c>
       <c r="BU90" t="n">
-        <v>-6.544113235020104e+23</v>
+        <v>1.345</v>
       </c>
       <c r="BV90" t="n">
         <v>63.928</v>
@@ -21034,10 +21034,10 @@
         <v>54.351</v>
       </c>
       <c r="BX90" t="n">
-        <v>1.610429118519868e+121</v>
+        <v>16.042</v>
       </c>
       <c r="BY90" t="n">
-        <v>-1.610429118519868e+121</v>
+        <v>92.66</v>
       </c>
       <c r="BZ90" t="n">
         <v>9.693</v>
@@ -21046,10 +21046,10 @@
         <v>8.241</v>
       </c>
       <c r="CB90" t="n">
-        <v>6.667150541195468e+68</v>
+        <v>4.843</v>
       </c>
       <c r="CC90" t="n">
-        <v>-6.667150541195468e+68</v>
+        <v>11.639</v>
       </c>
       <c r="CD90" t="n">
         <v>7.987</v>
@@ -21058,13 +21058,13 @@
         <v>6.79</v>
       </c>
       <c r="CF90" t="n">
-        <v>7.458908648598262e+62</v>
+        <v>4.227</v>
       </c>
       <c r="CG90" t="n">
-        <v>-7.458908648598262e+62</v>
+        <v>9.353</v>
       </c>
       <c r="CH90" t="n">
-        <v>2.673</v>
+        <v>0.68</v>
       </c>
       <c r="CI90" t="inlineStr">
         <is>
@@ -21241,10 +21241,10 @@
       <c r="BK91" t="inlineStr"/>
       <c r="BL91" t="inlineStr"/>
       <c r="BM91" t="n">
-        <v>33.33</v>
+        <v>0.33</v>
       </c>
       <c r="BN91" t="n">
-        <v>66.67</v>
+        <v>0.67</v>
       </c>
       <c r="BO91" t="inlineStr"/>
       <c r="BP91" t="inlineStr"/>
@@ -21466,7 +21466,7 @@
       <c r="BJ92" t="inlineStr"/>
       <c r="BK92" t="inlineStr"/>
       <c r="BL92" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BM92" t="inlineStr"/>
       <c r="BN92" t="inlineStr"/>
@@ -21684,10 +21684,10 @@
       <c r="BJ93" t="inlineStr"/>
       <c r="BK93" t="inlineStr"/>
       <c r="BL93" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BM93" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BN93" t="inlineStr"/>
       <c r="BO93" t="inlineStr"/>
@@ -21941,19 +21941,19 @@
       <c r="BK94" t="inlineStr"/>
       <c r="BL94" t="inlineStr"/>
       <c r="BM94" t="n">
-        <v>21.74</v>
+        <v>0.22</v>
       </c>
       <c r="BN94" t="n">
-        <v>10.87</v>
+        <v>0.11</v>
       </c>
       <c r="BO94" t="n">
-        <v>13.04</v>
+        <v>0.13</v>
       </c>
       <c r="BP94" t="n">
-        <v>32.61</v>
+        <v>0.33</v>
       </c>
       <c r="BQ94" t="n">
-        <v>21.74</v>
+        <v>0.22</v>
       </c>
       <c r="BR94" t="n">
         <v>1.708</v>
@@ -21962,10 +21962,10 @@
         <v>1.891</v>
       </c>
       <c r="BT94" t="n">
-        <v>7.194014974417868e+29</v>
+        <v>2.002</v>
       </c>
       <c r="BU94" t="n">
-        <v>-7.194014974417868e+29</v>
+        <v>1.78</v>
       </c>
       <c r="BV94" t="n">
         <v>60.568</v>
@@ -21974,10 +21974,10 @@
         <v>67.054</v>
       </c>
       <c r="BX94" t="n">
-        <v>5.090209631101316e+133</v>
+        <v>22.367</v>
       </c>
       <c r="BY94" t="n">
-        <v>-5.090209631101316e+133</v>
+        <v>111.741</v>
       </c>
       <c r="BZ94" t="n">
         <v>9.099</v>
@@ -21986,10 +21986,10 @@
         <v>10.073</v>
       </c>
       <c r="CB94" t="n">
-        <v>1.9733779830701e+78</v>
+        <v>6.173</v>
       </c>
       <c r="CC94" t="n">
-        <v>-1.9733779830701e+78</v>
+        <v>13.973</v>
       </c>
       <c r="CD94" t="n">
         <v>7.633</v>
@@ -21998,13 +21998,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="CF94" t="n">
-        <v>6.137303921861028e+72</v>
+        <v>5.433</v>
       </c>
       <c r="CG94" t="n">
-        <v>-6.137303921861028e+72</v>
+        <v>11.467</v>
       </c>
       <c r="CH94" t="n">
-        <v>2.745</v>
+        <v>0.75</v>
       </c>
       <c r="CI94" t="inlineStr">
         <is>
@@ -22225,23 +22225,23 @@
       </c>
       <c r="BJ95" t="inlineStr"/>
       <c r="BK95" t="n">
-        <v>24.59</v>
+        <v>0.25</v>
       </c>
       <c r="BL95" t="inlineStr"/>
       <c r="BM95" t="n">
-        <v>16.39</v>
+        <v>0.16</v>
       </c>
       <c r="BN95" t="n">
-        <v>8.199999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="BO95" t="n">
-        <v>9.84</v>
+        <v>0.1</v>
       </c>
       <c r="BP95" t="n">
-        <v>24.59</v>
+        <v>0.25</v>
       </c>
       <c r="BQ95" t="n">
-        <v>16.39</v>
+        <v>0.16</v>
       </c>
       <c r="BR95" t="n">
         <v>1.687</v>
@@ -22250,10 +22250,10 @@
         <v>2.164</v>
       </c>
       <c r="BT95" t="n">
-        <v>1.765939534428694e+34</v>
+        <v>2.213</v>
       </c>
       <c r="BU95" t="n">
-        <v>-1.765939534428694e+34</v>
+        <v>2.115</v>
       </c>
       <c r="BV95" t="n">
         <v>71.49299999999999</v>
@@ -22262,10 +22262,10 @@
         <v>91.709</v>
       </c>
       <c r="BX95" t="n">
-        <v>3.207680678911501e+155</v>
+        <v>36.965</v>
       </c>
       <c r="BY95" t="n">
-        <v>-3.207680678911501e+155</v>
+        <v>146.453</v>
       </c>
       <c r="BZ95" t="n">
         <v>11.071</v>
@@ -22274,10 +22274,10 @@
         <v>14.202</v>
       </c>
       <c r="CB95" t="n">
-        <v>1.527225209141684e+94</v>
+        <v>8.907</v>
       </c>
       <c r="CC95" t="n">
-        <v>-1.527225209141684e+94</v>
+        <v>19.497</v>
       </c>
       <c r="CD95" t="n">
         <v>10.52</v>
@@ -22286,13 +22286,13 @@
         <v>13.495</v>
       </c>
       <c r="CF95" t="n">
-        <v>6.850715284457179e+90</v>
+        <v>8.241</v>
       </c>
       <c r="CG95" t="n">
-        <v>-6.850715284457179e+90</v>
+        <v>18.749</v>
       </c>
       <c r="CH95" t="n">
-        <v>3.639</v>
+        <v>1.646</v>
       </c>
       <c r="CI95" t="inlineStr">
         <is>
@@ -22509,17 +22509,17 @@
       </c>
       <c r="BJ96" t="inlineStr"/>
       <c r="BK96" t="n">
-        <v>23.08</v>
+        <v>0.23</v>
       </c>
       <c r="BL96" t="inlineStr"/>
       <c r="BM96" t="n">
-        <v>19.23</v>
+        <v>0.19</v>
       </c>
       <c r="BN96" t="n">
-        <v>38.46</v>
+        <v>0.38</v>
       </c>
       <c r="BO96" t="n">
-        <v>19.23</v>
+        <v>0.19</v>
       </c>
       <c r="BP96" t="inlineStr"/>
       <c r="BQ96" t="inlineStr"/>
@@ -22530,10 +22530,10 @@
         <v>2.424</v>
       </c>
       <c r="BT96" t="n">
-        <v>3.57619125660333e+37</v>
+        <v>2.355</v>
       </c>
       <c r="BU96" t="n">
-        <v>-3.57619125660333e+37</v>
+        <v>2.493</v>
       </c>
       <c r="BV96" t="n">
         <v>39.226</v>
@@ -22542,10 +22542,10 @@
         <v>85.28100000000001</v>
       </c>
       <c r="BX96" t="n">
-        <v>7.555815336305497e+190</v>
+        <v>77.642</v>
       </c>
       <c r="BY96" t="n">
-        <v>-7.555815336305497e+190</v>
+        <v>92.92</v>
       </c>
       <c r="BZ96" t="n">
         <v>6.096</v>
@@ -22554,10 +22554,10 @@
         <v>13.253</v>
       </c>
       <c r="CB96" t="n">
-        <v>3.766835884997978e+109</v>
+        <v>12.169</v>
       </c>
       <c r="CC96" t="n">
-        <v>-3.766835884997978e+109</v>
+        <v>14.337</v>
       </c>
       <c r="CD96" t="n">
         <v>5.242</v>
@@ -22566,13 +22566,13 @@
         <v>11.397</v>
       </c>
       <c r="CF96" t="n">
-        <v>1.217528079437898e+102</v>
+        <v>10.258</v>
       </c>
       <c r="CG96" t="n">
-        <v>-1.217528079437898e+102</v>
+        <v>12.536</v>
       </c>
       <c r="CH96" t="n">
-        <v>2.843</v>
+        <v>0.841</v>
       </c>
       <c r="CI96" t="inlineStr">
         <is>
@@ -22757,13 +22757,13 @@
       </c>
       <c r="BJ97" t="inlineStr"/>
       <c r="BK97" t="n">
-        <v>19.23</v>
+        <v>0.19</v>
       </c>
       <c r="BL97" t="n">
-        <v>23.08</v>
+        <v>0.23</v>
       </c>
       <c r="BM97" t="n">
-        <v>57.69</v>
+        <v>0.58</v>
       </c>
       <c r="BN97" t="inlineStr"/>
       <c r="BO97" t="inlineStr"/>
@@ -22776,10 +22776,10 @@
         <v>2.115</v>
       </c>
       <c r="BT97" t="n">
-        <v>2.060307300400036e+33</v>
+        <v>2.157</v>
       </c>
       <c r="BU97" t="n">
-        <v>-2.060307300400036e+33</v>
+        <v>2.073</v>
       </c>
       <c r="BV97" t="n">
         <v>88.27500000000001</v>
@@ -22788,10 +22788,10 @@
         <v>125.037</v>
       </c>
       <c r="BX97" t="n">
-        <v>6.183527502783627e+167</v>
+        <v>47.936</v>
       </c>
       <c r="BY97" t="n">
-        <v>-6.183527502783627e+167</v>
+        <v>202.138</v>
       </c>
       <c r="BZ97" t="n">
         <v>14.418</v>
@@ -22800,10 +22800,10 @@
         <v>20.422</v>
       </c>
       <c r="CB97" t="n">
-        <v>6.306421312292444e+106</v>
+        <v>11.755</v>
       </c>
       <c r="CC97" t="n">
-        <v>-6.306421312292444e+106</v>
+        <v>29.089</v>
       </c>
       <c r="CD97" t="n">
         <v>17.4</v>
@@ -22812,13 +22812,13 @@
         <v>24.646</v>
       </c>
       <c r="CF97" t="n">
-        <v>2.405254638351685e+112</v>
+        <v>13.374</v>
       </c>
       <c r="CG97" t="n">
-        <v>-2.405254638351685e+112</v>
+        <v>35.918</v>
       </c>
       <c r="CH97" t="n">
-        <v>3.427</v>
+        <v>1.429</v>
       </c>
       <c r="CI97" t="inlineStr">
         <is>
@@ -22985,10 +22985,10 @@
       </c>
       <c r="BJ98" t="inlineStr"/>
       <c r="BK98" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL98" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM98" t="inlineStr"/>
       <c r="BN98" t="inlineStr"/>
@@ -23002,10 +23002,10 @@
         <v>0.857</v>
       </c>
       <c r="BT98" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU98" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV98" t="n">
         <v>39.697</v>
@@ -23014,10 +23014,10 @@
         <v>28.132</v>
       </c>
       <c r="BX98" t="n">
-        <v>8.866473332699742e+56</v>
+        <v>3.785</v>
       </c>
       <c r="BY98" t="n">
-        <v>-8.866473332699742e+56</v>
+        <v>52.479</v>
       </c>
       <c r="BZ98" t="n">
         <v>6.864</v>
@@ -23026,10 +23026,10 @@
         <v>4.864</v>
       </c>
       <c r="CB98" t="n">
-        <v>1.48484436146221e+35</v>
+        <v>2.275</v>
       </c>
       <c r="CC98" t="n">
-        <v>-1.48484436146221e+35</v>
+        <v>7.453</v>
       </c>
       <c r="CD98" t="n">
         <v>3.236</v>
@@ -23038,13 +23038,13 @@
         <v>2.293</v>
       </c>
       <c r="CF98" t="n">
-        <v>6.934402585652971e+25</v>
+        <v>1.829</v>
       </c>
       <c r="CG98" t="n">
-        <v>-6.934402585652971e+25</v>
+        <v>2.757</v>
       </c>
       <c r="CH98" t="n">
-        <v>3.451</v>
+        <v>1.457</v>
       </c>
       <c r="CI98" t="inlineStr">
         <is>
@@ -23199,10 +23199,10 @@
       </c>
       <c r="BJ99" t="inlineStr"/>
       <c r="BK99" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL99" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM99" t="inlineStr"/>
       <c r="BN99" t="inlineStr"/>
@@ -23451,19 +23451,19 @@
       </c>
       <c r="BJ100" t="inlineStr"/>
       <c r="BK100" t="n">
-        <v>14.63</v>
+        <v>0.15</v>
       </c>
       <c r="BL100" t="n">
-        <v>36.59</v>
+        <v>0.37</v>
       </c>
       <c r="BM100" t="n">
-        <v>12.2</v>
+        <v>0.12</v>
       </c>
       <c r="BN100" t="n">
-        <v>24.39</v>
+        <v>0.24</v>
       </c>
       <c r="BO100" t="n">
-        <v>12.2</v>
+        <v>0.12</v>
       </c>
       <c r="BP100" t="inlineStr"/>
       <c r="BQ100" t="inlineStr"/>
@@ -23474,10 +23474,10 @@
         <v>1.537</v>
       </c>
       <c r="BT100" t="n">
-        <v>6.544113235020104e+23</v>
+        <v>1.727</v>
       </c>
       <c r="BU100" t="n">
-        <v>-6.544113235020104e+23</v>
+        <v>1.347</v>
       </c>
       <c r="BV100" t="n">
         <v>63.542</v>
@@ -23486,10 +23486,10 @@
         <v>54.953</v>
       </c>
       <c r="BX100" t="n">
-        <v>2.982819505174315e+121</v>
+        <v>16.14</v>
       </c>
       <c r="BY100" t="n">
-        <v>-2.982819505174315e+121</v>
+        <v>93.76600000000001</v>
       </c>
       <c r="BZ100" t="n">
         <v>9.763999999999999</v>
@@ -23498,10 +23498,10 @@
         <v>8.444000000000001</v>
       </c>
       <c r="CB100" t="n">
-        <v>2.426316361030442e+69</v>
+        <v>4.905</v>
       </c>
       <c r="CC100" t="n">
-        <v>-2.426316361030442e+69</v>
+        <v>11.983</v>
       </c>
       <c r="CD100" t="n">
         <v>7.851</v>
@@ -23510,13 +23510,13 @@
         <v>6.79</v>
       </c>
       <c r="CF100" t="n">
-        <v>7.458908648598262e+62</v>
+        <v>4.227</v>
       </c>
       <c r="CG100" t="n">
-        <v>-7.458908648598262e+62</v>
+        <v>9.353</v>
       </c>
       <c r="CH100" t="n">
-        <v>2.716</v>
+        <v>0.722</v>
       </c>
       <c r="CI100" t="inlineStr">
         <is>
@@ -23691,10 +23691,10 @@
       </c>
       <c r="BJ101" t="inlineStr"/>
       <c r="BK101" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL101" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM101" t="inlineStr"/>
       <c r="BN101" t="inlineStr"/>
@@ -23708,10 +23708,10 @@
         <v>0.857</v>
       </c>
       <c r="BT101" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU101" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV101" t="n">
         <v>38.745</v>
@@ -23720,10 +23720,10 @@
         <v>27.234</v>
       </c>
       <c r="BX101" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY101" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ101" t="n">
         <v>6.078</v>
@@ -23732,10 +23732,10 @@
         <v>4.272</v>
       </c>
       <c r="CB101" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC101" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD101" t="n">
         <v>5.489</v>
@@ -23744,13 +23744,13 @@
         <v>3.858</v>
       </c>
       <c r="CF101" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG101" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH101" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI101" t="inlineStr">
         <is>
@@ -23913,10 +23913,10 @@
       </c>
       <c r="BJ102" t="inlineStr"/>
       <c r="BK102" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL102" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM102" t="inlineStr"/>
       <c r="BN102" t="inlineStr"/>
@@ -23930,10 +23930,10 @@
         <v>0.857</v>
       </c>
       <c r="BT102" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU102" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV102" t="n">
         <v>38.745</v>
@@ -23942,10 +23942,10 @@
         <v>27.234</v>
       </c>
       <c r="BX102" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY102" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ102" t="n">
         <v>6.078</v>
@@ -23954,10 +23954,10 @@
         <v>4.272</v>
       </c>
       <c r="CB102" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC102" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD102" t="n">
         <v>5.489</v>
@@ -23966,13 +23966,13 @@
         <v>3.858</v>
       </c>
       <c r="CF102" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG102" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH102" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI102" t="inlineStr">
         <is>
@@ -24135,10 +24135,10 @@
       </c>
       <c r="BJ103" t="inlineStr"/>
       <c r="BK103" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL103" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM103" t="inlineStr"/>
       <c r="BN103" t="inlineStr"/>
@@ -24152,10 +24152,10 @@
         <v>0.857</v>
       </c>
       <c r="BT103" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU103" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV103" t="n">
         <v>38.745</v>
@@ -24164,10 +24164,10 @@
         <v>27.234</v>
       </c>
       <c r="BX103" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY103" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ103" t="n">
         <v>6.078</v>
@@ -24176,10 +24176,10 @@
         <v>4.272</v>
       </c>
       <c r="CB103" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC103" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD103" t="n">
         <v>5.489</v>
@@ -24188,13 +24188,13 @@
         <v>3.858</v>
       </c>
       <c r="CF103" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG103" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH103" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI103" t="inlineStr">
         <is>
@@ -24357,10 +24357,10 @@
       </c>
       <c r="BJ104" t="inlineStr"/>
       <c r="BK104" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL104" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM104" t="inlineStr"/>
       <c r="BN104" t="inlineStr"/>
@@ -24374,10 +24374,10 @@
         <v>0.857</v>
       </c>
       <c r="BT104" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU104" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV104" t="n">
         <v>38.745</v>
@@ -24386,10 +24386,10 @@
         <v>27.234</v>
       </c>
       <c r="BX104" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY104" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ104" t="n">
         <v>6.078</v>
@@ -24398,10 +24398,10 @@
         <v>4.272</v>
       </c>
       <c r="CB104" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC104" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD104" t="n">
         <v>5.489</v>
@@ -24410,13 +24410,13 @@
         <v>3.858</v>
       </c>
       <c r="CF104" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG104" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH104" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI104" t="inlineStr">
         <is>
@@ -24579,10 +24579,10 @@
       </c>
       <c r="BJ105" t="inlineStr"/>
       <c r="BK105" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL105" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM105" t="inlineStr"/>
       <c r="BN105" t="inlineStr"/>
@@ -24596,10 +24596,10 @@
         <v>0.857</v>
       </c>
       <c r="BT105" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU105" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV105" t="n">
         <v>38.745</v>
@@ -24608,10 +24608,10 @@
         <v>27.234</v>
       </c>
       <c r="BX105" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY105" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ105" t="n">
         <v>6.078</v>
@@ -24620,10 +24620,10 @@
         <v>4.272</v>
       </c>
       <c r="CB105" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC105" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD105" t="n">
         <v>5.489</v>
@@ -24632,13 +24632,13 @@
         <v>3.858</v>
       </c>
       <c r="CF105" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG105" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH105" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI105" t="inlineStr">
         <is>
@@ -24793,10 +24793,10 @@
       </c>
       <c r="BJ106" t="inlineStr"/>
       <c r="BK106" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL106" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM106" t="inlineStr"/>
       <c r="BN106" t="inlineStr"/>
@@ -25015,10 +25015,10 @@
       </c>
       <c r="BJ107" t="inlineStr"/>
       <c r="BK107" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL107" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM107" t="inlineStr"/>
       <c r="BN107" t="inlineStr"/>
@@ -25032,10 +25032,10 @@
         <v>0.857</v>
       </c>
       <c r="BT107" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU107" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV107" t="n">
         <v>38.745</v>
@@ -25044,10 +25044,10 @@
         <v>27.234</v>
       </c>
       <c r="BX107" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY107" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ107" t="n">
         <v>6.078</v>
@@ -25056,10 +25056,10 @@
         <v>4.272</v>
       </c>
       <c r="CB107" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC107" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD107" t="n">
         <v>5.489</v>
@@ -25068,13 +25068,13 @@
         <v>3.858</v>
       </c>
       <c r="CF107" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG107" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH107" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI107" t="inlineStr">
         <is>
@@ -25245,10 +25245,10 @@
       </c>
       <c r="BJ108" t="inlineStr"/>
       <c r="BK108" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL108" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM108" t="inlineStr"/>
       <c r="BN108" t="inlineStr"/>
@@ -25262,10 +25262,10 @@
         <v>2.286</v>
       </c>
       <c r="BT108" t="n">
-        <v>1.361215349261659e+35</v>
+        <v>2.25</v>
       </c>
       <c r="BU108" t="n">
-        <v>-1.361215349261659e+35</v>
+        <v>2.322</v>
       </c>
       <c r="BV108" t="n">
         <v>70.136</v>
@@ -25274,10 +25274,10 @@
         <v>93.437</v>
       </c>
       <c r="BX108" t="n">
-        <v>1.118617812489797e+197</v>
+        <v>93.441</v>
       </c>
       <c r="BY108" t="n">
-        <v>-1.118617812489797e+197</v>
+        <v>93.43300000000001</v>
       </c>
       <c r="BZ108" t="n">
         <v>10.508</v>
@@ -25286,10 +25286,10 @@
         <v>13.999</v>
       </c>
       <c r="CB108" t="n">
-        <v>3.729059806978282e+114</v>
+        <v>13.992</v>
       </c>
       <c r="CC108" t="n">
-        <v>-3.729059806978282e+114</v>
+        <v>14.006</v>
       </c>
       <c r="CD108" t="n">
         <v>8.595000000000001</v>
@@ -25298,13 +25298,13 @@
         <v>11.451</v>
       </c>
       <c r="CF108" t="n">
-        <v>4.1844953678501e+105</v>
+        <v>11.394</v>
       </c>
       <c r="CG108" t="n">
-        <v>-4.1844953678501e+105</v>
+        <v>11.508</v>
       </c>
       <c r="CH108" t="n">
-        <v>2.504</v>
+        <v>0.503</v>
       </c>
       <c r="CI108" t="inlineStr">
         <is>
@@ -25467,10 +25467,10 @@
       </c>
       <c r="BJ109" t="inlineStr"/>
       <c r="BK109" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL109" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM109" t="inlineStr"/>
       <c r="BN109" t="inlineStr"/>
@@ -25484,10 +25484,10 @@
         <v>0.857</v>
       </c>
       <c r="BT109" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU109" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV109" t="n">
         <v>47.401</v>
@@ -25496,10 +25496,10 @@
         <v>37.118</v>
       </c>
       <c r="BX109" t="n">
-        <v>2.438025970645374e+60</v>
+        <v>4.102</v>
       </c>
       <c r="BY109" t="n">
-        <v>-2.438025970645374e+60</v>
+        <v>70.134</v>
       </c>
       <c r="BZ109" t="n">
         <v>7.647</v>
@@ -25508,10 +25508,10 @@
         <v>5.988</v>
       </c>
       <c r="CB109" t="n">
-        <v>5.644392635431883e+37</v>
+        <v>2.417</v>
       </c>
       <c r="CC109" t="n">
-        <v>-5.644392635431883e+37</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="CD109" t="n">
         <v>6.391</v>
@@ -25520,13 +25520,13 @@
         <v>5.005</v>
       </c>
       <c r="CF109" t="n">
-        <v>3.35407087557762e+35</v>
+        <v>2.294</v>
       </c>
       <c r="CG109" t="n">
-        <v>-3.35407087557762e+35</v>
+        <v>7.716</v>
       </c>
       <c r="CH109" t="n">
-        <v>2.861</v>
+        <v>0.868</v>
       </c>
       <c r="CI109" t="inlineStr">
         <is>
@@ -25699,13 +25699,13 @@
       </c>
       <c r="BJ110" t="inlineStr"/>
       <c r="BK110" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL110" t="n">
-        <v>47.62</v>
+        <v>0.48</v>
       </c>
       <c r="BM110" t="n">
-        <v>23.81</v>
+        <v>0.24</v>
       </c>
       <c r="BN110" t="inlineStr"/>
       <c r="BO110" t="inlineStr"/>
@@ -25718,10 +25718,10 @@
         <v>2.763</v>
       </c>
       <c r="BT110" t="n">
-        <v>2.001939895124802e+42</v>
+        <v>2.675</v>
       </c>
       <c r="BU110" t="n">
-        <v>-2.001939895124802e+42</v>
+        <v>2.851</v>
       </c>
       <c r="BV110" t="n">
         <v>55.192</v>
@@ -25730,10 +25730,10 @@
         <v>99.791</v>
       </c>
       <c r="BX110" t="n">
-        <v>3.123746479111006e+160</v>
+        <v>41.855</v>
       </c>
       <c r="BY110" t="n">
-        <v>-3.123746479111006e+160</v>
+        <v>157.727</v>
       </c>
       <c r="BZ110" t="n">
         <v>6.649</v>
@@ -25742,10 +25742,10 @@
         <v>12.022</v>
       </c>
       <c r="CB110" t="n">
-        <v>1.794523014175669e+91</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="CC110" t="n">
-        <v>-1.794523014175669e+91</v>
+        <v>15.684</v>
       </c>
       <c r="CD110" t="n">
         <v>5.993</v>
@@ -25754,13 +25754,13 @@
         <v>10.836</v>
       </c>
       <c r="CF110" t="n">
-        <v>6.58499506573081e+87</v>
+        <v>7.718</v>
       </c>
       <c r="CG110" t="n">
-        <v>-6.58499506573081e+87</v>
+        <v>13.954</v>
       </c>
       <c r="CH110" t="n">
-        <v>4.44</v>
+        <v>2.443</v>
       </c>
       <c r="CI110" t="inlineStr">
         <is>
@@ -25937,13 +25937,13 @@
       </c>
       <c r="BJ111" t="inlineStr"/>
       <c r="BK111" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL111" t="n">
-        <v>47.62</v>
+        <v>0.48</v>
       </c>
       <c r="BM111" t="n">
-        <v>23.81</v>
+        <v>0.24</v>
       </c>
       <c r="BN111" t="inlineStr"/>
       <c r="BO111" t="inlineStr"/>
@@ -25956,10 +25956,10 @@
         <v>2.762</v>
       </c>
       <c r="BT111" t="n">
-        <v>2.001939895124802e+42</v>
+        <v>2.675</v>
       </c>
       <c r="BU111" t="n">
-        <v>-2.001939895124802e+42</v>
+        <v>2.849</v>
       </c>
       <c r="BV111" t="n">
         <v>58.083</v>
@@ -25968,10 +25968,10 @@
         <v>109.673</v>
       </c>
       <c r="BX111" t="n">
-        <v>2.169277609073717e+164</v>
+        <v>45.787</v>
       </c>
       <c r="BY111" t="n">
-        <v>-2.169277609073717e+164</v>
+        <v>173.559</v>
       </c>
       <c r="BZ111" t="n">
         <v>7.276</v>
@@ -25980,10 +25980,10 @@
         <v>13.739</v>
       </c>
       <c r="CB111" t="n">
-        <v>2.782695394453968e+95</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="CC111" t="n">
-        <v>-2.782695394453968e+95</v>
+        <v>18.258</v>
       </c>
       <c r="CD111" t="n">
         <v>6.346</v>
@@ -25992,13 +25992,13 @@
         <v>11.983</v>
       </c>
       <c r="CF111" t="n">
-        <v>1.113657810674585e+91</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="CG111" t="n">
-        <v>-1.113657810674585e+91</v>
+        <v>15.644</v>
       </c>
       <c r="CH111" t="n">
-        <v>4.45</v>
+        <v>2.454</v>
       </c>
       <c r="CI111" t="inlineStr">
         <is>
@@ -26165,10 +26165,10 @@
       </c>
       <c r="BJ112" t="inlineStr"/>
       <c r="BK112" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL112" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM112" t="inlineStr"/>
       <c r="BN112" t="inlineStr"/>
@@ -26182,10 +26182,10 @@
         <v>0.75</v>
       </c>
       <c r="BT112" t="n">
-        <v>847288609443</v>
+        <v>1.316</v>
       </c>
       <c r="BU112" t="n">
-        <v>-847288609441.5</v>
+        <v>0.184</v>
       </c>
       <c r="BV112" t="n">
         <v>34.387</v>
@@ -26194,10 +26194,10 @@
         <v>23.83</v>
       </c>
       <c r="BX112" t="n">
-        <v>3.017853037553937e+49</v>
+        <v>3.125</v>
       </c>
       <c r="BY112" t="n">
-        <v>-3.017853037553937e+49</v>
+        <v>44.535</v>
       </c>
       <c r="BZ112" t="n">
         <v>5.394</v>
@@ -26206,10 +26206,10 @@
         <v>3.738</v>
       </c>
       <c r="CB112" t="n">
-        <v>2.3304048679046e+29</v>
+        <v>1.966</v>
       </c>
       <c r="CC112" t="n">
-        <v>-2.3304048679046e+29</v>
+        <v>5.51</v>
       </c>
       <c r="CD112" t="n">
         <v>4.872</v>
@@ -26218,13 +26218,13 @@
         <v>3.376</v>
       </c>
       <c r="CF112" t="n">
-        <v>1.826488796557162e+28</v>
+        <v>1.917</v>
       </c>
       <c r="CG112" t="n">
-        <v>-1.826488796557162e+28</v>
+        <v>4.835</v>
       </c>
       <c r="CH112" t="n">
-        <v>1.677</v>
+        <v>-0.323</v>
       </c>
       <c r="CI112" t="inlineStr">
         <is>
@@ -26387,10 +26387,10 @@
       </c>
       <c r="BJ113" t="inlineStr"/>
       <c r="BK113" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL113" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM113" t="inlineStr"/>
       <c r="BN113" t="inlineStr"/>
@@ -26404,10 +26404,10 @@
         <v>0.857</v>
       </c>
       <c r="BT113" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU113" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV113" t="n">
         <v>38.745</v>
@@ -26416,10 +26416,10 @@
         <v>27.234</v>
       </c>
       <c r="BX113" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY113" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ113" t="n">
         <v>6.078</v>
@@ -26428,10 +26428,10 @@
         <v>4.272</v>
       </c>
       <c r="CB113" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC113" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD113" t="n">
         <v>5.489</v>
@@ -26440,13 +26440,13 @@
         <v>3.858</v>
       </c>
       <c r="CF113" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG113" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH113" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI113" t="inlineStr">
         <is>
@@ -26609,10 +26609,10 @@
       </c>
       <c r="BJ114" t="inlineStr"/>
       <c r="BK114" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL114" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM114" t="inlineStr"/>
       <c r="BN114" t="inlineStr"/>
@@ -26626,10 +26626,10 @@
         <v>0.857</v>
       </c>
       <c r="BT114" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU114" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV114" t="n">
         <v>38.745</v>
@@ -26638,10 +26638,10 @@
         <v>27.234</v>
       </c>
       <c r="BX114" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY114" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ114" t="n">
         <v>6.078</v>
@@ -26650,10 +26650,10 @@
         <v>4.272</v>
       </c>
       <c r="CB114" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC114" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD114" t="n">
         <v>5.489</v>
@@ -26662,13 +26662,13 @@
         <v>3.858</v>
       </c>
       <c r="CF114" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG114" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH114" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI114" t="inlineStr">
         <is>
@@ -26831,10 +26831,10 @@
       </c>
       <c r="BJ115" t="inlineStr"/>
       <c r="BK115" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL115" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM115" t="inlineStr"/>
       <c r="BN115" t="inlineStr"/>
@@ -26848,10 +26848,10 @@
         <v>0.857</v>
       </c>
       <c r="BT115" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU115" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV115" t="n">
         <v>38.745</v>
@@ -26860,10 +26860,10 @@
         <v>27.234</v>
       </c>
       <c r="BX115" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY115" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ115" t="n">
         <v>6.078</v>
@@ -26872,10 +26872,10 @@
         <v>4.272</v>
       </c>
       <c r="CB115" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC115" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD115" t="n">
         <v>5.489</v>
@@ -26884,13 +26884,13 @@
         <v>3.858</v>
       </c>
       <c r="CF115" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG115" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH115" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI115" t="inlineStr">
         <is>
@@ -27053,10 +27053,10 @@
       </c>
       <c r="BJ116" t="inlineStr"/>
       <c r="BK116" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL116" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM116" t="inlineStr"/>
       <c r="BN116" t="inlineStr"/>
@@ -27070,10 +27070,10 @@
         <v>0.857</v>
       </c>
       <c r="BT116" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU116" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV116" t="n">
         <v>38.745</v>
@@ -27082,10 +27082,10 @@
         <v>27.234</v>
       </c>
       <c r="BX116" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY116" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ116" t="n">
         <v>6.078</v>
@@ -27094,10 +27094,10 @@
         <v>4.272</v>
       </c>
       <c r="CB116" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC116" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD116" t="n">
         <v>5.489</v>
@@ -27106,13 +27106,13 @@
         <v>3.858</v>
       </c>
       <c r="CF116" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG116" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH116" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI116" t="inlineStr">
         <is>
@@ -27275,10 +27275,10 @@
       </c>
       <c r="BJ117" t="inlineStr"/>
       <c r="BK117" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL117" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM117" t="inlineStr"/>
       <c r="BN117" t="inlineStr"/>
@@ -27292,10 +27292,10 @@
         <v>0.857</v>
       </c>
       <c r="BT117" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU117" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV117" t="n">
         <v>38.745</v>
@@ -27304,10 +27304,10 @@
         <v>27.234</v>
       </c>
       <c r="BX117" t="n">
-        <v>3.510742474789394e+56</v>
+        <v>3.749</v>
       </c>
       <c r="BY117" t="n">
-        <v>-3.510742474789394e+56</v>
+        <v>50.719</v>
       </c>
       <c r="BZ117" t="n">
         <v>6.078</v>
@@ -27316,10 +27316,10 @@
         <v>4.272</v>
       </c>
       <c r="CB117" t="n">
-        <v>3.639993261753943e+33</v>
+        <v>2.191</v>
       </c>
       <c r="CC117" t="n">
-        <v>-3.639993261753943e+33</v>
+        <v>6.353</v>
       </c>
       <c r="CD117" t="n">
         <v>5.489</v>
@@ -27328,13 +27328,13 @@
         <v>3.858</v>
       </c>
       <c r="CF117" t="n">
-        <v>1.983242963331023e+32</v>
+        <v>2.127</v>
       </c>
       <c r="CG117" t="n">
-        <v>-1.983242963331023e+32</v>
+        <v>5.589</v>
       </c>
       <c r="CH117" t="n">
-        <v>1.735</v>
+        <v>-0.258</v>
       </c>
       <c r="CI117" t="inlineStr">
         <is>
@@ -27505,10 +27505,10 @@
       </c>
       <c r="BJ118" t="inlineStr"/>
       <c r="BK118" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL118" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM118" t="inlineStr"/>
       <c r="BN118" t="inlineStr"/>
@@ -27522,10 +27522,10 @@
         <v>2.286</v>
       </c>
       <c r="BT118" t="n">
-        <v>1.361215349261659e+35</v>
+        <v>2.25</v>
       </c>
       <c r="BU118" t="n">
-        <v>-1.361215349261659e+35</v>
+        <v>2.322</v>
       </c>
       <c r="BV118" t="n">
         <v>70.136</v>
@@ -27534,10 +27534,10 @@
         <v>93.437</v>
       </c>
       <c r="BX118" t="n">
-        <v>1.118617812489797e+197</v>
+        <v>93.441</v>
       </c>
       <c r="BY118" t="n">
-        <v>-1.118617812489797e+197</v>
+        <v>93.43300000000001</v>
       </c>
       <c r="BZ118" t="n">
         <v>10.508</v>
@@ -27546,10 +27546,10 @@
         <v>13.999</v>
       </c>
       <c r="CB118" t="n">
-        <v>3.729059806978282e+114</v>
+        <v>13.992</v>
       </c>
       <c r="CC118" t="n">
-        <v>-3.729059806978282e+114</v>
+        <v>14.006</v>
       </c>
       <c r="CD118" t="n">
         <v>8.595000000000001</v>
@@ -27558,13 +27558,13 @@
         <v>11.451</v>
       </c>
       <c r="CF118" t="n">
-        <v>4.1844953678501e+105</v>
+        <v>11.394</v>
       </c>
       <c r="CG118" t="n">
-        <v>-4.1844953678501e+105</v>
+        <v>11.508</v>
       </c>
       <c r="CH118" t="n">
-        <v>2.504</v>
+        <v>0.503</v>
       </c>
       <c r="CI118" t="inlineStr">
         <is>
@@ -27727,10 +27727,10 @@
       </c>
       <c r="BJ119" t="inlineStr"/>
       <c r="BK119" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL119" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM119" t="inlineStr"/>
       <c r="BN119" t="inlineStr"/>
@@ -27744,10 +27744,10 @@
         <v>0.857</v>
       </c>
       <c r="BT119" t="n">
-        <v>42791178490937.92</v>
+        <v>1.375</v>
       </c>
       <c r="BU119" t="n">
-        <v>-42791178490936.21</v>
+        <v>0.339</v>
       </c>
       <c r="BV119" t="n">
         <v>47.401</v>
@@ -27756,10 +27756,10 @@
         <v>37.118</v>
       </c>
       <c r="BX119" t="n">
-        <v>2.438025970645374e+60</v>
+        <v>4.102</v>
       </c>
       <c r="BY119" t="n">
-        <v>-2.438025970645374e+60</v>
+        <v>70.134</v>
       </c>
       <c r="BZ119" t="n">
         <v>7.647</v>
@@ -27768,10 +27768,10 @@
         <v>5.988</v>
       </c>
       <c r="CB119" t="n">
-        <v>5.644392635431883e+37</v>
+        <v>2.417</v>
       </c>
       <c r="CC119" t="n">
-        <v>-5.644392635431883e+37</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="CD119" t="n">
         <v>6.391</v>
@@ -27780,13 +27780,13 @@
         <v>5.005</v>
       </c>
       <c r="CF119" t="n">
-        <v>3.35407087557762e+35</v>
+        <v>2.294</v>
       </c>
       <c r="CG119" t="n">
-        <v>-3.35407087557762e+35</v>
+        <v>7.716</v>
       </c>
       <c r="CH119" t="n">
-        <v>2.861</v>
+        <v>0.868</v>
       </c>
       <c r="CI119" t="inlineStr">
         <is>
@@ -27941,10 +27941,10 @@
       </c>
       <c r="BJ120" t="inlineStr"/>
       <c r="BK120" t="n">
-        <v>28.57</v>
+        <v>0.29</v>
       </c>
       <c r="BL120" t="n">
-        <v>71.43000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="BM120" t="inlineStr"/>
       <c r="BN120" t="inlineStr"/>
@@ -28163,10 +28163,10 @@
       </c>
       <c r="BJ121" t="inlineStr"/>
       <c r="BK121" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="BL121" t="n">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="BM121" t="inlineStr"/>
       <c r="BN121" t="inlineStr"/>
@@ -28180,10 +28180,10 @@
         <v>0.75</v>
       </c>
       <c r="BT121" t="n">
-        <v>847288609443</v>
+        <v>1.316</v>
       </c>
       <c r="BU121" t="n">
-        <v>-847288609441.5</v>
+        <v>0.184</v>
       </c>
       <c r="BV121" t="n">
         <v>34.387</v>
@@ -28192,10 +28192,10 @@
         <v>23.83</v>
       </c>
       <c r="BX121" t="n">
-        <v>3.017853037553937e+49</v>
+        <v>3.125</v>
       </c>
       <c r="BY121" t="n">
-        <v>-3.017853037553937e+49</v>
+        <v>44.535</v>
       </c>
       <c r="BZ121" t="n">
         <v>5.394</v>
@@ -28204,10 +28204,10 @@
         <v>3.738</v>
       </c>
       <c r="CB121" t="n">
-        <v>2.3304048679046e+29</v>
+        <v>1.966</v>
       </c>
       <c r="CC121" t="n">
-        <v>-2.3304048679046e+29</v>
+        <v>5.51</v>
       </c>
       <c r="CD121" t="n">
         <v>4.872</v>
@@ -28216,13 +28216,13 @@
         <v>3.376</v>
       </c>
       <c r="CF121" t="n">
-        <v>1.826488796557162e+28</v>
+        <v>1.917</v>
       </c>
       <c r="CG121" t="n">
-        <v>-1.826488796557162e+28</v>
+        <v>4.835</v>
       </c>
       <c r="CH121" t="n">
-        <v>1.677</v>
+        <v>-0.323</v>
       </c>
       <c r="CI121" t="inlineStr">
         <is>
@@ -28385,10 +28385,10 @@
       </c>
       <c r="BJ122" t="inlineStr"/>
       <c r="BK122" t="n">
-        <v>26.83</v>
+        <v>0.27</v>
       </c>
       <c r="BL122" t="n">
-        <v>73.17</v>
+        <v>0.73</v>
       </c>
       <c r="BM122" t="inlineStr"/>
       <c r="BN122" t="inlineStr"/>
@@ -28402,10 +28402,10 @@
         <v>0.805</v>
       </c>
       <c r="BT122" t="n">
-        <v>6326496383708.165</v>
+        <v>1.345</v>
       </c>
       <c r="BU122" t="n">
-        <v>-6326496383706.555</v>
+        <v>0.265</v>
       </c>
       <c r="BV122" t="n">
         <v>36.635</v>
@@ -28414,10 +28414,10 @@
         <v>25.574</v>
       </c>
       <c r="BX122" t="n">
-        <v>1.263606894312284e+53</v>
+        <v>3.423</v>
       </c>
       <c r="BY122" t="n">
-        <v>-1.263606894312284e+53</v>
+        <v>47.725</v>
       </c>
       <c r="BZ122" t="n">
         <v>5.746</v>
@@ -28426,10 +28426,10 @@
         <v>4.011</v>
       </c>
       <c r="CB122" t="n">
-        <v>3.289480799061695e+31</v>
+        <v>2.076</v>
       </c>
       <c r="CC122" t="n">
-        <v>-3.289480799061695e+31</v>
+        <v>5.946</v>
       </c>
       <c r="CD122" t="n">
         <v>5.19</v>
@@ -28438,13 +28438,13 @@
         <v>3.623</v>
       </c>
       <c r="CF122" t="n">
-        <v>2.139771397523816e+30</v>
+        <v>2.019</v>
       </c>
       <c r="CG122" t="n">
-        <v>-2.139771397523816e+30</v>
+        <v>5.227</v>
       </c>
       <c r="CH122" t="n">
-        <v>1.708</v>
+        <v>-0.289</v>
       </c>
       <c r="CI122" t="inlineStr">
         <is>

--- a/mini project_v7_results.xlsx
+++ b/mini project_v7_results.xlsx
@@ -19190,131 +19190,139 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1449973030501633</v>
+        <v>0.09209341218985242</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1449973030501633</v>
+        <v>0.09209341218985242</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4349919091504898</v>
+        <v>0.2762802365695572</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2899946061003265</v>
+        <v>0.1841868243797048</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1449973030501633</v>
+        <v>0.09209341218985242</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1449973030501633</v>
+        <v>0.09209341218985242</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>0.579989212200653</v>
+        <v>0.3683736487594097</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2899946061003265</v>
+        <v>0.1841868243797048</v>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="n">
-        <v>0.579989212200653</v>
+        <v>0.3683736487594097</v>
       </c>
       <c r="W83" t="n">
-        <v>1.449973030501633</v>
+        <v>0.9209341218985243</v>
       </c>
       <c r="X83" t="n">
-        <v>0.2899946061003265</v>
+        <v>0.1841868243797048</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.449973030501633</v>
+        <v>0.8288407097086717</v>
       </c>
       <c r="AA83" t="n">
-        <v>2.899946061003265</v>
+        <v>1.105120946278229</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.8699838183009796</v>
+        <v>0.2762802365695572</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>1.105120946278229</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.579989212200653</v>
+        <v>0.9209341218985243</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.8699838183009796</v>
+        <v>1.841868243797049</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.4349919091504898</v>
+        <v>0.5525604731391145</v>
       </c>
       <c r="AG83" t="n">
         <v>0</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.579989212200653</v>
+        <v>0.3683736487594097</v>
       </c>
       <c r="AI83" t="n">
-        <v>1.449973030501633</v>
+        <v>0.5525604731391145</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0.1449973030501633</v>
+        <v>0.2762802365695572</v>
       </c>
       <c r="AK83" t="n">
         <v>0</v>
       </c>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
+      <c r="AL83" t="n">
+        <v>0.3683736487594097</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.9209341218985243</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.09209341218985242</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
       <c r="AP83" t="n">
-        <v>0.1449973030501633</v>
+        <v>0.09209341218985242</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.159978424401306</v>
+        <v>0.7367472975188194</v>
       </c>
       <c r="AR83" t="n">
         <v>0.125</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.579989212200653</v>
+        <v>0.3683736487594097</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.8699838183009796</v>
+        <v>0.5525604731391145</v>
       </c>
       <c r="AU83" t="n">
-        <v>3.189940667103591</v>
+        <v>2.854895777885425</v>
       </c>
       <c r="AV83" t="n">
-        <v>6.669875940307509</v>
+        <v>5.341417907011441</v>
       </c>
       <c r="AW83" t="n">
-        <v>0.8699838183009796</v>
+        <v>0.6907005914238932</v>
       </c>
       <c r="AX83" t="n">
-        <v>0</v>
+        <v>1.105120946278229</v>
       </c>
       <c r="AY83" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AZ83" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BA83" t="n">
-        <v>21.28</v>
+        <v>15.25</v>
       </c>
       <c r="BB83" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="BC83" t="n">
         <v>1</v>
       </c>
       <c r="BD83" t="n">
-        <v>-0.1300161816990204</v>
+        <v>-0.3092994085761068</v>
       </c>
       <c r="BE83" t="n">
         <v>1</v>
@@ -19329,14 +19337,14 @@
         <v>0</v>
       </c>
       <c r="BI83" t="n">
-        <v>0.988</v>
+        <v>1.139</v>
       </c>
       <c r="BJ83" t="inlineStr"/>
       <c r="BK83" t="n">
         <v>0.12</v>
       </c>
       <c r="BL83" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BM83" t="n">
         <v>0.25</v>
@@ -19350,55 +19358,55 @@
       <c r="BP83" t="inlineStr"/>
       <c r="BQ83" t="inlineStr"/>
       <c r="BR83" t="n">
-        <v>1.885</v>
+        <v>1.75</v>
       </c>
       <c r="BS83" t="n">
-        <v>1.625</v>
+        <v>2.375</v>
       </c>
       <c r="BT83" t="n">
-        <v>1.773</v>
+        <v>2.292</v>
       </c>
       <c r="BU83" t="n">
-        <v>1.477</v>
+        <v>2.458</v>
       </c>
       <c r="BV83" t="n">
-        <v>73.733</v>
+        <v>72.664</v>
       </c>
       <c r="BW83" t="n">
-        <v>63.564</v>
+        <v>98.628</v>
       </c>
       <c r="BX83" t="n">
-        <v>16.697</v>
+        <v>89.504</v>
       </c>
       <c r="BY83" t="n">
-        <v>110.431</v>
+        <v>107.752</v>
       </c>
       <c r="BZ83" t="n">
-        <v>11.17</v>
+        <v>10.053</v>
       </c>
       <c r="CA83" t="n">
-        <v>9.629</v>
+        <v>13.645</v>
       </c>
       <c r="CB83" t="n">
-        <v>5.289</v>
+        <v>12.716</v>
       </c>
       <c r="CC83" t="n">
-        <v>13.969</v>
+        <v>14.574</v>
       </c>
       <c r="CD83" t="n">
-        <v>9.334</v>
+        <v>8.747</v>
       </c>
       <c r="CE83" t="n">
-        <v>8.047000000000001</v>
+        <v>11.872</v>
       </c>
       <c r="CF83" t="n">
-        <v>4.735</v>
+        <v>11.183</v>
       </c>
       <c r="CG83" t="n">
-        <v>11.359</v>
+        <v>12.561</v>
       </c>
       <c r="CH83" t="n">
-        <v>0.76</v>
+        <v>1.236</v>
       </c>
       <c r="CI83" t="inlineStr">
         <is>
@@ -19460,59 +19468,67 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1782631606343602</v>
+        <v>0.1124696950406713</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2139157927612322</v>
+        <v>0.1349636340488055</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1782631606343602</v>
+        <v>0.1124696950406713</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3565263212687203</v>
+        <v>0.2249393900813426</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>0.7130526425374406</v>
+        <v>0.4498787801626852</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.3565263212687203</v>
+        <v>0.2249393900813426</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="n">
-        <v>1.283494756567393</v>
+        <v>0.8097818042928333</v>
       </c>
       <c r="W84" t="n">
-        <v>2.99482109865725</v>
+        <v>1.889490876683278</v>
       </c>
       <c r="X84" t="n">
-        <v>0.4278315855224644</v>
+        <v>0.2699272680976111</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.8913158031718007</v>
+        <v>0.5623484752033565</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.7130526425374406</v>
+        <v>0.4498787801626852</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.1782631606343602</v>
+        <v>0.1124696950406713</v>
       </c>
       <c r="AC84" t="n">
-        <v>1.426105285074881</v>
-      </c>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
+        <v>0.8997575603253704</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.8997575603253704</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.124696950406713</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.2249393900813426</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.124696950406713</v>
+      </c>
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
@@ -19522,49 +19538,49 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="n">
-        <v>0.1782631606343602</v>
+        <v>0.1124696950406713</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.7487052746643126</v>
+        <v>0.4723727191708195</v>
       </c>
       <c r="AR84" t="n">
         <v>0.238</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.7130526425374406</v>
+        <v>0.4498787801626852</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.069578963806161</v>
+        <v>0.6748181702440278</v>
       </c>
       <c r="AU84" t="n">
-        <v>2.174810559739194</v>
+        <v>2.27188783982156</v>
       </c>
       <c r="AV84" t="n">
-        <v>3.707873741194691</v>
+        <v>3.464066607252676</v>
       </c>
       <c r="AW84" t="n">
-        <v>0.3030473730784122</v>
+        <v>0.3036681766098125</v>
       </c>
       <c r="AX84" t="n">
-        <v>1.426105285074881</v>
+        <v>2.024454510732083</v>
       </c>
       <c r="AY84" t="n">
-        <v>0.66</v>
+        <v>0.89</v>
       </c>
       <c r="AZ84" t="n">
-        <v>4.71</v>
+        <v>6.67</v>
       </c>
       <c r="BA84" t="n">
-        <v>8.06</v>
+        <v>7.87</v>
       </c>
       <c r="BB84" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="BC84" t="n">
         <v>0</v>
       </c>
       <c r="BD84" t="n">
-        <v>0.3030473730784122</v>
+        <v>0.3036681766098125</v>
       </c>
       <c r="BE84" t="n">
         <v>0</v>
@@ -19579,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="BI84" t="n">
-        <v>1.213</v>
+        <v>1.295</v>
       </c>
       <c r="BJ84" t="inlineStr"/>
       <c r="BK84" t="n">
@@ -19596,55 +19612,55 @@
       <c r="BP84" t="inlineStr"/>
       <c r="BQ84" t="inlineStr"/>
       <c r="BR84" t="n">
-        <v>1.355</v>
+        <v>1.53</v>
       </c>
       <c r="BS84" t="n">
-        <v>1.81</v>
+        <v>3.239</v>
       </c>
       <c r="BT84" t="n">
-        <v>1.918</v>
+        <v>3.25</v>
       </c>
       <c r="BU84" t="n">
-        <v>1.702</v>
+        <v>3.228</v>
       </c>
       <c r="BV84" t="n">
-        <v>54.952</v>
+        <v>60.958</v>
       </c>
       <c r="BW84" t="n">
-        <v>73.396</v>
+        <v>129.046</v>
       </c>
       <c r="BX84" t="n">
-        <v>13.704</v>
+        <v>134.694</v>
       </c>
       <c r="BY84" t="n">
-        <v>133.088</v>
+        <v>123.398</v>
       </c>
       <c r="BZ84" t="n">
-        <v>7.385</v>
+        <v>7.719</v>
       </c>
       <c r="CA84" t="n">
-        <v>9.864000000000001</v>
+        <v>16.341</v>
       </c>
       <c r="CB84" t="n">
-        <v>4.72</v>
+        <v>16.523</v>
       </c>
       <c r="CC84" t="n">
-        <v>15.008</v>
+        <v>16.159</v>
       </c>
       <c r="CD84" t="n">
-        <v>6.359</v>
+        <v>6.783</v>
       </c>
       <c r="CE84" t="n">
-        <v>8.493</v>
+        <v>14.359</v>
       </c>
       <c r="CF84" t="n">
-        <v>4.369</v>
+        <v>14.584</v>
       </c>
       <c r="CG84" t="n">
-        <v>12.617</v>
+        <v>14.134</v>
       </c>
       <c r="CH84" t="n">
-        <v>2.164</v>
+        <v>2.251</v>
       </c>
       <c r="CI84" t="inlineStr">
         <is>
@@ -19698,13 +19714,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1269899322381722</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1523879186858066</v>
       </c>
       <c r="J85" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3809697967145165</v>
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -19712,31 +19728,39 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5079597289526887</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2539798644763444</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6095516747432265</v>
       </c>
       <c r="W85" t="n">
-        <v>4.064710186163726</v>
+        <v>1.523879186858066</v>
       </c>
       <c r="X85" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.3047758373716132</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
       </c>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
+      <c r="Z85" t="n">
+        <v>1.523879186858066</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>1.904848983572583</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.3809697967145165</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.904848983572583</v>
+      </c>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
@@ -19750,49 +19774,49 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1269899322381722</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.422648565157304</v>
+        <v>0.5333577154003232</v>
       </c>
       <c r="AR85" t="n">
         <v>0.238</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5079597289526887</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.032355093081863</v>
+        <v>0.7619395934290331</v>
       </c>
       <c r="AU85" t="n">
-        <v>1.625884074465491</v>
+        <v>2.133430861601293</v>
       </c>
       <c r="AV85" t="n">
-        <v>4.064710186163726</v>
+        <v>3.428728170430649</v>
       </c>
       <c r="AW85" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3428728170430649</v>
       </c>
       <c r="AX85" t="n">
-        <v>0</v>
+        <v>1.904848983572583</v>
       </c>
       <c r="AY85" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AZ85" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="BA85" t="n">
-        <v>6.61</v>
+        <v>7.31</v>
       </c>
       <c r="BB85" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC85" t="n">
         <v>0</v>
       </c>
       <c r="BD85" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3428728170430649</v>
       </c>
       <c r="BE85" t="n">
         <v>0</v>
@@ -19807,7 +19831,7 @@
         <v>0</v>
       </c>
       <c r="BI85" t="n">
-        <v>0.945</v>
+        <v>1.291</v>
       </c>
       <c r="BJ85" t="inlineStr"/>
       <c r="BK85" t="n">
@@ -19822,55 +19846,55 @@
       <c r="BP85" t="inlineStr"/>
       <c r="BQ85" t="inlineStr"/>
       <c r="BR85" t="n">
-        <v>1.219</v>
+        <v>1.6</v>
       </c>
       <c r="BS85" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT85" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU85" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV85" t="n">
-        <v>38.745</v>
+        <v>59.049</v>
       </c>
       <c r="BW85" t="n">
-        <v>27.234</v>
+        <v>110.712</v>
       </c>
       <c r="BX85" t="n">
-        <v>3.749</v>
+        <v>110.161</v>
       </c>
       <c r="BY85" t="n">
-        <v>50.719</v>
+        <v>111.263</v>
       </c>
       <c r="BZ85" t="n">
-        <v>6.078</v>
+        <v>7.46</v>
       </c>
       <c r="CA85" t="n">
-        <v>4.272</v>
+        <v>13.987</v>
       </c>
       <c r="CB85" t="n">
-        <v>2.191</v>
+        <v>13.98</v>
       </c>
       <c r="CC85" t="n">
-        <v>6.353</v>
+        <v>13.994</v>
       </c>
       <c r="CD85" t="n">
-        <v>5.489</v>
+        <v>6.75</v>
       </c>
       <c r="CE85" t="n">
-        <v>3.858</v>
+        <v>12.656</v>
       </c>
       <c r="CF85" t="n">
-        <v>2.127</v>
+        <v>12.65</v>
       </c>
       <c r="CG85" t="n">
-        <v>5.589</v>
+        <v>12.662</v>
       </c>
       <c r="CH85" t="n">
-        <v>-0.258</v>
+        <v>1.687</v>
       </c>
       <c r="CI85" t="inlineStr">
         <is>
@@ -20142,73 +20166,77 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.04409740375653436</v>
+        <v>0.03145460037999673</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2645844225392061</v>
+        <v>0.1887276022799804</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08819480751306871</v>
+        <v>0.06290920075999347</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1763896150261374</v>
+        <v>0.1258184015199869</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08819480751306871</v>
+        <v>0.06290920075999347</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1058337690156824</v>
+        <v>0.07549104091199216</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2645844225392061</v>
+        <v>0.1887276022799804</v>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>0.1763896150261374</v>
+        <v>0.1258184015199869</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.08819480751306871</v>
+        <v>0.06290920075999347</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3527792300522749</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0.5291688450784122</v>
-      </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
+        <v>1.132365613679883</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.2516368030399739</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.3774552045599608</v>
+      </c>
       <c r="V87" t="n">
-        <v>0.7055584601045497</v>
+        <v>0.5032736060799478</v>
       </c>
       <c r="W87" t="n">
-        <v>1.763896150261374</v>
+        <v>1.258184015199869</v>
       </c>
       <c r="X87" t="n">
-        <v>0.3527792300522749</v>
+        <v>0.2516368030399739</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>0.6350026140940948</v>
+        <v>0.4529462454719529</v>
       </c>
       <c r="AA87" t="n">
-        <v>1.587506535235237</v>
+        <v>1.132365613679882</v>
       </c>
       <c r="AB87" t="n">
-        <v>0.4233350760627298</v>
+        <v>0.3019641636479686</v>
       </c>
       <c r="AC87" t="n">
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>1.32292211269603</v>
+        <v>0.9436380113999021</v>
       </c>
       <c r="AE87" t="n">
-        <v>2.645844225392061</v>
+        <v>1.887276022799804</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.7937532676176183</v>
+        <v>0.5661828068399413</v>
       </c>
       <c r="AG87" t="n">
         <v>0</v>
@@ -20222,28 +20250,28 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="n">
-        <v>0.3968766338088092</v>
+        <v>0.2830914034199706</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.6350026140940946</v>
+        <v>0.452946245471953</v>
       </c>
       <c r="AR87" t="n">
         <v>0.625</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.5291688450784122</v>
+        <v>0.3774552045599608</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.852090957774443</v>
+        <v>4.718190056999511</v>
       </c>
       <c r="AU87" t="n">
-        <v>2.663483186894675</v>
+        <v>1.899857862951803</v>
       </c>
       <c r="AV87" t="n">
-        <v>5.997246910888672</v>
+        <v>4.277825651679557</v>
       </c>
       <c r="AW87" t="n">
-        <v>0.7849337868663115</v>
+        <v>0.5598918867639419</v>
       </c>
       <c r="AX87" t="n">
         <v>0</v>
@@ -20255,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="BA87" t="n">
-        <v>15.97</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="BB87" t="n">
         <v>0.29</v>
@@ -20264,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="BD87" t="n">
-        <v>-0.2150662131336885</v>
+        <v>-0.4401081132360581</v>
       </c>
       <c r="BE87" t="n">
         <v>0</v>
@@ -20298,7 +20326,7 @@
       </c>
       <c r="BQ87" t="inlineStr"/>
       <c r="BR87" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="BS87" t="n">
         <v>2.583</v>
@@ -20310,7 +20338,7 @@
         <v>2.565</v>
       </c>
       <c r="BV87" t="n">
-        <v>65.947</v>
+        <v>47.04</v>
       </c>
       <c r="BW87" t="n">
         <v>103.853</v>
@@ -20322,19 +20350,19 @@
         <v>144.092</v>
       </c>
       <c r="BZ87" t="n">
-        <v>10.09</v>
+        <v>7.197</v>
       </c>
       <c r="CA87" t="n">
-        <v>15.89</v>
+        <v>15.889</v>
       </c>
       <c r="CB87" t="n">
         <v>12.392</v>
       </c>
       <c r="CC87" t="n">
-        <v>19.388</v>
+        <v>19.386</v>
       </c>
       <c r="CD87" t="n">
-        <v>9.25</v>
+        <v>6.598</v>
       </c>
       <c r="CE87" t="n">
         <v>14.567</v>
@@ -20856,131 +20884,139 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1434406594598254</v>
+        <v>0.09146299078126223</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1721287913517905</v>
+        <v>0.1097555889375147</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4303219783794763</v>
+        <v>0.2743889723437867</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1434406594598254</v>
+        <v>0.09146299078126223</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2868813189196509</v>
+        <v>0.1829259815625245</v>
       </c>
       <c r="M90" t="n">
-        <v>0.1434406594598254</v>
+        <v>0.09146299078126223</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>0.5737626378393017</v>
+        <v>0.3658519631250489</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.2868813189196509</v>
+        <v>0.1829259815625245</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="n">
-        <v>1.032772748110743</v>
+        <v>0.658533533625088</v>
       </c>
       <c r="W90" t="n">
-        <v>2.409803078925067</v>
+        <v>1.536578245125205</v>
       </c>
       <c r="X90" t="n">
-        <v>0.344257582703581</v>
+        <v>0.2195111778750294</v>
       </c>
       <c r="Y90" t="n">
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.5737626378393017</v>
+        <v>0.82316691703136</v>
       </c>
       <c r="AA90" t="n">
-        <v>1.434406594598254</v>
+        <v>1.097555889375147</v>
       </c>
       <c r="AB90" t="n">
-        <v>0.2868813189196509</v>
+        <v>0.2743889723437867</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>1.097555889375147</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.8606439567589526</v>
+        <v>0.3658519631250489</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.5737626378393017</v>
+        <v>0.9146299078126223</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.8606439567589526</v>
+        <v>0.1829259815625245</v>
       </c>
       <c r="AG90" t="n">
         <v>0</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.4303219783794763</v>
+        <v>0.5487779446875733</v>
       </c>
       <c r="AI90" t="n">
-        <v>0.4303219783794763</v>
+        <v>0.3658519631250489</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0.4303219783794763</v>
+        <v>0.5487779446875733</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.1434406594598254</v>
-      </c>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
-      <c r="AN90" t="inlineStr"/>
-      <c r="AO90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0.2743889723437867</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0.2743889723437867</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.2743889723437867</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.09146299078126223</v>
+      </c>
       <c r="AP90" t="n">
-        <v>0.1434406594598254</v>
+        <v>0.09146299078126223</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.176213407570569</v>
+        <v>0.7499965244063502</v>
       </c>
       <c r="AR90" t="n">
         <v>0.122</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.5737626378393017</v>
+        <v>0.3658519631250489</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8606439567589526</v>
+        <v>0.5487779446875733</v>
       </c>
       <c r="AU90" t="n">
-        <v>2.897501321088474</v>
+        <v>2.670719330812857</v>
       </c>
       <c r="AV90" t="n">
-        <v>4.8482942897421</v>
+        <v>4.18900497778181</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.9610524183808303</v>
+        <v>0.7499965244063503</v>
       </c>
       <c r="AX90" t="n">
-        <v>0.1434406594598254</v>
+        <v>1.189018880156409</v>
       </c>
       <c r="AY90" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AZ90" t="n">
-        <v>0.15</v>
+        <v>1.59</v>
       </c>
       <c r="BA90" t="n">
-        <v>14.05</v>
+        <v>11.19</v>
       </c>
       <c r="BB90" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="BC90" t="n">
         <v>2</v>
       </c>
       <c r="BD90" t="n">
-        <v>-1.03894758161917</v>
+        <v>-1.25000347559365</v>
       </c>
       <c r="BE90" t="n">
         <v>2</v>
@@ -20995,7 +21031,7 @@
         <v>0</v>
       </c>
       <c r="BI90" t="n">
-        <v>1.144</v>
+        <v>1.248</v>
       </c>
       <c r="BJ90" t="inlineStr"/>
       <c r="BK90" t="n">
@@ -21016,55 +21052,55 @@
       <c r="BP90" t="inlineStr"/>
       <c r="BQ90" t="inlineStr"/>
       <c r="BR90" t="n">
-        <v>1.807</v>
+        <v>1.701</v>
       </c>
       <c r="BS90" t="n">
-        <v>1.536</v>
+        <v>2.268</v>
       </c>
       <c r="BT90" t="n">
-        <v>1.727</v>
+        <v>2.231</v>
       </c>
       <c r="BU90" t="n">
-        <v>1.345</v>
+        <v>2.305</v>
       </c>
       <c r="BV90" t="n">
-        <v>63.928</v>
+        <v>66.42</v>
       </c>
       <c r="BW90" t="n">
-        <v>54.351</v>
+        <v>88.56</v>
       </c>
       <c r="BX90" t="n">
-        <v>16.042</v>
+        <v>85.995</v>
       </c>
       <c r="BY90" t="n">
-        <v>92.66</v>
+        <v>91.125</v>
       </c>
       <c r="BZ90" t="n">
-        <v>9.693</v>
+        <v>9.119</v>
       </c>
       <c r="CA90" t="n">
-        <v>8.241</v>
+        <v>12.159</v>
       </c>
       <c r="CB90" t="n">
-        <v>4.843</v>
+        <v>11.644</v>
       </c>
       <c r="CC90" t="n">
-        <v>11.639</v>
+        <v>12.674</v>
       </c>
       <c r="CD90" t="n">
-        <v>7.987</v>
+        <v>7.892</v>
       </c>
       <c r="CE90" t="n">
-        <v>6.79</v>
+        <v>10.523</v>
       </c>
       <c r="CF90" t="n">
-        <v>4.227</v>
+        <v>9.983000000000001</v>
       </c>
       <c r="CG90" t="n">
-        <v>9.353</v>
+        <v>11.063</v>
       </c>
       <c r="CH90" t="n">
-        <v>0.68</v>
+        <v>1.211</v>
       </c>
       <c r="CI90" t="inlineStr">
         <is>
@@ -21126,45 +21162,65 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1324450684078778</v>
+        <v>0.07849034804190129</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1589340820894534</v>
+        <v>0.09418841765028155</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3973352052236335</v>
+        <v>0.2354710441257039</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1324450684078778</v>
+        <v>0.07849034804190129</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2648901368157557</v>
+        <v>0.1569806960838026</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
-        <v>1.059560547263023</v>
+        <v>0.6279227843352103</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>1.589340820894534</v>
+        <v>0.2825652529508447</v>
       </c>
       <c r="S91" t="n">
-        <v>0.7946704104472671</v>
-      </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.9418841765028154</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.4709420882514077</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.4709420882514077</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.8633938284609142</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.1569806960838026</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.2354710441257039</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.4709420882514077</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0.6279227843352103</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0.1569806960838026</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0.6279227843352103</v>
+      </c>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
@@ -21178,49 +21234,49 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="n">
-        <v>0.6887143557209647</v>
+        <v>0.4081498098178867</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.3973352052236335</v>
+        <v>0.2354710441257039</v>
       </c>
       <c r="AR91" t="n">
         <v>1.733</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.648901368157557</v>
+        <v>1.852372213788871</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.384011231341801</v>
+        <v>1.412826264754223</v>
       </c>
       <c r="AU91" t="n">
-        <v>0</v>
+        <v>0.9418841765028154</v>
       </c>
       <c r="AV91" t="n">
-        <v>0</v>
+        <v>1.491316612796124</v>
       </c>
       <c r="AW91" t="n">
-        <v>0</v>
+        <v>0.1569806960838026</v>
       </c>
       <c r="AX91" t="n">
-        <v>0</v>
+        <v>0.8633938284609142</v>
       </c>
       <c r="AY91" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AZ91" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA91" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BB91" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="BC91" t="n">
         <v>0</v>
       </c>
       <c r="BD91" t="n">
-        <v>0</v>
+        <v>0.1569806960838026</v>
       </c>
       <c r="BE91" t="n">
         <v>0</v>
@@ -21235,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="BI91" t="n">
-        <v>0</v>
+        <v>1.373</v>
       </c>
       <c r="BJ91" t="inlineStr"/>
       <c r="BK91" t="inlineStr"/>
@@ -21250,55 +21306,55 @@
       <c r="BP91" t="inlineStr"/>
       <c r="BQ91" t="inlineStr"/>
       <c r="BR91" t="n">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="BS91" t="n">
-        <v>0</v>
+        <v>2.667</v>
       </c>
       <c r="BT91" t="n">
-        <v>1</v>
+        <v>2.514</v>
       </c>
       <c r="BU91" t="n">
-        <v>-1</v>
+        <v>2.82</v>
       </c>
       <c r="BV91" t="n">
-        <v>0</v>
+        <v>24.947</v>
       </c>
       <c r="BW91" t="n">
-        <v>0</v>
+        <v>105.945</v>
       </c>
       <c r="BX91" t="n">
-        <v>1</v>
+        <v>104.463</v>
       </c>
       <c r="BY91" t="n">
-        <v>-1</v>
+        <v>107.427</v>
       </c>
       <c r="BZ91" t="n">
-        <v>0</v>
+        <v>3.064</v>
       </c>
       <c r="CA91" t="n">
-        <v>0</v>
+        <v>13.012</v>
       </c>
       <c r="CB91" t="n">
-        <v>1</v>
+        <v>12.622</v>
       </c>
       <c r="CC91" t="n">
-        <v>-1</v>
+        <v>13.402</v>
       </c>
       <c r="CD91" t="n">
-        <v>0</v>
+        <v>2.845</v>
       </c>
       <c r="CE91" t="n">
-        <v>0</v>
+        <v>12.082</v>
       </c>
       <c r="CF91" t="n">
-        <v>1</v>
+        <v>11.795</v>
       </c>
       <c r="CG91" t="n">
-        <v>-1</v>
+        <v>12.369</v>
       </c>
       <c r="CH91" t="n">
-        <v>0</v>
+        <v>1.417</v>
       </c>
       <c r="CI91" t="inlineStr">
         <is>
@@ -21356,13 +21412,13 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1534627331098916</v>
+        <v>0.07988394460527747</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1841552797318699</v>
+        <v>0.09586073352633295</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4603881993296748</v>
+        <v>0.2396518338158324</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -21370,23 +21426,31 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>0.6138509324395665</v>
+        <v>0.3195357784211099</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.3069254662197832</v>
+        <v>0.1597678892105549</v>
       </c>
       <c r="R92" t="n">
-        <v>0.7366211189274797</v>
+        <v>0.3834429341053318</v>
       </c>
       <c r="S92" t="n">
-        <v>1.841552797318699</v>
+        <v>0.9586073352633295</v>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+      <c r="V92" t="n">
+        <v>0.9586073352633295</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.7189555014474971</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.2396518338158324</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.677562836710827</v>
+      </c>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
@@ -21404,49 +21468,49 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="n">
-        <v>0.3376180128417615</v>
+        <v>0.1757446781316104</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.4603881993296748</v>
+        <v>0.2396518338158324</v>
       </c>
       <c r="AR92" t="n">
         <v>0.733</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.350472051367046</v>
+        <v>0.7029787125264417</v>
       </c>
       <c r="AT92" t="n">
-        <v>6.445434790615447</v>
+        <v>3.355125673421654</v>
       </c>
       <c r="AU92" t="n">
-        <v>0</v>
+        <v>0.9586073352633295</v>
       </c>
       <c r="AV92" t="n">
-        <v>0</v>
+        <v>0.7189555014474971</v>
       </c>
       <c r="AW92" t="n">
-        <v>0</v>
+        <v>0.1198259169079162</v>
       </c>
       <c r="AX92" t="n">
-        <v>0</v>
+        <v>1.677562836710827</v>
       </c>
       <c r="AY92" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AZ92" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA92" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BB92" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="BC92" t="n">
         <v>0</v>
       </c>
       <c r="BD92" t="n">
-        <v>0</v>
+        <v>0.1198259169079162</v>
       </c>
       <c r="BE92" t="n">
         <v>0</v>
@@ -21461,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="BI92" t="n">
-        <v>0</v>
+        <v>1.551</v>
       </c>
       <c r="BJ92" t="inlineStr"/>
       <c r="BK92" t="inlineStr"/>
@@ -21474,55 +21538,55 @@
       <c r="BP92" t="inlineStr"/>
       <c r="BQ92" t="inlineStr"/>
       <c r="BR92" t="n">
-        <v>0</v>
+        <v>0.719</v>
       </c>
       <c r="BS92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU92" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BV92" t="n">
-        <v>0</v>
+        <v>30.916</v>
       </c>
       <c r="BW92" t="n">
-        <v>0</v>
+        <v>129.004</v>
       </c>
       <c r="BX92" t="n">
-        <v>1</v>
+        <v>129.004</v>
       </c>
       <c r="BY92" t="n">
-        <v>-1</v>
+        <v>129.004</v>
       </c>
       <c r="BZ92" t="n">
-        <v>0</v>
+        <v>3.207</v>
       </c>
       <c r="CA92" t="n">
-        <v>0</v>
+        <v>13.382</v>
       </c>
       <c r="CB92" t="n">
-        <v>1</v>
+        <v>13.381</v>
       </c>
       <c r="CC92" t="n">
-        <v>-1</v>
+        <v>13.383</v>
       </c>
       <c r="CD92" t="n">
-        <v>0</v>
+        <v>3.004</v>
       </c>
       <c r="CE92" t="n">
-        <v>0</v>
+        <v>12.535</v>
       </c>
       <c r="CF92" t="n">
-        <v>1</v>
+        <v>12.537</v>
       </c>
       <c r="CG92" t="n">
-        <v>-1</v>
+        <v>12.533</v>
       </c>
       <c r="CH92" t="n">
-        <v>0</v>
+        <v>2.423</v>
       </c>
       <c r="CI92" t="inlineStr">
         <is>
@@ -21572,43 +21636,59 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1456909679201158</v>
+        <v>0.08260867566368528</v>
       </c>
       <c r="I93" t="n">
-        <v>0.25337559638281</v>
+        <v>0.1436672620238005</v>
       </c>
       <c r="J93" t="n">
-        <v>0.152025357829686</v>
+        <v>0.08620035721428031</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3800633945742151</v>
+        <v>0.2155008930357007</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>0.5827638716804631</v>
+        <v>0.3304347026547411</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.2913819358402315</v>
+        <v>0.1652173513273706</v>
       </c>
       <c r="R93" t="n">
-        <v>1.01350238553124</v>
+        <v>0.574669048095202</v>
       </c>
       <c r="S93" t="n">
-        <v>1.52025357829686</v>
+        <v>0.862003572142803</v>
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
+      <c r="V93" t="n">
+        <v>0.5172021432856818</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.9482039293570834</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.1724007144285606</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.2586010716428409</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.6465026791071022</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.862003572142803</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0.2155008930357007</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0.862003572142803</v>
+      </c>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
@@ -21622,49 +21702,49 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="n">
-        <v>0.3990665643029258</v>
+        <v>0.2262759376874858</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.5320887524039011</v>
+        <v>0.3017012502499811</v>
       </c>
       <c r="AR93" t="n">
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.596266257211703</v>
+        <v>0.9051037507499431</v>
       </c>
       <c r="AT93" t="n">
-        <v>5.434906542411276</v>
+        <v>3.08166277041052</v>
       </c>
       <c r="AU93" t="n">
-        <v>0</v>
+        <v>1.163704822392784</v>
       </c>
       <c r="AV93" t="n">
-        <v>0</v>
+        <v>1.810207501499886</v>
       </c>
       <c r="AW93" t="n">
-        <v>0</v>
+        <v>0.1939508037321307</v>
       </c>
       <c r="AX93" t="n">
-        <v>0</v>
+        <v>1.120604643785644</v>
       </c>
       <c r="AY93" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AZ93" t="n">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="BA93" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="BB93" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="BC93" t="n">
         <v>0</v>
       </c>
       <c r="BD93" t="n">
-        <v>0</v>
+        <v>0.1939508037321307</v>
       </c>
       <c r="BE93" t="n">
         <v>0</v>
@@ -21679,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="BI93" t="n">
-        <v>0</v>
+        <v>1.378</v>
       </c>
       <c r="BJ93" t="inlineStr"/>
       <c r="BK93" t="inlineStr"/>
@@ -21694,55 +21774,55 @@
       <c r="BP93" t="inlineStr"/>
       <c r="BQ93" t="inlineStr"/>
       <c r="BR93" t="n">
-        <v>0</v>
+        <v>0.776</v>
       </c>
       <c r="BS93" t="n">
-        <v>0</v>
+        <v>2.572</v>
       </c>
       <c r="BT93" t="n">
-        <v>1</v>
+        <v>2.445</v>
       </c>
       <c r="BU93" t="n">
-        <v>-1</v>
+        <v>2.699</v>
       </c>
       <c r="BV93" t="n">
-        <v>0</v>
+        <v>31.427</v>
       </c>
       <c r="BW93" t="n">
-        <v>0</v>
+        <v>104.166</v>
       </c>
       <c r="BX93" t="n">
-        <v>1</v>
+        <v>103.069</v>
       </c>
       <c r="BY93" t="n">
-        <v>-1</v>
+        <v>105.263</v>
       </c>
       <c r="BZ93" t="n">
-        <v>0</v>
+        <v>3.827</v>
       </c>
       <c r="CA93" t="n">
-        <v>0</v>
+        <v>12.685</v>
       </c>
       <c r="CB93" t="n">
-        <v>1</v>
+        <v>12.372</v>
       </c>
       <c r="CC93" t="n">
-        <v>-1</v>
+        <v>12.998</v>
       </c>
       <c r="CD93" t="n">
-        <v>0</v>
+        <v>3.564</v>
       </c>
       <c r="CE93" t="n">
-        <v>0</v>
+        <v>11.813</v>
       </c>
       <c r="CF93" t="n">
-        <v>1</v>
+        <v>11.589</v>
       </c>
       <c r="CG93" t="n">
-        <v>-1</v>
+        <v>12.037</v>
       </c>
       <c r="CH93" t="n">
-        <v>0</v>
+        <v>1.426</v>
       </c>
       <c r="CI93" t="inlineStr">
         <is>
@@ -21796,110 +21876,122 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.049090587056658</v>
+        <v>0.02826103839420327</v>
       </c>
       <c r="I94" t="n">
-        <v>0.294543522339948</v>
+        <v>0.1695662303652196</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09818117411331601</v>
+        <v>0.05652207678840655</v>
       </c>
       <c r="K94" t="n">
-        <v>0.196362348226632</v>
+        <v>0.1130441535768131</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09818117411331601</v>
+        <v>0.05652207678840655</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1178174089359792</v>
+        <v>0.06782649214608785</v>
       </c>
       <c r="N94" t="n">
-        <v>0.294543522339948</v>
+        <v>0.1695662303652196</v>
       </c>
       <c r="O94" t="n">
-        <v>0.196362348226632</v>
+        <v>0.1130441535768131</v>
       </c>
       <c r="P94" t="n">
-        <v>0.196362348226632</v>
+        <v>0.1130441535768131</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.09818117411331601</v>
+        <v>0.05652207678840655</v>
       </c>
       <c r="R94" t="n">
-        <v>0.392724696453264</v>
+        <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.589087044679896</v>
-      </c>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
+        <v>1.017397382191318</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.2260883071536262</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.3391324607304393</v>
+      </c>
       <c r="V94" t="n">
-        <v>0.785449392906528</v>
+        <v>0.4521766143072524</v>
       </c>
       <c r="W94" t="n">
-        <v>1.96362348226632</v>
+        <v>1.130441535768131</v>
       </c>
       <c r="X94" t="n">
-        <v>0.392724696453264</v>
+        <v>0.2260883071536262</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.3534522268079376</v>
+        <v>0.2034794764382636</v>
       </c>
       <c r="AA94" t="n">
-        <v>0.2356348178719584</v>
+        <v>0.1356529842921757</v>
       </c>
       <c r="AB94" t="n">
-        <v>0.3534522268079376</v>
+        <v>0.2034794764382636</v>
       </c>
       <c r="AC94" t="n">
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>1.47271761169974</v>
+        <v>0.8478311518260983</v>
       </c>
       <c r="AE94" t="n">
-        <v>2.94543522339948</v>
+        <v>1.695662303652197</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.8836305670198441</v>
+        <v>0.5086986910956589</v>
       </c>
       <c r="AG94" t="n">
         <v>0</v>
       </c>
-      <c r="AH94" t="inlineStr"/>
-      <c r="AI94" t="inlineStr"/>
-      <c r="AJ94" t="inlineStr"/>
-      <c r="AK94" t="inlineStr"/>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0.3391324607304393</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>0</v>
+      </c>
       <c r="AL94" t="inlineStr"/>
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="n">
-        <v>0.441815283509922</v>
+        <v>0.2543493455478295</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.9032668018425073</v>
+        <v>0.5200031064533402</v>
       </c>
       <c r="AR94" t="n">
         <v>0.489</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.589087044679896</v>
+        <v>0.3391324607304393</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.061804656379636</v>
+        <v>4.239155759130491</v>
       </c>
       <c r="AU94" t="n">
-        <v>2.611619231414206</v>
+        <v>1.503487242571614</v>
       </c>
       <c r="AV94" t="n">
-        <v>5.144693523537759</v>
+        <v>2.961756823712503</v>
       </c>
       <c r="AW94" t="n">
-        <v>0.8149037451405229</v>
+        <v>0.638699467708994</v>
       </c>
       <c r="AX94" t="n">
         <v>0</v>
@@ -21911,16 +22003,16 @@
         <v>0</v>
       </c>
       <c r="BA94" t="n">
-        <v>13.44</v>
+        <v>4.45</v>
       </c>
       <c r="BB94" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="BC94" t="n">
         <v>1</v>
       </c>
       <c r="BD94" t="n">
-        <v>-0.1850962548594771</v>
+        <v>-0.361300532291006</v>
       </c>
       <c r="BE94" t="n">
         <v>1</v>
@@ -21935,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="BI94" t="n">
-        <v>1.034</v>
+        <v>1.512</v>
       </c>
       <c r="BJ94" t="inlineStr"/>
       <c r="BK94" t="inlineStr"/>
@@ -21956,31 +22048,31 @@
         <v>0.22</v>
       </c>
       <c r="BR94" t="n">
-        <v>1.708</v>
+        <v>0.983</v>
       </c>
       <c r="BS94" t="n">
-        <v>1.891</v>
+        <v>1.89</v>
       </c>
       <c r="BT94" t="n">
         <v>2.002</v>
       </c>
       <c r="BU94" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="BV94" t="n">
-        <v>60.568</v>
+        <v>34.868</v>
       </c>
       <c r="BW94" t="n">
-        <v>67.054</v>
+        <v>67.053</v>
       </c>
       <c r="BX94" t="n">
         <v>22.367</v>
       </c>
       <c r="BY94" t="n">
-        <v>111.741</v>
+        <v>111.739</v>
       </c>
       <c r="BZ94" t="n">
-        <v>9.099</v>
+        <v>5.238</v>
       </c>
       <c r="CA94" t="n">
         <v>10.073</v>
@@ -21992,7 +22084,7 @@
         <v>13.973</v>
       </c>
       <c r="CD94" t="n">
-        <v>7.633</v>
+        <v>4.394</v>
       </c>
       <c r="CE94" t="n">
         <v>8.449999999999999</v>
@@ -22074,118 +22166,126 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.03194920434340488</v>
+        <v>0.02688258471965927</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1916952260604293</v>
+        <v>0.1612955083179556</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06389840868680975</v>
+        <v>0.05376516943931853</v>
       </c>
       <c r="K95" t="n">
-        <v>0.1277968173736195</v>
+        <v>0.1075303388786371</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06389840868680975</v>
+        <v>0.05376516943931853</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0766780904241717</v>
+        <v>0.06451820332718224</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1916952260604293</v>
+        <v>0.1612955083179556</v>
       </c>
       <c r="O95" t="n">
-        <v>0.1277968173736195</v>
+        <v>0.1075303388786371</v>
       </c>
       <c r="P95" t="n">
-        <v>0.1277968173736195</v>
+        <v>0.1075303388786371</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.06389840868680975</v>
+        <v>0.05376516943931853</v>
       </c>
       <c r="R95" t="n">
-        <v>0.255593634747239</v>
+        <v>0.2150606777572741</v>
       </c>
       <c r="S95" t="n">
-        <v>0.3833904521208585</v>
+        <v>0.3225910166359112</v>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="n">
-        <v>1.150171356362576</v>
+        <v>0.9677730499077337</v>
       </c>
       <c r="W95" t="n">
-        <v>2.875428390906439</v>
+        <v>2.419432624769334</v>
       </c>
       <c r="X95" t="n">
-        <v>0.7667809042417171</v>
+        <v>0.6451820332718224</v>
       </c>
       <c r="Y95" t="n">
         <v>0</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.511187269494478</v>
+        <v>0.4301213555145483</v>
       </c>
       <c r="AA95" t="n">
-        <v>1.277968173736195</v>
+        <v>1.075303388786371</v>
       </c>
       <c r="AB95" t="n">
-        <v>0.255593634747239</v>
+        <v>0.2150606777572741</v>
       </c>
       <c r="AC95" t="n">
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.2300342712725151</v>
+        <v>0.1935546099815467</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.1533561808483434</v>
+        <v>0.1290364066543645</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.2300342712725151</v>
+        <v>0.1935546099815467</v>
       </c>
       <c r="AG95" t="n">
         <v>0</v>
       </c>
       <c r="AH95" t="n">
-        <v>0.9584761303021463</v>
+        <v>0.806477541589778</v>
       </c>
       <c r="AI95" t="n">
-        <v>1.916952260604293</v>
+        <v>1.612955083179556</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0.5750856781812879</v>
+        <v>0.4838865249538669</v>
       </c>
       <c r="AK95" t="n">
         <v>0</v>
       </c>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0.3225910166359112</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0</v>
+      </c>
       <c r="AP95" t="n">
-        <v>0.09584761303021463</v>
+        <v>0.08064775415897781</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.7795605859790791</v>
+        <v>0.6559350671596861</v>
       </c>
       <c r="AR95" t="n">
         <v>0.123</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.3833904521208585</v>
+        <v>0.3225910166359112</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.341866582423005</v>
+        <v>1.129068558225689</v>
       </c>
       <c r="AU95" t="n">
-        <v>2.849869027431715</v>
+        <v>2.397926556993607</v>
       </c>
       <c r="AV95" t="n">
-        <v>6.223705006095269</v>
+        <v>5.236727503389625</v>
       </c>
       <c r="AW95" t="n">
-        <v>0.9137472442213795</v>
+        <v>0.9301374313002106</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
@@ -22197,16 +22297,16 @@
         <v>0</v>
       </c>
       <c r="BA95" t="n">
-        <v>17.74</v>
+        <v>12.56</v>
       </c>
       <c r="BB95" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="BC95" t="n">
         <v>2</v>
       </c>
       <c r="BD95" t="n">
-        <v>-1.086252755778621</v>
+        <v>-1.069862568699789</v>
       </c>
       <c r="BE95" t="n">
         <v>1</v>
@@ -22221,7 +22321,7 @@
         <v>0</v>
       </c>
       <c r="BI95" t="n">
-        <v>1.059</v>
+        <v>1.322</v>
       </c>
       <c r="BJ95" t="inlineStr"/>
       <c r="BK95" t="n">
@@ -22244,52 +22344,52 @@
         <v>0.16</v>
       </c>
       <c r="BR95" t="n">
-        <v>1.687</v>
+        <v>1.419</v>
       </c>
       <c r="BS95" t="n">
-        <v>2.164</v>
+        <v>2.163</v>
       </c>
       <c r="BT95" t="n">
         <v>2.213</v>
       </c>
       <c r="BU95" t="n">
-        <v>2.115</v>
+        <v>2.113</v>
       </c>
       <c r="BV95" t="n">
-        <v>71.49299999999999</v>
+        <v>60.156</v>
       </c>
       <c r="BW95" t="n">
-        <v>91.709</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="BX95" t="n">
         <v>36.965</v>
       </c>
       <c r="BY95" t="n">
-        <v>146.453</v>
+        <v>146.455</v>
       </c>
       <c r="BZ95" t="n">
-        <v>11.071</v>
+        <v>9.315</v>
       </c>
       <c r="CA95" t="n">
-        <v>14.202</v>
+        <v>14.201</v>
       </c>
       <c r="CB95" t="n">
         <v>8.907</v>
       </c>
       <c r="CC95" t="n">
-        <v>19.497</v>
+        <v>19.495</v>
       </c>
       <c r="CD95" t="n">
-        <v>10.52</v>
+        <v>8.851000000000001</v>
       </c>
       <c r="CE95" t="n">
-        <v>13.495</v>
+        <v>13.494</v>
       </c>
       <c r="CF95" t="n">
         <v>8.241</v>
       </c>
       <c r="CG95" t="n">
-        <v>18.749</v>
+        <v>18.747</v>
       </c>
       <c r="CH95" t="n">
         <v>1.646</v>
@@ -22634,59 +22734,67 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0678836853781257</v>
+        <v>0.05119641936338686</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1357673707562514</v>
+        <v>0.1023928387267737</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1629208449075017</v>
+        <v>0.1228714064721285</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4073021122687542</v>
+        <v>0.3071785161803212</v>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>0.2715347415125028</v>
+        <v>0.2047856774535474</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.1357673707562514</v>
+        <v>0.1023928387267737</v>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="n">
-        <v>0.2715347415125028</v>
+        <v>0.2047856774535474</v>
       </c>
       <c r="W97" t="n">
-        <v>0.5430694830250056</v>
+        <v>0.4095713549070949</v>
       </c>
       <c r="X97" t="n">
-        <v>0.4073021122687542</v>
+        <v>0.3071785161803212</v>
       </c>
       <c r="Y97" t="n">
         <v>0</v>
       </c>
       <c r="Z97" t="n">
-        <v>2.851114785881279</v>
+        <v>0.4914856258885139</v>
       </c>
       <c r="AA97" t="n">
-        <v>7.331438020837576</v>
+        <v>0.3686142194163854</v>
       </c>
       <c r="AB97" t="n">
-        <v>1.221906336806263</v>
+        <v>0.1228714064721285</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
+        <v>0.8600998453048992</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>2.150249613262248</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>5.529213291245781</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0.9215355485409635</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
       <c r="AH97" t="inlineStr"/>
       <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
@@ -22696,49 +22804,49 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="n">
-        <v>0.0678836853781257</v>
+        <v>0.05119641936338686</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.7059903279325073</v>
+        <v>0.5324427613792233</v>
       </c>
       <c r="AR97" t="n">
         <v>0.096</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.2715347415125028</v>
+        <v>0.2047856774535474</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.4073021122687542</v>
+        <v>0.3071785161803212</v>
       </c>
       <c r="AU97" t="n">
-        <v>3.122649527393782</v>
+        <v>2.84652091660431</v>
       </c>
       <c r="AV97" t="n">
-        <v>7.874507503862581</v>
+        <v>6.307398865569261</v>
       </c>
       <c r="AW97" t="n">
-        <v>0.8146042245375084</v>
+        <v>0.6757927355967066</v>
       </c>
       <c r="AX97" t="n">
-        <v>0</v>
+        <v>0.8600998453048992</v>
       </c>
       <c r="AY97" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AZ97" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BA97" t="n">
-        <v>24.59</v>
+        <v>17.95</v>
       </c>
       <c r="BB97" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="BC97" t="n">
         <v>1</v>
       </c>
       <c r="BD97" t="n">
-        <v>-0.1853957754624916</v>
+        <v>-0.3242072644032934</v>
       </c>
       <c r="BE97" t="n">
         <v>0</v>
@@ -22753,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="BI97" t="n">
-        <v>0.989</v>
+        <v>1.097</v>
       </c>
       <c r="BJ97" t="inlineStr"/>
       <c r="BK97" t="n">
@@ -22770,55 +22878,55 @@
       <c r="BP97" t="inlineStr"/>
       <c r="BQ97" t="inlineStr"/>
       <c r="BR97" t="n">
-        <v>1.493</v>
+        <v>1.495</v>
       </c>
       <c r="BS97" t="n">
-        <v>2.115</v>
+        <v>2.808</v>
       </c>
       <c r="BT97" t="n">
-        <v>2.157</v>
+        <v>2.778</v>
       </c>
       <c r="BU97" t="n">
-        <v>2.073</v>
+        <v>2.838</v>
       </c>
       <c r="BV97" t="n">
-        <v>88.27500000000001</v>
+        <v>82.426</v>
       </c>
       <c r="BW97" t="n">
-        <v>125.037</v>
+        <v>154.807</v>
       </c>
       <c r="BX97" t="n">
-        <v>47.936</v>
+        <v>146.59</v>
       </c>
       <c r="BY97" t="n">
-        <v>202.138</v>
+        <v>163.024</v>
       </c>
       <c r="BZ97" t="n">
-        <v>14.418</v>
+        <v>12.518</v>
       </c>
       <c r="CA97" t="n">
-        <v>20.422</v>
+        <v>23.511</v>
       </c>
       <c r="CB97" t="n">
-        <v>11.755</v>
+        <v>21.346</v>
       </c>
       <c r="CC97" t="n">
-        <v>29.089</v>
+        <v>25.676</v>
       </c>
       <c r="CD97" t="n">
-        <v>17.4</v>
+        <v>14.663</v>
       </c>
       <c r="CE97" t="n">
-        <v>24.646</v>
+        <v>27.539</v>
       </c>
       <c r="CF97" t="n">
-        <v>13.374</v>
+        <v>23.924</v>
       </c>
       <c r="CG97" t="n">
-        <v>35.918</v>
+        <v>31.154</v>
       </c>
       <c r="CH97" t="n">
-        <v>1.429</v>
+        <v>1.944</v>
       </c>
       <c r="CI97" t="inlineStr">
         <is>
@@ -22872,13 +22980,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3359754442267324</v>
+        <v>0.1113793124956005</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4031705330720789</v>
+        <v>0.1336551749947206</v>
       </c>
       <c r="J98" t="n">
-        <v>1.007926332680197</v>
+        <v>0.3341379374868016</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -22886,20 +22994,20 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>1.34390177690693</v>
+        <v>0.4455172499824021</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6719508884534648</v>
+        <v>0.2227586249912011</v>
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="n">
-        <v>2.822193731504552</v>
+        <v>0.9355862249630444</v>
       </c>
       <c r="W98" t="n">
-        <v>3.225364264576631</v>
+        <v>1.069241399957765</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
@@ -22907,10 +23015,18 @@
       <c r="Y98" t="n">
         <v>0</v>
       </c>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
+      <c r="Z98" t="n">
+        <v>1.336551749947206</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>1.002413812460405</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0.3341379374868016</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.338965562407611</v>
+      </c>
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
@@ -22924,49 +23040,49 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="n">
-        <v>0.3359754442267324</v>
+        <v>0.1113793124956005</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.411096865752276</v>
+        <v>0.4677931124815222</v>
       </c>
       <c r="AR98" t="n">
         <v>0.238</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.34390177690693</v>
+        <v>0.4455172499824021</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.015852665360395</v>
+        <v>0.6682758749736032</v>
       </c>
       <c r="AU98" t="n">
-        <v>2.822193731504552</v>
+        <v>2.272137974910251</v>
       </c>
       <c r="AV98" t="n">
-        <v>3.225364264576631</v>
+        <v>2.07165521241817</v>
       </c>
       <c r="AW98" t="n">
-        <v>0</v>
+        <v>0.1670689687434008</v>
       </c>
       <c r="AX98" t="n">
-        <v>0</v>
+        <v>2.338965562407611</v>
       </c>
       <c r="AY98" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ98" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA98" t="n">
-        <v>9.1</v>
+        <v>4.71</v>
       </c>
       <c r="BB98" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BC98" t="n">
         <v>0</v>
       </c>
       <c r="BD98" t="n">
-        <v>0</v>
+        <v>0.1670689687434008</v>
       </c>
       <c r="BE98" t="n">
         <v>0</v>
@@ -22981,7 +23097,7 @@
         <v>0</v>
       </c>
       <c r="BI98" t="n">
-        <v>0.9360000000000001</v>
+        <v>1.407</v>
       </c>
       <c r="BJ98" t="inlineStr"/>
       <c r="BK98" t="n">
@@ -22996,55 +23112,55 @@
       <c r="BP98" t="inlineStr"/>
       <c r="BQ98" t="inlineStr"/>
       <c r="BR98" t="n">
-        <v>1.21</v>
+        <v>1.403</v>
       </c>
       <c r="BS98" t="n">
-        <v>0.857</v>
+        <v>2.999</v>
       </c>
       <c r="BT98" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU98" t="n">
-        <v>0.339</v>
+        <v>2.998</v>
       </c>
       <c r="BV98" t="n">
-        <v>39.697</v>
+        <v>56.265</v>
       </c>
       <c r="BW98" t="n">
-        <v>28.132</v>
+        <v>120.278</v>
       </c>
       <c r="BX98" t="n">
-        <v>3.785</v>
+        <v>119.282</v>
       </c>
       <c r="BY98" t="n">
-        <v>52.479</v>
+        <v>121.274</v>
       </c>
       <c r="BZ98" t="n">
-        <v>6.864</v>
+        <v>6.747</v>
       </c>
       <c r="CA98" t="n">
-        <v>4.864</v>
+        <v>14.423</v>
       </c>
       <c r="CB98" t="n">
-        <v>2.275</v>
+        <v>14.349</v>
       </c>
       <c r="CC98" t="n">
-        <v>7.453</v>
+        <v>14.497</v>
       </c>
       <c r="CD98" t="n">
-        <v>3.236</v>
+        <v>5.262</v>
       </c>
       <c r="CE98" t="n">
-        <v>2.293</v>
+        <v>11.249</v>
       </c>
       <c r="CF98" t="n">
-        <v>1.829</v>
+        <v>11.016</v>
       </c>
       <c r="CG98" t="n">
-        <v>2.757</v>
+        <v>11.482</v>
       </c>
       <c r="CH98" t="n">
-        <v>1.457</v>
+        <v>2.336</v>
       </c>
       <c r="CI98" t="inlineStr">
         <is>
@@ -23094,13 +23210,13 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5345306820611504</v>
+        <v>0.1270209025597252</v>
       </c>
       <c r="I99" t="n">
-        <v>0.6414368184733804</v>
+        <v>0.1524250830716703</v>
       </c>
       <c r="J99" t="n">
-        <v>1.603592046183451</v>
+        <v>0.3810627076791757</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -23108,19 +23224,27 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
-        <v>2.138122728244602</v>
+        <v>0.5080836102389009</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.069061364122301</v>
+        <v>0.2540418051194505</v>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+      <c r="V99" t="n">
+        <v>1.524250830716703</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.143188123037527</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.3810627076791757</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.66743895375423</v>
+      </c>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
@@ -23138,49 +23262,49 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="n">
-        <v>0.5345306820611504</v>
+        <v>0.1270209025597252</v>
       </c>
       <c r="AQ99" t="n">
-        <v>2.245028864656831</v>
+        <v>0.533487790750846</v>
       </c>
       <c r="AR99" t="n">
         <v>0.238</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.138122728244602</v>
+        <v>0.5080836102389009</v>
       </c>
       <c r="AT99" t="n">
-        <v>3.207184092366902</v>
+        <v>0.7621254153583514</v>
       </c>
       <c r="AU99" t="n">
-        <v>0</v>
+        <v>1.524250830716703</v>
       </c>
       <c r="AV99" t="n">
-        <v>0</v>
+        <v>1.143188123037527</v>
       </c>
       <c r="AW99" t="n">
-        <v>0</v>
+        <v>0.1905313538395879</v>
       </c>
       <c r="AX99" t="n">
-        <v>0</v>
+        <v>2.66743895375423</v>
       </c>
       <c r="AY99" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AZ99" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BA99" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BB99" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="BC99" t="n">
         <v>0</v>
       </c>
       <c r="BD99" t="n">
-        <v>0</v>
+        <v>0.1905313538395879</v>
       </c>
       <c r="BE99" t="n">
         <v>0</v>
@@ -23195,7 +23319,7 @@
         <v>0</v>
       </c>
       <c r="BI99" t="n">
-        <v>0</v>
+        <v>1.551</v>
       </c>
       <c r="BJ99" t="inlineStr"/>
       <c r="BK99" t="n">
@@ -23210,55 +23334,55 @@
       <c r="BP99" t="inlineStr"/>
       <c r="BQ99" t="inlineStr"/>
       <c r="BR99" t="n">
-        <v>0</v>
+        <v>1.143</v>
       </c>
       <c r="BS99" t="n">
-        <v>0</v>
+        <v>2.143</v>
       </c>
       <c r="BT99" t="n">
-        <v>1</v>
+        <v>2.182</v>
       </c>
       <c r="BU99" t="n">
-        <v>-1</v>
+        <v>2.104</v>
       </c>
       <c r="BV99" t="n">
-        <v>0</v>
+        <v>49.158</v>
       </c>
       <c r="BW99" t="n">
-        <v>0</v>
+        <v>92.145</v>
       </c>
       <c r="BX99" t="n">
-        <v>1</v>
+        <v>31.516</v>
       </c>
       <c r="BY99" t="n">
-        <v>-1</v>
+        <v>152.774</v>
       </c>
       <c r="BZ99" t="n">
-        <v>0</v>
+        <v>5.099</v>
       </c>
       <c r="CA99" t="n">
-        <v>0</v>
+        <v>9.558</v>
       </c>
       <c r="CB99" t="n">
-        <v>1</v>
+        <v>6.307</v>
       </c>
       <c r="CC99" t="n">
-        <v>-1</v>
+        <v>12.809</v>
       </c>
       <c r="CD99" t="n">
-        <v>0</v>
+        <v>4.777</v>
       </c>
       <c r="CE99" t="n">
-        <v>0</v>
+        <v>8.954000000000001</v>
       </c>
       <c r="CF99" t="n">
-        <v>1</v>
+        <v>6.022</v>
       </c>
       <c r="CG99" t="n">
-        <v>-1</v>
+        <v>11.886</v>
       </c>
       <c r="CH99" t="n">
-        <v>0</v>
+        <v>2.274</v>
       </c>
       <c r="CI99" t="inlineStr">
         <is>
@@ -23578,13 +23702,13 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1446319839169234</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.173558380700308</v>
       </c>
       <c r="J101" t="n">
-        <v>1.016177546540932</v>
+        <v>0.4338959517507701</v>
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -23592,31 +23716,39 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5785279356676934</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2892639678338467</v>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6942335228012321</v>
       </c>
       <c r="W101" t="n">
-        <v>4.064710186163726</v>
+        <v>1.73558380700308</v>
       </c>
       <c r="X101" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.347116761400616</v>
       </c>
       <c r="Y101" t="n">
         <v>0</v>
       </c>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
+      <c r="Z101" t="n">
+        <v>1.30168785525231</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>1.73558380700308</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0.4338959517507701</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.73558380700308</v>
+      </c>
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
@@ -23630,49 +23762,49 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1446319839169234</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.422648565157304</v>
+        <v>0.6074543324510782</v>
       </c>
       <c r="AR101" t="n">
         <v>0.238</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5785279356676934</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.032355093081863</v>
+        <v>0.8677919035015402</v>
       </c>
       <c r="AU101" t="n">
-        <v>1.625884074465491</v>
+        <v>1.995921378053542</v>
       </c>
       <c r="AV101" t="n">
-        <v>4.064710186163726</v>
+        <v>3.471167614006161</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3905063565756931</v>
       </c>
       <c r="AX101" t="n">
-        <v>0</v>
+        <v>1.73558380700308</v>
       </c>
       <c r="AY101" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AZ101" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="BA101" t="n">
-        <v>6.61</v>
+        <v>6.93</v>
       </c>
       <c r="BB101" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="BC101" t="n">
         <v>0</v>
       </c>
       <c r="BD101" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3905063565756931</v>
       </c>
       <c r="BE101" t="n">
         <v>0</v>
@@ -23687,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="BI101" t="n">
-        <v>0.945</v>
+        <v>1.277</v>
       </c>
       <c r="BJ101" t="inlineStr"/>
       <c r="BK101" t="n">
@@ -23702,55 +23834,55 @@
       <c r="BP101" t="inlineStr"/>
       <c r="BQ101" t="inlineStr"/>
       <c r="BR101" t="n">
-        <v>1.219</v>
+        <v>1.388</v>
       </c>
       <c r="BS101" t="n">
-        <v>0.857</v>
+        <v>2.285</v>
       </c>
       <c r="BT101" t="n">
-        <v>1.375</v>
+        <v>2.25</v>
       </c>
       <c r="BU101" t="n">
-        <v>0.339</v>
+        <v>2.32</v>
       </c>
       <c r="BV101" t="n">
-        <v>38.745</v>
+        <v>57.115</v>
       </c>
       <c r="BW101" t="n">
-        <v>27.234</v>
+        <v>94.024</v>
       </c>
       <c r="BX101" t="n">
-        <v>3.749</v>
+        <v>94.02800000000001</v>
       </c>
       <c r="BY101" t="n">
-        <v>50.719</v>
+        <v>94.02</v>
       </c>
       <c r="BZ101" t="n">
-        <v>6.078</v>
+        <v>7.241</v>
       </c>
       <c r="CA101" t="n">
-        <v>4.272</v>
+        <v>11.92</v>
       </c>
       <c r="CB101" t="n">
-        <v>2.191</v>
+        <v>11.796</v>
       </c>
       <c r="CC101" t="n">
-        <v>6.353</v>
+        <v>12.044</v>
       </c>
       <c r="CD101" t="n">
-        <v>5.489</v>
+        <v>6.77</v>
       </c>
       <c r="CE101" t="n">
-        <v>3.858</v>
+        <v>11.145</v>
       </c>
       <c r="CF101" t="n">
-        <v>2.127</v>
+        <v>11.065</v>
       </c>
       <c r="CG101" t="n">
-        <v>5.589</v>
+        <v>11.225</v>
       </c>
       <c r="CH101" t="n">
-        <v>-0.258</v>
+        <v>1.353</v>
       </c>
       <c r="CI101" t="inlineStr">
         <is>
@@ -23800,13 +23932,13 @@
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1269899322381722</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1523879186858066</v>
       </c>
       <c r="J102" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3809697967145165</v>
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
@@ -23814,31 +23946,39 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5079597289526887</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2539798644763444</v>
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6095516747432265</v>
       </c>
       <c r="W102" t="n">
-        <v>4.064710186163726</v>
+        <v>1.523879186858066</v>
       </c>
       <c r="X102" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.3047758373716132</v>
       </c>
       <c r="Y102" t="n">
         <v>0</v>
       </c>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
+      <c r="Z102" t="n">
+        <v>1.523879186858066</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1.904848983572583</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.3809697967145165</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.904848983572583</v>
+      </c>
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
@@ -23852,49 +23992,49 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1269899322381722</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.422648565157304</v>
+        <v>0.5333577154003232</v>
       </c>
       <c r="AR102" t="n">
         <v>0.238</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5079597289526887</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.032355093081863</v>
+        <v>0.7619395934290331</v>
       </c>
       <c r="AU102" t="n">
-        <v>1.625884074465491</v>
+        <v>2.133430861601293</v>
       </c>
       <c r="AV102" t="n">
-        <v>4.064710186163726</v>
+        <v>3.428728170430649</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3428728170430649</v>
       </c>
       <c r="AX102" t="n">
-        <v>0</v>
+        <v>1.904848983572583</v>
       </c>
       <c r="AY102" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AZ102" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="BA102" t="n">
-        <v>6.61</v>
+        <v>7.31</v>
       </c>
       <c r="BB102" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC102" t="n">
         <v>0</v>
       </c>
       <c r="BD102" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3428728170430649</v>
       </c>
       <c r="BE102" t="n">
         <v>0</v>
@@ -23909,7 +24049,7 @@
         <v>0</v>
       </c>
       <c r="BI102" t="n">
-        <v>0.945</v>
+        <v>1.291</v>
       </c>
       <c r="BJ102" t="inlineStr"/>
       <c r="BK102" t="n">
@@ -23924,55 +24064,55 @@
       <c r="BP102" t="inlineStr"/>
       <c r="BQ102" t="inlineStr"/>
       <c r="BR102" t="n">
-        <v>1.219</v>
+        <v>1.6</v>
       </c>
       <c r="BS102" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT102" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU102" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV102" t="n">
-        <v>38.745</v>
+        <v>59.049</v>
       </c>
       <c r="BW102" t="n">
-        <v>27.234</v>
+        <v>110.712</v>
       </c>
       <c r="BX102" t="n">
-        <v>3.749</v>
+        <v>110.161</v>
       </c>
       <c r="BY102" t="n">
-        <v>50.719</v>
+        <v>111.263</v>
       </c>
       <c r="BZ102" t="n">
-        <v>6.078</v>
+        <v>7.46</v>
       </c>
       <c r="CA102" t="n">
-        <v>4.272</v>
+        <v>13.987</v>
       </c>
       <c r="CB102" t="n">
-        <v>2.191</v>
+        <v>13.98</v>
       </c>
       <c r="CC102" t="n">
-        <v>6.353</v>
+        <v>13.994</v>
       </c>
       <c r="CD102" t="n">
-        <v>5.489</v>
+        <v>6.75</v>
       </c>
       <c r="CE102" t="n">
-        <v>3.858</v>
+        <v>12.656</v>
       </c>
       <c r="CF102" t="n">
-        <v>2.127</v>
+        <v>12.65</v>
       </c>
       <c r="CG102" t="n">
-        <v>5.589</v>
+        <v>12.662</v>
       </c>
       <c r="CH102" t="n">
-        <v>-0.258</v>
+        <v>1.687</v>
       </c>
       <c r="CI102" t="inlineStr">
         <is>
@@ -24022,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.136334882097594</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1636018585171127</v>
       </c>
       <c r="J103" t="n">
-        <v>1.016177546540932</v>
+        <v>0.4090046462927819</v>
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -24036,31 +24176,39 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5453395283903758</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2726697641951879</v>
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6544074340684509</v>
       </c>
       <c r="W103" t="n">
-        <v>4.064710186163726</v>
+        <v>1.636018585171127</v>
       </c>
       <c r="X103" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.3272037170342255</v>
       </c>
       <c r="Y103" t="n">
         <v>0</v>
       </c>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
+      <c r="Z103" t="n">
+        <v>1.636018585171128</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>2.454027877756691</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0.4090046462927819</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.636018585171128</v>
+      </c>
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
@@ -24074,49 +24222,49 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.136334882097594</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.422648565157304</v>
+        <v>0.5726065048098946</v>
       </c>
       <c r="AR103" t="n">
         <v>0.238</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5453395283903758</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.032355093081863</v>
+        <v>0.8180092925855638</v>
       </c>
       <c r="AU103" t="n">
-        <v>1.625884074465491</v>
+        <v>2.290426019239578</v>
       </c>
       <c r="AV103" t="n">
-        <v>4.064710186163726</v>
+        <v>4.090046462927819</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3681041816635037</v>
       </c>
       <c r="AX103" t="n">
-        <v>0</v>
+        <v>1.636018585171128</v>
       </c>
       <c r="AY103" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AZ103" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="BA103" t="n">
-        <v>6.61</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="BB103" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC103" t="n">
         <v>0</v>
       </c>
       <c r="BD103" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3681041816635037</v>
       </c>
       <c r="BE103" t="n">
         <v>0</v>
@@ -24131,7 +24279,7 @@
         <v>0</v>
       </c>
       <c r="BI103" t="n">
-        <v>0.945</v>
+        <v>1.223</v>
       </c>
       <c r="BJ103" t="inlineStr"/>
       <c r="BK103" t="n">
@@ -24146,55 +24294,55 @@
       <c r="BP103" t="inlineStr"/>
       <c r="BQ103" t="inlineStr"/>
       <c r="BR103" t="n">
-        <v>1.219</v>
+        <v>1.718</v>
       </c>
       <c r="BS103" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT103" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU103" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV103" t="n">
-        <v>38.745</v>
+        <v>60.913</v>
       </c>
       <c r="BW103" t="n">
-        <v>27.234</v>
+        <v>106.378</v>
       </c>
       <c r="BX103" t="n">
-        <v>3.749</v>
+        <v>106.069</v>
       </c>
       <c r="BY103" t="n">
-        <v>50.719</v>
+        <v>106.687</v>
       </c>
       <c r="BZ103" t="n">
-        <v>6.078</v>
+        <v>8.054</v>
       </c>
       <c r="CA103" t="n">
-        <v>4.272</v>
+        <v>14.066</v>
       </c>
       <c r="CB103" t="n">
-        <v>2.191</v>
+        <v>14.06</v>
       </c>
       <c r="CC103" t="n">
-        <v>6.353</v>
+        <v>14.072</v>
       </c>
       <c r="CD103" t="n">
-        <v>5.489</v>
+        <v>7.202</v>
       </c>
       <c r="CE103" t="n">
-        <v>3.858</v>
+        <v>12.578</v>
       </c>
       <c r="CF103" t="n">
-        <v>2.127</v>
+        <v>12.57</v>
       </c>
       <c r="CG103" t="n">
-        <v>5.589</v>
+        <v>12.586</v>
       </c>
       <c r="CH103" t="n">
-        <v>-0.258</v>
+        <v>1.394</v>
       </c>
       <c r="CI103" t="inlineStr">
         <is>
@@ -24244,13 +24392,13 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1340159210914257</v>
       </c>
       <c r="J104" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3350398027285642</v>
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -24258,31 +24406,39 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2233598684857095</v>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="n">
-        <v>1.625884074465491</v>
+        <v>0.5360636843657027</v>
       </c>
       <c r="W104" t="n">
-        <v>4.064710186163726</v>
+        <v>1.340159210914257</v>
       </c>
       <c r="X104" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.2680318421828514</v>
       </c>
       <c r="Y104" t="n">
         <v>0</v>
       </c>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
+      <c r="Z104" t="n">
+        <v>1.340159210914257</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>1.005119408185693</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0.3350398027285642</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.34527861909995</v>
+      </c>
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
@@ -24296,49 +24452,49 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.422648565157304</v>
+        <v>0.4690557238199899</v>
       </c>
       <c r="AR104" t="n">
         <v>0.238</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.032355093081863</v>
+        <v>0.6700796054571284</v>
       </c>
       <c r="AU104" t="n">
-        <v>1.625884074465491</v>
+        <v>1.87622289527996</v>
       </c>
       <c r="AV104" t="n">
-        <v>4.064710186163726</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AW104" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="AX104" t="n">
-        <v>0</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AY104" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ104" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="BA104" t="n">
-        <v>6.61</v>
+        <v>4.4</v>
       </c>
       <c r="BB104" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC104" t="n">
         <v>0</v>
       </c>
       <c r="BD104" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="BE104" t="n">
         <v>0</v>
@@ -24353,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="BI104" t="n">
-        <v>0.945</v>
+        <v>1.413</v>
       </c>
       <c r="BJ104" t="inlineStr"/>
       <c r="BK104" t="n">
@@ -24368,55 +24524,55 @@
       <c r="BP104" t="inlineStr"/>
       <c r="BQ104" t="inlineStr"/>
       <c r="BR104" t="n">
-        <v>1.219</v>
+        <v>1.407</v>
       </c>
       <c r="BS104" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT104" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU104" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV104" t="n">
-        <v>38.745</v>
+        <v>55.996</v>
       </c>
       <c r="BW104" t="n">
-        <v>27.234</v>
+        <v>119.38</v>
       </c>
       <c r="BX104" t="n">
-        <v>3.749</v>
+        <v>118.166</v>
       </c>
       <c r="BY104" t="n">
-        <v>50.719</v>
+        <v>120.594</v>
       </c>
       <c r="BZ104" t="n">
-        <v>6.078</v>
+        <v>6.487</v>
       </c>
       <c r="CA104" t="n">
-        <v>4.272</v>
+        <v>13.83</v>
       </c>
       <c r="CB104" t="n">
-        <v>2.191</v>
+        <v>13.819</v>
       </c>
       <c r="CC104" t="n">
-        <v>6.353</v>
+        <v>13.841</v>
       </c>
       <c r="CD104" t="n">
-        <v>5.489</v>
+        <v>6.01</v>
       </c>
       <c r="CE104" t="n">
-        <v>3.858</v>
+        <v>12.813</v>
       </c>
       <c r="CF104" t="n">
-        <v>2.127</v>
+        <v>12.81</v>
       </c>
       <c r="CG104" t="n">
-        <v>5.589</v>
+        <v>12.816</v>
       </c>
       <c r="CH104" t="n">
-        <v>-0.258</v>
+        <v>2.276</v>
       </c>
       <c r="CI104" t="inlineStr">
         <is>
@@ -24466,13 +24622,13 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1340159210914257</v>
       </c>
       <c r="J105" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3350398027285642</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -24480,31 +24636,39 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2233598684857095</v>
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="n">
-        <v>1.625884074465491</v>
+        <v>0.5360636843657027</v>
       </c>
       <c r="W105" t="n">
-        <v>4.064710186163726</v>
+        <v>1.340159210914257</v>
       </c>
       <c r="X105" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.2680318421828514</v>
       </c>
       <c r="Y105" t="n">
         <v>0</v>
       </c>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
+      <c r="Z105" t="n">
+        <v>1.340159210914257</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>1.005119408185693</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0.3350398027285642</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.34527861909995</v>
+      </c>
       <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
@@ -24518,49 +24682,49 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.422648565157304</v>
+        <v>0.4690557238199899</v>
       </c>
       <c r="AR105" t="n">
         <v>0.238</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.032355093081863</v>
+        <v>0.6700796054571284</v>
       </c>
       <c r="AU105" t="n">
-        <v>1.625884074465491</v>
+        <v>1.87622289527996</v>
       </c>
       <c r="AV105" t="n">
-        <v>4.064710186163726</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="AX105" t="n">
-        <v>0</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AY105" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ105" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="BA105" t="n">
-        <v>6.61</v>
+        <v>4.4</v>
       </c>
       <c r="BB105" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC105" t="n">
         <v>0</v>
       </c>
       <c r="BD105" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="BE105" t="n">
         <v>0</v>
@@ -24575,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="BI105" t="n">
-        <v>0.945</v>
+        <v>1.413</v>
       </c>
       <c r="BJ105" t="inlineStr"/>
       <c r="BK105" t="n">
@@ -24590,55 +24754,55 @@
       <c r="BP105" t="inlineStr"/>
       <c r="BQ105" t="inlineStr"/>
       <c r="BR105" t="n">
-        <v>1.219</v>
+        <v>1.407</v>
       </c>
       <c r="BS105" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT105" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU105" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV105" t="n">
-        <v>38.745</v>
+        <v>55.996</v>
       </c>
       <c r="BW105" t="n">
-        <v>27.234</v>
+        <v>119.38</v>
       </c>
       <c r="BX105" t="n">
-        <v>3.749</v>
+        <v>118.166</v>
       </c>
       <c r="BY105" t="n">
-        <v>50.719</v>
+        <v>120.594</v>
       </c>
       <c r="BZ105" t="n">
-        <v>6.078</v>
+        <v>6.487</v>
       </c>
       <c r="CA105" t="n">
-        <v>4.272</v>
+        <v>13.83</v>
       </c>
       <c r="CB105" t="n">
-        <v>2.191</v>
+        <v>13.819</v>
       </c>
       <c r="CC105" t="n">
-        <v>6.353</v>
+        <v>13.841</v>
       </c>
       <c r="CD105" t="n">
-        <v>5.489</v>
+        <v>6.01</v>
       </c>
       <c r="CE105" t="n">
-        <v>3.858</v>
+        <v>12.813</v>
       </c>
       <c r="CF105" t="n">
-        <v>2.127</v>
+        <v>12.81</v>
       </c>
       <c r="CG105" t="n">
-        <v>5.589</v>
+        <v>12.816</v>
       </c>
       <c r="CH105" t="n">
-        <v>-0.258</v>
+        <v>2.276</v>
       </c>
       <c r="CI105" t="inlineStr">
         <is>
@@ -24688,13 +24852,13 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5345306820611504</v>
+        <v>0.1266073435297823</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6414368184733804</v>
+        <v>0.1519288122357388</v>
       </c>
       <c r="J106" t="n">
-        <v>1.603592046183451</v>
+        <v>0.379822030589347</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -24702,23 +24866,39 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
-        <v>2.138122728244602</v>
+        <v>0.5064293741191294</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.069061364122301</v>
+        <v>0.2532146870595647</v>
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
+      <c r="V106" t="n">
+        <v>0.9115728734144328</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.671216934593127</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.3038576244714776</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.4557864367072164</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.139466091768041</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1.519288122357388</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.379822030589347</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.519288122357388</v>
+      </c>
       <c r="AD106" t="inlineStr"/>
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
@@ -24732,49 +24912,49 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="n">
-        <v>0.5345306820611504</v>
+        <v>0.1266073435297823</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.245028864656831</v>
+        <v>0.5317508428250859</v>
       </c>
       <c r="AR106" t="n">
         <v>0.238</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.138122728244602</v>
+        <v>0.5064293741191294</v>
       </c>
       <c r="AT106" t="n">
-        <v>3.207184092366902</v>
+        <v>0.7596440611786941</v>
       </c>
       <c r="AU106" t="n">
-        <v>0</v>
+        <v>2.051038965182474</v>
       </c>
       <c r="AV106" t="n">
-        <v>0</v>
+        <v>3.190505056950515</v>
       </c>
       <c r="AW106" t="n">
-        <v>0</v>
+        <v>0.3418398275304123</v>
       </c>
       <c r="AX106" t="n">
-        <v>0</v>
+        <v>1.975074559064605</v>
       </c>
       <c r="AY106" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AZ106" t="n">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="BA106" t="n">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="BB106" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="BC106" t="n">
         <v>0</v>
       </c>
       <c r="BD106" t="n">
-        <v>0</v>
+        <v>0.3418398275304123</v>
       </c>
       <c r="BE106" t="n">
         <v>0</v>
@@ -24789,7 +24969,7 @@
         <v>0</v>
       </c>
       <c r="BI106" t="n">
-        <v>0</v>
+        <v>1.378</v>
       </c>
       <c r="BJ106" t="inlineStr"/>
       <c r="BK106" t="n">
@@ -24804,55 +24984,55 @@
       <c r="BP106" t="inlineStr"/>
       <c r="BQ106" t="inlineStr"/>
       <c r="BR106" t="n">
-        <v>0</v>
+        <v>1.367</v>
       </c>
       <c r="BS106" t="n">
-        <v>0</v>
+        <v>2.571</v>
       </c>
       <c r="BT106" t="n">
-        <v>1</v>
+        <v>2.445</v>
       </c>
       <c r="BU106" t="n">
-        <v>-1</v>
+        <v>2.697</v>
       </c>
       <c r="BV106" t="n">
-        <v>0</v>
+        <v>55.39</v>
       </c>
       <c r="BW106" t="n">
-        <v>0</v>
+        <v>104.165</v>
       </c>
       <c r="BX106" t="n">
-        <v>1</v>
+        <v>103.069</v>
       </c>
       <c r="BY106" t="n">
-        <v>-1</v>
+        <v>105.261</v>
       </c>
       <c r="BZ106" t="n">
-        <v>0</v>
+        <v>6.745</v>
       </c>
       <c r="CA106" t="n">
-        <v>0</v>
+        <v>12.685</v>
       </c>
       <c r="CB106" t="n">
-        <v>1</v>
+        <v>12.372</v>
       </c>
       <c r="CC106" t="n">
-        <v>-1</v>
+        <v>12.998</v>
       </c>
       <c r="CD106" t="n">
-        <v>0</v>
+        <v>6.281</v>
       </c>
       <c r="CE106" t="n">
-        <v>0</v>
+        <v>11.812</v>
       </c>
       <c r="CF106" t="n">
-        <v>1</v>
+        <v>11.589</v>
       </c>
       <c r="CG106" t="n">
-        <v>-1</v>
+        <v>12.035</v>
       </c>
       <c r="CH106" t="n">
-        <v>0</v>
+        <v>1.426</v>
       </c>
       <c r="CI106" t="inlineStr">
         <is>
@@ -24902,13 +25082,13 @@
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1340159210914257</v>
       </c>
       <c r="J107" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3350398027285642</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -24916,31 +25096,39 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2233598684857095</v>
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="n">
-        <v>1.625884074465491</v>
+        <v>0.5360636843657027</v>
       </c>
       <c r="W107" t="n">
-        <v>4.064710186163726</v>
+        <v>1.340159210914257</v>
       </c>
       <c r="X107" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.2680318421828514</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
       </c>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
+      <c r="Z107" t="n">
+        <v>1.340159210914257</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1.005119408185693</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.3350398027285642</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.34527861909995</v>
+      </c>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
@@ -24954,49 +25142,49 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.422648565157304</v>
+        <v>0.4690557238199899</v>
       </c>
       <c r="AR107" t="n">
         <v>0.238</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.032355093081863</v>
+        <v>0.6700796054571284</v>
       </c>
       <c r="AU107" t="n">
-        <v>1.625884074465491</v>
+        <v>1.87622289527996</v>
       </c>
       <c r="AV107" t="n">
-        <v>4.064710186163726</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="AX107" t="n">
-        <v>0</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AY107" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ107" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="BA107" t="n">
-        <v>6.61</v>
+        <v>4.4</v>
       </c>
       <c r="BB107" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC107" t="n">
         <v>0</v>
       </c>
       <c r="BD107" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="BE107" t="n">
         <v>0</v>
@@ -25011,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="BI107" t="n">
-        <v>0.945</v>
+        <v>1.413</v>
       </c>
       <c r="BJ107" t="inlineStr"/>
       <c r="BK107" t="n">
@@ -25026,55 +25214,55 @@
       <c r="BP107" t="inlineStr"/>
       <c r="BQ107" t="inlineStr"/>
       <c r="BR107" t="n">
-        <v>1.219</v>
+        <v>1.407</v>
       </c>
       <c r="BS107" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT107" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU107" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV107" t="n">
-        <v>38.745</v>
+        <v>55.996</v>
       </c>
       <c r="BW107" t="n">
-        <v>27.234</v>
+        <v>119.38</v>
       </c>
       <c r="BX107" t="n">
-        <v>3.749</v>
+        <v>118.166</v>
       </c>
       <c r="BY107" t="n">
-        <v>50.719</v>
+        <v>120.594</v>
       </c>
       <c r="BZ107" t="n">
-        <v>6.078</v>
+        <v>6.487</v>
       </c>
       <c r="CA107" t="n">
-        <v>4.272</v>
+        <v>13.83</v>
       </c>
       <c r="CB107" t="n">
-        <v>2.191</v>
+        <v>13.819</v>
       </c>
       <c r="CC107" t="n">
-        <v>6.353</v>
+        <v>13.841</v>
       </c>
       <c r="CD107" t="n">
-        <v>5.489</v>
+        <v>6.01</v>
       </c>
       <c r="CE107" t="n">
-        <v>3.858</v>
+        <v>12.813</v>
       </c>
       <c r="CF107" t="n">
-        <v>2.127</v>
+        <v>12.81</v>
       </c>
       <c r="CG107" t="n">
-        <v>5.589</v>
+        <v>12.816</v>
       </c>
       <c r="CH107" t="n">
-        <v>-0.258</v>
+        <v>2.276</v>
       </c>
       <c r="CI107" t="inlineStr">
         <is>
@@ -25354,13 +25542,13 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0.304056355021065</v>
+        <v>0.1379172617796512</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3648676260252781</v>
+        <v>0.1655007141355815</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9121690650631951</v>
+        <v>0.4137517853389537</v>
       </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
@@ -25368,31 +25556,39 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>1.21622542008426</v>
+        <v>0.551669047118605</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.6081127100421301</v>
+        <v>0.2758345235593025</v>
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="n">
-        <v>2.189205756151668</v>
+        <v>0.9930042848134889</v>
       </c>
       <c r="W109" t="n">
-        <v>5.108146764353893</v>
+        <v>2.317009997898141</v>
       </c>
       <c r="X109" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.331001428271163</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
       </c>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
+      <c r="Z109" t="n">
+        <v>1.241255356016861</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1.655007141355815</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.4137517853389537</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.655007141355815</v>
+      </c>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
@@ -25406,40 +25602,40 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="n">
-        <v>0.304056355021065</v>
+        <v>0.1379172617796512</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.277036691088473</v>
+        <v>0.5792524994745352</v>
       </c>
       <c r="AR109" t="n">
         <v>0.238</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.21622542008426</v>
+        <v>0.551669047118605</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.82433813012639</v>
+        <v>0.8275035706779075</v>
       </c>
       <c r="AU109" t="n">
-        <v>2.189205756151668</v>
+        <v>2.23425964083035</v>
       </c>
       <c r="AV109" t="n">
-        <v>5.108146764353893</v>
+        <v>3.972017139253956</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.3648676260252781</v>
+        <v>0.3723766068050584</v>
       </c>
       <c r="AX109" t="n">
-        <v>0</v>
+        <v>1.655007141355815</v>
       </c>
       <c r="AY109" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AZ109" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="BA109" t="n">
-        <v>11.18</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="BB109" t="n">
         <v>0.17</v>
@@ -25448,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="BD109" t="n">
-        <v>0.3648676260252781</v>
+        <v>0.3723766068050584</v>
       </c>
       <c r="BE109" t="n">
         <v>0</v>
@@ -25463,7 +25659,7 @@
         <v>0</v>
       </c>
       <c r="BI109" t="n">
-        <v>0.91</v>
+        <v>1.233</v>
       </c>
       <c r="BJ109" t="inlineStr"/>
       <c r="BK109" t="n">
@@ -25478,55 +25674,55 @@
       <c r="BP109" t="inlineStr"/>
       <c r="BQ109" t="inlineStr"/>
       <c r="BR109" t="n">
-        <v>1.095</v>
+        <v>1.324</v>
       </c>
       <c r="BS109" t="n">
-        <v>0.857</v>
+        <v>2.286</v>
       </c>
       <c r="BT109" t="n">
-        <v>1.375</v>
+        <v>2.25</v>
       </c>
       <c r="BU109" t="n">
-        <v>0.339</v>
+        <v>2.322</v>
       </c>
       <c r="BV109" t="n">
-        <v>47.401</v>
+        <v>60.188</v>
       </c>
       <c r="BW109" t="n">
-        <v>37.118</v>
+        <v>103.906</v>
       </c>
       <c r="BX109" t="n">
-        <v>4.102</v>
+        <v>102.861</v>
       </c>
       <c r="BY109" t="n">
-        <v>70.134</v>
+        <v>104.951</v>
       </c>
       <c r="BZ109" t="n">
-        <v>7.647</v>
+        <v>7.899</v>
       </c>
       <c r="CA109" t="n">
-        <v>5.988</v>
+        <v>13.637</v>
       </c>
       <c r="CB109" t="n">
-        <v>2.417</v>
+        <v>13.01</v>
       </c>
       <c r="CC109" t="n">
-        <v>9.558999999999999</v>
+        <v>14.264</v>
       </c>
       <c r="CD109" t="n">
-        <v>6.391</v>
+        <v>7.12</v>
       </c>
       <c r="CE109" t="n">
-        <v>5.005</v>
+        <v>12.292</v>
       </c>
       <c r="CF109" t="n">
-        <v>2.294</v>
+        <v>11.933</v>
       </c>
       <c r="CG109" t="n">
-        <v>7.716</v>
+        <v>12.651</v>
       </c>
       <c r="CH109" t="n">
-        <v>0.868</v>
+        <v>1.468</v>
       </c>
       <c r="CI109" t="inlineStr">
         <is>
@@ -25576,59 +25772,67 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0.131684988438058</v>
+        <v>0.1121767906220203</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1580219861256696</v>
+        <v>0.1346121487464244</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2633699768761161</v>
+        <v>0.2243535812440406</v>
       </c>
       <c r="K110" t="n">
-        <v>0.131684988438058</v>
+        <v>0.1121767906220203</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
-        <v>0.5267399537522321</v>
+        <v>0.4487071624880812</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.2633699768761161</v>
+        <v>0.2243535812440406</v>
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="n">
-        <v>0.6320879445026786</v>
+        <v>0.5384485949856974</v>
       </c>
       <c r="W110" t="n">
-        <v>1.580219861256696</v>
+        <v>1.346121487464244</v>
       </c>
       <c r="X110" t="n">
-        <v>0.3160439722513393</v>
+        <v>0.2692242974928487</v>
       </c>
       <c r="Y110" t="n">
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.31684988438058</v>
+        <v>1.121767906220203</v>
       </c>
       <c r="AA110" t="n">
-        <v>1.053479907504464</v>
+        <v>0.8974143249761625</v>
       </c>
       <c r="AB110" t="n">
-        <v>0.2633699768761161</v>
+        <v>0.2243535812440406</v>
       </c>
       <c r="AC110" t="n">
-        <v>2.106959815008929</v>
-      </c>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr"/>
+        <v>1.794828649952325</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.3365303718660609</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0.4487071624880812</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0.1121767906220203</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.4487071624880812</v>
+      </c>
       <c r="AH110" t="inlineStr"/>
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr"/>
@@ -25638,40 +25842,40 @@
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="n">
-        <v>0.131684988438058</v>
+        <v>0.1121767906220203</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.5530769514398437</v>
+        <v>0.4711425206124852</v>
       </c>
       <c r="AR110" t="n">
         <v>0.238</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.5267399537522321</v>
+        <v>0.4487071624880812</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.7901099306283482</v>
+        <v>0.6730607437321219</v>
       </c>
       <c r="AU110" t="n">
-        <v>1.948937828883259</v>
+        <v>1.996746873071961</v>
       </c>
       <c r="AV110" t="n">
-        <v>2.633699768761161</v>
+        <v>2.692242974928488</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.2897069745637277</v>
+        <v>0.3028773346794548</v>
       </c>
       <c r="AX110" t="n">
-        <v>2.106959815008929</v>
+        <v>2.243535812440406</v>
       </c>
       <c r="AY110" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AZ110" t="n">
-        <v>7.27</v>
+        <v>7.41</v>
       </c>
       <c r="BA110" t="n">
-        <v>5.13</v>
+        <v>5.38</v>
       </c>
       <c r="BB110" t="n">
         <v>0.15</v>
@@ -25680,7 +25884,7 @@
         <v>0</v>
       </c>
       <c r="BD110" t="n">
-        <v>0.2897069745637277</v>
+        <v>0.3028773346794548</v>
       </c>
       <c r="BE110" t="n">
         <v>0</v>
@@ -25695,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="BI110" t="n">
-        <v>1.366</v>
+        <v>1.374</v>
       </c>
       <c r="BJ110" t="inlineStr"/>
       <c r="BK110" t="n">
@@ -25712,55 +25916,55 @@
       <c r="BP110" t="inlineStr"/>
       <c r="BQ110" t="inlineStr"/>
       <c r="BR110" t="n">
-        <v>1.528</v>
+        <v>1.526</v>
       </c>
       <c r="BS110" t="n">
-        <v>2.763</v>
+        <v>3.239</v>
       </c>
       <c r="BT110" t="n">
-        <v>2.675</v>
+        <v>3.159</v>
       </c>
       <c r="BU110" t="n">
-        <v>2.851</v>
+        <v>3.319</v>
       </c>
       <c r="BV110" t="n">
-        <v>55.192</v>
+        <v>57.505</v>
       </c>
       <c r="BW110" t="n">
-        <v>99.791</v>
+        <v>122.054</v>
       </c>
       <c r="BX110" t="n">
-        <v>41.855</v>
+        <v>124.381</v>
       </c>
       <c r="BY110" t="n">
-        <v>157.727</v>
+        <v>119.727</v>
       </c>
       <c r="BZ110" t="n">
-        <v>6.649</v>
+        <v>6.865</v>
       </c>
       <c r="CA110" t="n">
-        <v>12.022</v>
+        <v>14.571</v>
       </c>
       <c r="CB110" t="n">
-        <v>8.359999999999999</v>
+        <v>14.768</v>
       </c>
       <c r="CC110" t="n">
-        <v>15.684</v>
+        <v>14.374</v>
       </c>
       <c r="CD110" t="n">
-        <v>5.993</v>
+        <v>6.25</v>
       </c>
       <c r="CE110" t="n">
-        <v>10.836</v>
+        <v>13.266</v>
       </c>
       <c r="CF110" t="n">
-        <v>7.718</v>
+        <v>13.476</v>
       </c>
       <c r="CG110" t="n">
-        <v>13.954</v>
+        <v>13.056</v>
       </c>
       <c r="CH110" t="n">
-        <v>2.443</v>
+        <v>2.455</v>
       </c>
       <c r="CI110" t="inlineStr">
         <is>
@@ -25814,59 +26018,67 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1260953906586517</v>
+        <v>0.1080949731081326</v>
       </c>
       <c r="I111" t="n">
-        <v>0.151314468790382</v>
+        <v>0.1297139677297591</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2521907813173034</v>
+        <v>0.2161899462162652</v>
       </c>
       <c r="K111" t="n">
-        <v>0.1260953906586517</v>
+        <v>0.1080949731081326</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>0.5043815626346069</v>
+        <v>0.4323798924325304</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.2521907813173034</v>
+        <v>0.2161899462162652</v>
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="n">
-        <v>0.9078868127422923</v>
+        <v>0.7782838063785547</v>
       </c>
       <c r="W111" t="n">
-        <v>2.118402563065349</v>
+        <v>1.815995548216627</v>
       </c>
       <c r="X111" t="n">
-        <v>0.3026289375807641</v>
+        <v>0.2594279354595182</v>
       </c>
       <c r="Y111" t="n">
         <v>0</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.260953906586517</v>
+        <v>1.080949731081326</v>
       </c>
       <c r="AA111" t="n">
-        <v>1.008763125269214</v>
+        <v>0.8647597848650608</v>
       </c>
       <c r="AB111" t="n">
-        <v>0.2521907813173034</v>
+        <v>0.2161899462162652</v>
       </c>
       <c r="AC111" t="n">
-        <v>2.017526250538427</v>
-      </c>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
+        <v>1.729519569730122</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.3242849193243978</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.4323798924325304</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0.1080949731081326</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.4323798924325304</v>
+      </c>
       <c r="AH111" t="inlineStr"/>
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr"/>
@@ -25876,40 +26088,40 @@
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="n">
-        <v>0.1260953906586517</v>
+        <v>0.1080949731081326</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.5296006407663372</v>
+        <v>0.4539988870541569</v>
       </c>
       <c r="AR111" t="n">
         <v>0.238</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.5043815626346069</v>
+        <v>0.4323798924325304</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.7565723439519103</v>
+        <v>0.6485698386487956</v>
       </c>
       <c r="AU111" t="n">
-        <v>2.168840719328809</v>
+        <v>2.183518456784279</v>
       </c>
       <c r="AV111" t="n">
-        <v>3.127165688334562</v>
+        <v>3.113135225514219</v>
       </c>
       <c r="AW111" t="n">
-        <v>0.2774098594490337</v>
+        <v>0.291856427391958</v>
       </c>
       <c r="AX111" t="n">
-        <v>2.017526250538427</v>
+        <v>2.161899462162652</v>
       </c>
       <c r="AY111" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="AZ111" t="n">
-        <v>7.27</v>
+        <v>7.41</v>
       </c>
       <c r="BA111" t="n">
-        <v>6.78</v>
+        <v>6.8</v>
       </c>
       <c r="BB111" t="n">
         <v>0.13</v>
@@ -25918,7 +26130,7 @@
         <v>0</v>
       </c>
       <c r="BD111" t="n">
-        <v>0.2774098594490337</v>
+        <v>0.291856427391958</v>
       </c>
       <c r="BE111" t="n">
         <v>0</v>
@@ -25933,7 +26145,7 @@
         <v>0</v>
       </c>
       <c r="BI111" t="n">
-        <v>1.316</v>
+        <v>1.332</v>
       </c>
       <c r="BJ111" t="inlineStr"/>
       <c r="BK111" t="n">
@@ -25950,55 +26162,55 @@
       <c r="BP111" t="inlineStr"/>
       <c r="BQ111" t="inlineStr"/>
       <c r="BR111" t="n">
-        <v>1.463</v>
+        <v>1.47</v>
       </c>
       <c r="BS111" t="n">
-        <v>2.762</v>
+        <v>3.238</v>
       </c>
       <c r="BT111" t="n">
-        <v>2.675</v>
+        <v>3.159</v>
       </c>
       <c r="BU111" t="n">
-        <v>2.849</v>
+        <v>3.317</v>
       </c>
       <c r="BV111" t="n">
-        <v>58.083</v>
+        <v>59.899</v>
       </c>
       <c r="BW111" t="n">
-        <v>109.673</v>
+        <v>131.936</v>
       </c>
       <c r="BX111" t="n">
-        <v>45.787</v>
+        <v>136.065</v>
       </c>
       <c r="BY111" t="n">
-        <v>173.559</v>
+        <v>127.807</v>
       </c>
       <c r="BZ111" t="n">
-        <v>7.276</v>
+        <v>7.395</v>
       </c>
       <c r="CA111" t="n">
-        <v>13.739</v>
+        <v>16.289</v>
       </c>
       <c r="CB111" t="n">
-        <v>9.220000000000001</v>
+        <v>16.287</v>
       </c>
       <c r="CC111" t="n">
-        <v>18.258</v>
+        <v>16.291</v>
       </c>
       <c r="CD111" t="n">
-        <v>6.346</v>
+        <v>6.543</v>
       </c>
       <c r="CE111" t="n">
-        <v>11.983</v>
+        <v>14.412</v>
       </c>
       <c r="CF111" t="n">
-        <v>8.321999999999999</v>
+        <v>14.532</v>
       </c>
       <c r="CG111" t="n">
-        <v>15.644</v>
+        <v>14.292</v>
       </c>
       <c r="CH111" t="n">
-        <v>2.454</v>
+        <v>2.465</v>
       </c>
       <c r="CI111" t="inlineStr">
         <is>
@@ -26052,13 +26264,13 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.14850323588551</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.14850323588551</v>
       </c>
       <c r="J112" t="n">
-        <v>1.082251082251082</v>
+        <v>0.4455097076565299</v>
       </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -26066,31 +26278,39 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.2970064717710199</v>
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="W112" t="n">
-        <v>3.607503607503608</v>
+        <v>1.4850323588551</v>
       </c>
       <c r="X112" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.2970064717710199</v>
       </c>
       <c r="Y112" t="n">
         <v>0</v>
       </c>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
+      <c r="Z112" t="n">
+        <v>1.33652912296959</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1.782038830626119</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.4455097076565299</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.782038830626119</v>
+      </c>
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
@@ -26104,49 +26324,49 @@
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.14850323588551</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="AR112" t="n">
         <v>0.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.164502164502164</v>
+        <v>0.8910194153130597</v>
       </c>
       <c r="AU112" t="n">
-        <v>1.443001443001443</v>
+        <v>1.93054206651163</v>
       </c>
       <c r="AV112" t="n">
-        <v>3.607503607503608</v>
+        <v>3.267071189481219</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3712580897137749</v>
       </c>
       <c r="AX112" t="n">
-        <v>0</v>
+        <v>1.782038830626119</v>
       </c>
       <c r="AY112" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AZ112" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BA112" t="n">
-        <v>5.21</v>
+        <v>6.31</v>
       </c>
       <c r="BB112" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="BC112" t="n">
         <v>0</v>
       </c>
       <c r="BD112" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3712580897137749</v>
       </c>
       <c r="BE112" t="n">
         <v>0</v>
@@ -26161,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="BI112" t="n">
-        <v>0.945</v>
+        <v>1.294</v>
       </c>
       <c r="BJ112" t="inlineStr"/>
       <c r="BK112" t="n">
@@ -26176,55 +26396,55 @@
       <c r="BP112" t="inlineStr"/>
       <c r="BQ112" t="inlineStr"/>
       <c r="BR112" t="n">
-        <v>1.082</v>
+        <v>1.337</v>
       </c>
       <c r="BS112" t="n">
-        <v>0.75</v>
+        <v>2.251</v>
       </c>
       <c r="BT112" t="n">
-        <v>1.316</v>
+        <v>2.213</v>
       </c>
       <c r="BU112" t="n">
-        <v>0.184</v>
+        <v>2.289</v>
       </c>
       <c r="BV112" t="n">
-        <v>34.387</v>
+        <v>55.813</v>
       </c>
       <c r="BW112" t="n">
-        <v>23.83</v>
+        <v>93.959</v>
       </c>
       <c r="BX112" t="n">
-        <v>3.125</v>
+        <v>93.956</v>
       </c>
       <c r="BY112" t="n">
-        <v>44.535</v>
+        <v>93.962</v>
       </c>
       <c r="BZ112" t="n">
-        <v>5.394</v>
+        <v>6.991</v>
       </c>
       <c r="CA112" t="n">
-        <v>3.738</v>
+        <v>11.769</v>
       </c>
       <c r="CB112" t="n">
-        <v>1.966</v>
+        <v>11.639</v>
       </c>
       <c r="CC112" t="n">
-        <v>5.51</v>
+        <v>11.899</v>
       </c>
       <c r="CD112" t="n">
-        <v>4.872</v>
+        <v>6.55</v>
       </c>
       <c r="CE112" t="n">
-        <v>3.376</v>
+        <v>11.027</v>
       </c>
       <c r="CF112" t="n">
-        <v>1.917</v>
+        <v>10.942</v>
       </c>
       <c r="CG112" t="n">
-        <v>4.835</v>
+        <v>11.112</v>
       </c>
       <c r="CH112" t="n">
-        <v>-0.323</v>
+        <v>1.375</v>
       </c>
       <c r="CI112" t="inlineStr">
         <is>
@@ -26274,13 +26494,13 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1446319839169234</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.173558380700308</v>
       </c>
       <c r="J113" t="n">
-        <v>1.016177546540932</v>
+        <v>0.4338959517507701</v>
       </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -26288,31 +26508,39 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5785279356676934</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2892639678338467</v>
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6942335228012321</v>
       </c>
       <c r="W113" t="n">
-        <v>4.064710186163726</v>
+        <v>1.73558380700308</v>
       </c>
       <c r="X113" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.347116761400616</v>
       </c>
       <c r="Y113" t="n">
         <v>0</v>
       </c>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
+      <c r="Z113" t="n">
+        <v>1.30168785525231</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1.73558380700308</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0.4338959517507701</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.73558380700308</v>
+      </c>
       <c r="AD113" t="inlineStr"/>
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr"/>
@@ -26326,49 +26554,49 @@
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1446319839169234</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.422648565157304</v>
+        <v>0.6074543324510782</v>
       </c>
       <c r="AR113" t="n">
         <v>0.238</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5785279356676934</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.032355093081863</v>
+        <v>0.8677919035015402</v>
       </c>
       <c r="AU113" t="n">
-        <v>1.625884074465491</v>
+        <v>1.995921378053542</v>
       </c>
       <c r="AV113" t="n">
-        <v>4.064710186163726</v>
+        <v>3.471167614006161</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3905063565756931</v>
       </c>
       <c r="AX113" t="n">
-        <v>0</v>
+        <v>1.73558380700308</v>
       </c>
       <c r="AY113" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AZ113" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="BA113" t="n">
-        <v>6.61</v>
+        <v>6.93</v>
       </c>
       <c r="BB113" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="BC113" t="n">
         <v>0</v>
       </c>
       <c r="BD113" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3905063565756931</v>
       </c>
       <c r="BE113" t="n">
         <v>0</v>
@@ -26383,7 +26611,7 @@
         <v>0</v>
       </c>
       <c r="BI113" t="n">
-        <v>0.945</v>
+        <v>1.277</v>
       </c>
       <c r="BJ113" t="inlineStr"/>
       <c r="BK113" t="n">
@@ -26398,55 +26626,55 @@
       <c r="BP113" t="inlineStr"/>
       <c r="BQ113" t="inlineStr"/>
       <c r="BR113" t="n">
-        <v>1.219</v>
+        <v>1.388</v>
       </c>
       <c r="BS113" t="n">
-        <v>0.857</v>
+        <v>2.285</v>
       </c>
       <c r="BT113" t="n">
-        <v>1.375</v>
+        <v>2.25</v>
       </c>
       <c r="BU113" t="n">
-        <v>0.339</v>
+        <v>2.32</v>
       </c>
       <c r="BV113" t="n">
-        <v>38.745</v>
+        <v>57.115</v>
       </c>
       <c r="BW113" t="n">
-        <v>27.234</v>
+        <v>94.024</v>
       </c>
       <c r="BX113" t="n">
-        <v>3.749</v>
+        <v>94.02800000000001</v>
       </c>
       <c r="BY113" t="n">
-        <v>50.719</v>
+        <v>94.02</v>
       </c>
       <c r="BZ113" t="n">
-        <v>6.078</v>
+        <v>7.241</v>
       </c>
       <c r="CA113" t="n">
-        <v>4.272</v>
+        <v>11.92</v>
       </c>
       <c r="CB113" t="n">
-        <v>2.191</v>
+        <v>11.796</v>
       </c>
       <c r="CC113" t="n">
-        <v>6.353</v>
+        <v>12.044</v>
       </c>
       <c r="CD113" t="n">
-        <v>5.489</v>
+        <v>6.77</v>
       </c>
       <c r="CE113" t="n">
-        <v>3.858</v>
+        <v>11.145</v>
       </c>
       <c r="CF113" t="n">
-        <v>2.127</v>
+        <v>11.065</v>
       </c>
       <c r="CG113" t="n">
-        <v>5.589</v>
+        <v>11.225</v>
       </c>
       <c r="CH113" t="n">
-        <v>-0.258</v>
+        <v>1.353</v>
       </c>
       <c r="CI113" t="inlineStr">
         <is>
@@ -26496,13 +26724,13 @@
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1269899322381722</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1523879186858066</v>
       </c>
       <c r="J114" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3809697967145165</v>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -26510,31 +26738,39 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5079597289526887</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2539798644763444</v>
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6095516747432265</v>
       </c>
       <c r="W114" t="n">
-        <v>4.064710186163726</v>
+        <v>1.523879186858066</v>
       </c>
       <c r="X114" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.3047758373716132</v>
       </c>
       <c r="Y114" t="n">
         <v>0</v>
       </c>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
+      <c r="Z114" t="n">
+        <v>1.523879186858066</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1.904848983572583</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0.3809697967145165</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.904848983572583</v>
+      </c>
       <c r="AD114" t="inlineStr"/>
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr"/>
@@ -26548,49 +26784,49 @@
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1269899322381722</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.422648565157304</v>
+        <v>0.5333577154003232</v>
       </c>
       <c r="AR114" t="n">
         <v>0.238</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5079597289526887</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.032355093081863</v>
+        <v>0.7619395934290331</v>
       </c>
       <c r="AU114" t="n">
-        <v>1.625884074465491</v>
+        <v>2.133430861601293</v>
       </c>
       <c r="AV114" t="n">
-        <v>4.064710186163726</v>
+        <v>3.428728170430649</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3428728170430649</v>
       </c>
       <c r="AX114" t="n">
-        <v>0</v>
+        <v>1.904848983572583</v>
       </c>
       <c r="AY114" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AZ114" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="BA114" t="n">
-        <v>6.61</v>
+        <v>7.31</v>
       </c>
       <c r="BB114" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC114" t="n">
         <v>0</v>
       </c>
       <c r="BD114" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3428728170430649</v>
       </c>
       <c r="BE114" t="n">
         <v>0</v>
@@ -26605,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="BI114" t="n">
-        <v>0.945</v>
+        <v>1.291</v>
       </c>
       <c r="BJ114" t="inlineStr"/>
       <c r="BK114" t="n">
@@ -26620,55 +26856,55 @@
       <c r="BP114" t="inlineStr"/>
       <c r="BQ114" t="inlineStr"/>
       <c r="BR114" t="n">
-        <v>1.219</v>
+        <v>1.6</v>
       </c>
       <c r="BS114" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT114" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU114" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV114" t="n">
-        <v>38.745</v>
+        <v>59.049</v>
       </c>
       <c r="BW114" t="n">
-        <v>27.234</v>
+        <v>110.712</v>
       </c>
       <c r="BX114" t="n">
-        <v>3.749</v>
+        <v>110.161</v>
       </c>
       <c r="BY114" t="n">
-        <v>50.719</v>
+        <v>111.263</v>
       </c>
       <c r="BZ114" t="n">
-        <v>6.078</v>
+        <v>7.46</v>
       </c>
       <c r="CA114" t="n">
-        <v>4.272</v>
+        <v>13.987</v>
       </c>
       <c r="CB114" t="n">
-        <v>2.191</v>
+        <v>13.98</v>
       </c>
       <c r="CC114" t="n">
-        <v>6.353</v>
+        <v>13.994</v>
       </c>
       <c r="CD114" t="n">
-        <v>5.489</v>
+        <v>6.75</v>
       </c>
       <c r="CE114" t="n">
-        <v>3.858</v>
+        <v>12.656</v>
       </c>
       <c r="CF114" t="n">
-        <v>2.127</v>
+        <v>12.65</v>
       </c>
       <c r="CG114" t="n">
-        <v>5.589</v>
+        <v>12.662</v>
       </c>
       <c r="CH114" t="n">
-        <v>-0.258</v>
+        <v>1.687</v>
       </c>
       <c r="CI114" t="inlineStr">
         <is>
@@ -26718,13 +26954,13 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.136334882097594</v>
       </c>
       <c r="I115" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1636018585171127</v>
       </c>
       <c r="J115" t="n">
-        <v>1.016177546540932</v>
+        <v>0.4090046462927819</v>
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
@@ -26732,31 +26968,39 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5453395283903758</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2726697641951879</v>
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="n">
-        <v>1.625884074465491</v>
+        <v>0.6544074340684509</v>
       </c>
       <c r="W115" t="n">
-        <v>4.064710186163726</v>
+        <v>1.636018585171127</v>
       </c>
       <c r="X115" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.3272037170342255</v>
       </c>
       <c r="Y115" t="n">
         <v>0</v>
       </c>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
+      <c r="Z115" t="n">
+        <v>1.636018585171128</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>2.454027877756691</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.4090046462927819</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.636018585171128</v>
+      </c>
       <c r="AD115" t="inlineStr"/>
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr"/>
@@ -26770,49 +27014,49 @@
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.136334882097594</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.422648565157304</v>
+        <v>0.5726065048098946</v>
       </c>
       <c r="AR115" t="n">
         <v>0.238</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.354903395387909</v>
+        <v>0.5453395283903758</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.032355093081863</v>
+        <v>0.8180092925855638</v>
       </c>
       <c r="AU115" t="n">
-        <v>1.625884074465491</v>
+        <v>2.290426019239578</v>
       </c>
       <c r="AV115" t="n">
-        <v>4.064710186163726</v>
+        <v>4.090046462927819</v>
       </c>
       <c r="AW115" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3681041816635037</v>
       </c>
       <c r="AX115" t="n">
-        <v>0</v>
+        <v>1.636018585171128</v>
       </c>
       <c r="AY115" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AZ115" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="BA115" t="n">
-        <v>6.61</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="BB115" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC115" t="n">
         <v>0</v>
       </c>
       <c r="BD115" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3681041816635037</v>
       </c>
       <c r="BE115" t="n">
         <v>0</v>
@@ -26827,7 +27071,7 @@
         <v>0</v>
       </c>
       <c r="BI115" t="n">
-        <v>0.945</v>
+        <v>1.223</v>
       </c>
       <c r="BJ115" t="inlineStr"/>
       <c r="BK115" t="n">
@@ -26842,55 +27086,55 @@
       <c r="BP115" t="inlineStr"/>
       <c r="BQ115" t="inlineStr"/>
       <c r="BR115" t="n">
-        <v>1.219</v>
+        <v>1.718</v>
       </c>
       <c r="BS115" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT115" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU115" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV115" t="n">
-        <v>38.745</v>
+        <v>60.913</v>
       </c>
       <c r="BW115" t="n">
-        <v>27.234</v>
+        <v>106.378</v>
       </c>
       <c r="BX115" t="n">
-        <v>3.749</v>
+        <v>106.069</v>
       </c>
       <c r="BY115" t="n">
-        <v>50.719</v>
+        <v>106.687</v>
       </c>
       <c r="BZ115" t="n">
-        <v>6.078</v>
+        <v>8.054</v>
       </c>
       <c r="CA115" t="n">
-        <v>4.272</v>
+        <v>14.066</v>
       </c>
       <c r="CB115" t="n">
-        <v>2.191</v>
+        <v>14.06</v>
       </c>
       <c r="CC115" t="n">
-        <v>6.353</v>
+        <v>14.072</v>
       </c>
       <c r="CD115" t="n">
-        <v>5.489</v>
+        <v>7.202</v>
       </c>
       <c r="CE115" t="n">
-        <v>3.858</v>
+        <v>12.578</v>
       </c>
       <c r="CF115" t="n">
-        <v>2.127</v>
+        <v>12.57</v>
       </c>
       <c r="CG115" t="n">
-        <v>5.589</v>
+        <v>12.586</v>
       </c>
       <c r="CH115" t="n">
-        <v>-0.258</v>
+        <v>1.394</v>
       </c>
       <c r="CI115" t="inlineStr">
         <is>
@@ -26940,13 +27184,13 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1340159210914257</v>
       </c>
       <c r="J116" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3350398027285642</v>
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
@@ -26954,31 +27198,39 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2233598684857095</v>
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="n">
-        <v>1.625884074465491</v>
+        <v>0.5360636843657027</v>
       </c>
       <c r="W116" t="n">
-        <v>4.064710186163726</v>
+        <v>1.340159210914257</v>
       </c>
       <c r="X116" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.2680318421828514</v>
       </c>
       <c r="Y116" t="n">
         <v>0</v>
       </c>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
+      <c r="Z116" t="n">
+        <v>1.340159210914257</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1.005119408185693</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0.3350398027285642</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>2.34527861909995</v>
+      </c>
       <c r="AD116" t="inlineStr"/>
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr"/>
@@ -26992,49 +27244,49 @@
       <c r="AN116" t="inlineStr"/>
       <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.422648565157304</v>
+        <v>0.4690557238199899</v>
       </c>
       <c r="AR116" t="n">
         <v>0.238</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.032355093081863</v>
+        <v>0.6700796054571284</v>
       </c>
       <c r="AU116" t="n">
-        <v>1.625884074465491</v>
+        <v>1.87622289527996</v>
       </c>
       <c r="AV116" t="n">
-        <v>4.064710186163726</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AW116" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="AX116" t="n">
-        <v>0</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AY116" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ116" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="BA116" t="n">
-        <v>6.61</v>
+        <v>4.4</v>
       </c>
       <c r="BB116" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC116" t="n">
         <v>0</v>
       </c>
       <c r="BD116" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="BE116" t="n">
         <v>0</v>
@@ -27049,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="BI116" t="n">
-        <v>0.945</v>
+        <v>1.413</v>
       </c>
       <c r="BJ116" t="inlineStr"/>
       <c r="BK116" t="n">
@@ -27064,55 +27316,55 @@
       <c r="BP116" t="inlineStr"/>
       <c r="BQ116" t="inlineStr"/>
       <c r="BR116" t="n">
-        <v>1.219</v>
+        <v>1.407</v>
       </c>
       <c r="BS116" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT116" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU116" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV116" t="n">
-        <v>38.745</v>
+        <v>55.996</v>
       </c>
       <c r="BW116" t="n">
-        <v>27.234</v>
+        <v>119.38</v>
       </c>
       <c r="BX116" t="n">
-        <v>3.749</v>
+        <v>118.166</v>
       </c>
       <c r="BY116" t="n">
-        <v>50.719</v>
+        <v>120.594</v>
       </c>
       <c r="BZ116" t="n">
-        <v>6.078</v>
+        <v>6.487</v>
       </c>
       <c r="CA116" t="n">
-        <v>4.272</v>
+        <v>13.83</v>
       </c>
       <c r="CB116" t="n">
-        <v>2.191</v>
+        <v>13.819</v>
       </c>
       <c r="CC116" t="n">
-        <v>6.353</v>
+        <v>13.841</v>
       </c>
       <c r="CD116" t="n">
-        <v>5.489</v>
+        <v>6.01</v>
       </c>
       <c r="CE116" t="n">
-        <v>3.858</v>
+        <v>12.813</v>
       </c>
       <c r="CF116" t="n">
-        <v>2.127</v>
+        <v>12.81</v>
       </c>
       <c r="CG116" t="n">
-        <v>5.589</v>
+        <v>12.816</v>
       </c>
       <c r="CH116" t="n">
-        <v>-0.258</v>
+        <v>2.276</v>
       </c>
       <c r="CI116" t="inlineStr">
         <is>
@@ -27162,13 +27414,13 @@
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.1340159210914257</v>
       </c>
       <c r="J117" t="n">
-        <v>1.016177546540932</v>
+        <v>0.3350398027285642</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
@@ -27176,31 +27428,39 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.6774516976939544</v>
+        <v>0.2233598684857095</v>
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="n">
-        <v>1.625884074465491</v>
+        <v>0.5360636843657027</v>
       </c>
       <c r="W117" t="n">
-        <v>4.064710186163726</v>
+        <v>1.340159210914257</v>
       </c>
       <c r="X117" t="n">
-        <v>0.8129420372327453</v>
+        <v>0.2680318421828514</v>
       </c>
       <c r="Y117" t="n">
         <v>0</v>
       </c>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
+      <c r="Z117" t="n">
+        <v>1.340159210914257</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1.005119408185693</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0.3350398027285642</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.34527861909995</v>
+      </c>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr"/>
@@ -27214,49 +27474,49 @@
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="n">
-        <v>0.3387258488469772</v>
+        <v>0.1116799342428547</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.422648565157304</v>
+        <v>0.4690557238199899</v>
       </c>
       <c r="AR117" t="n">
         <v>0.238</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.354903395387909</v>
+        <v>0.4467197369714189</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.032355093081863</v>
+        <v>0.6700796054571284</v>
       </c>
       <c r="AU117" t="n">
-        <v>1.625884074465491</v>
+        <v>1.87622289527996</v>
       </c>
       <c r="AV117" t="n">
-        <v>4.064710186163726</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AW117" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="AX117" t="n">
-        <v>0</v>
+        <v>2.34527861909995</v>
       </c>
       <c r="AY117" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ117" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="BA117" t="n">
-        <v>6.61</v>
+        <v>4.4</v>
       </c>
       <c r="BB117" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="BC117" t="n">
         <v>0</v>
       </c>
       <c r="BD117" t="n">
-        <v>0.4064710186163726</v>
+        <v>0.3015358224557078</v>
       </c>
       <c r="BE117" t="n">
         <v>0</v>
@@ -27271,7 +27531,7 @@
         <v>0</v>
       </c>
       <c r="BI117" t="n">
-        <v>0.945</v>
+        <v>1.413</v>
       </c>
       <c r="BJ117" t="inlineStr"/>
       <c r="BK117" t="n">
@@ -27286,55 +27546,55 @@
       <c r="BP117" t="inlineStr"/>
       <c r="BQ117" t="inlineStr"/>
       <c r="BR117" t="n">
-        <v>1.219</v>
+        <v>1.407</v>
       </c>
       <c r="BS117" t="n">
-        <v>0.857</v>
+        <v>3</v>
       </c>
       <c r="BT117" t="n">
-        <v>1.375</v>
+        <v>3</v>
       </c>
       <c r="BU117" t="n">
-        <v>0.339</v>
+        <v>3</v>
       </c>
       <c r="BV117" t="n">
-        <v>38.745</v>
+        <v>55.996</v>
       </c>
       <c r="BW117" t="n">
-        <v>27.234</v>
+        <v>119.38</v>
       </c>
       <c r="BX117" t="n">
-        <v>3.749</v>
+        <v>118.166</v>
       </c>
       <c r="BY117" t="n">
-        <v>50.719</v>
+        <v>120.594</v>
       </c>
       <c r="BZ117" t="n">
-        <v>6.078</v>
+        <v>6.487</v>
       </c>
       <c r="CA117" t="n">
-        <v>4.272</v>
+        <v>13.83</v>
       </c>
       <c r="CB117" t="n">
-        <v>2.191</v>
+        <v>13.819</v>
       </c>
       <c r="CC117" t="n">
-        <v>6.353</v>
+        <v>13.841</v>
       </c>
       <c r="CD117" t="n">
-        <v>5.489</v>
+        <v>6.01</v>
       </c>
       <c r="CE117" t="n">
-        <v>3.858</v>
+        <v>12.813</v>
       </c>
       <c r="CF117" t="n">
-        <v>2.127</v>
+        <v>12.81</v>
       </c>
       <c r="CG117" t="n">
-        <v>5.589</v>
+        <v>12.816</v>
       </c>
       <c r="CH117" t="n">
-        <v>-0.258</v>
+        <v>2.276</v>
       </c>
       <c r="CI117" t="inlineStr">
         <is>
@@ -27614,13 +27874,13 @@
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0.304056355021065</v>
+        <v>0.1379172617796512</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3648676260252781</v>
+        <v>0.1655007141355815</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9121690650631951</v>
+        <v>0.4137517853389537</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -27628,31 +27888,39 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
-        <v>1.21622542008426</v>
+        <v>0.551669047118605</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.6081127100421301</v>
+        <v>0.2758345235593025</v>
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="n">
-        <v>2.189205756151668</v>
+        <v>0.9930042848134889</v>
       </c>
       <c r="W119" t="n">
-        <v>5.108146764353893</v>
+        <v>2.317009997898141</v>
       </c>
       <c r="X119" t="n">
-        <v>0.7297352520505561</v>
+        <v>0.331001428271163</v>
       </c>
       <c r="Y119" t="n">
         <v>0</v>
       </c>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
+      <c r="Z119" t="n">
+        <v>1.241255356016861</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1.655007141355815</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0.4137517853389537</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.655007141355815</v>
+      </c>
       <c r="AD119" t="inlineStr"/>
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr"/>
@@ -27666,40 +27934,40 @@
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="n">
-        <v>0.304056355021065</v>
+        <v>0.1379172617796512</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.277036691088473</v>
+        <v>0.5792524994745352</v>
       </c>
       <c r="AR119" t="n">
         <v>0.238</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.21622542008426</v>
+        <v>0.551669047118605</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.82433813012639</v>
+        <v>0.8275035706779075</v>
       </c>
       <c r="AU119" t="n">
-        <v>2.189205756151668</v>
+        <v>2.23425964083035</v>
       </c>
       <c r="AV119" t="n">
-        <v>5.108146764353893</v>
+        <v>3.972017139253956</v>
       </c>
       <c r="AW119" t="n">
-        <v>0.3648676260252781</v>
+        <v>0.3723766068050584</v>
       </c>
       <c r="AX119" t="n">
-        <v>0</v>
+        <v>1.655007141355815</v>
       </c>
       <c r="AY119" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AZ119" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="BA119" t="n">
-        <v>11.18</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="BB119" t="n">
         <v>0.17</v>
@@ -27708,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="BD119" t="n">
-        <v>0.3648676260252781</v>
+        <v>0.3723766068050584</v>
       </c>
       <c r="BE119" t="n">
         <v>0</v>
@@ -27723,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="BI119" t="n">
-        <v>0.91</v>
+        <v>1.233</v>
       </c>
       <c r="BJ119" t="inlineStr"/>
       <c r="BK119" t="n">
@@ -27738,55 +28006,55 @@
       <c r="BP119" t="inlineStr"/>
       <c r="BQ119" t="inlineStr"/>
       <c r="BR119" t="n">
-        <v>1.095</v>
+        <v>1.324</v>
       </c>
       <c r="BS119" t="n">
-        <v>0.857</v>
+        <v>2.286</v>
       </c>
       <c r="BT119" t="n">
-        <v>1.375</v>
+        <v>2.25</v>
       </c>
       <c r="BU119" t="n">
-        <v>0.339</v>
+        <v>2.322</v>
       </c>
       <c r="BV119" t="n">
-        <v>47.401</v>
+        <v>60.188</v>
       </c>
       <c r="BW119" t="n">
-        <v>37.118</v>
+        <v>103.906</v>
       </c>
       <c r="BX119" t="n">
-        <v>4.102</v>
+        <v>102.861</v>
       </c>
       <c r="BY119" t="n">
-        <v>70.134</v>
+        <v>104.951</v>
       </c>
       <c r="BZ119" t="n">
-        <v>7.647</v>
+        <v>7.899</v>
       </c>
       <c r="CA119" t="n">
-        <v>5.988</v>
+        <v>13.637</v>
       </c>
       <c r="CB119" t="n">
-        <v>2.417</v>
+        <v>13.01</v>
       </c>
       <c r="CC119" t="n">
-        <v>9.558999999999999</v>
+        <v>14.264</v>
       </c>
       <c r="CD119" t="n">
-        <v>6.391</v>
+        <v>7.12</v>
       </c>
       <c r="CE119" t="n">
-        <v>5.005</v>
+        <v>12.292</v>
       </c>
       <c r="CF119" t="n">
-        <v>2.294</v>
+        <v>11.933</v>
       </c>
       <c r="CG119" t="n">
-        <v>7.716</v>
+        <v>12.651</v>
       </c>
       <c r="CH119" t="n">
-        <v>0.868</v>
+        <v>1.468</v>
       </c>
       <c r="CI119" t="inlineStr">
         <is>
@@ -27836,13 +28104,13 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5345306820611504</v>
+        <v>0.1266073435297823</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6414368184733804</v>
+        <v>0.1519288122357388</v>
       </c>
       <c r="J120" t="n">
-        <v>1.603592046183451</v>
+        <v>0.379822030589347</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -27850,23 +28118,39 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
-        <v>2.138122728244602</v>
+        <v>0.5064293741191294</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.069061364122301</v>
+        <v>0.2532146870595647</v>
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
+      <c r="V120" t="n">
+        <v>0.9115728734144328</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.671216934593127</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0.3038576244714776</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0.4557864367072164</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.139466091768041</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1.519288122357388</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0.379822030589347</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.519288122357388</v>
+      </c>
       <c r="AD120" t="inlineStr"/>
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr"/>
@@ -27880,49 +28164,49 @@
       <c r="AN120" t="inlineStr"/>
       <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="n">
-        <v>0.5345306820611504</v>
+        <v>0.1266073435297823</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2.245028864656831</v>
+        <v>0.5317508428250859</v>
       </c>
       <c r="AR120" t="n">
         <v>0.238</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.138122728244602</v>
+        <v>0.5064293741191294</v>
       </c>
       <c r="AT120" t="n">
-        <v>3.207184092366902</v>
+        <v>0.7596440611786941</v>
       </c>
       <c r="AU120" t="n">
-        <v>0</v>
+        <v>2.051038965182474</v>
       </c>
       <c r="AV120" t="n">
-        <v>0</v>
+        <v>3.190505056950515</v>
       </c>
       <c r="AW120" t="n">
-        <v>0</v>
+        <v>0.3418398275304123</v>
       </c>
       <c r="AX120" t="n">
-        <v>0</v>
+        <v>1.975074559064605</v>
       </c>
       <c r="AY120" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AZ120" t="n">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="BA120" t="n">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="BB120" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="BC120" t="n">
         <v>0</v>
       </c>
       <c r="BD120" t="n">
-        <v>0</v>
+        <v>0.3418398275304123</v>
       </c>
       <c r="BE120" t="n">
         <v>0</v>
@@ -27937,7 +28221,7 @@
         <v>0</v>
       </c>
       <c r="BI120" t="n">
-        <v>0</v>
+        <v>1.378</v>
       </c>
       <c r="BJ120" t="inlineStr"/>
       <c r="BK120" t="n">
@@ -27952,55 +28236,55 @@
       <c r="BP120" t="inlineStr"/>
       <c r="BQ120" t="inlineStr"/>
       <c r="BR120" t="n">
-        <v>0</v>
+        <v>1.367</v>
       </c>
       <c r="BS120" t="n">
-        <v>0</v>
+        <v>2.571</v>
       </c>
       <c r="BT120" t="n">
-        <v>1</v>
+        <v>2.445</v>
       </c>
       <c r="BU120" t="n">
-        <v>-1</v>
+        <v>2.697</v>
       </c>
       <c r="BV120" t="n">
-        <v>0</v>
+        <v>55.39</v>
       </c>
       <c r="BW120" t="n">
-        <v>0</v>
+        <v>104.165</v>
       </c>
       <c r="BX120" t="n">
-        <v>1</v>
+        <v>103.069</v>
       </c>
       <c r="BY120" t="n">
-        <v>-1</v>
+        <v>105.261</v>
       </c>
       <c r="BZ120" t="n">
-        <v>0</v>
+        <v>6.745</v>
       </c>
       <c r="CA120" t="n">
-        <v>0</v>
+        <v>12.685</v>
       </c>
       <c r="CB120" t="n">
-        <v>1</v>
+        <v>12.372</v>
       </c>
       <c r="CC120" t="n">
-        <v>-1</v>
+        <v>12.998</v>
       </c>
       <c r="CD120" t="n">
-        <v>0</v>
+        <v>6.281</v>
       </c>
       <c r="CE120" t="n">
-        <v>0</v>
+        <v>11.812</v>
       </c>
       <c r="CF120" t="n">
-        <v>1</v>
+        <v>11.589</v>
       </c>
       <c r="CG120" t="n">
-        <v>-1</v>
+        <v>12.035</v>
       </c>
       <c r="CH120" t="n">
-        <v>0</v>
+        <v>1.426</v>
       </c>
       <c r="CI120" t="inlineStr">
         <is>
@@ -28050,13 +28334,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.14850323588551</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.14850323588551</v>
       </c>
       <c r="J121" t="n">
-        <v>1.082251082251082</v>
+        <v>0.4455097076565299</v>
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
@@ -28064,31 +28348,39 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.2970064717710199</v>
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="W121" t="n">
-        <v>3.607503607503608</v>
+        <v>1.4850323588551</v>
       </c>
       <c r="X121" t="n">
-        <v>0.7215007215007215</v>
+        <v>0.2970064717710199</v>
       </c>
       <c r="Y121" t="n">
         <v>0</v>
       </c>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
-      <c r="AC121" t="inlineStr"/>
+      <c r="Z121" t="n">
+        <v>1.33652912296959</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1.782038830626119</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0.4455097076565299</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.782038830626119</v>
+      </c>
       <c r="AD121" t="inlineStr"/>
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr"/>
@@ -28102,49 +28394,49 @@
       <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.14850323588551</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="AR121" t="n">
         <v>0.25</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.443001443001443</v>
+        <v>0.5940129435420398</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.164502164502164</v>
+        <v>0.8910194153130597</v>
       </c>
       <c r="AU121" t="n">
-        <v>1.443001443001443</v>
+        <v>1.93054206651163</v>
       </c>
       <c r="AV121" t="n">
-        <v>3.607503607503608</v>
+        <v>3.267071189481219</v>
       </c>
       <c r="AW121" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3712580897137749</v>
       </c>
       <c r="AX121" t="n">
-        <v>0</v>
+        <v>1.782038830626119</v>
       </c>
       <c r="AY121" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AZ121" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BA121" t="n">
-        <v>5.21</v>
+        <v>6.31</v>
       </c>
       <c r="BB121" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="BC121" t="n">
         <v>0</v>
       </c>
       <c r="BD121" t="n">
-        <v>0.3607503607503608</v>
+        <v>0.3712580897137749</v>
       </c>
       <c r="BE121" t="n">
         <v>0</v>
@@ -28159,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="BI121" t="n">
-        <v>0.945</v>
+        <v>1.294</v>
       </c>
       <c r="BJ121" t="inlineStr"/>
       <c r="BK121" t="n">
@@ -28174,55 +28466,55 @@
       <c r="BP121" t="inlineStr"/>
       <c r="BQ121" t="inlineStr"/>
       <c r="BR121" t="n">
-        <v>1.082</v>
+        <v>1.337</v>
       </c>
       <c r="BS121" t="n">
-        <v>0.75</v>
+        <v>2.251</v>
       </c>
       <c r="BT121" t="n">
-        <v>1.316</v>
+        <v>2.213</v>
       </c>
       <c r="BU121" t="n">
-        <v>0.184</v>
+        <v>2.289</v>
       </c>
       <c r="BV121" t="n">
-        <v>34.387</v>
+        <v>55.813</v>
       </c>
       <c r="BW121" t="n">
-        <v>23.83</v>
+        <v>93.959</v>
       </c>
       <c r="BX121" t="n">
-        <v>3.125</v>
+        <v>93.956</v>
       </c>
       <c r="BY121" t="n">
-        <v>44.535</v>
+        <v>93.962</v>
       </c>
       <c r="BZ121" t="n">
-        <v>5.394</v>
+        <v>6.991</v>
       </c>
       <c r="CA121" t="n">
-        <v>3.738</v>
+        <v>11.769</v>
       </c>
       <c r="CB121" t="n">
-        <v>1.966</v>
+        <v>11.639</v>
       </c>
       <c r="CC121" t="n">
-        <v>5.51</v>
+        <v>11.899</v>
       </c>
       <c r="CD121" t="n">
-        <v>4.872</v>
+        <v>6.55</v>
       </c>
       <c r="CE121" t="n">
-        <v>3.376</v>
+        <v>11.027</v>
       </c>
       <c r="CF121" t="n">
-        <v>1.917</v>
+        <v>10.942</v>
       </c>
       <c r="CG121" t="n">
-        <v>4.835</v>
+        <v>11.112</v>
       </c>
       <c r="CH121" t="n">
-        <v>-0.323</v>
+        <v>1.375</v>
       </c>
       <c r="CI121" t="inlineStr">
         <is>
@@ -28272,13 +28564,13 @@
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3493913602504438</v>
+        <v>0.1465420473096345</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3843304962754882</v>
+        <v>0.161196252040598</v>
       </c>
       <c r="J122" t="n">
-        <v>1.048174080751331</v>
+        <v>0.4396261419289036</v>
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -28286,31 +28578,39 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>1.397565441001775</v>
+        <v>0.5861681892385382</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.6987827205008875</v>
+        <v>0.2930840946192691</v>
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="n">
-        <v>1.537321985101953</v>
+        <v>0.644785008162392</v>
       </c>
       <c r="W122" t="n">
-        <v>3.843304962754881</v>
+        <v>1.61196252040598</v>
       </c>
       <c r="X122" t="n">
-        <v>0.7686609925509763</v>
+        <v>0.322392504081196</v>
       </c>
       <c r="Y122" t="n">
         <v>0</v>
       </c>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
-      <c r="AC122" t="inlineStr"/>
+      <c r="Z122" t="n">
+        <v>1.318878425786711</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1.758504567715615</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0.4396261419289036</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.758504567715615</v>
+      </c>
       <c r="AD122" t="inlineStr"/>
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr"/>
@@ -28324,49 +28624,49 @@
       <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="n">
-        <v>0.3493913602504438</v>
+        <v>0.1465420473096345</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.432504577026819</v>
+        <v>0.6008223939695017</v>
       </c>
       <c r="AR122" t="n">
         <v>0.244</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.397565441001775</v>
+        <v>0.5861681892385382</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.096348161502663</v>
+        <v>0.8792522838578073</v>
       </c>
       <c r="AU122" t="n">
-        <v>1.537321985101953</v>
+        <v>1.963663433949103</v>
       </c>
       <c r="AV122" t="n">
-        <v>3.843304962754881</v>
+        <v>3.370467088121595</v>
       </c>
       <c r="AW122" t="n">
-        <v>0.3843304962754882</v>
+        <v>0.3810093230050499</v>
       </c>
       <c r="AX122" t="n">
-        <v>0</v>
+        <v>1.758504567715615</v>
       </c>
       <c r="AY122" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AZ122" t="n">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="BA122" t="n">
-        <v>5.91</v>
+        <v>6.62</v>
       </c>
       <c r="BB122" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="BC122" t="n">
         <v>0</v>
       </c>
       <c r="BD122" t="n">
-        <v>0.3843304962754882</v>
+        <v>0.3810093230050499</v>
       </c>
       <c r="BE122" t="n">
         <v>0</v>
@@ -28381,7 +28681,7 @@
         <v>0</v>
       </c>
       <c r="BI122" t="n">
-        <v>0.945</v>
+        <v>1.285</v>
       </c>
       <c r="BJ122" t="inlineStr"/>
       <c r="BK122" t="n">
@@ -28396,55 +28696,55 @@
       <c r="BP122" t="inlineStr"/>
       <c r="BQ122" t="inlineStr"/>
       <c r="BR122" t="n">
-        <v>1.153</v>
+        <v>1.363</v>
       </c>
       <c r="BS122" t="n">
-        <v>0.805</v>
+        <v>2.269</v>
       </c>
       <c r="BT122" t="n">
-        <v>1.345</v>
+        <v>2.231</v>
       </c>
       <c r="BU122" t="n">
-        <v>0.265</v>
+        <v>2.307</v>
       </c>
       <c r="BV122" t="n">
-        <v>36.635</v>
+        <v>56.473</v>
       </c>
       <c r="BW122" t="n">
-        <v>25.574</v>
+        <v>93.99299999999999</v>
       </c>
       <c r="BX122" t="n">
-        <v>3.423</v>
+        <v>93.992</v>
       </c>
       <c r="BY122" t="n">
-        <v>47.725</v>
+        <v>93.994</v>
       </c>
       <c r="BZ122" t="n">
-        <v>5.746</v>
+        <v>7.117</v>
       </c>
       <c r="CA122" t="n">
-        <v>4.011</v>
+        <v>11.845</v>
       </c>
       <c r="CB122" t="n">
-        <v>2.076</v>
+        <v>11.717</v>
       </c>
       <c r="CC122" t="n">
-        <v>5.946</v>
+        <v>11.973</v>
       </c>
       <c r="CD122" t="n">
-        <v>5.19</v>
+        <v>6.661</v>
       </c>
       <c r="CE122" t="n">
-        <v>3.623</v>
+        <v>11.086</v>
       </c>
       <c r="CF122" t="n">
-        <v>2.019</v>
+        <v>11.003</v>
       </c>
       <c r="CG122" t="n">
-        <v>5.227</v>
+        <v>11.169</v>
       </c>
       <c r="CH122" t="n">
-        <v>-0.289</v>
+        <v>1.364</v>
       </c>
       <c r="CI122" t="inlineStr">
         <is>
@@ -28642,7 +28942,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,3-Dioxolane (DOL) (C3H6O2)</t>
+          <t xml:space="preserve"> 1,3-Dioxolane (DOL) (C3H6O2) </t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -28712,7 +29012,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,4-Dioxane (1,4-DX) (C4H8O2)</t>
+          <t xml:space="preserve"> 1,4-Dioxane (1,4-DX) (C4H8O2) </t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -28782,7 +29082,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,2-dfBen (C6H4F2)</t>
+          <t xml:space="preserve"> 1,2-dfBen (C6H4F2) </t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -28852,7 +29152,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12-crown-4 (C8H16O4)</t>
+          <t xml:space="preserve"> 12-crown-4 (C8H16O4) </t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -28922,7 +29222,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18-crown-6 (C12H24O6)</t>
+          <t xml:space="preserve"> 18-crown-6 (C12H24O6) </t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -28992,7 +29292,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AN (CH3CN)</t>
+          <t xml:space="preserve"> AN (CH3CN) </t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -29062,7 +29362,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Benzene (C6H6)</t>
+          <t xml:space="preserve"> Benzene (C6H6) </t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -29130,7 +29430,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TFEC (BTFEC) (C5H4F6O3)</t>
+          <t xml:space="preserve"> TFEC (BTFEC) (C5H4F6O3) </t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -29202,7 +29502,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Butylronitrile (C4H7N)</t>
+          <t xml:space="preserve"> Butylronitrile (C4H7N) </t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -29272,7 +29572,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTE (C8H22O2Si2)</t>
+          <t xml:space="preserve"> BTE (C8H22O2Si2) </t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -29344,7 +29644,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTP (C9H24O2Si2)</t>
+          <t xml:space="preserve"> BTP (C9H24O2Si2) </t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -29416,7 +29716,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> c-FTOF (C6H9F3O3)</t>
+          <t xml:space="preserve"> c-FTOF (C6H9F3O3) </t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -29488,7 +29788,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DBE (C8H18O)</t>
+          <t xml:space="preserve"> DBE (C8H18O) </t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -29558,7 +29858,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCE (C2H4Cl2)</t>
+          <t xml:space="preserve"> DCE (C2H4Cl2) </t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -29628,7 +29928,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCME (CH2Cl2)</t>
+          <t xml:space="preserve"> DCME (CH2Cl2) </t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -29698,7 +29998,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCPE (C3H6Cl2)</t>
+          <t xml:space="preserve"> DCPE (C3H6Cl2) </t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -29769,7 +30069,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEC (C5H10O3)</t>
+          <t xml:space="preserve"> DEC (C5H10O3) </t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -29839,7 +30139,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEE (C6H14O2)</t>
+          <t xml:space="preserve"> DEE (C6H14O2) </t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -29909,7 +30209,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEGDME/Diglyme (C6H14O3)</t>
+          <t xml:space="preserve"> DEGDME/Diglyme (C6H14O3) </t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -29979,7 +30279,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEM (C5H12O2)</t>
+          <t xml:space="preserve"> DEM (C5H12O2) </t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -30049,7 +30349,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DiethylEther (C4H10O1)</t>
+          <t xml:space="preserve"> DiethylEther (C4H10O1) </t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -30119,7 +30419,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DFEC (C3H2F2O3)</t>
+          <t xml:space="preserve"> DFEC (C3H2F2O3) </t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -30191,7 +30491,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMB (C6H14O2)</t>
+          <t xml:space="preserve"> DMB (C6H14O2) </t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -30261,7 +30561,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMC (C3H6O3)</t>
+          <t xml:space="preserve"> DMC (C3H6O3) </t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -30331,7 +30631,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DME (C4H10O2)</t>
+          <t xml:space="preserve"> DME (C4H10O2) </t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -30402,7 +30702,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve"> DMES
-(CH3)2Si(OC2H5)2)</t>
+(CH3)2Si(OC2H5)2) </t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -30474,7 +30774,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMMS Si(OCH3)2(CH3)2</t>
+          <t xml:space="preserve"> DMMS Si(OCH3)2(CH3)2 </t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -30546,7 +30846,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMDC (C4H6O5)</t>
+          <t xml:space="preserve"> DMDC (C4H6O5) </t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -30616,7 +30916,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMDOHD (C6H10O6)</t>
+          <t xml:space="preserve"> DMDOHD (C6H10O6) </t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -30686,7 +30986,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMM (C3H8O2)</t>
+          <t xml:space="preserve"> DMM (C3H8O2) </t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -30756,7 +31056,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMeTHF (C6H12O)</t>
+          <t xml:space="preserve"> DMeTHF (C6H12O) </t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -30826,7 +31126,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMP (C5H12O2)</t>
+          <t xml:space="preserve"> DMP (C5H12O2) </t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -30896,7 +31196,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMSO (C2H6OS)</t>
+          <t xml:space="preserve"> DMSO (C2H6OS) </t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -30968,7 +31268,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMTMSA (C3H6F3NO2S)</t>
+          <t xml:space="preserve"> DMTMSA (C3H6F3NO2S) </t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -31044,7 +31344,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DPE (C6H14O)</t>
+          <t xml:space="preserve"> DPE (C6H14O) </t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -31114,7 +31414,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DTDL (C6H9F3O4)</t>
+          <t xml:space="preserve"> DTDL (C6H9F3O4) </t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -31186,7 +31486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EA (C4H8O2)</t>
+          <t xml:space="preserve"> EA (C4H8O2) </t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -31256,7 +31556,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EC (C3H4O3)</t>
+          <t xml:space="preserve"> EC (C3H4O3) </t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -31326,7 +31626,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EGBE (C10H22O2)</t>
+          <t xml:space="preserve"> EGBE (C10H22O2) </t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -31396,7 +31696,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EGD (C6H10O4)</t>
+          <t xml:space="preserve"> EGD (C6H10O4) </t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -31466,7 +31766,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EMC (C4H8O3)</t>
+          <t xml:space="preserve"> EMC (C4H8O3) </t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -31536,7 +31836,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ES (C2H4SO3)</t>
+          <t xml:space="preserve"> ES (C2H4SO3) </t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -31608,7 +31908,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETFEC (C5H7F3O3)</t>
+          <t xml:space="preserve"> ETFEC (C5H7F3O3) </t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -31680,7 +31980,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F3DEE</t>
+          <t xml:space="preserve"> F3DEE </t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -31752,7 +32052,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F4DEE</t>
+          <t xml:space="preserve"> F4DEE </t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -31824,7 +32124,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F5DEE</t>
+          <t xml:space="preserve"> F5DEE </t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -31896,7 +32196,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F6DEE</t>
+          <t xml:space="preserve"> F6DEE </t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -31968,7 +32268,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FB (C6H5F)</t>
+          <t xml:space="preserve"> FB (C6H5F) </t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -32038,7 +32338,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12-FB (C6H5F)</t>
+          <t xml:space="preserve"> 12-FB (C6H5F) </t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -32108,7 +32408,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13-FB (C6H5F)</t>
+          <t xml:space="preserve"> 13-FB (C6H5F) </t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -32178,7 +32478,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14-FB (C6H5F)</t>
+          <t xml:space="preserve"> 14-FB (C6H5F) </t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -32248,7 +32548,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 123-FB (C6H3F3)</t>
+          <t xml:space="preserve"> 123-FB (C6H3F3) </t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -32318,7 +32618,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 124-FB (C6H3F3)</t>
+          <t xml:space="preserve"> 124-FB (C6H3F3) </t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -32388,7 +32688,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FCH (C6H11F)</t>
+          <t xml:space="preserve"> FCH (C6H11F) </t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -32458,7 +32758,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FDMA (C4H6F3NO)</t>
+          <t xml:space="preserve"> FDMA (C4H6F3NO) </t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -32532,7 +32832,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FDMB (C6H10F4O2)</t>
+          <t xml:space="preserve"> FDMB (C6H10F4O2) </t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -32604,7 +32904,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FDMH</t>
+          <t xml:space="preserve"> FDMH </t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -32674,7 +32974,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FEC (C3H3FO3)</t>
+          <t xml:space="preserve"> FEC (C3H3FO3) </t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -32746,7 +33046,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FEMC  (C4H5F3O3)</t>
+          <t xml:space="preserve"> FEMC  (C4H5F3O3) </t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -32818,7 +33118,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1-FPE (C5H11F)</t>
+          <t xml:space="preserve"> 1-FPE (C5H11F) </t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -32888,7 +33188,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FSA</t>
+          <t xml:space="preserve"> FSA </t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -32964,7 +33264,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GBL (C4H6O2)</t>
+          <t xml:space="preserve"> GBL (C4H6O2) </t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -33034,7 +33334,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> n-hexane (C6H14)</t>
+          <t xml:space="preserve"> n-hexane (C6H14) </t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -33102,7 +33402,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFCP (C5H3F7)</t>
+          <t xml:space="preserve"> HFCP (C5H3F7) </t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -33172,7 +33472,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MeTHF (C5H10O)</t>
+          <t xml:space="preserve"> MeTHF (C5H10O) </t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -33242,7 +33542,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDOL (C5H10O2)</t>
+          <t xml:space="preserve"> MDOL (C5H10O2) </t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -33312,7 +33612,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MP (C4H8O2)</t>
+          <t xml:space="preserve"> MP (C4H8O2) </t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -33383,7 +33683,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve"> MTES (
-CH3Si(OC2H5)3)</t>
+CH3Si(OC2H5)3) </t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -33456,7 +33756,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MTFP (C4H5F3O2)</t>
+          <t xml:space="preserve"> MTFP (C4H5F3O2) </t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -33528,7 +33828,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PC (C4H6O3)</t>
+          <t xml:space="preserve"> PC (C4H6O3) </t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -33598,7 +33898,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Propionitrile (C3H5N)</t>
+          <t xml:space="preserve"> Propionitrile (C3H5N) </t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -33668,7 +33968,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PFB (C4H5F5)</t>
+          <t xml:space="preserve"> PFB (C4H5F5) </t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -33738,7 +34038,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sebaconitrile (C10H16N2)</t>
+          <t xml:space="preserve"> Sebaconitrile (C10H16N2) </t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -33808,7 +34108,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SL (TMS) (C4H8O2S)</t>
+          <t xml:space="preserve"> SL (TMS) (C4H8O2S) </t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -33880,7 +34180,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TBA (C12H27N)</t>
+          <t xml:space="preserve"> TBA (C12H27N) </t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -33950,7 +34250,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TCEE (C2H2Cl4)</t>
+          <t xml:space="preserve"> TCEE (C2H2Cl4) </t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -34021,7 +34321,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEGDME/Tetraglym (C10H22O5)</t>
+          <t xml:space="preserve"> TEGDME/Tetraglym (C10H22O5) </t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -34091,7 +34391,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEP (C6H15O4P)</t>
+          <t xml:space="preserve"> TEP (C6H15O4P) </t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -34163,7 +34463,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TFDOL (C4H5O2F3)</t>
+          <t xml:space="preserve"> TFDOL (C4H5O2F3) </t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -34235,7 +34535,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> THF (C4H8O)</t>
+          <t xml:space="preserve"> THF (C4H8O) </t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -34305,7 +34605,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> THP (C5H10O)</t>
+          <t xml:space="preserve"> THP (C5H10O) </t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -34375,7 +34675,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TMSB (C9H27BO3Si3)</t>
+          <t xml:space="preserve"> TMSB (C9H27BO3Si3) </t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -34449,7 +34749,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOF (CH(OC2H5)3)</t>
+          <t xml:space="preserve"> TOF (CH(OC2H5)3) </t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -34519,7 +34819,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Triglyme/G3 (C8H18O4)</t>
+          <t xml:space="preserve"> Triglyme/G3 (C8H18O4) </t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -34589,7 +34889,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trimethylacetonitrile (C5H9N)</t>
+          <t xml:space="preserve"> Trimethylacetonitrile (C5H9N) </t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -34659,7 +34959,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Toluene (C7H8)</t>
+          <t xml:space="preserve"> Toluene (C7H8) </t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -34727,7 +35027,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TFEB (TTFEB) (B(OCH2CF3)3)</t>
+          <t xml:space="preserve"> TFEB (TTFEB) (B(OCH2CF3)3) </t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -34801,7 +35101,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valeronitrile (C5H9N)</t>
+          <t xml:space="preserve"> Valeronitrile (C5H9N) </t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -34871,7 +35171,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VC (C3H2O3)</t>
+          <t xml:space="preserve"> VC (C3H2O3) </t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -34941,7 +35241,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VEC (C5H6O3)</t>
+          <t xml:space="preserve"> VEC (C5H6O3) </t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -35011,7 +35311,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mFEP (C5H9FO2)</t>
+          <t xml:space="preserve"> mFEP (C5H9FO2) </t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -35083,7 +35383,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tFEP (C5H7F3O2)</t>
+          <t xml:space="preserve"> tFEP (C5H7F3O2) </t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -35155,7 +35455,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> pFEP (C5H5F5O2)</t>
+          <t xml:space="preserve"> pFEP (C5H5F5O2) </t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -35229,7 +35529,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve"> TEOS (
-Si(OC2H5)4)</t>
+Si(OC2H5)4) </t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -35301,7 +35601,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTFD (BTFMD) (C5H4F6O2)</t>
+          <t xml:space="preserve"> BTFD (BTFMD) (C5H4F6O2) </t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -35373,7 +35673,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTFM (C5H6F6O2)</t>
+          <t xml:space="preserve"> BTFM (C5H6F6O2) </t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -35445,7 +35745,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFE (D2, TFETFE. TTEE) (C4H3F7O1)</t>
+          <t xml:space="preserve"> HFE (D2, TFETFE. TTEE) (C4H3F7O1) </t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -35517,7 +35817,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFME (C4H4F6O)</t>
+          <t xml:space="preserve"> HFME (C4H4F6O) </t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -35589,7 +35889,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HM (C4H3F7O)</t>
+          <t xml:space="preserve"> HM (C4H3F7O) </t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -35661,7 +35961,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TTE (C5H4F8O)</t>
+          <t xml:space="preserve"> TTE (C5H4F8O) </t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -35733,7 +36033,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OTE (C7H4F12O1)</t>
+          <t xml:space="preserve"> OTE (C7H4F12O1) </t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -35805,7 +36105,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFP (C4H3F7O1)</t>
+          <t xml:space="preserve"> HFP (C4H3F7O1) </t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -35877,7 +36177,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETE (C4H6F4)</t>
+          <t xml:space="preserve"> ETE (C4H6F4) </t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -35949,7 +36249,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FMCH (C7H11F3)</t>
+          <t xml:space="preserve"> FMCH (C7H11F3) </t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -36019,7 +36319,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTFE (CF3CH2)2O</t>
+          <t xml:space="preserve"> BTFE (CF3CH2)2O </t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -36091,7 +36391,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTFEE (C6H6F8O2)</t>
+          <t xml:space="preserve"> BTFEE (C6H6F8O2) </t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -36163,7 +36463,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TFEO (C7H7F9O3)</t>
+          <t xml:space="preserve"> TFEO (C7H7F9O3) </t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -36235,7 +36535,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiBF4</t>
+          <t xml:space="preserve"> LiBF4 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -36283,7 +36583,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiBOB (LiB(C2O4)2)</t>
+          <t xml:space="preserve"> LiBOB (LiB(C2O4)2) </t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -36333,7 +36633,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiCF3SO3</t>
+          <t xml:space="preserve"> LiCF3SO3 </t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -36385,7 +36685,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiClO4</t>
+          <t xml:space="preserve"> LiClO4 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -36433,7 +36733,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiDFOB (LiBF2(C2O4))</t>
+          <t xml:space="preserve"> LiDFOB (LiBF2(C2O4)) </t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -36485,7 +36785,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiDFP (LiPO2F2)</t>
+          <t xml:space="preserve"> LiDFP (LiPO2F2) </t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -36535,7 +36835,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFNFSI (C4F10LiNO4S2)</t>
+          <t xml:space="preserve"> LiFNFSI (C4F10LiNO4S2) </t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -36589,7 +36889,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFSI (F2LiNO4S2)</t>
+          <t xml:space="preserve"> LiFSI (F2LiNO4S2) </t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -36641,7 +36941,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiPF6</t>
+          <t xml:space="preserve"> LiPF6 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -36689,7 +36989,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiTFSI (LiC2NO4F6S2)</t>
+          <t xml:space="preserve"> LiTFSI (LiC2NO4F6S2) </t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -36743,7 +37043,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiNFSI (C8F18LiNO4S2)</t>
+          <t xml:space="preserve"> LiNFSI (C8F18LiNO4S2) </t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -36797,7 +37097,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CsPF6</t>
+          <t xml:space="preserve"> CsPF6 </t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -36845,7 +37145,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiAsF6</t>
+          <t xml:space="preserve"> LiAsF6 </t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -36893,7 +37193,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiNO3</t>
+          <t xml:space="preserve"> LiNO3 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -36941,7 +37241,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mg(TFSI)2 (C4F12MgN2O8S4)</t>
+          <t xml:space="preserve"> Mg(TFSI)2 (C4F12MgN2O8S4) </t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -36995,7 +37295,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RbNO3</t>
+          <t xml:space="preserve"> RbNO3 </t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -37043,7 +37343,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RbPF6</t>
+          <t xml:space="preserve"> RbPF6 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -37091,7 +37391,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LPBS</t>
+          <t xml:space="preserve"> LPBS </t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -37143,7 +37443,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KPBS</t>
+          <t xml:space="preserve"> KPBS </t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -37195,7 +37495,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MTEE</t>
+          <t xml:space="preserve"> MTEE </t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -37267,7 +37567,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MTPE</t>
+          <t xml:space="preserve"> MTPE </t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -37339,7 +37639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HMP</t>
+          <t xml:space="preserve"> HMP </t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -37411,7 +37711,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETEE</t>
+          <t xml:space="preserve"> ETEE </t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -37483,7 +37783,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MPPE</t>
+          <t xml:space="preserve"> MPPE </t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -37555,7 +37855,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TETEE</t>
+          <t xml:space="preserve"> TETEE </t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -37627,7 +37927,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HFMP</t>
+          <t xml:space="preserve"> HFMP </t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -37699,7 +37999,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEEME</t>
+          <t xml:space="preserve"> TEEME </t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -37771,7 +38071,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MP</t>
+          <t xml:space="preserve"> MP </t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -37841,7 +38141,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETEE</t>
+          <t xml:space="preserve"> ETEE </t>
         </is>
       </c>
       <c r="D137" t="n">
